--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="330">
   <si>
     <t>sheet名</t>
   </si>
@@ -1052,6 +1052,10 @@
   </si>
   <si>
     <t>常驻内存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级强化石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1564,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1576,8 +1580,8 @@
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="79.625" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1600,10 +1604,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6830,8 +6834,8 @@
       <c r="B96" s="3">
         <v>1609001</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>229</v>
+      <c r="C96" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>229</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="331">
   <si>
     <t>sheet名</t>
   </si>
@@ -1056,6 +1056,10 @@
   </si>
   <si>
     <t>低级强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级神器1配件2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1692,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3972,8 +3976,8 @@
       <c r="B43" s="3">
         <v>1606004</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>123</v>
+      <c r="C43" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>123</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="道具" sheetId="26" r:id="rId2"/>
     <sheet name="收集分解" sheetId="27" r:id="rId3"/>
+    <sheet name="次数道具" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="489">
   <si>
     <t>sheet名</t>
   </si>
@@ -1567,6 +1568,74 @@
       </rPr>
       <t>.lua</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人Boss挑战券id</t>
+  </si>
+  <si>
+    <t>单人Boss挑战券每日奖励数量</t>
+  </si>
+  <si>
+    <t>挑战券最大拥有数量</t>
+  </si>
+  <si>
+    <t>ItemId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EveryDayAward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EveryDayAwardTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:a&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天重置时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:00:00</t>
+  </si>
+  <si>
+    <t>BuyTimes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyCost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买消耗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日购买次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫罗兰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2085,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2147,9 +2216,7 @@
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -2227,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T149"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6886,8 +6953,8 @@
       <c r="A90" s="3">
         <v>1608006</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>304</v>
+      <c r="B90" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>304</v>
@@ -11650,4 +11717,117 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1604002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\镇魂街\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="612">
   <si>
     <t>sheet名</t>
   </si>
@@ -374,198 +374,132 @@
     <t>ui_dtex_Item_1602001</t>
   </si>
   <si>
-    <t>寄灵人材料初级</t>
-  </si>
-  <si>
     <t>淬灵丹</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603001</t>
   </si>
   <si>
-    <t>寄灵人材料中级</t>
-  </si>
-  <si>
     <t>养魂丹</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603002</t>
   </si>
   <si>
-    <t>寄灵人材料高级</t>
-  </si>
-  <si>
     <t>罗天丹</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603003</t>
   </si>
   <si>
-    <t>守护灵材料初级</t>
-  </si>
-  <si>
     <t>转世之魂</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603004</t>
   </si>
   <si>
-    <t>守护灵材料中级</t>
-  </si>
-  <si>
     <t>英灵之血</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603005</t>
   </si>
   <si>
-    <t>守护灵材料高级</t>
-  </si>
-  <si>
     <t>金戈之刃</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603006</t>
   </si>
   <si>
-    <t>冰中级</t>
-  </si>
-  <si>
     <t>冰心珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603007</t>
   </si>
   <si>
-    <t>冰高级</t>
-  </si>
-  <si>
     <t>凌霜珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603008</t>
   </si>
   <si>
-    <t>火中级</t>
-  </si>
-  <si>
     <t>烈火珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603009</t>
   </si>
   <si>
-    <t>火高级</t>
-  </si>
-  <si>
     <t>炽焰珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603010</t>
   </si>
   <si>
-    <t>雷中级</t>
-  </si>
-  <si>
     <t>雷光珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603011</t>
   </si>
   <si>
-    <t>雷高级</t>
-  </si>
-  <si>
     <t>掣电珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603012</t>
   </si>
   <si>
-    <t>风中级</t>
-  </si>
-  <si>
     <t>疾风珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603013</t>
   </si>
   <si>
-    <t>风高级</t>
-  </si>
-  <si>
     <t>飞天珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603014</t>
   </si>
   <si>
-    <t>土中级</t>
-  </si>
-  <si>
     <t>崩土珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603015</t>
   </si>
   <si>
-    <t>土高级</t>
-  </si>
-  <si>
     <t>地穷珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603016</t>
   </si>
   <si>
-    <t>普通寄灵人材料</t>
-  </si>
-  <si>
     <t>灵界之石</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603017</t>
   </si>
   <si>
-    <t>武神躯材料</t>
-  </si>
-  <si>
     <t>天地灵源</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603018</t>
   </si>
   <si>
-    <t>人武灵材料</t>
-  </si>
-  <si>
     <t>山河铁卷</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603019</t>
   </si>
   <si>
-    <t>神武灵材料</t>
-  </si>
-  <si>
     <t>映世神镜</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603020</t>
   </si>
   <si>
-    <t>仙武灵材料</t>
-  </si>
-  <si>
     <t>金华仙骨</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603021</t>
   </si>
   <si>
-    <t>兽武灵材料</t>
-  </si>
-  <si>
     <t>万兽灵心</t>
   </si>
   <si>
@@ -1136,13 +1070,7 @@
     <t>ui_dtex_Item_1610003</t>
   </si>
   <si>
-    <t>宝箱1</t>
-  </si>
-  <si>
     <t>ui_dtex_Item_1605001</t>
-  </si>
-  <si>
-    <t>宝箱2</t>
   </si>
   <si>
     <t>ui_dtex_Item_1605002</t>
@@ -1884,6 +1812,127 @@
   </si>
   <si>
     <t>守护灵烈风螳螂的碎片，是其合成和升星的必要材料。</t>
+  </si>
+  <si>
+    <t>绿色基础材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级黄</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级蓝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级蓝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定义2</t>
+  </si>
+  <si>
+    <t>未定义3</t>
+  </si>
+  <si>
+    <t>修身材料6</t>
+  </si>
+  <si>
+    <t>火修身材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>风修身材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷修身材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>土修身材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水修身材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定义1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级三才宝箱</t>
+  </si>
+  <si>
+    <t>初级三才宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级三才宝箱</t>
+  </si>
+  <si>
+    <t>中级三才宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级三才宝箱</t>
+  </si>
+  <si>
+    <t>修身宝箱</t>
+  </si>
+  <si>
+    <t>守护灵经验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人经验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色基础材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色基础材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色基础材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级红</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级红</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级黄</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级蓝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级红</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级黄</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级三才宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修身宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2530,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T151"/>
+  <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2792,7 +2841,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2842,7 +2891,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2850,7 +2899,7 @@
         <v>1401003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>599</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>70</v>
@@ -2892,7 +2941,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2900,7 +2949,7 @@
         <v>1401004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>600</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>72</v>
@@ -2942,7 +2991,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -2992,7 +3041,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3042,7 +3091,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3092,7 +3141,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3142,7 +3191,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3192,7 +3241,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3242,7 +3291,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3292,7 +3341,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3342,7 +3391,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3392,7 +3441,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3442,7 +3491,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3492,7 +3541,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3500,13 +3549,13 @@
         <v>1603001</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E19" s="3">
         <v>16</v>
@@ -3544,7 +3593,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3552,13 +3601,13 @@
         <v>1603002</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E20" s="3">
         <v>16</v>
@@ -3596,7 +3645,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3604,13 +3653,13 @@
         <v>1603003</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>109</v>
+        <v>602</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E21" s="3">
         <v>16</v>
@@ -3648,7 +3697,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3656,13 +3705,13 @@
         <v>1603004</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>603</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E22" s="3">
         <v>16</v>
@@ -3700,7 +3749,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3708,13 +3757,13 @@
         <v>1603005</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>115</v>
+        <v>604</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E23" s="3">
         <v>16</v>
@@ -3752,7 +3801,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3760,13 +3809,13 @@
         <v>1603006</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>118</v>
+        <v>581</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E24" s="3">
         <v>16</v>
@@ -3804,7 +3853,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3812,13 +3861,13 @@
         <v>1603007</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>121</v>
+        <v>582</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E25" s="3">
         <v>16</v>
@@ -3856,7 +3905,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3864,13 +3913,13 @@
         <v>1603008</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>124</v>
+        <v>605</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E26" s="3">
         <v>16</v>
@@ -3908,7 +3957,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3916,13 +3965,13 @@
         <v>1603009</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>127</v>
+        <v>606</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E27" s="3">
         <v>16</v>
@@ -3960,7 +4009,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -3968,13 +4017,13 @@
         <v>1603010</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>130</v>
+        <v>607</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E28" s="3">
         <v>16</v>
@@ -4012,7 +4061,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4020,13 +4069,13 @@
         <v>1603011</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>133</v>
+        <v>608</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E29" s="3">
         <v>16</v>
@@ -4064,7 +4113,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4072,13 +4121,13 @@
         <v>1603012</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>136</v>
+        <v>609</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E30" s="3">
         <v>16</v>
@@ -4116,7 +4165,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4124,13 +4173,13 @@
         <v>1603013</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>139</v>
+        <v>583</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E31" s="3">
         <v>16</v>
@@ -4168,7 +4217,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4176,13 +4225,13 @@
         <v>1603014</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>142</v>
+        <v>592</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E32" s="3">
         <v>16</v>
@@ -4220,7 +4269,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4228,13 +4277,13 @@
         <v>1603015</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>145</v>
+        <v>584</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E33" s="3">
         <v>16</v>
@@ -4272,7 +4321,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4280,13 +4329,13 @@
         <v>1603016</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>148</v>
+        <v>585</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E34" s="3">
         <v>16</v>
@@ -4324,7 +4373,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4332,13 +4381,13 @@
         <v>1603017</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>587</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E35" s="3">
         <v>16</v>
@@ -4376,7 +4425,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4384,13 +4433,13 @@
         <v>1603018</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>154</v>
+        <v>588</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E36" s="3">
         <v>16</v>
@@ -4428,7 +4477,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4436,13 +4485,13 @@
         <v>1603019</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>157</v>
+        <v>589</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E37" s="3">
         <v>16</v>
@@ -4480,7 +4529,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4488,13 +4537,13 @@
         <v>1603020</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>160</v>
+        <v>590</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E38" s="3">
         <v>16</v>
@@ -4532,7 +4581,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4540,13 +4589,13 @@
         <v>1603021</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E39" s="3">
         <v>16</v>
@@ -4584,7 +4633,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4592,13 +4641,13 @@
         <v>1603022</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>166</v>
+        <v>586</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E40" s="3">
         <v>16</v>
@@ -4636,7 +4685,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4644,13 +4693,13 @@
         <v>1603023</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E41" s="3">
         <v>16</v>
@@ -4688,7 +4737,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4696,13 +4745,13 @@
         <v>1604001</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E42" s="3">
         <v>16</v>
@@ -4740,7 +4789,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4748,13 +4797,13 @@
         <v>1604002</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E43" s="3">
         <v>16</v>
@@ -4792,7 +4841,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4800,13 +4849,13 @@
         <v>1606001</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E44" s="3">
         <v>16</v>
@@ -4844,7 +4893,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4852,13 +4901,13 @@
         <v>1606002</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E45" s="3">
         <v>16</v>
@@ -4896,7 +4945,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4904,13 +4953,13 @@
         <v>1606003</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E46" s="3">
         <v>16</v>
@@ -4948,7 +4997,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -4956,13 +5005,13 @@
         <v>1606004</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E47" s="3">
         <v>16</v>
@@ -5000,7 +5049,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5008,13 +5057,13 @@
         <v>1606005</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E48" s="3">
         <v>16</v>
@@ -5052,7 +5101,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5060,13 +5109,13 @@
         <v>1606006</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E49" s="3">
         <v>16</v>
@@ -5104,7 +5153,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5112,13 +5161,13 @@
         <v>1606007</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E50" s="3">
         <v>16</v>
@@ -5156,7 +5205,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5164,13 +5213,13 @@
         <v>1606008</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E51" s="3">
         <v>16</v>
@@ -5208,7 +5257,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5216,13 +5265,13 @@
         <v>1606009</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="E52" s="3">
         <v>16</v>
@@ -5260,7 +5309,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5268,13 +5317,13 @@
         <v>1606010</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="E53" s="3">
         <v>16</v>
@@ -5312,7 +5361,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5320,13 +5369,13 @@
         <v>1606011</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="E54" s="3">
         <v>16</v>
@@ -5364,7 +5413,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5372,13 +5421,13 @@
         <v>1606012</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="E55" s="3">
         <v>16</v>
@@ -5416,7 +5465,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5424,13 +5473,13 @@
         <v>1606013</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E56" s="3">
         <v>16</v>
@@ -5468,7 +5517,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5476,13 +5525,13 @@
         <v>1606014</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E57" s="3">
         <v>16</v>
@@ -5520,7 +5569,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5528,13 +5577,13 @@
         <v>1606015</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="E58" s="3">
         <v>16</v>
@@ -5572,7 +5621,7 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5580,13 +5629,13 @@
         <v>1606016</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="E59" s="3">
         <v>16</v>
@@ -5624,7 +5673,7 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5632,13 +5681,13 @@
         <v>1606017</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E60" s="3">
         <v>16</v>
@@ -5676,7 +5725,7 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5684,13 +5733,13 @@
         <v>1606018</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E61" s="3">
         <v>16</v>
@@ -5728,7 +5777,7 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5736,13 +5785,13 @@
         <v>1606019</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="E62" s="3">
         <v>16</v>
@@ -5780,7 +5829,7 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5788,13 +5837,13 @@
         <v>1606020</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E63" s="3">
         <v>16</v>
@@ -5832,7 +5881,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5840,13 +5889,13 @@
         <v>1606021</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="E64" s="3">
         <v>16</v>
@@ -5884,7 +5933,7 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5892,13 +5941,13 @@
         <v>1606022</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="E65" s="3">
         <v>16</v>
@@ -5936,7 +5985,7 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5944,13 +5993,13 @@
         <v>1606023</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="E66" s="3">
         <v>16</v>
@@ -5988,7 +6037,7 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -5996,13 +6045,13 @@
         <v>1606024</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E67" s="3">
         <v>16</v>
@@ -6040,7 +6089,7 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6048,13 +6097,13 @@
         <v>1606025</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E68" s="3">
         <v>16</v>
@@ -6092,7 +6141,7 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6100,13 +6149,13 @@
         <v>1606026</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E69" s="3">
         <v>16</v>
@@ -6144,7 +6193,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6152,13 +6201,13 @@
         <v>1606027</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E70" s="3">
         <v>16</v>
@@ -6196,7 +6245,7 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6204,13 +6253,13 @@
         <v>1606028</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="E71" s="3">
         <v>16</v>
@@ -6248,7 +6297,7 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6256,13 +6305,13 @@
         <v>1606029</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E72" s="3">
         <v>16</v>
@@ -6300,7 +6349,7 @@
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6308,13 +6357,13 @@
         <v>1606030</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E73" s="3">
         <v>16</v>
@@ -6352,7 +6401,7 @@
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
       <c r="T73" s="3" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6360,13 +6409,13 @@
         <v>1606031</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E74" s="3">
         <v>16</v>
@@ -6404,7 +6453,7 @@
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
       <c r="T74" s="3" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6412,13 +6461,13 @@
         <v>1606032</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E75" s="3">
         <v>16</v>
@@ -6456,7 +6505,7 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6464,13 +6513,13 @@
         <v>1607001</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="E76" s="3">
         <v>16</v>
@@ -6508,7 +6557,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
       <c r="T76" s="3" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6516,13 +6565,13 @@
         <v>1607002</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E77" s="3">
         <v>16</v>
@@ -6560,7 +6609,7 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
       <c r="T77" s="3" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6568,13 +6617,13 @@
         <v>1607003</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="E78" s="3">
         <v>16</v>
@@ -6612,7 +6661,7 @@
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
       <c r="T78" s="3" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6620,13 +6669,13 @@
         <v>1607004</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E79" s="3">
         <v>16</v>
@@ -6664,7 +6713,7 @@
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
       <c r="T79" s="3" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6672,13 +6721,13 @@
         <v>1607005</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="E80" s="3">
         <v>16</v>
@@ -6716,7 +6765,7 @@
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
       <c r="T80" s="3" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6724,13 +6773,13 @@
         <v>1607006</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E81" s="3">
         <v>16</v>
@@ -6768,7 +6817,7 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
       <c r="T81" s="3" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6776,13 +6825,13 @@
         <v>1607007</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="E82" s="3">
         <v>16</v>
@@ -6820,7 +6869,7 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6828,13 +6877,13 @@
         <v>1607008</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="E83" s="3">
         <v>16</v>
@@ -6872,7 +6921,7 @@
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
       <c r="T83" s="3" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6880,13 +6929,13 @@
         <v>1607009</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="E84" s="3">
         <v>16</v>
@@ -6924,7 +6973,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
       <c r="T84" s="3" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6932,13 +6981,13 @@
         <v>1608001</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E85" s="3">
         <v>16</v>
@@ -6976,7 +7025,7 @@
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
       <c r="T85" s="3" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -6984,13 +7033,13 @@
         <v>1608002</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E86" s="3">
         <v>16</v>
@@ -7028,7 +7077,7 @@
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
       <c r="T86" s="3" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7036,13 +7085,13 @@
         <v>1608003</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="E87" s="3">
         <v>16</v>
@@ -7080,7 +7129,7 @@
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7088,13 +7137,13 @@
         <v>1608004</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="E88" s="3">
         <v>16</v>
@@ -7132,7 +7181,7 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
       <c r="T88" s="3" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7140,13 +7189,13 @@
         <v>1608005</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="E89" s="3">
         <v>16</v>
@@ -7184,7 +7233,7 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
       <c r="T89" s="3" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7192,13 +7241,13 @@
         <v>1608006</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="E90" s="3">
         <v>16</v>
@@ -7236,7 +7285,7 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7244,13 +7293,13 @@
         <v>1608007</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="E91" s="3">
         <v>16</v>
@@ -7288,7 +7337,7 @@
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
       <c r="T91" s="3" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7296,13 +7345,13 @@
         <v>1608008</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="E92" s="3">
         <v>16</v>
@@ -7340,7 +7389,7 @@
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
       <c r="T92" s="3" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7348,13 +7397,13 @@
         <v>1608009</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="E93" s="3">
         <v>16</v>
@@ -7392,7 +7441,7 @@
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
       <c r="T93" s="3" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7400,13 +7449,13 @@
         <v>1608010</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="E94" s="3">
         <v>16</v>
@@ -7444,7 +7493,7 @@
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
       <c r="T94" s="3" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7452,13 +7501,13 @@
         <v>1608011</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="E95" s="3">
         <v>16</v>
@@ -7496,7 +7545,7 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7504,13 +7553,13 @@
         <v>1608012</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="E96" s="3">
         <v>16</v>
@@ -7548,7 +7597,7 @@
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7556,13 +7605,13 @@
         <v>1608013</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="E97" s="3">
         <v>16</v>
@@ -7600,7 +7649,7 @@
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7608,13 +7657,13 @@
         <v>1608014</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="E98" s="3">
         <v>16</v>
@@ -7652,7 +7701,7 @@
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
       <c r="T98" s="3" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7660,13 +7709,13 @@
         <v>1608015</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="E99" s="3">
         <v>16</v>
@@ -7704,7 +7753,7 @@
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
       <c r="T99" s="3" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7712,13 +7761,13 @@
         <v>1609001</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E100" s="3">
         <v>16</v>
@@ -7756,7 +7805,7 @@
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
       <c r="T100" s="3" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7764,13 +7813,13 @@
         <v>1609002</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="E101" s="3">
         <v>16</v>
@@ -7808,7 +7857,7 @@
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
       <c r="T101" s="3" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7816,13 +7865,13 @@
         <v>1609003</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="E102" s="3">
         <v>16</v>
@@ -7860,7 +7909,7 @@
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
       <c r="T102" s="3" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7868,13 +7917,13 @@
         <v>1609104</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="E103" s="3">
         <v>16</v>
@@ -7912,7 +7961,7 @@
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
       <c r="T103" s="3" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7920,13 +7969,13 @@
         <v>1609105</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="E104" s="3">
         <v>16</v>
@@ -7964,7 +8013,7 @@
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
       <c r="T104" s="3" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -7972,13 +8021,13 @@
         <v>1609106</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="E105" s="3">
         <v>16</v>
@@ -8016,7 +8065,7 @@
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
       <c r="T105" s="3" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -8024,13 +8073,13 @@
         <v>1610001</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="E106" s="3">
         <v>16</v>
@@ -8070,7 +8119,7 @@
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
       <c r="T106" s="3" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -8078,13 +8127,13 @@
         <v>1610002</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="E107" s="3">
         <v>16</v>
@@ -8124,7 +8173,7 @@
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
       <c r="T107" s="3" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -8132,13 +8181,13 @@
         <v>1610003</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E108" s="3">
         <v>16</v>
@@ -8178,7 +8227,7 @@
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
       <c r="T108" s="3" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -8186,13 +8235,13 @@
         <v>1605001</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>357</v>
+        <v>594</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>357</v>
+        <v>593</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="E109" s="3">
         <v>16</v>
@@ -8232,7 +8281,7 @@
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
       <c r="T109" s="3" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
@@ -8240,13 +8289,13 @@
         <v>1605002</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>359</v>
+        <v>596</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>359</v>
+        <v>595</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="E110" s="3">
         <v>16</v>
@@ -8286,27 +8335,27 @@
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
       <c r="T110" s="3" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>1701001</v>
+        <v>1605003</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>361</v>
+        <v>610</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>361</v>
+        <v>597</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="E111" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F111" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>50</v>
@@ -8318,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="3">
         <v>1001</v>
@@ -8327,38 +8376,38 @@
         <v>1</v>
       </c>
       <c r="M111" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N111" s="3">
-        <v>0</v>
-      </c>
-      <c r="O111" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O111" s="3">
+        <v>1001</v>
+      </c>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
-      <c r="T111" s="3" t="s">
-        <v>568</v>
-      </c>
+      <c r="T111" s="3"/>
     </row>
     <row r="112" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>1701002</v>
+        <v>1605004</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>363</v>
+        <v>611</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>363</v>
+        <v>598</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="E112" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>50</v>
@@ -8370,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="3">
         <v>1001</v>
@@ -8379,32 +8428,32 @@
         <v>1</v>
       </c>
       <c r="M112" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N112" s="3">
-        <v>0</v>
-      </c>
-      <c r="O112" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O112" s="3">
+        <v>1001</v>
+      </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
-      <c r="T112" s="3" t="s">
-        <v>569</v>
-      </c>
+      <c r="T112" s="3"/>
     </row>
     <row r="113" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>1701003</v>
+        <v>1701001</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="E113" s="3">
         <v>17</v>
@@ -8442,27 +8491,27 @@
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
       <c r="T113" s="3" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>1701004</v>
+        <v>1701002</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="E114" s="3">
         <v>17</v>
       </c>
       <c r="F114" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>50</v>
@@ -8494,27 +8543,27 @@
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
       <c r="T114" s="3" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>1701005</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>369</v>
+        <v>1701003</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="E115" s="3">
         <v>17</v>
       </c>
       <c r="F115" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>50</v>
@@ -8546,27 +8595,27 @@
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
       <c r="T115" s="3" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>1701006</v>
+        <v>1701004</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="E116" s="3">
         <v>17</v>
       </c>
       <c r="F116" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>50</v>
@@ -8598,21 +8647,21 @@
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
       <c r="T116" s="3" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>1701007</v>
+        <v>1701005</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="E117" s="3">
         <v>17</v>
@@ -8650,27 +8699,27 @@
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
       <c r="T117" s="3" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>1701008</v>
+        <v>1701006</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="E118" s="3">
         <v>17</v>
       </c>
       <c r="F118" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>50</v>
@@ -8702,27 +8751,27 @@
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>1701009</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>377</v>
+        <v>1701007</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="E119" s="3">
         <v>17</v>
       </c>
       <c r="F119" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>50</v>
@@ -8754,27 +8803,27 @@
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>1701010</v>
+        <v>1701008</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="E120" s="3">
         <v>17</v>
       </c>
       <c r="F120" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>50</v>
@@ -8806,21 +8855,21 @@
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
       <c r="T120" s="3" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>1701011</v>
+        <v>1701009</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="E121" s="3">
         <v>17</v>
@@ -8858,27 +8907,27 @@
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
       <c r="T121" s="3" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>1701012</v>
+        <v>1701010</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="E122" s="3">
         <v>17</v>
       </c>
       <c r="F122" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>50</v>
@@ -8910,27 +8959,27 @@
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
       <c r="T122" s="3" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>1701013</v>
+        <v>1701011</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="E123" s="3">
         <v>17</v>
       </c>
       <c r="F123" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>50</v>
@@ -8962,27 +9011,27 @@
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
       <c r="T123" s="3" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>1701014</v>
+        <v>1701012</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E124" s="3">
         <v>17</v>
       </c>
       <c r="F124" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>50</v>
@@ -9014,21 +9063,21 @@
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
       <c r="T124" s="3" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>1701015</v>
+        <v>1701013</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="E125" s="3">
         <v>17</v>
@@ -9066,27 +9115,27 @@
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
       <c r="T125" s="3" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>1702001</v>
+        <v>1701014</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="E126" s="3">
         <v>17</v>
       </c>
       <c r="F126" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>50</v>
@@ -9107,7 +9156,7 @@
         <v>1</v>
       </c>
       <c r="M126" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N126" s="3">
         <v>0</v>
@@ -9118,27 +9167,27 @@
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
       <c r="T126" s="3" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>1702002</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>393</v>
+        <v>1701015</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="E127" s="3">
         <v>17</v>
       </c>
       <c r="F127" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>50</v>
@@ -9159,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="M127" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N127" s="3">
         <v>0</v>
@@ -9170,27 +9219,27 @@
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
       <c r="T127" s="3" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>1702003</v>
+        <v>1702001</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="E128" s="3">
         <v>17</v>
       </c>
       <c r="F128" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>50</v>
@@ -9222,27 +9271,27 @@
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
       <c r="T128" s="3" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>1702004</v>
+        <v>1702002</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="E129" s="3">
         <v>17</v>
       </c>
       <c r="F129" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>50</v>
@@ -9274,21 +9323,21 @@
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
       <c r="T129" s="3" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>1702005</v>
+        <v>1702003</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="E130" s="3">
         <v>17</v>
@@ -9326,27 +9375,27 @@
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
       <c r="T130" s="3" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>1702006</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>401</v>
+        <v>1702004</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="E131" s="3">
         <v>17</v>
       </c>
       <c r="F131" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>50</v>
@@ -9378,21 +9427,21 @@
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
       <c r="T131" s="3" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>1702007</v>
+        <v>1702005</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="E132" s="3">
         <v>17</v>
@@ -9430,21 +9479,21 @@
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
       <c r="T132" s="3" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>1702008</v>
+        <v>1702006</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="E133" s="3">
         <v>17</v>
@@ -9482,27 +9531,27 @@
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
       <c r="T133" s="3" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>1702009</v>
+        <v>1702007</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="E134" s="3">
         <v>17</v>
       </c>
       <c r="F134" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>50</v>
@@ -9534,21 +9583,21 @@
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>1702010</v>
+        <v>1702008</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="E135" s="3">
         <v>17</v>
@@ -9586,21 +9635,21 @@
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
       <c r="T135" s="3" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>1702011</v>
+        <v>1702009</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="E136" s="3">
         <v>17</v>
@@ -9638,21 +9687,21 @@
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
       <c r="T136" s="3" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>1702012</v>
+        <v>1702010</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="E137" s="3">
         <v>17</v>
@@ -9690,27 +9739,27 @@
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
       <c r="T137" s="3" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>1702013</v>
+        <v>1702011</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="E138" s="3">
         <v>17</v>
       </c>
       <c r="F138" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>50</v>
@@ -9742,27 +9791,27 @@
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
       <c r="T138" s="3" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>1702014</v>
+        <v>1702012</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="E139" s="3">
         <v>17</v>
       </c>
       <c r="F139" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>50</v>
@@ -9794,21 +9843,21 @@
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
       <c r="T139" s="3" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>1702015</v>
+        <v>1702013</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="E140" s="3">
         <v>17</v>
@@ -9846,27 +9895,27 @@
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
       <c r="T140" s="3" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>1702016</v>
+        <v>1702014</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="E141" s="3">
         <v>17</v>
       </c>
       <c r="F141" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>50</v>
@@ -9898,27 +9947,27 @@
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
       <c r="T141" s="3" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>1702017</v>
+        <v>1702015</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="E142" s="3">
         <v>17</v>
       </c>
       <c r="F142" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>50</v>
@@ -9950,27 +9999,27 @@
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
       <c r="T142" s="3" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>1702018</v>
+        <v>1702016</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="E143" s="3">
         <v>17</v>
       </c>
       <c r="F143" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>50</v>
@@ -10002,27 +10051,27 @@
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
       <c r="T143" s="3" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>1702019</v>
+        <v>1702017</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="E144" s="3">
         <v>17</v>
       </c>
       <c r="F144" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>50</v>
@@ -10054,27 +10103,27 @@
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
       <c r="T144" s="3" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
     </row>
     <row r="145" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>1702020</v>
+        <v>1702018</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="E145" s="3">
         <v>17</v>
       </c>
       <c r="F145" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>50</v>
@@ -10106,21 +10155,21 @@
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
       <c r="T145" s="3" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>1702021</v>
+        <v>1702019</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="E146" s="3">
         <v>17</v>
@@ -10158,24 +10207,24 @@
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
       <c r="T146" s="3" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>2000001</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>433</v>
+        <v>1702020</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>434</v>
+        <v>405</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="E147" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F147" s="3">
         <v>3</v>
@@ -10184,7 +10233,7 @@
         <v>50</v>
       </c>
       <c r="H147" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="I147" s="3">
         <v>0</v>
@@ -10206,41 +10255,37 @@
       </c>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
-      <c r="Q147" s="3">
-        <v>2</v>
-      </c>
+      <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
-      <c r="S147" s="7" t="s">
-        <v>435</v>
-      </c>
+      <c r="S147" s="3"/>
       <c r="T147" s="3" t="s">
-        <v>51</v>
+        <v>578</v>
       </c>
     </row>
     <row r="148" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>2000002</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>434</v>
+        <v>1702021</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="E148" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F148" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H148" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="I148" s="3">
         <v>0</v>
@@ -10262,30 +10307,25 @@
       </c>
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
-      <c r="Q148" s="3">
-        <v>1</v>
-      </c>
-      <c r="R148" s="3">
-        <f>1*3600</f>
-        <v>3600</v>
-      </c>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
       <c r="S148" s="3"/>
       <c r="T148" s="3" t="s">
-        <v>51</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>437</v>
+        <v>409</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="E149" s="3">
         <v>20</v>
@@ -10320,29 +10360,31 @@
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
       <c r="Q149" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R149" s="3"/>
-      <c r="S149" s="3"/>
+      <c r="S149" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="T149" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>2100003</v>
+        <v>2000002</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="E150" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F150" s="3">
         <v>3</v>
@@ -10374,9 +10416,12 @@
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
       <c r="Q150" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R150" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="R150" s="3">
+        <f>1*3600</f>
+        <v>3600</v>
+      </c>
       <c r="S150" s="3"/>
       <c r="T150" s="3" t="s">
         <v>51</v>
@@ -10384,19 +10429,19 @@
     </row>
     <row r="151" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>2100004</v>
+        <v>2000003</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="E151" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F151" s="3">
         <v>3</v>
@@ -10428,13 +10473,121 @@
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
       <c r="Q151" s="3">
-        <v>1</v>
-      </c>
-      <c r="R151" s="3">
-        <v>600</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="R151" s="3"/>
       <c r="S151" s="3"/>
       <c r="T151" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>2100003</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E152" s="3">
+        <v>21</v>
+      </c>
+      <c r="F152" s="3">
+        <v>3</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H152" s="3">
+        <v>1</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0</v>
+      </c>
+      <c r="J152" s="3">
+        <v>0</v>
+      </c>
+      <c r="K152" s="3">
+        <v>1001</v>
+      </c>
+      <c r="L152" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M152" s="3">
+        <v>3</v>
+      </c>
+      <c r="N152" s="3">
+        <v>0</v>
+      </c>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>2100004</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E153" s="3">
+        <v>21</v>
+      </c>
+      <c r="F153" s="3">
+        <v>3</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H153" s="3">
+        <v>1</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0</v>
+      </c>
+      <c r="K153" s="3">
+        <v>1001</v>
+      </c>
+      <c r="L153" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M153" s="3">
+        <v>3</v>
+      </c>
+      <c r="N153" s="3">
+        <v>0</v>
+      </c>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3">
+        <v>1</v>
+      </c>
+      <c r="R153" s="3">
+        <v>600</v>
+      </c>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -10473,22 +10626,22 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -10496,22 +10649,22 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -10522,25 +10675,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -10548,7 +10701,7 @@
         <v>1603001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3">
         <v>1401011</v>
@@ -10566,7 +10719,7 @@
         <v>1603002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3">
         <v>1401011</v>
@@ -10584,7 +10737,7 @@
         <v>1603003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3">
         <v>1401011</v>
@@ -10602,7 +10755,7 @@
         <v>1603004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3">
         <v>1401011</v>
@@ -10620,7 +10773,7 @@
         <v>1603005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3">
         <v>1401011</v>
@@ -10638,7 +10791,7 @@
         <v>1603006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3">
         <v>1401011</v>
@@ -10656,7 +10809,7 @@
         <v>1603007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3">
         <v>1401011</v>
@@ -10674,7 +10827,7 @@
         <v>1603008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3">
         <v>1401011</v>
@@ -10692,7 +10845,7 @@
         <v>1603009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3">
         <v>1401011</v>
@@ -10710,7 +10863,7 @@
         <v>1603010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C13" s="3">
         <v>1401011</v>
@@ -10728,7 +10881,7 @@
         <v>1603011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3">
         <v>1401011</v>
@@ -10746,7 +10899,7 @@
         <v>1603012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C15" s="3">
         <v>1401011</v>
@@ -10764,7 +10917,7 @@
         <v>1603013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3">
         <v>1401011</v>
@@ -10782,7 +10935,7 @@
         <v>1603014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3">
         <v>1401011</v>
@@ -10800,7 +10953,7 @@
         <v>1603015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C18" s="3">
         <v>1401011</v>
@@ -10818,7 +10971,7 @@
         <v>1603016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C19" s="3">
         <v>1401011</v>
@@ -10836,7 +10989,7 @@
         <v>1603017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C20" s="3">
         <v>1401011</v>
@@ -10854,7 +11007,7 @@
         <v>1603018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3">
         <v>1401011</v>
@@ -10872,7 +11025,7 @@
         <v>1603019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3">
         <v>1401011</v>
@@ -10890,7 +11043,7 @@
         <v>1603020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C23" s="3">
         <v>1401011</v>
@@ -10908,7 +11061,7 @@
         <v>1603021</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C24" s="3">
         <v>1401011</v>
@@ -10926,7 +11079,7 @@
         <v>1603022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C25" s="3">
         <v>1401011</v>
@@ -10944,7 +11097,7 @@
         <v>1603023</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3">
         <v>1401011</v>
@@ -10962,7 +11115,7 @@
         <v>1604001</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C27" s="3">
         <v>1401011</v>
@@ -10980,7 +11133,7 @@
         <v>1604002</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C28" s="3">
         <v>1401011</v>
@@ -10998,7 +11151,7 @@
         <v>1606001</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C29" s="3">
         <v>1401011</v>
@@ -11016,7 +11169,7 @@
         <v>1606002</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3">
         <v>1401011</v>
@@ -11034,7 +11187,7 @@
         <v>1606003</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C31" s="3">
         <v>1401011</v>
@@ -11052,7 +11205,7 @@
         <v>1606004</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C32" s="3">
         <v>1401011</v>
@@ -11070,7 +11223,7 @@
         <v>1606005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C33" s="3">
         <v>1401011</v>
@@ -11088,7 +11241,7 @@
         <v>1606006</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C34" s="3">
         <v>1401011</v>
@@ -11106,7 +11259,7 @@
         <v>1606007</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C35" s="3">
         <v>1401011</v>
@@ -11124,7 +11277,7 @@
         <v>1606008</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C36" s="3">
         <v>1401011</v>
@@ -11142,7 +11295,7 @@
         <v>1606009</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3">
         <v>1401011</v>
@@ -11160,7 +11313,7 @@
         <v>1606010</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C38" s="3">
         <v>1401011</v>
@@ -11178,7 +11331,7 @@
         <v>1606011</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C39" s="3">
         <v>1401011</v>
@@ -11196,7 +11349,7 @@
         <v>1606012</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C40" s="3">
         <v>1401011</v>
@@ -11214,7 +11367,7 @@
         <v>1606013</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C41" s="3">
         <v>1401011</v>
@@ -11232,7 +11385,7 @@
         <v>1606014</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C42" s="3">
         <v>1401011</v>
@@ -11250,7 +11403,7 @@
         <v>1606015</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C43" s="3">
         <v>1401011</v>
@@ -11268,7 +11421,7 @@
         <v>1606016</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C44" s="3">
         <v>1401011</v>
@@ -11286,7 +11439,7 @@
         <v>1606017</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C45" s="3">
         <v>1401011</v>
@@ -11304,7 +11457,7 @@
         <v>1606018</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C46" s="3">
         <v>1401011</v>
@@ -11322,7 +11475,7 @@
         <v>1606019</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C47" s="3">
         <v>1401011</v>
@@ -11340,7 +11493,7 @@
         <v>1606020</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C48" s="3">
         <v>1401011</v>
@@ -11358,7 +11511,7 @@
         <v>1606021</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C49" s="3">
         <v>1401011</v>
@@ -11376,7 +11529,7 @@
         <v>1606022</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C50" s="3">
         <v>1401011</v>
@@ -11394,7 +11547,7 @@
         <v>1606023</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C51" s="3">
         <v>1401011</v>
@@ -11412,7 +11565,7 @@
         <v>1606024</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C52" s="3">
         <v>1401011</v>
@@ -11430,7 +11583,7 @@
         <v>1606025</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C53" s="3">
         <v>1401011</v>
@@ -11448,7 +11601,7 @@
         <v>1606026</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3">
         <v>1401011</v>
@@ -11466,7 +11619,7 @@
         <v>1606027</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C55" s="3">
         <v>1401011</v>
@@ -11484,7 +11637,7 @@
         <v>1606028</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C56" s="3">
         <v>1401011</v>
@@ -11502,7 +11655,7 @@
         <v>1606029</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C57" s="3">
         <v>1401011</v>
@@ -11520,7 +11673,7 @@
         <v>1606030</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C58" s="3">
         <v>1401011</v>
@@ -11538,7 +11691,7 @@
         <v>1606031</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C59" s="3">
         <v>1401011</v>
@@ -11556,7 +11709,7 @@
         <v>1606032</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C60" s="3">
         <v>1401011</v>
@@ -11574,7 +11727,7 @@
         <v>1607001</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C61" s="3">
         <v>1401011</v>
@@ -11592,7 +11745,7 @@
         <v>1607002</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C62" s="3">
         <v>1401011</v>
@@ -11610,7 +11763,7 @@
         <v>1607003</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C63" s="3">
         <v>1401011</v>
@@ -11628,7 +11781,7 @@
         <v>1607004</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C64" s="3">
         <v>1401011</v>
@@ -11646,7 +11799,7 @@
         <v>1607005</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C65" s="3">
         <v>1401011</v>
@@ -11664,7 +11817,7 @@
         <v>1607006</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C66" s="3">
         <v>1401011</v>
@@ -11682,7 +11835,7 @@
         <v>1607007</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C67" s="3">
         <v>1401011</v>
@@ -11700,7 +11853,7 @@
         <v>1607008</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C68" s="3">
         <v>1401011</v>
@@ -11718,7 +11871,7 @@
         <v>1607009</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C69" s="3">
         <v>1401011</v>
@@ -11736,7 +11889,7 @@
         <v>1608001</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C70" s="3">
         <v>1401011</v>
@@ -11754,7 +11907,7 @@
         <v>1608002</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C71" s="3">
         <v>1401011</v>
@@ -11772,7 +11925,7 @@
         <v>1608003</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C72" s="3">
         <v>1401011</v>
@@ -11790,7 +11943,7 @@
         <v>1608004</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C73" s="3">
         <v>1401011</v>
@@ -11808,7 +11961,7 @@
         <v>1608005</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C74" s="3">
         <v>1401011</v>
@@ -11826,7 +11979,7 @@
         <v>1608006</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C75" s="3">
         <v>1401011</v>
@@ -11844,7 +11997,7 @@
         <v>1608007</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C76" s="3">
         <v>1401011</v>
@@ -11862,7 +12015,7 @@
         <v>1608008</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C77" s="3">
         <v>1401011</v>
@@ -11880,7 +12033,7 @@
         <v>1608009</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C78" s="3">
         <v>1401011</v>
@@ -11898,7 +12051,7 @@
         <v>1608010</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C79" s="3">
         <v>1401011</v>
@@ -11916,7 +12069,7 @@
         <v>1608011</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C80" s="3">
         <v>1401011</v>
@@ -11934,7 +12087,7 @@
         <v>1608012</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C81" s="3">
         <v>1401011</v>
@@ -11952,7 +12105,7 @@
         <v>1608013</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C82" s="3">
         <v>1401011</v>
@@ -11970,7 +12123,7 @@
         <v>1608014</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C83" s="3">
         <v>1401011</v>
@@ -11988,7 +12141,7 @@
         <v>1608015</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C84" s="3">
         <v>1401011</v>
@@ -12006,7 +12159,7 @@
         <v>1609001</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C85" s="3">
         <v>1401011</v>
@@ -12024,7 +12177,7 @@
         <v>1609002</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C86" s="3">
         <v>1401011</v>
@@ -12042,7 +12195,7 @@
         <v>1609003</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="C87" s="3">
         <v>1401011</v>
@@ -12082,22 +12235,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -12105,7 +12258,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -12114,7 +12267,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -12128,22 +12281,22 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -12158,7 +12311,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="783">
   <si>
     <t>sheet名</t>
   </si>
@@ -391,9 +391,6 @@
     <t>竞技场获胜获得的资源，领取竞技宝箱的标准。</t>
   </si>
   <si>
-    <t>钻石</t>
-  </si>
-  <si>
     <t>灵金</t>
   </si>
   <si>
@@ -2519,6 +2516,67 @@
   </si>
   <si>
     <t>神器阿波普之刃的部件之六，是激活阿波普之刃的必要材料。</t>
+  </si>
+  <si>
+    <t>AddJump.param</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddJump.id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号跳转参数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int:e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号跳转功能ID
+1.打开UI  2.商品ID  3.打开关卡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍经验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的经验，可通过关卡首通，每日任务和挂机派遣获得。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3174,13 +3232,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U217"/>
+  <dimension ref="A1:W218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R88" sqref="R88"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3205,11 +3263,13 @@
     <col min="18" max="18" width="12.5" customWidth="1"/>
     <col min="19" max="19" width="9.875" customWidth="1"/>
     <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="61.5" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="15.375" customWidth="1"/>
+    <col min="22" max="22" width="18.25" customWidth="1"/>
+    <col min="23" max="23" width="61.5" customWidth="1"/>
+    <col min="24" max="24" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3271,10 +3331,16 @@
         <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -3288,7 +3354,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -3321,7 +3387,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>42</v>
@@ -3335,11 +3401,17 @@
       <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="W2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -3401,10 +3473,16 @@
         <v>63</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1401001</v>
       </c>
@@ -3453,11 +3531,13 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1401002</v>
       </c>
@@ -3506,11 +3586,17 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1401003</v>
       </c>
@@ -3520,7 +3606,9 @@
       <c r="C6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>2000</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>74</v>
       </c>
@@ -3557,11 +3645,13 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1401004</v>
       </c>
@@ -3571,7 +3661,9 @@
       <c r="C7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>2000</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>77</v>
       </c>
@@ -3608,11 +3700,13 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1401005</v>
       </c>
@@ -3661,11 +3755,13 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1401006</v>
       </c>
@@ -3712,11 +3808,13 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1401007</v>
       </c>
@@ -3763,11 +3861,13 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1401008</v>
       </c>
@@ -3814,11 +3914,13 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1401009</v>
       </c>
@@ -3865,25 +3967,27 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1401010</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D13" s="3">
         <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3">
         <v>14</v>
@@ -3918,23 +4022,25 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1401011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="3">
         <v>14</v>
@@ -3969,23 +4075,25 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1401012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="3">
         <v>14</v>
@@ -4020,23 +4128,25 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1401013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="3">
         <v>14</v>
@@ -4071,28 +4181,28 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>1601001</v>
+        <v>1401014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>781</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F17" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -4101,7 +4211,7 @@
         <v>51</v>
       </c>
       <c r="I17" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -4113,7 +4223,7 @@
         <v>1001</v>
       </c>
       <c r="M17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3">
@@ -4124,25 +4234,27 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>1602001</v>
+        <v>1601001</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F18" s="3">
         <v>16</v>
@@ -4177,23 +4289,31 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>2</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1101</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>1603001</v>
+        <v>1602001</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F19" s="3">
         <v>16</v>
@@ -4211,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="3">
         <v>1001</v>
@@ -4219,9 +4339,7 @@
       <c r="M19" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
+      <c r="N19" s="3"/>
       <c r="O19" s="3">
         <v>0</v>
       </c>
@@ -4230,23 +4348,29 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="U19" s="3">
+        <v>2</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1102</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>1603002</v>
+        <v>1603001</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F20" s="3">
         <v>16</v>
@@ -4283,29 +4407,31 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>1603003</v>
+        <v>1603002</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F21" s="3">
         <v>16</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>51</v>
@@ -4336,29 +4462,31 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>1603004</v>
+        <v>1603003</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F22" s="3">
         <v>16</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>51</v>
@@ -4389,29 +4517,31 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>1603005</v>
+        <v>1603004</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F23" s="3">
         <v>16</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>51</v>
@@ -4442,29 +4572,31 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>1603006</v>
+        <v>1603005</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F24" s="3">
         <v>16</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>51</v>
@@ -4495,29 +4627,31 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>1603007</v>
+        <v>1603006</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F25" s="3">
         <v>16</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>51</v>
@@ -4548,29 +4682,31 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>1603008</v>
+        <v>1603007</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F26" s="3">
         <v>16</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>51</v>
@@ -4601,29 +4737,31 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="3" t="s">
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>1603008</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>1603009</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F27" s="3">
         <v>16</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>51</v>
@@ -4654,29 +4792,31 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>1603010</v>
+        <v>1603009</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F28" s="3">
         <v>16</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>51</v>
@@ -4707,29 +4847,31 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>1603011</v>
+        <v>1603010</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F29" s="3">
         <v>16</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>51</v>
@@ -4760,29 +4902,31 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>1603012</v>
+        <v>1603011</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F30" s="3">
         <v>16</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>51</v>
@@ -4813,29 +4957,31 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>1603013</v>
+        <v>1603012</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F31" s="3">
         <v>16</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>51</v>
@@ -4866,29 +5012,31 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>1603014</v>
+        <v>1603013</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F32" s="3">
         <v>16</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>51</v>
@@ -4919,23 +5067,25 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>1603015</v>
+        <v>1603014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F33" s="3">
         <v>16</v>
@@ -4972,23 +5122,25 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>1603016</v>
+        <v>1603015</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F34" s="3">
         <v>16</v>
@@ -5025,23 +5177,25 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>1603017</v>
+        <v>1603016</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>663</v>
+        <v>169</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F35" s="3">
         <v>16</v>
@@ -5078,29 +5232,31 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>1603018</v>
+        <v>1603017</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F36" s="3">
         <v>16</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>51</v>
@@ -5131,29 +5287,31 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>1603019</v>
+        <v>1603018</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F37" s="3">
         <v>16</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>51</v>
@@ -5184,29 +5342,31 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>1603020</v>
+        <v>1603019</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F38" s="3">
         <v>16</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>51</v>
@@ -5237,29 +5397,31 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>1603021</v>
+        <v>1603020</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F39" s="3">
         <v>16</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>51</v>
@@ -5290,29 +5452,31 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>1603022</v>
+        <v>1603021</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>194</v>
+        <v>666</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F40" s="3">
         <v>16</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>51</v>
@@ -5343,23 +5507,25 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>1603023</v>
+        <v>1603022</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F41" s="3">
         <v>16</v>
@@ -5396,23 +5562,25 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>1604001</v>
+        <v>1603023</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F42" s="3">
         <v>16</v>
@@ -5449,23 +5617,27 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>1604002</v>
+        <v>1604001</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
       <c r="E43" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F43" s="3">
         <v>16</v>
@@ -5502,23 +5674,25 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>1606001</v>
+        <v>1604002</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F44" s="3">
         <v>16</v>
@@ -5555,23 +5729,25 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1606002</v>
+        <v>1606001</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>714</v>
+        <v>207</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
@@ -5608,23 +5784,25 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-      <c r="U45" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1606003</v>
+        <v>1606002</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>215</v>
+        <v>713</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F46" s="3">
         <v>16</v>
@@ -5661,29 +5839,31 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1606004</v>
+        <v>1606003</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F47" s="3">
         <v>16</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>51</v>
@@ -5714,29 +5894,31 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1606005</v>
+        <v>1606004</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F48" s="3">
         <v>16</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>51</v>
@@ -5767,29 +5949,31 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1606006</v>
+        <v>1606005</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F49" s="3">
         <v>16</v>
       </c>
       <c r="G49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>51</v>
@@ -5820,29 +6004,31 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>1606007</v>
+        <v>1606006</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F50" s="3">
         <v>16</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>51</v>
@@ -5873,29 +6059,31 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>1606008</v>
+        <v>1606007</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F51" s="3">
         <v>16</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>51</v>
@@ -5926,29 +6114,31 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1606009</v>
+        <v>1606008</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F52" s="3">
         <v>16</v>
       </c>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>51</v>
@@ -5979,29 +6169,31 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
-      <c r="U52" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>1606010</v>
+        <v>1606009</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F53" s="3">
         <v>16</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>51</v>
@@ -6032,29 +6224,31 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-      <c r="U53" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1606011</v>
+        <v>1606010</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F54" s="3">
         <v>16</v>
       </c>
       <c r="G54" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>51</v>
@@ -6085,29 +6279,31 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
-      <c r="U54" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>1606012</v>
+        <v>1606011</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F55" s="3">
         <v>16</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>51</v>
@@ -6138,29 +6334,31 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-      <c r="U55" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1606013</v>
+        <v>1606012</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F56" s="3">
         <v>16</v>
       </c>
       <c r="G56" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>51</v>
@@ -6191,29 +6389,31 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-      <c r="U56" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1606014</v>
+        <v>1606013</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F57" s="3">
         <v>16</v>
       </c>
       <c r="G57" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>51</v>
@@ -6244,29 +6444,31 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-      <c r="U57" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>1606015</v>
+        <v>1606014</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>51</v>
@@ -6297,29 +6499,31 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>1606016</v>
+        <v>1606015</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F59" s="3">
         <v>16</v>
       </c>
       <c r="G59" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>51</v>
@@ -6350,29 +6554,31 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>1606017</v>
+        <v>1606016</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
       </c>
       <c r="G60" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>51</v>
@@ -6403,29 +6609,31 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
-      <c r="U60" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>1606018</v>
+        <v>1606017</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F61" s="3">
         <v>16</v>
       </c>
       <c r="G61" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>51</v>
@@ -6456,29 +6664,31 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
-      <c r="U61" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>1606019</v>
+        <v>1606018</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
       </c>
       <c r="G62" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>51</v>
@@ -6509,29 +6719,31 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
-      <c r="U62" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1606020</v>
+        <v>1606019</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
       </c>
       <c r="G63" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>51</v>
@@ -6562,29 +6774,31 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>1606021</v>
+        <v>1606020</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>51</v>
@@ -6615,29 +6829,31 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
-      <c r="U64" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1606022</v>
+        <v>1606021</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>51</v>
@@ -6668,29 +6884,31 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
-      <c r="U65" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1606023</v>
+        <v>1606022</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>51</v>
@@ -6721,29 +6939,31 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
-      <c r="U66" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1606024</v>
+        <v>1606023</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>51</v>
@@ -6774,29 +6994,31 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-      <c r="U67" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1606025</v>
+        <v>1606024</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
       </c>
       <c r="G68" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>51</v>
@@ -6827,29 +7049,31 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
-      <c r="U68" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1606026</v>
+        <v>1606025</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>51</v>
@@ -6880,29 +7104,31 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
-      <c r="U69" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1606027</v>
+        <v>1606026</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
       </c>
       <c r="G70" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>51</v>
@@ -6933,29 +7159,31 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
-      <c r="U70" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1606028</v>
+        <v>1606027</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
       </c>
       <c r="G71" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>51</v>
@@ -6986,29 +7214,31 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
-      <c r="U71" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>1606029</v>
+        <v>1606028</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>51</v>
@@ -7039,29 +7269,31 @@
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
-      <c r="U72" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1606030</v>
+        <v>1606029</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
       </c>
       <c r="G73" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>51</v>
@@ -7092,29 +7324,31 @@
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
-      <c r="U73" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1606031</v>
+        <v>1606030</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
       </c>
       <c r="G74" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>51</v>
@@ -7145,29 +7379,31 @@
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
-      <c r="U74" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>1606032</v>
+        <v>1606031</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
       </c>
       <c r="G75" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>51</v>
@@ -7198,29 +7434,31 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
-      <c r="U75" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>1606103</v>
+        <v>1606032</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>715</v>
+        <v>330</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>217</v>
+        <v>332</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
       </c>
       <c r="G76" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>51</v>
@@ -7251,29 +7489,31 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
-      <c r="U76" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>1606104</v>
+        <v>1606103</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
       </c>
       <c r="G77" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>51</v>
@@ -7304,29 +7544,31 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
-      <c r="U77" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>1606105</v>
+        <v>1606104</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
       </c>
       <c r="G78" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>51</v>
@@ -7357,29 +7599,31 @@
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
-      <c r="U78" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>1606106</v>
+        <v>1606105</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>51</v>
@@ -7410,29 +7654,31 @@
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
-      <c r="U79" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>1606107</v>
+        <v>1606106</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
       </c>
       <c r="G80" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>51</v>
@@ -7463,29 +7709,31 @@
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
-      <c r="U80" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>1606108</v>
+        <v>1606107</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
       </c>
       <c r="G81" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>51</v>
@@ -7516,29 +7764,31 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
-      <c r="U81" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>1606109</v>
+        <v>1606108</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
       </c>
       <c r="G82" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>51</v>
@@ -7569,29 +7819,31 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-      <c r="U82" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>1606110</v>
+        <v>1606109</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
       </c>
       <c r="G83" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>51</v>
@@ -7622,29 +7874,31 @@
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
-      <c r="U83" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>1606111</v>
+        <v>1606110</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
       </c>
       <c r="G84" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>51</v>
@@ -7675,29 +7929,31 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
-      <c r="U84" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>1606112</v>
+        <v>1606111</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
       </c>
       <c r="G85" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>51</v>
@@ -7728,29 +7984,31 @@
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
-      <c r="U85" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>1606113</v>
+        <v>1606112</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>51</v>
@@ -7781,29 +8039,31 @@
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
-      <c r="U86" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>1606114</v>
+        <v>1606113</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
       </c>
       <c r="G87" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>51</v>
@@ -7834,29 +8094,31 @@
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
-      <c r="U87" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>1606115</v>
+        <v>1606114</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
       </c>
       <c r="G88" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>51</v>
@@ -7887,29 +8149,31 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
-      <c r="U88" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>1606116</v>
+        <v>1606115</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>51</v>
@@ -7940,29 +8204,31 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
-      <c r="U89" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>1606117</v>
+        <v>1606116</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
       </c>
       <c r="G90" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>51</v>
@@ -7993,29 +8259,31 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-      <c r="U90" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>1606118</v>
+        <v>1606117</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
       </c>
       <c r="G91" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>51</v>
@@ -8046,29 +8314,31 @@
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
-      <c r="U91" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>1606119</v>
+        <v>1606118</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
       </c>
       <c r="G92" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>51</v>
@@ -8099,29 +8369,31 @@
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
-      <c r="U92" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>1606120</v>
+        <v>1606119</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
       </c>
       <c r="G93" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>51</v>
@@ -8152,29 +8424,31 @@
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
-      <c r="U93" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>1606121</v>
+        <v>1606120</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
       </c>
       <c r="G94" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>51</v>
@@ -8205,29 +8479,31 @@
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
-      <c r="U94" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>1606122</v>
+        <v>1606121</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
       </c>
       <c r="G95" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>51</v>
@@ -8258,29 +8534,31 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-      <c r="U95" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>1606123</v>
+        <v>1606122</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
       </c>
       <c r="G96" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>51</v>
@@ -8311,29 +8589,31 @@
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
-      <c r="U96" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>1606124</v>
+        <v>1606123</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
       </c>
       <c r="G97" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>51</v>
@@ -8364,29 +8644,31 @@
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
-      <c r="U97" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>1606125</v>
+        <v>1606124</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
       </c>
       <c r="G98" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>51</v>
@@ -8417,29 +8699,31 @@
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
-      <c r="U98" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>1606126</v>
+        <v>1606125</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
       </c>
       <c r="G99" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>51</v>
@@ -8470,29 +8754,31 @@
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
-      <c r="U99" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>1606127</v>
+        <v>1606126</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
       </c>
       <c r="G100" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>51</v>
@@ -8523,29 +8809,31 @@
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
-      <c r="U100" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>1606128</v>
+        <v>1606127</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F101" s="3">
         <v>16</v>
       </c>
       <c r="G101" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>51</v>
@@ -8576,29 +8864,31 @@
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
-      <c r="U101" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>1606129</v>
+        <v>1606128</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F102" s="3">
         <v>16</v>
       </c>
       <c r="G102" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>51</v>
@@ -8629,29 +8919,31 @@
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
-      <c r="U102" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>1606130</v>
+        <v>1606129</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F103" s="3">
         <v>16</v>
       </c>
       <c r="G103" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>51</v>
@@ -8682,29 +8974,31 @@
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
-      <c r="U103" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>1606131</v>
+        <v>1606130</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F104" s="3">
         <v>16</v>
       </c>
       <c r="G104" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>51</v>
@@ -8735,29 +9029,31 @@
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
-      <c r="U104" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>1606132</v>
+        <v>1606131</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F105" s="3">
         <v>16</v>
       </c>
       <c r="G105" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>51</v>
@@ -8788,29 +9084,31 @@
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
-      <c r="U105" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>1607001</v>
+        <v>1606132</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>335</v>
+        <v>743</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F106" s="3">
         <v>16</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>51</v>
@@ -8841,23 +9139,25 @@
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
-      <c r="U106" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>1607002</v>
+        <v>1607001</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F107" s="3">
         <v>16</v>
@@ -8894,23 +9194,25 @@
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
-      <c r="U107" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>1607003</v>
+        <v>1607002</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F108" s="3">
         <v>16</v>
@@ -8947,23 +9249,25 @@
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
-      <c r="U108" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>1607004</v>
+        <v>1607003</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F109" s="3">
         <v>16</v>
@@ -9000,23 +9304,25 @@
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
-      <c r="U109" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>1607005</v>
+        <v>1607004</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F110" s="3">
         <v>16</v>
@@ -9053,23 +9359,25 @@
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
-      <c r="U110" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>1607006</v>
+        <v>1607005</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F111" s="3">
         <v>16</v>
@@ -9106,23 +9414,25 @@
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
-      <c r="U111" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>1607007</v>
+        <v>1607006</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F112" s="3">
         <v>16</v>
@@ -9159,23 +9469,25 @@
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
-      <c r="U112" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>1607008</v>
+        <v>1607007</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F113" s="3">
         <v>16</v>
@@ -9212,23 +9524,25 @@
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
-      <c r="U113" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>1607009</v>
+        <v>1607008</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F114" s="3">
         <v>16</v>
@@ -9265,23 +9579,25 @@
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
-      <c r="U114" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>1608001</v>
+        <v>1607009</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F115" s="3">
         <v>16</v>
@@ -9318,23 +9634,25 @@
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
-      <c r="U115" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>1608002</v>
+        <v>1608001</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F116" s="3">
         <v>16</v>
@@ -9371,23 +9689,25 @@
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
-      <c r="U116" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>1608003</v>
+        <v>1608002</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F117" s="3">
         <v>16</v>
@@ -9424,23 +9744,25 @@
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
-      <c r="U117" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>1608004</v>
+        <v>1608003</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F118" s="3">
         <v>16</v>
@@ -9477,23 +9799,25 @@
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
-      <c r="U118" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>1608005</v>
+        <v>1608004</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F119" s="3">
         <v>16</v>
@@ -9530,23 +9854,25 @@
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
-      <c r="U119" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>1608006</v>
+        <v>1608005</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F120" s="3">
         <v>16</v>
@@ -9583,23 +9909,25 @@
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
-      <c r="U120" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>1608007</v>
+        <v>1608006</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F121" s="3">
         <v>16</v>
@@ -9636,23 +9964,25 @@
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
-      <c r="U121" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>1608008</v>
+        <v>1608007</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F122" s="3">
         <v>16</v>
@@ -9689,23 +10019,25 @@
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
-      <c r="U122" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>1608009</v>
+        <v>1608008</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F123" s="3">
         <v>16</v>
@@ -9742,23 +10074,25 @@
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
-      <c r="U123" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>1608010</v>
+        <v>1608009</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F124" s="3">
         <v>16</v>
@@ -9795,23 +10129,25 @@
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
-      <c r="U124" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>1608011</v>
+        <v>1608010</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F125" s="3">
         <v>16</v>
@@ -9848,23 +10184,25 @@
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
-      <c r="U125" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>1608012</v>
+        <v>1608011</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F126" s="3">
         <v>16</v>
@@ -9901,23 +10239,25 @@
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
-      <c r="U126" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>1608013</v>
+        <v>1608012</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F127" s="3">
         <v>16</v>
@@ -9954,23 +10294,25 @@
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
-      <c r="U127" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>1608014</v>
+        <v>1608013</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F128" s="3">
         <v>16</v>
@@ -10007,23 +10349,25 @@
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
-      <c r="U128" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>1608015</v>
+        <v>1608014</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F129" s="3">
         <v>16</v>
@@ -10060,23 +10404,25 @@
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
-      <c r="U129" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>1609001</v>
+        <v>1608015</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F130" s="3">
         <v>16</v>
@@ -10113,23 +10459,25 @@
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
-      <c r="U130" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>1609002</v>
+        <v>1609001</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F131" s="3">
         <v>16</v>
@@ -10166,23 +10514,25 @@
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
-      <c r="U131" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>1609003</v>
+        <v>1609002</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F132" s="3">
         <v>16</v>
@@ -10219,23 +10569,25 @@
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
-      <c r="U132" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>1609104</v>
+        <v>1609003</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F133" s="3">
         <v>16</v>
@@ -10272,23 +10624,25 @@
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
-      <c r="U133" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>1609105</v>
+        <v>1609104</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F134" s="3">
         <v>16</v>
@@ -10325,23 +10679,25 @@
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
-      <c r="U134" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>1609106</v>
+        <v>1609105</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F135" s="3">
         <v>16</v>
@@ -10378,23 +10734,25 @@
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
-      <c r="U135" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>1610001</v>
+        <v>1609106</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F136" s="3">
         <v>16</v>
@@ -10424,32 +10782,32 @@
         <v>1</v>
       </c>
       <c r="O136" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P136" s="3"/>
-      <c r="Q136" s="3">
-        <v>20</v>
-      </c>
+      <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
-      <c r="U136" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>1610002</v>
+        <v>1610001</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F137" s="3">
         <v>16</v>
@@ -10483,28 +10841,30 @@
       </c>
       <c r="P137" s="3"/>
       <c r="Q137" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
       <c r="T137" s="3"/>
-      <c r="U137" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>1610003</v>
+        <v>1610002</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F138" s="3">
         <v>16</v>
@@ -10538,28 +10898,30 @@
       </c>
       <c r="P138" s="3"/>
       <c r="Q138" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
-      <c r="U138" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>1605001</v>
+        <v>1610003</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="F139" s="3">
         <v>16</v>
@@ -10586,41 +10948,43 @@
         <v>1</v>
       </c>
       <c r="N139" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O139" s="3">
-        <v>1</v>
-      </c>
-      <c r="P139" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q139" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3">
+        <v>100</v>
+      </c>
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
-      <c r="U139" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>1605002</v>
+        <v>1605001</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F140" s="3">
         <v>16</v>
       </c>
       <c r="G140" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>51</v>
@@ -10647,35 +11011,37 @@
         <v>1</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>452</v>
+        <v>705</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
-      <c r="U140" s="3" t="s">
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>1605002</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
-        <v>1605003</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="C141" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F141" s="3">
         <v>16</v>
       </c>
       <c r="G141" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>51</v>
@@ -10702,35 +11068,37 @@
         <v>1</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
-      <c r="U141" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>1605004</v>
+        <v>1605003</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>710</v>
+        <v>453</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F142" s="3">
         <v>16</v>
       </c>
       <c r="G142" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>51</v>
@@ -10757,35 +11125,37 @@
         <v>1</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
-      <c r="U142" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+      <c r="W142" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>1605005</v>
+        <v>1605004</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>456</v>
+        <v>709</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F143" s="3">
         <v>16</v>
       </c>
       <c r="G143" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>51</v>
@@ -10812,29 +11182,31 @@
         <v>1</v>
       </c>
       <c r="P143" s="3" t="s">
-        <v>707</v>
+        <v>454</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
-      <c r="U143" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>1605006</v>
+        <v>1605005</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F144" s="3">
         <v>16</v>
@@ -10867,29 +11239,31 @@
         <v>1</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>460</v>
+        <v>706</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
-      <c r="U144" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+      <c r="W144" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>1605007</v>
+        <v>1605006</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>616</v>
+        <v>458</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>616</v>
+        <v>459</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F145" s="3">
         <v>16</v>
@@ -10922,35 +11296,37 @@
         <v>1</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>708</v>
+        <v>459</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
-      <c r="U145" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+      <c r="W145" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>1605008</v>
+        <v>1605007</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>669</v>
+        <v>615</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>669</v>
+        <v>615</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F146" s="3">
         <v>16</v>
       </c>
       <c r="G146" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>51</v>
@@ -10977,35 +11353,37 @@
         <v>1</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
-      <c r="U146" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+      <c r="W146" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>1605009</v>
+        <v>1605008</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F147" s="3">
         <v>16</v>
       </c>
       <c r="G147" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>51</v>
@@ -11032,29 +11410,31 @@
         <v>1</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
-      <c r="U147" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>1605010</v>
+        <v>1605009</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F148" s="3">
         <v>16</v>
@@ -11087,35 +11467,37 @@
         <v>1</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
-      <c r="U148" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>1605011</v>
+        <v>1605010</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F149" s="3">
         <v>16</v>
       </c>
       <c r="G149" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>51</v>
@@ -11142,35 +11524,37 @@
         <v>1</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
-      <c r="U149" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+      <c r="W149" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>1605012</v>
+        <v>1605011</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F150" s="3">
         <v>16</v>
       </c>
       <c r="G150" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>51</v>
@@ -11197,35 +11581,37 @@
         <v>1</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
-      <c r="U150" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>1605013</v>
+        <v>1605012</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F151" s="3">
         <v>16</v>
       </c>
       <c r="G151" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>51</v>
@@ -11252,35 +11638,37 @@
         <v>1</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
-      <c r="U151" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U151" s="3"/>
+      <c r="V151" s="3"/>
+      <c r="W151" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>1605014</v>
+        <v>1605013</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F152" s="3">
         <v>16</v>
       </c>
       <c r="G152" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>51</v>
@@ -11307,35 +11695,37 @@
         <v>1</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
-      <c r="U152" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+      <c r="W152" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>1605015</v>
+        <v>1605014</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F153" s="3">
         <v>16</v>
       </c>
       <c r="G153" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>51</v>
@@ -11362,35 +11752,37 @@
         <v>1</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
-      <c r="U153" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U153" s="3"/>
+      <c r="V153" s="3"/>
+      <c r="W153" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>1605016</v>
+        <v>1605015</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F154" s="3">
         <v>16</v>
       </c>
       <c r="G154" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>51</v>
@@ -11417,37 +11809,37 @@
         <v>1</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
-      <c r="U154" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U154" s="3"/>
+      <c r="V154" s="3"/>
+      <c r="W154" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>1605017</v>
+        <v>1605016</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D155" s="3">
-        <v>1</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F155" s="3">
         <v>16</v>
       </c>
       <c r="G155" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>51</v>
@@ -11474,35 +11866,39 @@
         <v>1</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
       <c r="T155" s="3"/>
-      <c r="U155" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+      <c r="W155" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>1611001</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>608</v>
+        <v>1605017</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D156" s="3"/>
+        <v>710</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
       <c r="E156" s="3" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="F156" s="3">
         <v>16</v>
       </c>
       <c r="G156" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>51</v>
@@ -11514,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="K156" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156" s="3">
         <v>1001</v>
@@ -11523,40 +11919,43 @@
         <v>1</v>
       </c>
       <c r="N156" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O156" s="3">
-        <v>0</v>
-      </c>
-      <c r="P156" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P156" s="3" t="s">
+        <v>710</v>
+      </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
       <c r="T156" s="3"/>
-      <c r="U156" s="3" t="str">
-        <f>B156&amp;",用于激活和解封专属武器"</f>
-        <v>关羽专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+      <c r="W156" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>1611002</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>713</v>
+        <v>1611001</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>607</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F157" s="3">
         <v>16</v>
       </c>
       <c r="G157" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>51</v>
@@ -11587,24 +11986,26 @@
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
-      <c r="U157" s="3" t="str">
-        <f t="shared" ref="U157:U176" si="0">B157&amp;",用于激活和解封专属武器"</f>
-        <v>许褚专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3" t="str">
+        <f>B157&amp;",用于激活和解封专属武器"</f>
+        <v>关羽专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>1611003</v>
+        <v>1611002</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>617</v>
+        <v>712</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="F158" s="3">
         <v>16</v>
@@ -11641,30 +12042,32 @@
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
-      <c r="U158" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>典韦专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3" t="str">
+        <f t="shared" ref="W158:W177" si="0">B158&amp;",用于激活和解封专属武器"</f>
+        <v>许褚专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>1611004</v>
+        <v>1611003</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
       </c>
       <c r="G159" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>51</v>
@@ -11695,30 +12098,32 @@
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
-      <c r="U159" s="3" t="str">
+      <c r="U159" s="3"/>
+      <c r="V159" s="3"/>
+      <c r="W159" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>唐流雨专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>典韦专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>1611005</v>
+        <v>1611004</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
       </c>
       <c r="G160" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>51</v>
@@ -11749,30 +12154,32 @@
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
-      <c r="U160" s="3" t="str">
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>李轩辕专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>唐流雨专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>1611006</v>
+        <v>1611005</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
       </c>
       <c r="G161" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>51</v>
@@ -11803,30 +12210,32 @@
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
-      <c r="U161" s="3" t="str">
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>项羽专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>李轩辕专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>1611007</v>
+        <v>1611006</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
       </c>
       <c r="G162" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>51</v>
@@ -11857,30 +12266,32 @@
       <c r="R162" s="3"/>
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
-      <c r="U162" s="3" t="str">
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+      <c r="W162" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>天使缇娜专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>项羽专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>1611008</v>
+        <v>1611007</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F163" s="3">
         <v>16</v>
       </c>
       <c r="G163" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>51</v>
@@ -11911,24 +12322,26 @@
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
       <c r="T163" s="3"/>
-      <c r="U163" s="3" t="str">
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>夏侯渊专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>天使缇娜专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>1611009</v>
+        <v>1611008</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F164" s="3">
         <v>16</v>
@@ -11965,24 +12378,26 @@
       <c r="R164" s="3"/>
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
-      <c r="U164" s="3" t="str">
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>徐晃专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>夏侯渊专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>1611010</v>
+        <v>1611009</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F165" s="3">
         <v>16</v>
@@ -12019,24 +12434,26 @@
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
-      <c r="U165" s="3" t="str">
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>张郃专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>徐晃专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>1611011</v>
+        <v>1611010</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F166" s="3">
         <v>16</v>
@@ -12073,24 +12490,26 @@
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
-      <c r="U166" s="3" t="str">
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>张飞专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="167" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>张郃专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>1611012</v>
+        <v>1611011</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F167" s="3">
         <v>16</v>
@@ -12127,24 +12546,26 @@
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
-      <c r="U167" s="3" t="str">
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>夏侯惇专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>张飞专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>1611013</v>
+        <v>1611012</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F168" s="3">
         <v>16</v>
@@ -12181,24 +12602,26 @@
       <c r="R168" s="3"/>
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
-      <c r="U168" s="3" t="str">
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>塞伯罗斯专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>夏侯惇专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>1611014</v>
+        <v>1611013</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F169" s="3">
         <v>16</v>
@@ -12235,24 +12658,26 @@
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
       <c r="T169" s="3"/>
-      <c r="U169" s="3" t="str">
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>石灵明专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>塞伯罗斯专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>1611015</v>
+        <v>1611014</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F170" s="3">
         <v>16</v>
@@ -12289,24 +12714,26 @@
       <c r="R170" s="3"/>
       <c r="S170" s="3"/>
       <c r="T170" s="3"/>
-      <c r="U170" s="3" t="str">
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>于禁专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>石灵明专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>1611016</v>
+        <v>1611015</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F171" s="3">
         <v>16</v>
@@ -12343,24 +12770,26 @@
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
       <c r="T171" s="3"/>
-      <c r="U171" s="3" t="str">
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>西方龙专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>于禁专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>1611017</v>
+        <v>1611016</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F172" s="3">
         <v>16</v>
@@ -12397,24 +12826,26 @@
       <c r="R172" s="3"/>
       <c r="S172" s="3"/>
       <c r="T172" s="3"/>
-      <c r="U172" s="3" t="str">
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>飞廉专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>西方龙专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>1611018</v>
+        <v>1611017</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F173" s="3">
         <v>16</v>
@@ -12451,24 +12882,26 @@
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
       <c r="T173" s="3"/>
-      <c r="U173" s="3" t="str">
+      <c r="U173" s="3"/>
+      <c r="V173" s="3"/>
+      <c r="W173" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>噬日专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>飞廉专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>1611019</v>
+        <v>1611018</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F174" s="3">
         <v>16</v>
@@ -12505,24 +12938,26 @@
       <c r="R174" s="3"/>
       <c r="S174" s="3"/>
       <c r="T174" s="3"/>
-      <c r="U174" s="3" t="str">
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+      <c r="W174" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>食火蜥专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>噬日专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>1611020</v>
+        <v>1611019</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F175" s="3">
         <v>16</v>
@@ -12559,24 +12994,26 @@
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
       <c r="T175" s="3"/>
-      <c r="U175" s="3" t="str">
+      <c r="U175" s="3"/>
+      <c r="V175" s="3"/>
+      <c r="W175" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>高顺专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>食火蜥专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>1611021</v>
+        <v>1611020</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F176" s="3">
         <v>16</v>
@@ -12613,51 +13050,53 @@
       <c r="R176" s="3"/>
       <c r="S176" s="3"/>
       <c r="T176" s="3"/>
-      <c r="U176" s="3" t="str">
+      <c r="U176" s="3"/>
+      <c r="V176" s="3"/>
+      <c r="W176" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>烈风螳螂专属武器碎片,用于激活和解封专属武器</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+        <v>高顺专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>1701001</v>
+        <v>1611021</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>462</v>
+        <v>627</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>462</v>
+        <v>648</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="F177" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G177" s="3">
+        <v>4</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I177" s="3">
+        <v>999</v>
+      </c>
+      <c r="J177" s="3">
+        <v>0</v>
+      </c>
+      <c r="K177" s="3">
+        <v>0</v>
+      </c>
+      <c r="L177" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M177" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N177" s="3">
         <v>3</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I177" s="3">
-        <v>999</v>
-      </c>
-      <c r="J177" s="3">
-        <v>0</v>
-      </c>
-      <c r="K177" s="3">
-        <v>0</v>
-      </c>
-      <c r="L177" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M177" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N177" s="3">
-        <v>2</v>
       </c>
       <c r="O177" s="3">
         <v>0</v>
@@ -12667,29 +13106,32 @@
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
       <c r="T177" s="3"/>
-      <c r="U177" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U177" s="3"/>
+      <c r="V177" s="3"/>
+      <c r="W177" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>烈风螳螂专属武器碎片,用于激活和解封专属武器</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>1701002</v>
+        <v>1701001</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F178" s="3">
         <v>17</v>
       </c>
       <c r="G178" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>51</v>
@@ -12720,29 +13162,31 @@
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
       <c r="T178" s="3"/>
-      <c r="U178" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U178" s="3"/>
+      <c r="V178" s="3"/>
+      <c r="W178" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>1701003</v>
+        <v>1701002</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F179" s="3">
         <v>17</v>
       </c>
       <c r="G179" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>51</v>
@@ -12773,29 +13217,31 @@
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
       <c r="T179" s="3"/>
-      <c r="U179" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U179" s="3"/>
+      <c r="V179" s="3"/>
+      <c r="W179" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>1701004</v>
+        <v>1701003</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F180" s="3">
         <v>17</v>
       </c>
       <c r="G180" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>51</v>
@@ -12826,23 +13272,25 @@
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
-      <c r="U180" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U180" s="3"/>
+      <c r="V180" s="3"/>
+      <c r="W180" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>1701005</v>
+        <v>1701004</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F181" s="3">
         <v>17</v>
@@ -12879,29 +13327,31 @@
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
       <c r="T181" s="3"/>
-      <c r="U181" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U181" s="3"/>
+      <c r="V181" s="3"/>
+      <c r="W181" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>1701006</v>
+        <v>1701005</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F182" s="3">
         <v>17</v>
       </c>
       <c r="G182" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>51</v>
@@ -12932,29 +13382,31 @@
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
-      <c r="U182" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U182" s="3"/>
+      <c r="V182" s="3"/>
+      <c r="W182" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>1701007</v>
+        <v>1701006</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F183" s="3">
         <v>17</v>
       </c>
       <c r="G183" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>51</v>
@@ -12985,29 +13437,31 @@
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
-      <c r="U183" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+      <c r="W183" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>1701008</v>
+        <v>1701007</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F184" s="3">
         <v>17</v>
       </c>
       <c r="G184" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>51</v>
@@ -13038,29 +13492,31 @@
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
       <c r="T184" s="3"/>
-      <c r="U184" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U184" s="3"/>
+      <c r="V184" s="3"/>
+      <c r="W184" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>1701009</v>
+        <v>1701008</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
       </c>
       <c r="G185" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>51</v>
@@ -13091,29 +13547,31 @@
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
       <c r="T185" s="3"/>
-      <c r="U185" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U185" s="3"/>
+      <c r="V185" s="3"/>
+      <c r="W185" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>1701010</v>
+        <v>1701009</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
       </c>
       <c r="G186" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>51</v>
@@ -13144,29 +13602,31 @@
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
       <c r="T186" s="3"/>
-      <c r="U186" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U186" s="3"/>
+      <c r="V186" s="3"/>
+      <c r="W186" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>1701011</v>
+        <v>1701010</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
       </c>
       <c r="G187" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>51</v>
@@ -13197,29 +13657,31 @@
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
       <c r="T187" s="3"/>
-      <c r="U187" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U187" s="3"/>
+      <c r="V187" s="3"/>
+      <c r="W187" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>1701012</v>
+        <v>1701011</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
       </c>
       <c r="G188" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>51</v>
@@ -13250,23 +13712,25 @@
       <c r="R188" s="3"/>
       <c r="S188" s="3"/>
       <c r="T188" s="3"/>
-      <c r="U188" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U188" s="3"/>
+      <c r="V188" s="3"/>
+      <c r="W188" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>1701013</v>
+        <v>1701012</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
@@ -13303,29 +13767,31 @@
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
-      <c r="U189" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U189" s="3"/>
+      <c r="V189" s="3"/>
+      <c r="W189" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>1701014</v>
+        <v>1701013</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
       </c>
       <c r="G190" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>51</v>
@@ -13356,29 +13822,31 @@
       <c r="R190" s="3"/>
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
-      <c r="U190" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U190" s="3"/>
+      <c r="V190" s="3"/>
+      <c r="W190" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>1701015</v>
+        <v>1701014</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
       </c>
       <c r="G191" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>51</v>
@@ -13409,29 +13877,31 @@
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
       <c r="T191" s="3"/>
-      <c r="U191" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U191" s="3"/>
+      <c r="V191" s="3"/>
+      <c r="W191" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>1702001</v>
+        <v>1701015</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
       </c>
       <c r="G192" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>51</v>
@@ -13452,7 +13922,7 @@
         <v>1</v>
       </c>
       <c r="N192" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O192" s="3">
         <v>0</v>
@@ -13462,29 +13932,31 @@
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
-      <c r="U192" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U192" s="3"/>
+      <c r="V192" s="3"/>
+      <c r="W192" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>1702002</v>
+        <v>1702001</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
       </c>
       <c r="G193" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>51</v>
@@ -13515,23 +13987,25 @@
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
-      <c r="U193" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U193" s="3"/>
+      <c r="V193" s="3"/>
+      <c r="W193" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>1702003</v>
+        <v>1702002</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
@@ -13568,29 +14042,31 @@
       <c r="R194" s="3"/>
       <c r="S194" s="3"/>
       <c r="T194" s="3"/>
-      <c r="U194" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U194" s="3"/>
+      <c r="V194" s="3"/>
+      <c r="W194" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>1702004</v>
+        <v>1702003</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
       </c>
       <c r="G195" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>51</v>
@@ -13621,29 +14097,31 @@
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
-      <c r="U195" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U195" s="3"/>
+      <c r="V195" s="3"/>
+      <c r="W195" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>1702005</v>
+        <v>1702004</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
       </c>
       <c r="G196" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>51</v>
@@ -13674,29 +14152,31 @@
       <c r="R196" s="3"/>
       <c r="S196" s="3"/>
       <c r="T196" s="3"/>
-      <c r="U196" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U196" s="3"/>
+      <c r="V196" s="3"/>
+      <c r="W196" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>1702006</v>
+        <v>1702005</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
       </c>
       <c r="G197" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>51</v>
@@ -13727,23 +14207,25 @@
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
-      <c r="U197" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U197" s="3"/>
+      <c r="V197" s="3"/>
+      <c r="W197" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>1702007</v>
+        <v>1702006</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>697</v>
+        <v>521</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
@@ -13780,29 +14262,31 @@
       <c r="R198" s="3"/>
       <c r="S198" s="3"/>
       <c r="T198" s="3"/>
-      <c r="U198" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="199" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U198" s="3"/>
+      <c r="V198" s="3"/>
+      <c r="W198" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>1702008</v>
+        <v>1702007</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>528</v>
+        <v>696</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
       </c>
       <c r="G199" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>51</v>
@@ -13833,29 +14317,31 @@
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
       <c r="T199" s="3"/>
-      <c r="U199" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="200" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U199" s="3"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>1702009</v>
+        <v>1702008</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
       </c>
       <c r="G200" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>51</v>
@@ -13886,23 +14372,25 @@
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
       <c r="T200" s="3"/>
-      <c r="U200" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="201" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+      <c r="W200" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>1702010</v>
+        <v>1702009</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
@@ -13939,23 +14427,25 @@
       <c r="R201" s="3"/>
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
-      <c r="U201" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="202" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+      <c r="W201" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>1702011</v>
+        <v>1702010</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
@@ -13992,23 +14482,25 @@
       <c r="R202" s="3"/>
       <c r="S202" s="3"/>
       <c r="T202" s="3"/>
-      <c r="U202" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="203" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U202" s="3"/>
+      <c r="V202" s="3"/>
+      <c r="W202" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>1702012</v>
+        <v>1702011</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F203" s="3">
         <v>17</v>
@@ -14045,29 +14537,31 @@
       <c r="R203" s="3"/>
       <c r="S203" s="3"/>
       <c r="T203" s="3"/>
-      <c r="U203" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="204" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U203" s="3"/>
+      <c r="V203" s="3"/>
+      <c r="W203" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>1702013</v>
+        <v>1702012</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F204" s="3">
         <v>17</v>
       </c>
       <c r="G204" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>51</v>
@@ -14098,29 +14592,31 @@
       <c r="R204" s="3"/>
       <c r="S204" s="3"/>
       <c r="T204" s="3"/>
-      <c r="U204" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>1702014</v>
+        <v>1702013</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F205" s="3">
         <v>17</v>
       </c>
       <c r="G205" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>51</v>
@@ -14151,29 +14647,31 @@
       <c r="R205" s="3"/>
       <c r="S205" s="3"/>
       <c r="T205" s="3"/>
-      <c r="U205" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="206" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U205" s="3"/>
+      <c r="V205" s="3"/>
+      <c r="W205" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>1702015</v>
+        <v>1702014</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F206" s="3">
         <v>17</v>
       </c>
       <c r="G206" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>51</v>
@@ -14204,29 +14702,31 @@
       <c r="R206" s="3"/>
       <c r="S206" s="3"/>
       <c r="T206" s="3"/>
-      <c r="U206" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="207" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>1702016</v>
+        <v>1702015</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F207" s="3">
         <v>17</v>
       </c>
       <c r="G207" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>51</v>
@@ -14257,29 +14757,31 @@
       <c r="R207" s="3"/>
       <c r="S207" s="3"/>
       <c r="T207" s="3"/>
-      <c r="U207" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>1702017</v>
+        <v>1702016</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F208" s="3">
         <v>17</v>
       </c>
       <c r="G208" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>51</v>
@@ -14310,23 +14812,25 @@
       <c r="R208" s="3"/>
       <c r="S208" s="3"/>
       <c r="T208" s="3"/>
-      <c r="U208" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U208" s="3"/>
+      <c r="V208" s="3"/>
+      <c r="W208" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>1702018</v>
+        <v>1702017</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F209" s="3">
         <v>17</v>
@@ -14363,23 +14867,25 @@
       <c r="R209" s="3"/>
       <c r="S209" s="3"/>
       <c r="T209" s="3"/>
-      <c r="U209" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U209" s="3"/>
+      <c r="V209" s="3"/>
+      <c r="W209" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>1702019</v>
+        <v>1702018</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F210" s="3">
         <v>17</v>
@@ -14416,23 +14922,25 @@
       <c r="R210" s="3"/>
       <c r="S210" s="3"/>
       <c r="T210" s="3"/>
-      <c r="U210" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U210" s="3"/>
+      <c r="V210" s="3"/>
+      <c r="W210" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>1702020</v>
+        <v>1702019</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F211" s="3">
         <v>17</v>
@@ -14469,29 +14977,31 @@
       <c r="R211" s="3"/>
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
-      <c r="U211" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U211" s="3"/>
+      <c r="V211" s="3"/>
+      <c r="W211" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>1702021</v>
+        <v>1702020</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F212" s="3">
         <v>17</v>
       </c>
       <c r="G212" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>51</v>
@@ -14522,35 +15032,37 @@
       <c r="R212" s="3"/>
       <c r="S212" s="3"/>
       <c r="T212" s="3"/>
-      <c r="U212" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U212" s="3"/>
+      <c r="V212" s="3"/>
+      <c r="W212" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>2000001</v>
+        <v>1702021</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F213" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G213" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I213" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J213" s="3">
         <v>0</v>
@@ -14572,30 +15084,28 @@
       </c>
       <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
-      <c r="R213" s="3">
-        <v>2</v>
-      </c>
+      <c r="R213" s="3"/>
       <c r="S213" s="3"/>
-      <c r="T213" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="U213" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+      <c r="W213" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F214" s="3">
         <v>20</v>
@@ -14630,30 +15140,31 @@
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
       <c r="R214" s="3">
-        <v>1</v>
-      </c>
-      <c r="S214" s="3">
-        <f>1*3600</f>
-        <v>3600</v>
-      </c>
-      <c r="T214" s="3"/>
-      <c r="U214" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S214" s="3"/>
+      <c r="T214" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="U214" s="6"/>
+      <c r="V214" s="6"/>
+      <c r="W214" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F215" s="3">
         <v>20</v>
@@ -14688,30 +15199,35 @@
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
       <c r="R215" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S215" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="S215" s="3">
+        <f>1*3600</f>
+        <v>3600</v>
+      </c>
       <c r="T215" s="3"/>
-      <c r="U215" s="3" t="s">
+      <c r="U215" s="3"/>
+      <c r="V215" s="3"/>
+      <c r="W215" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>2100003</v>
+        <v>2000003</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F216" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G216" s="3">
         <v>3</v>
@@ -14747,23 +15263,25 @@
       </c>
       <c r="S216" s="3"/>
       <c r="T216" s="3"/>
-      <c r="U216" s="3" t="s">
+      <c r="U216" s="3"/>
+      <c r="V216" s="3"/>
+      <c r="W216" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="217" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>2100004</v>
+        <v>2100003</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F217" s="3">
         <v>21</v>
@@ -14798,13 +15316,72 @@
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
       <c r="R217" s="3">
-        <v>1</v>
-      </c>
-      <c r="S217" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S217" s="3"/>
+      <c r="T217" s="3"/>
+      <c r="U217" s="3"/>
+      <c r="V217" s="3"/>
+      <c r="W217" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>2100004</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F218" s="3">
+        <v>21</v>
+      </c>
+      <c r="G218" s="3">
+        <v>3</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I218" s="3">
+        <v>1</v>
+      </c>
+      <c r="J218" s="3">
+        <v>0</v>
+      </c>
+      <c r="K218" s="3">
+        <v>0</v>
+      </c>
+      <c r="L218" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M218" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N218" s="3">
+        <v>3</v>
+      </c>
+      <c r="O218" s="3">
+        <v>0</v>
+      </c>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3">
+        <v>1</v>
+      </c>
+      <c r="S218" s="3">
         <v>600</v>
       </c>
-      <c r="T217" s="3"/>
-      <c r="U217" s="3" t="s">
+      <c r="T218" s="3"/>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3"/>
+      <c r="W218" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -14843,22 +15420,22 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -14866,22 +15443,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" t="s">
         <v>584</v>
-      </c>
-      <c r="C2" t="s">
-        <v>585</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -14892,25 +15469,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -14918,7 +15495,7 @@
         <v>1603001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3">
         <v>1401011</v>
@@ -14936,7 +15513,7 @@
         <v>1603002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="3">
         <v>1401011</v>
@@ -14954,7 +15531,7 @@
         <v>1603003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3">
         <v>1401011</v>
@@ -14972,7 +15549,7 @@
         <v>1603004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="3">
         <v>1401011</v>
@@ -14990,7 +15567,7 @@
         <v>1603005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3">
         <v>1401011</v>
@@ -15008,7 +15585,7 @@
         <v>1603006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3">
         <v>1401011</v>
@@ -15026,7 +15603,7 @@
         <v>1603007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3">
         <v>1401011</v>
@@ -15044,7 +15621,7 @@
         <v>1603008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3">
         <v>1401011</v>
@@ -15062,7 +15639,7 @@
         <v>1603009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="3">
         <v>1401011</v>
@@ -15080,7 +15657,7 @@
         <v>1603010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3">
         <v>1401011</v>
@@ -15098,7 +15675,7 @@
         <v>1603011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3">
         <v>1401011</v>
@@ -15116,7 +15693,7 @@
         <v>1603012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="3">
         <v>1401011</v>
@@ -15134,7 +15711,7 @@
         <v>1603013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3">
         <v>1401011</v>
@@ -15152,7 +15729,7 @@
         <v>1603014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="3">
         <v>1401011</v>
@@ -15170,7 +15747,7 @@
         <v>1603015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3">
         <v>1401011</v>
@@ -15188,7 +15765,7 @@
         <v>1603016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3">
         <v>1401011</v>
@@ -15206,7 +15783,7 @@
         <v>1603017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3">
         <v>1401011</v>
@@ -15224,7 +15801,7 @@
         <v>1603018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="3">
         <v>1401011</v>
@@ -15242,7 +15819,7 @@
         <v>1603019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="3">
         <v>1401011</v>
@@ -15260,7 +15837,7 @@
         <v>1603020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="3">
         <v>1401011</v>
@@ -15278,7 +15855,7 @@
         <v>1603021</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="3">
         <v>1401011</v>
@@ -15296,7 +15873,7 @@
         <v>1603022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" s="3">
         <v>1401011</v>
@@ -15314,7 +15891,7 @@
         <v>1603023</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="3">
         <v>1401011</v>
@@ -15332,7 +15909,7 @@
         <v>1604001</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="3">
         <v>1401011</v>
@@ -15350,7 +15927,7 @@
         <v>1604002</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="3">
         <v>1401011</v>
@@ -15368,7 +15945,7 @@
         <v>1606001</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="3">
         <v>1401011</v>
@@ -15386,7 +15963,7 @@
         <v>1606002</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" s="3">
         <v>1401011</v>
@@ -15404,7 +15981,7 @@
         <v>1606003</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31" s="3">
         <v>1401011</v>
@@ -15422,7 +15999,7 @@
         <v>1606004</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C32" s="3">
         <v>1401011</v>
@@ -15440,7 +16017,7 @@
         <v>1606005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33" s="3">
         <v>1401011</v>
@@ -15458,7 +16035,7 @@
         <v>1606006</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="3">
         <v>1401011</v>
@@ -15476,7 +16053,7 @@
         <v>1606007</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="3">
         <v>1401011</v>
@@ -15494,7 +16071,7 @@
         <v>1606008</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" s="3">
         <v>1401011</v>
@@ -15512,7 +16089,7 @@
         <v>1606009</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="3">
         <v>1401011</v>
@@ -15530,7 +16107,7 @@
         <v>1606010</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C38" s="3">
         <v>1401011</v>
@@ -15548,7 +16125,7 @@
         <v>1606011</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="3">
         <v>1401011</v>
@@ -15566,7 +16143,7 @@
         <v>1606012</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C40" s="3">
         <v>1401011</v>
@@ -15584,7 +16161,7 @@
         <v>1606013</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C41" s="3">
         <v>1401011</v>
@@ -15602,7 +16179,7 @@
         <v>1606014</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C42" s="3">
         <v>1401011</v>
@@ -15620,7 +16197,7 @@
         <v>1606015</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C43" s="3">
         <v>1401011</v>
@@ -15638,7 +16215,7 @@
         <v>1606016</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C44" s="3">
         <v>1401011</v>
@@ -15656,7 +16233,7 @@
         <v>1606017</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C45" s="3">
         <v>1401011</v>
@@ -15674,7 +16251,7 @@
         <v>1606018</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C46" s="3">
         <v>1401011</v>
@@ -15692,7 +16269,7 @@
         <v>1606019</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C47" s="3">
         <v>1401011</v>
@@ -15710,7 +16287,7 @@
         <v>1606020</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C48" s="3">
         <v>1401011</v>
@@ -15728,7 +16305,7 @@
         <v>1606021</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C49" s="3">
         <v>1401011</v>
@@ -15746,7 +16323,7 @@
         <v>1606022</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C50" s="3">
         <v>1401011</v>
@@ -15764,7 +16341,7 @@
         <v>1606023</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C51" s="3">
         <v>1401011</v>
@@ -15782,7 +16359,7 @@
         <v>1606024</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C52" s="3">
         <v>1401011</v>
@@ -15800,7 +16377,7 @@
         <v>1606025</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C53" s="3">
         <v>1401011</v>
@@ -15818,7 +16395,7 @@
         <v>1606026</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C54" s="3">
         <v>1401011</v>
@@ -15836,7 +16413,7 @@
         <v>1606027</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C55" s="3">
         <v>1401011</v>
@@ -15854,7 +16431,7 @@
         <v>1606028</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C56" s="3">
         <v>1401011</v>
@@ -15872,7 +16449,7 @@
         <v>1606029</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C57" s="3">
         <v>1401011</v>
@@ -15890,7 +16467,7 @@
         <v>1606030</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C58" s="3">
         <v>1401011</v>
@@ -15908,7 +16485,7 @@
         <v>1606031</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C59" s="3">
         <v>1401011</v>
@@ -15926,7 +16503,7 @@
         <v>1606032</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C60" s="3">
         <v>1401011</v>
@@ -15944,7 +16521,7 @@
         <v>1607001</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C61" s="3">
         <v>1401011</v>
@@ -15962,7 +16539,7 @@
         <v>1607002</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C62" s="3">
         <v>1401011</v>
@@ -15980,7 +16557,7 @@
         <v>1607003</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C63" s="3">
         <v>1401011</v>
@@ -15998,7 +16575,7 @@
         <v>1607004</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C64" s="3">
         <v>1401011</v>
@@ -16016,7 +16593,7 @@
         <v>1607005</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C65" s="3">
         <v>1401011</v>
@@ -16034,7 +16611,7 @@
         <v>1607006</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C66" s="3">
         <v>1401011</v>
@@ -16052,7 +16629,7 @@
         <v>1607007</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C67" s="3">
         <v>1401011</v>
@@ -16070,7 +16647,7 @@
         <v>1607008</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C68" s="3">
         <v>1401011</v>
@@ -16088,7 +16665,7 @@
         <v>1607009</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C69" s="3">
         <v>1401011</v>
@@ -16106,7 +16683,7 @@
         <v>1608001</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C70" s="3">
         <v>1401011</v>
@@ -16124,7 +16701,7 @@
         <v>1608002</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C71" s="3">
         <v>1401011</v>
@@ -16142,7 +16719,7 @@
         <v>1608003</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C72" s="3">
         <v>1401011</v>
@@ -16160,7 +16737,7 @@
         <v>1608004</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C73" s="3">
         <v>1401011</v>
@@ -16178,7 +16755,7 @@
         <v>1608005</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C74" s="3">
         <v>1401011</v>
@@ -16196,7 +16773,7 @@
         <v>1608006</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C75" s="3">
         <v>1401011</v>
@@ -16214,7 +16791,7 @@
         <v>1608007</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C76" s="3">
         <v>1401011</v>
@@ -16232,7 +16809,7 @@
         <v>1608008</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C77" s="3">
         <v>1401011</v>
@@ -16250,7 +16827,7 @@
         <v>1608009</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C78" s="3">
         <v>1401011</v>
@@ -16268,7 +16845,7 @@
         <v>1608010</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C79" s="3">
         <v>1401011</v>
@@ -16286,7 +16863,7 @@
         <v>1608011</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C80" s="3">
         <v>1401011</v>
@@ -16304,7 +16881,7 @@
         <v>1608012</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C81" s="3">
         <v>1401011</v>
@@ -16322,7 +16899,7 @@
         <v>1608013</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C82" s="3">
         <v>1401011</v>
@@ -16340,7 +16917,7 @@
         <v>1608014</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C83" s="3">
         <v>1401011</v>
@@ -16358,7 +16935,7 @@
         <v>1608015</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C84" s="3">
         <v>1401011</v>
@@ -16376,7 +16953,7 @@
         <v>1609001</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C85" s="3">
         <v>1401011</v>
@@ -16394,7 +16971,7 @@
         <v>1609002</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C86" s="3">
         <v>1401011</v>
@@ -16412,7 +16989,7 @@
         <v>1609003</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C87" s="3">
         <v>1401011</v>
@@ -16452,22 +17029,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -16475,7 +17052,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -16484,7 +17061,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -16498,22 +17075,22 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -16528,7 +17105,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="787">
   <si>
     <t>sheet名</t>
   </si>
@@ -1486,9 +1486,6 @@
     <t>head_cfcyb_1101001</t>
   </si>
   <si>
-    <t>寄灵人常服曹焱兵的碎片，是其合成和升星的必要材料。</t>
-  </si>
-  <si>
     <t>曹玄亮碎片</t>
   </si>
   <si>
@@ -1504,9 +1501,6 @@
     <t>head_zdxl_1101003</t>
   </si>
   <si>
-    <t>寄灵人战斗夏玲的碎片，是其合成和升星的必要材料。</t>
-  </si>
-  <si>
     <t>项昆仑碎片</t>
   </si>
   <si>
@@ -1540,9 +1534,6 @@
     <t>head_zdcyb_1101007</t>
   </si>
   <si>
-    <t>寄灵人战斗曹焱兵的碎片，是其合成和升星的必要材料。</t>
-  </si>
-  <si>
     <t>黑尔·坎普碎片</t>
   </si>
   <si>
@@ -1754,9 +1745,6 @@
   </si>
   <si>
     <t>head_xfl_1102016</t>
-  </si>
-  <si>
-    <t>守护灵西方龙的碎片，是其合成和升星的必要材料。</t>
   </si>
   <si>
     <t>飞廉碎片</t>
@@ -2576,6 +2564,38 @@
   </si>
   <si>
     <t>玩家的经验，可通过关卡首通，每日任务和挂机派遣获得。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵装曹焱兵碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵装夏铃碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人灵装曹焱兵的碎片，是其合成和升星的必要材料。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人灵装夏铃的碎片，是其合成和升星的必要材料。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提亚马特碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹焱兵碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人曹焱兵的碎片，是其合成和升星的必要材料。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵提亚马特的碎片，是其合成和升星的必要材料。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3235,10 +3255,10 @@
   <dimension ref="A1:W218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="W209" sqref="W209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3331,10 +3351,10 @@
         <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>35</v>
@@ -3354,7 +3374,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -3387,7 +3407,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>42</v>
@@ -3402,10 +3422,10 @@
         <v>43</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="W2" t="s">
         <v>37</v>
@@ -3473,10 +3493,10 @@
         <v>63</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>64</v>
@@ -3978,7 +3998,7 @@
         <v>1401010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>98</v>
@@ -4192,10 +4212,10 @@
         <v>1401014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -4237,7 +4257,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4366,7 +4386,7 @@
         <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -4421,7 +4441,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -4476,7 +4496,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
@@ -4531,7 +4551,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -4586,7 +4606,7 @@
         <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -4641,7 +4661,7 @@
         <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -4696,7 +4716,7 @@
         <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -4751,7 +4771,7 @@
         <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
@@ -4806,7 +4826,7 @@
         <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -4861,7 +4881,7 @@
         <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -4916,7 +4936,7 @@
         <v>154</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -4971,7 +4991,7 @@
         <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -5026,7 +5046,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -5246,7 +5266,7 @@
         <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
@@ -5301,7 +5321,7 @@
         <v>176</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
@@ -5356,7 +5376,7 @@
         <v>180</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
@@ -5411,7 +5431,7 @@
         <v>184</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
@@ -5466,7 +5486,7 @@
         <v>188</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
@@ -5795,7 +5815,7 @@
         <v>1606002</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>211</v>
@@ -7500,7 +7520,7 @@
         <v>1606103</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>215</v>
@@ -7547,7 +7567,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7555,7 +7575,7 @@
         <v>1606104</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>219</v>
@@ -7602,7 +7622,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7610,7 +7630,7 @@
         <v>1606105</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>223</v>
@@ -7657,7 +7677,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7665,7 +7685,7 @@
         <v>1606106</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>227</v>
@@ -7712,7 +7732,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7720,7 +7740,7 @@
         <v>1606107</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>231</v>
@@ -7767,7 +7787,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7775,7 +7795,7 @@
         <v>1606108</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>235</v>
@@ -7822,7 +7842,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7830,7 +7850,7 @@
         <v>1606109</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>239</v>
@@ -7877,7 +7897,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7885,7 +7905,7 @@
         <v>1606110</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>243</v>
@@ -7932,7 +7952,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7940,7 +7960,7 @@
         <v>1606111</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>247</v>
@@ -7987,7 +8007,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7995,7 +8015,7 @@
         <v>1606112</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>251</v>
@@ -8042,7 +8062,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8050,7 +8070,7 @@
         <v>1606113</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>255</v>
@@ -8097,7 +8117,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8105,7 +8125,7 @@
         <v>1606114</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>259</v>
@@ -8152,7 +8172,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8160,7 +8180,7 @@
         <v>1606115</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>263</v>
@@ -8207,7 +8227,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8215,7 +8235,7 @@
         <v>1606116</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>267</v>
@@ -8262,7 +8282,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8270,7 +8290,7 @@
         <v>1606117</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>271</v>
@@ -8317,7 +8337,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8325,7 +8345,7 @@
         <v>1606118</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>275</v>
@@ -8372,7 +8392,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8380,7 +8400,7 @@
         <v>1606119</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>279</v>
@@ -8427,7 +8447,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8435,7 +8455,7 @@
         <v>1606120</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>283</v>
@@ -8482,7 +8502,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8490,7 +8510,7 @@
         <v>1606121</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>287</v>
@@ -8537,7 +8557,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8545,7 +8565,7 @@
         <v>1606122</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>291</v>
@@ -8592,7 +8612,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8600,7 +8620,7 @@
         <v>1606123</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>295</v>
@@ -8647,7 +8667,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8655,7 +8675,7 @@
         <v>1606124</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>299</v>
@@ -8702,7 +8722,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8710,7 +8730,7 @@
         <v>1606125</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>303</v>
@@ -8757,7 +8777,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8765,7 +8785,7 @@
         <v>1606126</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>307</v>
@@ -8812,7 +8832,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8820,7 +8840,7 @@
         <v>1606127</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>311</v>
@@ -8867,7 +8887,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8875,7 +8895,7 @@
         <v>1606128</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>315</v>
@@ -8922,7 +8942,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8930,7 +8950,7 @@
         <v>1606129</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>319</v>
@@ -8977,7 +8997,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8985,7 +9005,7 @@
         <v>1606130</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>323</v>
@@ -9032,7 +9052,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9040,7 +9060,7 @@
         <v>1606131</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>327</v>
@@ -9087,7 +9107,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9095,7 +9115,7 @@
         <v>1606132</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>331</v>
@@ -9142,7 +9162,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11011,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
@@ -11142,7 +11162,7 @@
         <v>1605004</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>454</v>
@@ -11239,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
@@ -11313,10 +11333,10 @@
         <v>1605007</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
@@ -11353,7 +11373,7 @@
         <v>1</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
@@ -11362,7 +11382,7 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11370,10 +11390,10 @@
         <v>1605008</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
@@ -11410,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
@@ -11419,7 +11439,7 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11427,10 +11447,10 @@
         <v>1605009</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
@@ -11467,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
@@ -11476,7 +11496,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11484,10 +11504,10 @@
         <v>1605010</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
@@ -11524,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
@@ -11533,7 +11553,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11541,10 +11561,10 @@
         <v>1605011</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
@@ -11581,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -11590,7 +11610,7 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11598,10 +11618,10 @@
         <v>1605012</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
@@ -11638,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -11647,7 +11667,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11655,10 +11675,10 @@
         <v>1605013</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
@@ -11695,7 +11715,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
@@ -11704,7 +11724,7 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11712,10 +11732,10 @@
         <v>1605014</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
@@ -11752,7 +11772,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
@@ -11761,7 +11781,7 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11769,10 +11789,10 @@
         <v>1605015</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
@@ -11809,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
@@ -11818,7 +11838,7 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11826,10 +11846,10 @@
         <v>1605016</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
@@ -11866,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
@@ -11875,7 +11895,7 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11883,10 +11903,10 @@
         <v>1605017</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D156" s="3">
         <v>1</v>
@@ -11925,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="P156" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
@@ -11934,7 +11954,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11942,14 +11962,14 @@
         <v>1611001</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F157" s="3">
         <v>16</v>
@@ -11998,10 +12018,10 @@
         <v>1611002</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
@@ -12054,14 +12074,14 @@
         <v>1611003</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12110,14 +12130,14 @@
         <v>1611004</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12166,14 +12186,14 @@
         <v>1611005</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
@@ -12222,14 +12242,14 @@
         <v>1611006</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
@@ -12278,14 +12298,14 @@
         <v>1611007</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F163" s="3">
         <v>16</v>
@@ -12334,14 +12354,14 @@
         <v>1611008</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F164" s="3">
         <v>16</v>
@@ -12390,14 +12410,14 @@
         <v>1611009</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F165" s="3">
         <v>16</v>
@@ -12446,14 +12466,14 @@
         <v>1611010</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F166" s="3">
         <v>16</v>
@@ -12502,14 +12522,14 @@
         <v>1611011</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F167" s="3">
         <v>16</v>
@@ -12558,14 +12578,14 @@
         <v>1611012</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F168" s="3">
         <v>16</v>
@@ -12614,14 +12634,14 @@
         <v>1611013</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F169" s="3">
         <v>16</v>
@@ -12670,14 +12690,14 @@
         <v>1611014</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F170" s="3">
         <v>16</v>
@@ -12726,14 +12746,14 @@
         <v>1611015</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F171" s="3">
         <v>16</v>
@@ -12782,14 +12802,14 @@
         <v>1611016</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F172" s="3">
         <v>16</v>
@@ -12838,14 +12858,14 @@
         <v>1611017</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F173" s="3">
         <v>16</v>
@@ -12894,14 +12914,14 @@
         <v>1611018</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F174" s="3">
         <v>16</v>
@@ -12950,14 +12970,14 @@
         <v>1611019</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F175" s="3">
         <v>16</v>
@@ -13006,14 +13026,14 @@
         <v>1611020</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F176" s="3">
         <v>16</v>
@@ -13062,14 +13082,14 @@
         <v>1611021</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F177" s="3">
         <v>16</v>
@@ -13121,7 +13141,7 @@
         <v>461</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>461</v>
+        <v>784</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
@@ -13165,7 +13185,7 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
       <c r="W178" s="3" t="s">
-        <v>463</v>
+        <v>785</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13173,14 +13193,14 @@
         <v>1701002</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F179" s="3">
         <v>17</v>
@@ -13220,7 +13240,7 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13228,14 +13248,14 @@
         <v>1701003</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>467</v>
+        <v>780</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F180" s="3">
         <v>17</v>
@@ -13275,7 +13295,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>469</v>
+        <v>782</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13283,14 +13303,14 @@
         <v>1701004</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F181" s="3">
         <v>17</v>
@@ -13330,7 +13350,7 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13338,14 +13358,14 @@
         <v>1701005</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F182" s="3">
         <v>17</v>
@@ -13385,7 +13405,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13393,14 +13413,14 @@
         <v>1701006</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F183" s="3">
         <v>17</v>
@@ -13440,7 +13460,7 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13448,14 +13468,14 @@
         <v>1701007</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>479</v>
+        <v>779</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F184" s="3">
         <v>17</v>
@@ -13495,7 +13515,7 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3" t="s">
-        <v>481</v>
+        <v>781</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13503,14 +13523,14 @@
         <v>1701008</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
@@ -13550,7 +13570,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13558,14 +13578,14 @@
         <v>1701009</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
@@ -13605,7 +13625,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13613,14 +13633,14 @@
         <v>1701010</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
@@ -13660,7 +13680,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13668,14 +13688,14 @@
         <v>1701011</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
@@ -13715,7 +13735,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13723,14 +13743,14 @@
         <v>1701012</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
@@ -13770,7 +13790,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13778,14 +13798,14 @@
         <v>1701013</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
@@ -13825,7 +13845,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13833,14 +13853,14 @@
         <v>1701014</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
@@ -13880,7 +13900,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13888,14 +13908,14 @@
         <v>1701015</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
@@ -13935,7 +13955,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13943,14 +13963,14 @@
         <v>1702001</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
@@ -13990,7 +14010,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13998,14 +14018,14 @@
         <v>1702002</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
@@ -14045,7 +14065,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14053,14 +14073,14 @@
         <v>1702003</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
@@ -14100,7 +14120,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14108,14 +14128,14 @@
         <v>1702004</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
@@ -14155,7 +14175,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14163,14 +14183,14 @@
         <v>1702005</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
@@ -14210,7 +14230,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14218,14 +14238,14 @@
         <v>1702006</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
@@ -14265,7 +14285,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14273,14 +14293,14 @@
         <v>1702007</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
@@ -14320,7 +14340,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14328,14 +14348,14 @@
         <v>1702008</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
@@ -14375,7 +14395,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14383,14 +14403,14 @@
         <v>1702009</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
@@ -14430,7 +14450,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14438,14 +14458,14 @@
         <v>1702010</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
@@ -14485,7 +14505,7 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14493,14 +14513,14 @@
         <v>1702011</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F203" s="3">
         <v>17</v>
@@ -14540,7 +14560,7 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14548,14 +14568,14 @@
         <v>1702012</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F204" s="3">
         <v>17</v>
@@ -14595,7 +14615,7 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14603,14 +14623,14 @@
         <v>1702013</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F205" s="3">
         <v>17</v>
@@ -14650,7 +14670,7 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14658,14 +14678,14 @@
         <v>1702014</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F206" s="3">
         <v>17</v>
@@ -14705,7 +14725,7 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14713,14 +14733,14 @@
         <v>1702015</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F207" s="3">
         <v>17</v>
@@ -14760,7 +14780,7 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14768,14 +14788,14 @@
         <v>1702016</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>551</v>
+        <v>783</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F208" s="3">
         <v>17</v>
@@ -14815,7 +14835,7 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3" t="s">
-        <v>553</v>
+        <v>786</v>
       </c>
     </row>
     <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14823,14 +14843,14 @@
         <v>1702017</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F209" s="3">
         <v>17</v>
@@ -14870,7 +14890,7 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14878,14 +14898,14 @@
         <v>1702018</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F210" s="3">
         <v>17</v>
@@ -14925,7 +14945,7 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14933,14 +14953,14 @@
         <v>1702019</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F211" s="3">
         <v>17</v>
@@ -14980,7 +15000,7 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14988,14 +15008,14 @@
         <v>1702020</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F212" s="3">
         <v>17</v>
@@ -15035,7 +15055,7 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15043,14 +15063,14 @@
         <v>1702021</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F213" s="3">
         <v>17</v>
@@ -15090,7 +15110,7 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15098,14 +15118,14 @@
         <v>2000001</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F214" s="3">
         <v>20</v>
@@ -15144,7 +15164,7 @@
       </c>
       <c r="S214" s="3"/>
       <c r="T214" s="6" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="U214" s="6"/>
       <c r="V214" s="6"/>
@@ -15157,14 +15177,14 @@
         <v>2000002</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F215" s="3">
         <v>20</v>
@@ -15217,14 +15237,14 @@
         <v>2000003</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F216" s="3">
         <v>20</v>
@@ -15274,14 +15294,14 @@
         <v>2100003</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F217" s="3">
         <v>21</v>
@@ -15331,14 +15351,14 @@
         <v>2100004</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F218" s="3">
         <v>21</v>
@@ -15420,22 +15440,22 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -15443,22 +15463,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -15469,25 +15489,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -17029,22 +17049,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17052,7 +17072,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -17061,7 +17081,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -17075,22 +17095,22 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -17105,7 +17125,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView minimized="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3255,10 +3255,10 @@
   <dimension ref="A1:W218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W209" sqref="W209"/>
+      <selection pane="bottomRight" activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -703,9 +703,6 @@
     <t>ui_dtex_Item_1604001</t>
   </si>
   <si>
-    <t>灵域颁发的令牌，排遣巡逻时使用，可立即获得1小时收益。</t>
-  </si>
-  <si>
     <t>个人boss挑战券</t>
   </si>
   <si>
@@ -2596,6 +2593,10 @@
   </si>
   <si>
     <t>守护灵提亚马特的碎片，是其合成和升星的必要材料。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵域颁发的令牌，排遣巡逻时使用，可立即获得2小时收益。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3255,10 +3256,10 @@
   <dimension ref="A1:W218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B199" sqref="B199"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3351,10 +3352,10 @@
         <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>35</v>
@@ -3374,7 +3375,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -3407,7 +3408,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>42</v>
@@ -3422,10 +3423,10 @@
         <v>43</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="W2" t="s">
         <v>37</v>
@@ -3493,10 +3494,10 @@
         <v>63</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>64</v>
@@ -3998,7 +3999,7 @@
         <v>1401010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>98</v>
@@ -4212,10 +4213,10 @@
         <v>1401014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -4257,7 +4258,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4386,7 +4387,7 @@
         <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -4441,7 +4442,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -4496,7 +4497,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
@@ -4551,7 +4552,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -4606,7 +4607,7 @@
         <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -4661,7 +4662,7 @@
         <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -4716,7 +4717,7 @@
         <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -4771,7 +4772,7 @@
         <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
@@ -4826,7 +4827,7 @@
         <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -4881,7 +4882,7 @@
         <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -4936,7 +4937,7 @@
         <v>154</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -4991,7 +4992,7 @@
         <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -5046,7 +5047,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -5266,7 +5267,7 @@
         <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
@@ -5321,7 +5322,7 @@
         <v>176</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
@@ -5376,7 +5377,7 @@
         <v>180</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
@@ -5431,7 +5432,7 @@
         <v>184</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
@@ -5486,7 +5487,7 @@
         <v>188</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
@@ -5694,10 +5695,14 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
+      <c r="U43" s="3">
+        <v>2</v>
+      </c>
+      <c r="V43" s="3">
+        <v>1103</v>
+      </c>
       <c r="W43" s="3" t="s">
-        <v>202</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5705,14 +5710,14 @@
         <v>1604002</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" s="3">
         <v>16</v>
@@ -5752,7 +5757,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5760,14 +5765,14 @@
         <v>1606001</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
@@ -5807,7 +5812,7 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5815,14 +5820,14 @@
         <v>1606002</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F46" s="3">
         <v>16</v>
@@ -5862,7 +5867,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5870,14 +5875,14 @@
         <v>1606003</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F47" s="3">
         <v>16</v>
@@ -5917,7 +5922,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5925,14 +5930,14 @@
         <v>1606004</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48" s="3">
         <v>16</v>
@@ -5972,7 +5977,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5980,14 +5985,14 @@
         <v>1606005</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F49" s="3">
         <v>16</v>
@@ -6027,7 +6032,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6035,14 +6040,14 @@
         <v>1606006</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F50" s="3">
         <v>16</v>
@@ -6082,7 +6087,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6090,14 +6095,14 @@
         <v>1606007</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F51" s="3">
         <v>16</v>
@@ -6137,7 +6142,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6145,14 +6150,14 @@
         <v>1606008</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F52" s="3">
         <v>16</v>
@@ -6192,7 +6197,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6200,14 +6205,14 @@
         <v>1606009</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F53" s="3">
         <v>16</v>
@@ -6247,7 +6252,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6255,14 +6260,14 @@
         <v>1606010</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F54" s="3">
         <v>16</v>
@@ -6302,7 +6307,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6310,14 +6315,14 @@
         <v>1606011</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F55" s="3">
         <v>16</v>
@@ -6357,7 +6362,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6365,14 +6370,14 @@
         <v>1606012</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F56" s="3">
         <v>16</v>
@@ -6412,7 +6417,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6420,14 +6425,14 @@
         <v>1606013</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F57" s="3">
         <v>16</v>
@@ -6467,7 +6472,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6475,14 +6480,14 @@
         <v>1606014</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
@@ -6522,7 +6527,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6530,14 +6535,14 @@
         <v>1606015</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F59" s="3">
         <v>16</v>
@@ -6577,7 +6582,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6585,14 +6590,14 @@
         <v>1606016</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
@@ -6632,7 +6637,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6640,14 +6645,14 @@
         <v>1606017</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F61" s="3">
         <v>16</v>
@@ -6687,7 +6692,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6695,14 +6700,14 @@
         <v>1606018</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
@@ -6742,7 +6747,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6750,14 +6755,14 @@
         <v>1606019</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
@@ -6797,7 +6802,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6805,14 +6810,14 @@
         <v>1606020</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
@@ -6852,7 +6857,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6860,14 +6865,14 @@
         <v>1606021</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
@@ -6907,7 +6912,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6915,14 +6920,14 @@
         <v>1606022</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
@@ -6962,7 +6967,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6970,14 +6975,14 @@
         <v>1606023</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
@@ -7017,7 +7022,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7025,14 +7030,14 @@
         <v>1606024</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
@@ -7072,7 +7077,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7080,14 +7085,14 @@
         <v>1606025</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
@@ -7127,7 +7132,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7135,14 +7140,14 @@
         <v>1606026</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
@@ -7182,7 +7187,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7190,14 +7195,14 @@
         <v>1606027</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
@@ -7237,7 +7242,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7245,14 +7250,14 @@
         <v>1606028</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
@@ -7292,7 +7297,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7300,14 +7305,14 @@
         <v>1606029</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
@@ -7347,7 +7352,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7355,14 +7360,14 @@
         <v>1606030</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
@@ -7402,7 +7407,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7410,14 +7415,14 @@
         <v>1606031</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
@@ -7457,7 +7462,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7465,14 +7470,14 @@
         <v>1606032</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
@@ -7512,7 +7517,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7520,14 +7525,14 @@
         <v>1606103</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
@@ -7567,7 +7572,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7575,14 +7580,14 @@
         <v>1606104</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
@@ -7622,7 +7627,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7630,14 +7635,14 @@
         <v>1606105</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
@@ -7677,7 +7682,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7685,14 +7690,14 @@
         <v>1606106</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
@@ -7732,7 +7737,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7740,14 +7745,14 @@
         <v>1606107</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
@@ -7787,7 +7792,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7795,14 +7800,14 @@
         <v>1606108</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
@@ -7842,7 +7847,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7850,14 +7855,14 @@
         <v>1606109</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
@@ -7897,7 +7902,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7905,14 +7910,14 @@
         <v>1606110</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
@@ -7952,7 +7957,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7960,14 +7965,14 @@
         <v>1606111</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
@@ -8007,7 +8012,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8015,14 +8020,14 @@
         <v>1606112</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
@@ -8062,7 +8067,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8070,14 +8075,14 @@
         <v>1606113</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
@@ -8117,7 +8122,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8125,14 +8130,14 @@
         <v>1606114</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
@@ -8172,7 +8177,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8180,14 +8185,14 @@
         <v>1606115</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
@@ -8227,7 +8232,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8235,14 +8240,14 @@
         <v>1606116</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
@@ -8282,7 +8287,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8290,14 +8295,14 @@
         <v>1606117</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
@@ -8337,7 +8342,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8345,14 +8350,14 @@
         <v>1606118</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
@@ -8392,7 +8397,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8400,14 +8405,14 @@
         <v>1606119</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
@@ -8447,7 +8452,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8455,14 +8460,14 @@
         <v>1606120</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
@@ -8502,7 +8507,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8510,14 +8515,14 @@
         <v>1606121</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
@@ -8557,7 +8562,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8565,14 +8570,14 @@
         <v>1606122</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
@@ -8612,7 +8617,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8620,14 +8625,14 @@
         <v>1606123</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
@@ -8667,7 +8672,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8675,14 +8680,14 @@
         <v>1606124</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
@@ -8722,7 +8727,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8730,14 +8735,14 @@
         <v>1606125</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
@@ -8777,7 +8782,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8785,14 +8790,14 @@
         <v>1606126</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
@@ -8832,7 +8837,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8840,14 +8845,14 @@
         <v>1606127</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F101" s="3">
         <v>16</v>
@@ -8887,7 +8892,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8895,14 +8900,14 @@
         <v>1606128</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F102" s="3">
         <v>16</v>
@@ -8942,7 +8947,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8950,14 +8955,14 @@
         <v>1606129</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F103" s="3">
         <v>16</v>
@@ -8997,7 +9002,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9005,14 +9010,14 @@
         <v>1606130</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F104" s="3">
         <v>16</v>
@@ -9052,7 +9057,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9060,14 +9065,14 @@
         <v>1606131</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F105" s="3">
         <v>16</v>
@@ -9107,7 +9112,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9115,14 +9120,14 @@
         <v>1606132</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F106" s="3">
         <v>16</v>
@@ -9162,7 +9167,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9170,14 +9175,14 @@
         <v>1607001</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F107" s="3">
         <v>16</v>
@@ -9217,7 +9222,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9225,14 +9230,14 @@
         <v>1607002</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F108" s="3">
         <v>16</v>
@@ -9272,7 +9277,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9280,14 +9285,14 @@
         <v>1607003</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F109" s="3">
         <v>16</v>
@@ -9327,7 +9332,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9335,14 +9340,14 @@
         <v>1607004</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F110" s="3">
         <v>16</v>
@@ -9382,7 +9387,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9390,14 +9395,14 @@
         <v>1607005</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F111" s="3">
         <v>16</v>
@@ -9437,7 +9442,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9445,14 +9450,14 @@
         <v>1607006</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F112" s="3">
         <v>16</v>
@@ -9492,7 +9497,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9500,14 +9505,14 @@
         <v>1607007</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F113" s="3">
         <v>16</v>
@@ -9547,7 +9552,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9555,14 +9560,14 @@
         <v>1607008</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F114" s="3">
         <v>16</v>
@@ -9602,7 +9607,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9610,14 +9615,14 @@
         <v>1607009</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F115" s="3">
         <v>16</v>
@@ -9657,7 +9662,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9665,14 +9670,14 @@
         <v>1608001</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F116" s="3">
         <v>16</v>
@@ -9712,7 +9717,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9720,14 +9725,14 @@
         <v>1608002</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F117" s="3">
         <v>16</v>
@@ -9767,7 +9772,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9775,14 +9780,14 @@
         <v>1608003</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F118" s="3">
         <v>16</v>
@@ -9822,7 +9827,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9830,14 +9835,14 @@
         <v>1608004</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F119" s="3">
         <v>16</v>
@@ -9877,7 +9882,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9885,14 +9890,14 @@
         <v>1608005</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F120" s="3">
         <v>16</v>
@@ -9932,7 +9937,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9940,14 +9945,14 @@
         <v>1608006</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F121" s="3">
         <v>16</v>
@@ -9987,7 +9992,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9995,14 +10000,14 @@
         <v>1608007</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F122" s="3">
         <v>16</v>
@@ -10042,7 +10047,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10050,14 +10055,14 @@
         <v>1608008</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F123" s="3">
         <v>16</v>
@@ -10097,7 +10102,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10105,14 +10110,14 @@
         <v>1608009</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F124" s="3">
         <v>16</v>
@@ -10152,7 +10157,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10160,14 +10165,14 @@
         <v>1608010</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F125" s="3">
         <v>16</v>
@@ -10207,7 +10212,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10215,14 +10220,14 @@
         <v>1608011</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F126" s="3">
         <v>16</v>
@@ -10262,7 +10267,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10270,14 +10275,14 @@
         <v>1608012</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F127" s="3">
         <v>16</v>
@@ -10317,7 +10322,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10325,14 +10330,14 @@
         <v>1608013</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F128" s="3">
         <v>16</v>
@@ -10372,7 +10377,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10380,14 +10385,14 @@
         <v>1608014</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F129" s="3">
         <v>16</v>
@@ -10427,7 +10432,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10435,14 +10440,14 @@
         <v>1608015</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F130" s="3">
         <v>16</v>
@@ -10482,7 +10487,7 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10490,14 +10495,14 @@
         <v>1609001</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F131" s="3">
         <v>16</v>
@@ -10537,7 +10542,7 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10545,14 +10550,14 @@
         <v>1609002</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F132" s="3">
         <v>16</v>
@@ -10592,7 +10597,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10600,14 +10605,14 @@
         <v>1609003</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F133" s="3">
         <v>16</v>
@@ -10647,7 +10652,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10655,14 +10660,14 @@
         <v>1609104</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F134" s="3">
         <v>16</v>
@@ -10702,7 +10707,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10710,14 +10715,14 @@
         <v>1609105</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F135" s="3">
         <v>16</v>
@@ -10757,7 +10762,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10765,14 +10770,14 @@
         <v>1609106</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F136" s="3">
         <v>16</v>
@@ -10812,7 +10817,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10820,14 +10825,14 @@
         <v>1610001</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F137" s="3">
         <v>16</v>
@@ -10869,7 +10874,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10877,14 +10882,14 @@
         <v>1610002</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F138" s="3">
         <v>16</v>
@@ -10926,7 +10931,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10934,14 +10939,14 @@
         <v>1610003</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F139" s="3">
         <v>16</v>
@@ -10983,7 +10988,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10991,14 +10996,14 @@
         <v>1605001</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F140" s="3">
         <v>16</v>
@@ -11031,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
@@ -11040,7 +11045,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11048,14 +11053,14 @@
         <v>1605002</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F141" s="3">
         <v>16</v>
@@ -11088,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
@@ -11097,7 +11102,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11105,14 +11110,14 @@
         <v>1605003</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F142" s="3">
         <v>16</v>
@@ -11145,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
@@ -11154,7 +11159,7 @@
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
       <c r="W142" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11162,14 +11167,14 @@
         <v>1605004</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F143" s="3">
         <v>16</v>
@@ -11202,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="P143" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
@@ -11211,7 +11216,7 @@
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
       <c r="W143" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11219,14 +11224,14 @@
         <v>1605005</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F144" s="3">
         <v>16</v>
@@ -11259,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
@@ -11268,7 +11273,7 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
       <c r="W144" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11276,14 +11281,14 @@
         <v>1605006</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F145" s="3">
         <v>16</v>
@@ -11316,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
@@ -11325,7 +11330,7 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11333,14 +11338,14 @@
         <v>1605007</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F146" s="3">
         <v>16</v>
@@ -11373,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
@@ -11382,7 +11387,7 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11390,14 +11395,14 @@
         <v>1605008</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F147" s="3">
         <v>16</v>
@@ -11430,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
@@ -11439,7 +11444,7 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11447,14 +11452,14 @@
         <v>1605009</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>669</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F148" s="3">
         <v>16</v>
@@ -11487,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
@@ -11496,7 +11501,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11504,14 +11509,14 @@
         <v>1605010</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F149" s="3">
         <v>16</v>
@@ -11544,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
@@ -11553,7 +11558,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11561,14 +11566,14 @@
         <v>1605011</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F150" s="3">
         <v>16</v>
@@ -11601,7 +11606,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -11610,7 +11615,7 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11618,14 +11623,14 @@
         <v>1605012</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F151" s="3">
         <v>16</v>
@@ -11658,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -11667,7 +11672,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11675,14 +11680,14 @@
         <v>1605013</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F152" s="3">
         <v>16</v>
@@ -11715,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
@@ -11724,7 +11729,7 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11732,14 +11737,14 @@
         <v>1605014</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F153" s="3">
         <v>16</v>
@@ -11772,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
@@ -11781,7 +11786,7 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11789,14 +11794,14 @@
         <v>1605015</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F154" s="3">
         <v>16</v>
@@ -11829,7 +11834,7 @@
         <v>1</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
@@ -11838,7 +11843,7 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11846,14 +11851,14 @@
         <v>1605016</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F155" s="3">
         <v>16</v>
@@ -11886,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
@@ -11895,7 +11900,7 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11903,16 +11908,16 @@
         <v>1605017</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D156" s="3">
         <v>1</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F156" s="3">
         <v>16</v>
@@ -11945,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="P156" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
@@ -11954,7 +11959,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11962,14 +11967,14 @@
         <v>1611001</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F157" s="3">
         <v>16</v>
@@ -12018,14 +12023,14 @@
         <v>1611002</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F158" s="3">
         <v>16</v>
@@ -12074,14 +12079,14 @@
         <v>1611003</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12130,14 +12135,14 @@
         <v>1611004</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12186,14 +12191,14 @@
         <v>1611005</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
@@ -12242,14 +12247,14 @@
         <v>1611006</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
@@ -12298,14 +12303,14 @@
         <v>1611007</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F163" s="3">
         <v>16</v>
@@ -12354,14 +12359,14 @@
         <v>1611008</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F164" s="3">
         <v>16</v>
@@ -12410,14 +12415,14 @@
         <v>1611009</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F165" s="3">
         <v>16</v>
@@ -12466,14 +12471,14 @@
         <v>1611010</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F166" s="3">
         <v>16</v>
@@ -12522,14 +12527,14 @@
         <v>1611011</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F167" s="3">
         <v>16</v>
@@ -12578,14 +12583,14 @@
         <v>1611012</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F168" s="3">
         <v>16</v>
@@ -12634,14 +12639,14 @@
         <v>1611013</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F169" s="3">
         <v>16</v>
@@ -12690,14 +12695,14 @@
         <v>1611014</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F170" s="3">
         <v>16</v>
@@ -12746,14 +12751,14 @@
         <v>1611015</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F171" s="3">
         <v>16</v>
@@ -12802,14 +12807,14 @@
         <v>1611016</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F172" s="3">
         <v>16</v>
@@ -12858,14 +12863,14 @@
         <v>1611017</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F173" s="3">
         <v>16</v>
@@ -12914,14 +12919,14 @@
         <v>1611018</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F174" s="3">
         <v>16</v>
@@ -12970,14 +12975,14 @@
         <v>1611019</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F175" s="3">
         <v>16</v>
@@ -13026,14 +13031,14 @@
         <v>1611020</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F176" s="3">
         <v>16</v>
@@ -13082,14 +13087,14 @@
         <v>1611021</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F177" s="3">
         <v>16</v>
@@ -13138,14 +13143,14 @@
         <v>1701001</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F178" s="3">
         <v>17</v>
@@ -13185,7 +13190,7 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
       <c r="W178" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13193,14 +13198,14 @@
         <v>1701002</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F179" s="3">
         <v>17</v>
@@ -13240,7 +13245,7 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13248,14 +13253,14 @@
         <v>1701003</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F180" s="3">
         <v>17</v>
@@ -13295,7 +13300,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13303,14 +13308,14 @@
         <v>1701004</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F181" s="3">
         <v>17</v>
@@ -13350,7 +13355,7 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13358,14 +13363,14 @@
         <v>1701005</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F182" s="3">
         <v>17</v>
@@ -13405,7 +13410,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13413,14 +13418,14 @@
         <v>1701006</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F183" s="3">
         <v>17</v>
@@ -13460,7 +13465,7 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13468,14 +13473,14 @@
         <v>1701007</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F184" s="3">
         <v>17</v>
@@ -13515,7 +13520,7 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13523,14 +13528,14 @@
         <v>1701008</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
@@ -13570,7 +13575,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13578,14 +13583,14 @@
         <v>1701009</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
@@ -13625,7 +13630,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13633,14 +13638,14 @@
         <v>1701010</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
@@ -13680,7 +13685,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13688,14 +13693,14 @@
         <v>1701011</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
@@ -13735,7 +13740,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13743,14 +13748,14 @@
         <v>1701012</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
@@ -13790,7 +13795,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13798,14 +13803,14 @@
         <v>1701013</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
@@ -13845,7 +13850,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13853,14 +13858,14 @@
         <v>1701014</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
@@ -13900,7 +13905,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13908,14 +13913,14 @@
         <v>1701015</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
@@ -13955,7 +13960,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13963,14 +13968,14 @@
         <v>1702001</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
@@ -14010,7 +14015,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14018,14 +14023,14 @@
         <v>1702002</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
@@ -14065,7 +14070,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14073,14 +14078,14 @@
         <v>1702003</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
@@ -14120,7 +14125,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14128,14 +14133,14 @@
         <v>1702004</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
@@ -14175,7 +14180,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14183,14 +14188,14 @@
         <v>1702005</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
@@ -14230,7 +14235,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14238,14 +14243,14 @@
         <v>1702006</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
@@ -14285,7 +14290,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14293,14 +14298,14 @@
         <v>1702007</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
@@ -14340,7 +14345,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14348,14 +14353,14 @@
         <v>1702008</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
@@ -14395,7 +14400,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14403,14 +14408,14 @@
         <v>1702009</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
@@ -14450,7 +14455,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14458,14 +14463,14 @@
         <v>1702010</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
@@ -14505,7 +14510,7 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14513,14 +14518,14 @@
         <v>1702011</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F203" s="3">
         <v>17</v>
@@ -14560,7 +14565,7 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14568,14 +14573,14 @@
         <v>1702012</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F204" s="3">
         <v>17</v>
@@ -14615,7 +14620,7 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14623,14 +14628,14 @@
         <v>1702013</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F205" s="3">
         <v>17</v>
@@ -14670,7 +14675,7 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14678,14 +14683,14 @@
         <v>1702014</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F206" s="3">
         <v>17</v>
@@ -14725,7 +14730,7 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14733,14 +14738,14 @@
         <v>1702015</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F207" s="3">
         <v>17</v>
@@ -14780,7 +14785,7 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14788,14 +14793,14 @@
         <v>1702016</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F208" s="3">
         <v>17</v>
@@ -14835,7 +14840,7 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14843,14 +14848,14 @@
         <v>1702017</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F209" s="3">
         <v>17</v>
@@ -14890,7 +14895,7 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14898,14 +14903,14 @@
         <v>1702018</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F210" s="3">
         <v>17</v>
@@ -14945,7 +14950,7 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14953,14 +14958,14 @@
         <v>1702019</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F211" s="3">
         <v>17</v>
@@ -15000,7 +15005,7 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15008,14 +15013,14 @@
         <v>1702020</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F212" s="3">
         <v>17</v>
@@ -15055,7 +15060,7 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15063,14 +15068,14 @@
         <v>1702021</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F213" s="3">
         <v>17</v>
@@ -15110,7 +15115,7 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15118,14 +15123,14 @@
         <v>2000001</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F214" s="3">
         <v>20</v>
@@ -15164,7 +15169,7 @@
       </c>
       <c r="S214" s="3"/>
       <c r="T214" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U214" s="6"/>
       <c r="V214" s="6"/>
@@ -15177,14 +15182,14 @@
         <v>2000002</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F215" s="3">
         <v>20</v>
@@ -15237,14 +15242,14 @@
         <v>2000003</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F216" s="3">
         <v>20</v>
@@ -15294,14 +15299,14 @@
         <v>2100003</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>570</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F217" s="3">
         <v>21</v>
@@ -15351,14 +15356,14 @@
         <v>2100004</v>
       </c>
       <c r="B218" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F218" s="3">
         <v>21</v>
@@ -15440,22 +15445,22 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -15463,22 +15468,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
         <v>579</v>
-      </c>
-      <c r="C2" t="s">
-        <v>580</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -15489,25 +15494,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -15947,7 +15952,7 @@
         <v>1604002</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="3">
         <v>1401011</v>
@@ -15965,7 +15970,7 @@
         <v>1606001</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="3">
         <v>1401011</v>
@@ -15983,7 +15988,7 @@
         <v>1606002</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" s="3">
         <v>1401011</v>
@@ -16001,7 +16006,7 @@
         <v>1606003</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="3">
         <v>1401011</v>
@@ -16019,7 +16024,7 @@
         <v>1606004</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="3">
         <v>1401011</v>
@@ -16037,7 +16042,7 @@
         <v>1606005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="3">
         <v>1401011</v>
@@ -16055,7 +16060,7 @@
         <v>1606006</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="3">
         <v>1401011</v>
@@ -16073,7 +16078,7 @@
         <v>1606007</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35" s="3">
         <v>1401011</v>
@@ -16091,7 +16096,7 @@
         <v>1606008</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C36" s="3">
         <v>1401011</v>
@@ -16109,7 +16114,7 @@
         <v>1606009</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C37" s="3">
         <v>1401011</v>
@@ -16127,7 +16132,7 @@
         <v>1606010</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" s="3">
         <v>1401011</v>
@@ -16145,7 +16150,7 @@
         <v>1606011</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="3">
         <v>1401011</v>
@@ -16163,7 +16168,7 @@
         <v>1606012</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C40" s="3">
         <v>1401011</v>
@@ -16181,7 +16186,7 @@
         <v>1606013</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="3">
         <v>1401011</v>
@@ -16199,7 +16204,7 @@
         <v>1606014</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C42" s="3">
         <v>1401011</v>
@@ -16217,7 +16222,7 @@
         <v>1606015</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C43" s="3">
         <v>1401011</v>
@@ -16235,7 +16240,7 @@
         <v>1606016</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C44" s="3">
         <v>1401011</v>
@@ -16253,7 +16258,7 @@
         <v>1606017</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C45" s="3">
         <v>1401011</v>
@@ -16271,7 +16276,7 @@
         <v>1606018</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C46" s="3">
         <v>1401011</v>
@@ -16289,7 +16294,7 @@
         <v>1606019</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C47" s="3">
         <v>1401011</v>
@@ -16307,7 +16312,7 @@
         <v>1606020</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C48" s="3">
         <v>1401011</v>
@@ -16325,7 +16330,7 @@
         <v>1606021</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C49" s="3">
         <v>1401011</v>
@@ -16343,7 +16348,7 @@
         <v>1606022</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C50" s="3">
         <v>1401011</v>
@@ -16361,7 +16366,7 @@
         <v>1606023</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C51" s="3">
         <v>1401011</v>
@@ -16379,7 +16384,7 @@
         <v>1606024</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C52" s="3">
         <v>1401011</v>
@@ -16397,7 +16402,7 @@
         <v>1606025</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C53" s="3">
         <v>1401011</v>
@@ -16415,7 +16420,7 @@
         <v>1606026</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C54" s="3">
         <v>1401011</v>
@@ -16433,7 +16438,7 @@
         <v>1606027</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C55" s="3">
         <v>1401011</v>
@@ -16451,7 +16456,7 @@
         <v>1606028</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C56" s="3">
         <v>1401011</v>
@@ -16469,7 +16474,7 @@
         <v>1606029</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C57" s="3">
         <v>1401011</v>
@@ -16487,7 +16492,7 @@
         <v>1606030</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C58" s="3">
         <v>1401011</v>
@@ -16505,7 +16510,7 @@
         <v>1606031</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C59" s="3">
         <v>1401011</v>
@@ -16523,7 +16528,7 @@
         <v>1606032</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C60" s="3">
         <v>1401011</v>
@@ -16541,7 +16546,7 @@
         <v>1607001</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C61" s="3">
         <v>1401011</v>
@@ -16559,7 +16564,7 @@
         <v>1607002</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C62" s="3">
         <v>1401011</v>
@@ -16577,7 +16582,7 @@
         <v>1607003</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C63" s="3">
         <v>1401011</v>
@@ -16595,7 +16600,7 @@
         <v>1607004</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C64" s="3">
         <v>1401011</v>
@@ -16613,7 +16618,7 @@
         <v>1607005</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C65" s="3">
         <v>1401011</v>
@@ -16631,7 +16636,7 @@
         <v>1607006</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C66" s="3">
         <v>1401011</v>
@@ -16649,7 +16654,7 @@
         <v>1607007</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C67" s="3">
         <v>1401011</v>
@@ -16667,7 +16672,7 @@
         <v>1607008</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C68" s="3">
         <v>1401011</v>
@@ -16685,7 +16690,7 @@
         <v>1607009</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C69" s="3">
         <v>1401011</v>
@@ -16703,7 +16708,7 @@
         <v>1608001</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C70" s="3">
         <v>1401011</v>
@@ -16721,7 +16726,7 @@
         <v>1608002</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C71" s="3">
         <v>1401011</v>
@@ -16739,7 +16744,7 @@
         <v>1608003</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C72" s="3">
         <v>1401011</v>
@@ -16757,7 +16762,7 @@
         <v>1608004</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C73" s="3">
         <v>1401011</v>
@@ -16775,7 +16780,7 @@
         <v>1608005</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C74" s="3">
         <v>1401011</v>
@@ -16793,7 +16798,7 @@
         <v>1608006</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C75" s="3">
         <v>1401011</v>
@@ -16811,7 +16816,7 @@
         <v>1608007</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C76" s="3">
         <v>1401011</v>
@@ -16829,7 +16834,7 @@
         <v>1608008</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C77" s="3">
         <v>1401011</v>
@@ -16847,7 +16852,7 @@
         <v>1608009</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C78" s="3">
         <v>1401011</v>
@@ -16865,7 +16870,7 @@
         <v>1608010</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C79" s="3">
         <v>1401011</v>
@@ -16883,7 +16888,7 @@
         <v>1608011</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C80" s="3">
         <v>1401011</v>
@@ -16901,7 +16906,7 @@
         <v>1608012</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C81" s="3">
         <v>1401011</v>
@@ -16919,7 +16924,7 @@
         <v>1608013</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C82" s="3">
         <v>1401011</v>
@@ -16937,7 +16942,7 @@
         <v>1608014</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C83" s="3">
         <v>1401011</v>
@@ -16955,7 +16960,7 @@
         <v>1608015</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C84" s="3">
         <v>1401011</v>
@@ -16973,7 +16978,7 @@
         <v>1609001</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C85" s="3">
         <v>1401011</v>
@@ -16991,7 +16996,7 @@
         <v>1609002</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C86" s="3">
         <v>1401011</v>
@@ -17009,7 +17014,7 @@
         <v>1609003</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C87" s="3">
         <v>1401011</v>
@@ -17049,22 +17054,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17072,7 +17077,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -17081,7 +17086,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -17095,22 +17100,22 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -17125,7 +17130,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="812">
   <si>
     <t>sheet名</t>
   </si>
@@ -2597,6 +2597,85 @@
   </si>
   <si>
     <t>灵域颁发的令牌，排遣巡逻时使用，可立即获得2小时收益。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501001</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501002</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501003</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501004</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501005</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501006</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501007</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501008</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501009</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501010</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501011</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501012</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501013</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501014</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501015</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501016</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501017</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501018</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501019</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501020</t>
+  </si>
+  <si>
+    <t>ui_dtex_Equip_1501021</t>
+  </si>
+  <si>
+    <t>诸葛一心碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬烟华碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练丹</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2805,7 +2884,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -2824,6 +2903,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3253,13 +3335,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W218"/>
+  <dimension ref="A1:W222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD43"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43:W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5646,19 +5728,17 @@
     </row>
     <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>1604001</v>
+        <v>1603024</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>199</v>
+        <v>811</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F43" s="3">
         <v>16</v>
@@ -5695,29 +5775,27 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="3">
-        <v>2</v>
-      </c>
-      <c r="V43" s="3">
-        <v>1103</v>
-      </c>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>786</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>1604002</v>
+        <v>1604001</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
       <c r="E44" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F44" s="3">
         <v>16</v>
@@ -5754,25 +5832,29 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
+      <c r="U44" s="3">
+        <v>2</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1103</v>
+      </c>
       <c r="W44" s="3" t="s">
-        <v>205</v>
+        <v>786</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1606001</v>
+        <v>1604002</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
@@ -5812,22 +5894,22 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1606002</v>
+        <v>1606001</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>708</v>
+        <v>206</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F46" s="3">
         <v>16</v>
@@ -5867,28 +5949,28 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1606003</v>
+        <v>1606002</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>213</v>
+        <v>708</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F47" s="3">
         <v>16</v>
       </c>
       <c r="G47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>51</v>
@@ -5922,22 +6004,22 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1606004</v>
+        <v>1606003</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F48" s="3">
         <v>16</v>
@@ -5977,22 +6059,22 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1606005</v>
+        <v>1606004</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F49" s="3">
         <v>16</v>
@@ -6032,22 +6114,22 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>1606006</v>
+        <v>1606005</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F50" s="3">
         <v>16</v>
@@ -6087,28 +6169,28 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>1606007</v>
+        <v>1606006</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F51" s="3">
         <v>16</v>
       </c>
       <c r="G51" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>51</v>
@@ -6142,22 +6224,22 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1606008</v>
+        <v>1606007</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F52" s="3">
         <v>16</v>
@@ -6197,22 +6279,22 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>1606009</v>
+        <v>1606008</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F53" s="3">
         <v>16</v>
@@ -6252,22 +6334,22 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1606010</v>
+        <v>1606009</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F54" s="3">
         <v>16</v>
@@ -6307,22 +6389,22 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>1606011</v>
+        <v>1606010</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F55" s="3">
         <v>16</v>
@@ -6362,22 +6444,22 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1606012</v>
+        <v>1606011</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F56" s="3">
         <v>16</v>
@@ -6417,22 +6499,22 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1606013</v>
+        <v>1606012</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F57" s="3">
         <v>16</v>
@@ -6472,22 +6554,22 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>1606014</v>
+        <v>1606013</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
@@ -6527,28 +6609,28 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>1606015</v>
+        <v>1606014</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F59" s="3">
         <v>16</v>
       </c>
       <c r="G59" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>51</v>
@@ -6582,22 +6664,22 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>1606016</v>
+        <v>1606015</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
@@ -6637,22 +6719,22 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>1606017</v>
+        <v>1606016</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F61" s="3">
         <v>16</v>
@@ -6692,22 +6774,22 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>1606018</v>
+        <v>1606017</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
@@ -6747,22 +6829,22 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1606019</v>
+        <v>1606018</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
@@ -6802,22 +6884,22 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>1606020</v>
+        <v>1606019</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
@@ -6857,22 +6939,22 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1606021</v>
+        <v>1606020</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
@@ -6912,22 +6994,22 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1606022</v>
+        <v>1606021</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
@@ -6967,22 +7049,22 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1606023</v>
+        <v>1606022</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
@@ -7022,22 +7104,22 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1606024</v>
+        <v>1606023</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
@@ -7077,22 +7159,22 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1606025</v>
+        <v>1606024</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
@@ -7132,22 +7214,22 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1606026</v>
+        <v>1606025</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
@@ -7187,22 +7269,22 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1606027</v>
+        <v>1606026</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
@@ -7242,22 +7324,22 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>1606028</v>
+        <v>1606027</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
@@ -7297,22 +7379,22 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1606029</v>
+        <v>1606028</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
@@ -7352,22 +7434,22 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1606030</v>
+        <v>1606029</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
@@ -7407,22 +7489,22 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>1606031</v>
+        <v>1606030</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
@@ -7462,22 +7544,22 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>1606032</v>
+        <v>1606031</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
@@ -7517,22 +7599,22 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>1606103</v>
+        <v>1606032</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>709</v>
+        <v>329</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
@@ -7572,22 +7654,22 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3" t="s">
-        <v>739</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>1606104</v>
+        <v>1606103</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
@@ -7627,22 +7709,22 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>1606105</v>
+        <v>1606104</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
@@ -7682,22 +7764,22 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>1606106</v>
+        <v>1606105</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
@@ -7737,22 +7819,22 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>1606107</v>
+        <v>1606106</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
@@ -7792,22 +7874,22 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>1606108</v>
+        <v>1606107</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
@@ -7847,22 +7929,22 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>1606109</v>
+        <v>1606108</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
@@ -7902,22 +7984,22 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>1606110</v>
+        <v>1606109</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
@@ -7957,22 +8039,22 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>1606111</v>
+        <v>1606110</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
@@ -8012,22 +8094,22 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>1606112</v>
+        <v>1606111</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
@@ -8067,22 +8149,22 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>1606113</v>
+        <v>1606112</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
@@ -8122,22 +8204,22 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>1606114</v>
+        <v>1606113</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
@@ -8177,22 +8259,22 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>1606115</v>
+        <v>1606114</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
@@ -8232,22 +8314,22 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>1606116</v>
+        <v>1606115</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
@@ -8287,22 +8369,22 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>1606117</v>
+        <v>1606116</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
@@ -8342,22 +8424,22 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>1606118</v>
+        <v>1606117</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
@@ -8397,22 +8479,22 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>1606119</v>
+        <v>1606118</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
@@ -8452,22 +8534,22 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>1606120</v>
+        <v>1606119</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
@@ -8507,22 +8589,22 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>1606121</v>
+        <v>1606120</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
@@ -8562,22 +8644,22 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>1606122</v>
+        <v>1606121</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
@@ -8617,22 +8699,22 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>1606123</v>
+        <v>1606122</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
@@ -8672,22 +8754,22 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>1606124</v>
+        <v>1606123</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
@@ -8727,22 +8809,22 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>1606125</v>
+        <v>1606124</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
@@ -8782,22 +8864,22 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>1606126</v>
+        <v>1606125</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
@@ -8837,22 +8919,22 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>1606127</v>
+        <v>1606126</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F101" s="3">
         <v>16</v>
@@ -8892,22 +8974,22 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>1606128</v>
+        <v>1606127</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F102" s="3">
         <v>16</v>
@@ -8947,22 +9029,22 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>1606129</v>
+        <v>1606128</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F103" s="3">
         <v>16</v>
@@ -9002,22 +9084,22 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>1606130</v>
+        <v>1606129</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F104" s="3">
         <v>16</v>
@@ -9057,22 +9139,22 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>1606131</v>
+        <v>1606130</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F105" s="3">
         <v>16</v>
@@ -9112,22 +9194,22 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>1606132</v>
+        <v>1606131</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F106" s="3">
         <v>16</v>
@@ -9167,28 +9249,28 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>1607001</v>
+        <v>1606132</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>333</v>
+        <v>738</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F107" s="3">
         <v>16</v>
       </c>
       <c r="G107" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>51</v>
@@ -9222,22 +9304,22 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>336</v>
+        <v>768</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>1607002</v>
+        <v>1607001</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F108" s="3">
         <v>16</v>
@@ -9277,22 +9359,22 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>1607003</v>
+        <v>1607002</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F109" s="3">
         <v>16</v>
@@ -9332,22 +9414,22 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>1607004</v>
+        <v>1607003</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F110" s="3">
         <v>16</v>
@@ -9387,22 +9469,22 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>1607005</v>
+        <v>1607004</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F111" s="3">
         <v>16</v>
@@ -9442,22 +9524,22 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>1607006</v>
+        <v>1607005</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F112" s="3">
         <v>16</v>
@@ -9497,22 +9579,22 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>1607007</v>
+        <v>1607006</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F113" s="3">
         <v>16</v>
@@ -9552,22 +9634,22 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>1607008</v>
+        <v>1607007</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F114" s="3">
         <v>16</v>
@@ -9607,22 +9689,22 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>1607009</v>
+        <v>1607008</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F115" s="3">
         <v>16</v>
@@ -9662,22 +9744,22 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>1608001</v>
+        <v>1607009</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F116" s="3">
         <v>16</v>
@@ -9717,22 +9799,22 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>1608002</v>
+        <v>1608001</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F117" s="3">
         <v>16</v>
@@ -9772,22 +9854,22 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>1608003</v>
+        <v>1608002</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F118" s="3">
         <v>16</v>
@@ -9827,22 +9909,22 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>1608004</v>
+        <v>1608003</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F119" s="3">
         <v>16</v>
@@ -9882,22 +9964,22 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>1608005</v>
+        <v>1608004</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F120" s="3">
         <v>16</v>
@@ -9937,22 +10019,22 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>1608006</v>
+        <v>1608005</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F121" s="3">
         <v>16</v>
@@ -9992,22 +10074,22 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>1608007</v>
+        <v>1608006</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F122" s="3">
         <v>16</v>
@@ -10047,22 +10129,22 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>1608008</v>
+        <v>1608007</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F123" s="3">
         <v>16</v>
@@ -10102,22 +10184,22 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>1608009</v>
+        <v>1608008</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F124" s="3">
         <v>16</v>
@@ -10157,22 +10239,22 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>1608010</v>
+        <v>1608009</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F125" s="3">
         <v>16</v>
@@ -10212,22 +10294,22 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>1608011</v>
+        <v>1608010</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F126" s="3">
         <v>16</v>
@@ -10267,22 +10349,22 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>1608012</v>
+        <v>1608011</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F127" s="3">
         <v>16</v>
@@ -10322,22 +10404,22 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>1608013</v>
+        <v>1608012</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F128" s="3">
         <v>16</v>
@@ -10377,22 +10459,22 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>1608014</v>
+        <v>1608013</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F129" s="3">
         <v>16</v>
@@ -10432,22 +10514,22 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>1608015</v>
+        <v>1608014</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F130" s="3">
         <v>16</v>
@@ -10487,22 +10569,22 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>1609001</v>
+        <v>1608015</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F131" s="3">
         <v>16</v>
@@ -10542,22 +10624,22 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>1609002</v>
+        <v>1609001</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F132" s="3">
         <v>16</v>
@@ -10597,22 +10679,22 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>1609003</v>
+        <v>1609002</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F133" s="3">
         <v>16</v>
@@ -10652,22 +10734,22 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>1609104</v>
+        <v>1609003</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F134" s="3">
         <v>16</v>
@@ -10707,22 +10789,22 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>1609105</v>
+        <v>1609104</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F135" s="3">
         <v>16</v>
@@ -10762,22 +10844,22 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>1609106</v>
+        <v>1609105</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F136" s="3">
         <v>16</v>
@@ -10817,18 +10899,18 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>1610001</v>
+        <v>1609106</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
@@ -10862,30 +10944,28 @@
         <v>1</v>
       </c>
       <c r="O137" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P137" s="3"/>
-      <c r="Q137" s="3">
-        <v>20</v>
-      </c>
+      <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
       <c r="T137" s="3"/>
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>1610002</v>
+        <v>1610001</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
@@ -10923,7 +11003,7 @@
       </c>
       <c r="P138" s="3"/>
       <c r="Q138" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
@@ -10931,18 +11011,18 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>1610003</v>
+        <v>1610002</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
@@ -10980,7 +11060,7 @@
       </c>
       <c r="P139" s="3"/>
       <c r="Q139" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
@@ -10988,85 +11068,85 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>1605001</v>
+        <v>1610003</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F140" s="3">
         <v>16</v>
       </c>
       <c r="G140" s="3">
+        <v>1</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I140" s="3">
+        <v>999</v>
+      </c>
+      <c r="J140" s="3">
+        <v>0</v>
+      </c>
+      <c r="K140" s="3">
+        <v>1</v>
+      </c>
+      <c r="L140" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M140" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N140" s="3">
+        <v>1</v>
+      </c>
+      <c r="O140" s="3">
         <v>2</v>
       </c>
-      <c r="H140" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I140" s="3">
-        <v>999</v>
-      </c>
-      <c r="J140" s="3">
-        <v>0</v>
-      </c>
-      <c r="K140" s="3">
-        <v>1</v>
-      </c>
-      <c r="L140" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M140" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N140" s="3">
-        <v>5</v>
-      </c>
-      <c r="O140" s="3">
-        <v>1</v>
-      </c>
-      <c r="P140" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3">
+        <v>100</v>
+      </c>
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>1605002</v>
+        <v>1605001</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F141" s="3">
         <v>16</v>
       </c>
       <c r="G141" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>51</v>
@@ -11093,7 +11173,7 @@
         <v>1</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
@@ -11107,13 +11187,13 @@
     </row>
     <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>1605003</v>
+        <v>1605002</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
@@ -11123,7 +11203,7 @@
         <v>16</v>
       </c>
       <c r="G142" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>51</v>
@@ -11150,7 +11230,7 @@
         <v>1</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
@@ -11164,13 +11244,13 @@
     </row>
     <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>1605004</v>
+        <v>1605003</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>704</v>
+        <v>452</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
@@ -11207,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="P143" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
@@ -11221,13 +11301,13 @@
     </row>
     <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>1605005</v>
+        <v>1605004</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>454</v>
+        <v>704</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
@@ -11237,7 +11317,7 @@
         <v>16</v>
       </c>
       <c r="G144" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>51</v>
@@ -11264,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>701</v>
+        <v>453</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
@@ -11273,18 +11353,18 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
       <c r="W144" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>1605006</v>
+        <v>1605005</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
@@ -11321,7 +11401,7 @@
         <v>1</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>458</v>
+        <v>701</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
@@ -11330,18 +11410,18 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>1605007</v>
+        <v>1605006</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>610</v>
+        <v>457</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>610</v>
+        <v>458</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
@@ -11351,7 +11431,7 @@
         <v>16</v>
       </c>
       <c r="G146" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>51</v>
@@ -11378,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>702</v>
+        <v>458</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
@@ -11387,18 +11467,18 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3" t="s">
-        <v>664</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>1605008</v>
+        <v>1605007</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
@@ -11435,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
@@ -11444,18 +11524,18 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>1605009</v>
+        <v>1605008</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
@@ -11465,7 +11545,7 @@
         <v>16</v>
       </c>
       <c r="G148" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>51</v>
@@ -11492,7 +11572,7 @@
         <v>1</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
@@ -11501,18 +11581,18 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>1605010</v>
+        <v>1605009</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
@@ -11522,7 +11602,7 @@
         <v>16</v>
       </c>
       <c r="G149" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>51</v>
@@ -11549,7 +11629,7 @@
         <v>1</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
@@ -11558,18 +11638,18 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>1605011</v>
+        <v>1605010</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
@@ -11606,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -11615,18 +11695,18 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>1605012</v>
+        <v>1605011</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
@@ -11636,7 +11716,7 @@
         <v>16</v>
       </c>
       <c r="G151" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>51</v>
@@ -11663,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -11672,18 +11752,18 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>1605013</v>
+        <v>1605012</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
@@ -11720,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
@@ -11729,18 +11809,18 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>1605014</v>
+        <v>1605013</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
@@ -11750,7 +11830,7 @@
         <v>16</v>
       </c>
       <c r="G153" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>51</v>
@@ -11777,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
@@ -11786,18 +11866,18 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>1605015</v>
+        <v>1605014</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
@@ -11834,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
@@ -11843,18 +11923,18 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>1605016</v>
+        <v>1605015</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
@@ -11891,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
@@ -11900,22 +11980,20 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>1605017</v>
+        <v>1605016</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D156" s="3">
-        <v>1</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
         <v>451</v>
       </c>
@@ -11923,7 +12001,7 @@
         <v>16</v>
       </c>
       <c r="G156" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>51</v>
@@ -11950,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="P156" s="3" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
@@ -11959,28 +12037,30 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>1611001</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>602</v>
+        <v>1605017</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>705</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D157" s="3"/>
+        <v>705</v>
+      </c>
+      <c r="D157" s="3">
+        <v>1</v>
+      </c>
       <c r="E157" s="3" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F157" s="3">
         <v>16</v>
       </c>
       <c r="G157" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>51</v>
@@ -11992,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="K157" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L157" s="3">
         <v>1001</v>
@@ -12001,42 +12081,43 @@
         <v>1</v>
       </c>
       <c r="N157" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O157" s="3">
-        <v>0</v>
-      </c>
-      <c r="P157" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P157" s="3" t="s">
+        <v>705</v>
+      </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
-      <c r="W157" s="3" t="str">
-        <f>B157&amp;",用于激活和解封专属武器"</f>
-        <v>关羽专属武器碎片,用于激活和解封专属武器</v>
+      <c r="W157" s="3" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>1611002</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>707</v>
+        <v>1611001</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>602</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>461</v>
+        <v>787</v>
       </c>
       <c r="F158" s="3">
         <v>16</v>
       </c>
       <c r="G158" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>51</v>
@@ -12070,23 +12151,23 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3" t="str">
-        <f t="shared" ref="W158:W177" si="0">B158&amp;",用于激活和解封专属武器"</f>
-        <v>许褚专属武器碎片,用于激活和解封专属武器</v>
+        <f>B158&amp;",用于激活和解封专属武器"</f>
+        <v>关羽专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>1611003</v>
+        <v>1611002</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>611</v>
+        <v>707</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>503</v>
+        <v>788</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12126,29 +12207,29 @@
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
       <c r="W159" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>典韦专属武器碎片,用于激活和解封专属武器</v>
+        <f t="shared" ref="W159:W178" si="0">B159&amp;",用于激活和解封专属武器"</f>
+        <v>许褚专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>1611004</v>
+        <v>1611003</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>503</v>
+        <v>789</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
       </c>
       <c r="G160" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>51</v>
@@ -12183,28 +12264,28 @@
       <c r="V160" s="3"/>
       <c r="W160" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>唐流雨专属武器碎片,用于激活和解封专属武器</v>
+        <v>典韦专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>1611005</v>
+        <v>1611004</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>503</v>
+        <v>790</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
       </c>
       <c r="G161" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>51</v>
@@ -12239,28 +12320,28 @@
       <c r="V161" s="3"/>
       <c r="W161" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>李轩辕专属武器碎片,用于激活和解封专属武器</v>
+        <v>唐流雨专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>1611006</v>
+        <v>1611005</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>503</v>
+        <v>791</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
       </c>
       <c r="G162" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>51</v>
@@ -12295,28 +12376,28 @@
       <c r="V162" s="3"/>
       <c r="W162" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>项羽专属武器碎片,用于激活和解封专属武器</v>
+        <v>李轩辕专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>1611007</v>
+        <v>1611006</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>503</v>
+        <v>792</v>
       </c>
       <c r="F163" s="3">
         <v>16</v>
       </c>
       <c r="G163" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>51</v>
@@ -12351,28 +12432,28 @@
       <c r="V163" s="3"/>
       <c r="W163" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>天使缇娜专属武器碎片,用于激活和解封专属武器</v>
+        <v>项羽专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>1611008</v>
+        <v>1611007</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>503</v>
+        <v>793</v>
       </c>
       <c r="F164" s="3">
         <v>16</v>
       </c>
       <c r="G164" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>51</v>
@@ -12407,22 +12488,22 @@
       <c r="V164" s="3"/>
       <c r="W164" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>夏侯渊专属武器碎片,用于激活和解封专属武器</v>
+        <v>天使缇娜专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>1611009</v>
+        <v>1611008</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>503</v>
+        <v>794</v>
       </c>
       <c r="F165" s="3">
         <v>16</v>
@@ -12463,22 +12544,22 @@
       <c r="V165" s="3"/>
       <c r="W165" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>徐晃专属武器碎片,用于激活和解封专属武器</v>
+        <v>夏侯渊专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>1611010</v>
+        <v>1611009</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>503</v>
+        <v>795</v>
       </c>
       <c r="F166" s="3">
         <v>16</v>
@@ -12519,22 +12600,22 @@
       <c r="V166" s="3"/>
       <c r="W166" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>张郃专属武器碎片,用于激活和解封专属武器</v>
+        <v>徐晃专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>1611011</v>
+        <v>1611010</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>503</v>
+        <v>796</v>
       </c>
       <c r="F167" s="3">
         <v>16</v>
@@ -12575,22 +12656,22 @@
       <c r="V167" s="3"/>
       <c r="W167" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>张飞专属武器碎片,用于激活和解封专属武器</v>
+        <v>张郃专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>1611012</v>
+        <v>1611011</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>503</v>
+        <v>797</v>
       </c>
       <c r="F168" s="3">
         <v>16</v>
@@ -12631,22 +12712,22 @@
       <c r="V168" s="3"/>
       <c r="W168" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>夏侯惇专属武器碎片,用于激活和解封专属武器</v>
+        <v>张飞专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>1611013</v>
+        <v>1611012</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>503</v>
+        <v>798</v>
       </c>
       <c r="F169" s="3">
         <v>16</v>
@@ -12687,22 +12768,22 @@
       <c r="V169" s="3"/>
       <c r="W169" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>塞伯罗斯专属武器碎片,用于激活和解封专属武器</v>
+        <v>夏侯惇专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>1611014</v>
+        <v>1611013</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>503</v>
+        <v>799</v>
       </c>
       <c r="F170" s="3">
         <v>16</v>
@@ -12743,22 +12824,22 @@
       <c r="V170" s="3"/>
       <c r="W170" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>石灵明专属武器碎片,用于激活和解封专属武器</v>
+        <v>塞伯罗斯专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>1611015</v>
+        <v>1611014</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>503</v>
+        <v>800</v>
       </c>
       <c r="F171" s="3">
         <v>16</v>
@@ -12799,22 +12880,22 @@
       <c r="V171" s="3"/>
       <c r="W171" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>于禁专属武器碎片,用于激活和解封专属武器</v>
+        <v>石灵明专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>1611016</v>
+        <v>1611015</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>503</v>
+        <v>801</v>
       </c>
       <c r="F172" s="3">
         <v>16</v>
@@ -12855,22 +12936,22 @@
       <c r="V172" s="3"/>
       <c r="W172" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>西方龙专属武器碎片,用于激活和解封专属武器</v>
+        <v>于禁专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>1611017</v>
+        <v>1611016</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>503</v>
+        <v>802</v>
       </c>
       <c r="F173" s="3">
         <v>16</v>
@@ -12911,22 +12992,22 @@
       <c r="V173" s="3"/>
       <c r="W173" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>飞廉专属武器碎片,用于激活和解封专属武器</v>
+        <v>西方龙专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>1611018</v>
+        <v>1611017</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>503</v>
+        <v>803</v>
       </c>
       <c r="F174" s="3">
         <v>16</v>
@@ -12967,22 +13048,22 @@
       <c r="V174" s="3"/>
       <c r="W174" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>噬日专属武器碎片,用于激活和解封专属武器</v>
+        <v>飞廉专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>1611019</v>
+        <v>1611018</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>503</v>
+        <v>804</v>
       </c>
       <c r="F175" s="3">
         <v>16</v>
@@ -13023,22 +13104,22 @@
       <c r="V175" s="3"/>
       <c r="W175" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>食火蜥专属武器碎片,用于激活和解封专属武器</v>
+        <v>噬日专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>1611020</v>
+        <v>1611019</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>503</v>
+        <v>805</v>
       </c>
       <c r="F176" s="3">
         <v>16</v>
@@ -13079,22 +13160,22 @@
       <c r="V176" s="3"/>
       <c r="W176" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>高顺专属武器碎片,用于激活和解封专属武器</v>
+        <v>食火蜥专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>1611021</v>
+        <v>1611020</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>503</v>
+        <v>806</v>
       </c>
       <c r="F177" s="3">
         <v>16</v>
@@ -13135,49 +13216,49 @@
       <c r="V177" s="3"/>
       <c r="W177" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>烈风螳螂专属武器碎片,用于激活和解封专属武器</v>
+        <v>高顺专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>1701001</v>
+        <v>1611021</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>460</v>
+        <v>622</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>783</v>
+        <v>643</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>461</v>
+        <v>807</v>
       </c>
       <c r="F178" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G178" s="3">
+        <v>4</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I178" s="3">
+        <v>999</v>
+      </c>
+      <c r="J178" s="3">
+        <v>0</v>
+      </c>
+      <c r="K178" s="3">
+        <v>0</v>
+      </c>
+      <c r="L178" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M178" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N178" s="3">
         <v>3</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I178" s="3">
-        <v>999</v>
-      </c>
-      <c r="J178" s="3">
-        <v>0</v>
-      </c>
-      <c r="K178" s="3">
-        <v>0</v>
-      </c>
-      <c r="L178" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M178" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N178" s="3">
-        <v>2</v>
       </c>
       <c r="O178" s="3">
         <v>0</v>
@@ -13189,29 +13270,30 @@
       <c r="T178" s="3"/>
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
-      <c r="W178" s="3" t="s">
-        <v>784</v>
+      <c r="W178" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>烈风螳螂专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>1701002</v>
+        <v>1701001</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>462</v>
+        <v>783</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F179" s="3">
         <v>17</v>
       </c>
       <c r="G179" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>51</v>
@@ -13245,28 +13327,28 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3" t="s">
-        <v>464</v>
+        <v>784</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>1701003</v>
+        <v>1701002</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>779</v>
+        <v>462</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F180" s="3">
         <v>17</v>
       </c>
       <c r="G180" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>51</v>
@@ -13300,28 +13382,28 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>781</v>
+        <v>464</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>1701004</v>
+        <v>1701003</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>467</v>
+        <v>779</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F181" s="3">
         <v>17</v>
       </c>
       <c r="G181" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>51</v>
@@ -13355,22 +13437,22 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3" t="s">
-        <v>469</v>
+        <v>781</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>1701005</v>
+        <v>1701004</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F182" s="3">
         <v>17</v>
@@ -13410,28 +13492,28 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>1701006</v>
+        <v>1701005</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F183" s="3">
         <v>17</v>
       </c>
       <c r="G183" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>51</v>
@@ -13465,28 +13547,28 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>1701007</v>
+        <v>1701006</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>778</v>
+        <v>473</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F184" s="3">
         <v>17</v>
       </c>
       <c r="G184" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>51</v>
@@ -13520,28 +13602,28 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3" t="s">
-        <v>780</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>1701008</v>
+        <v>1701007</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>478</v>
+        <v>778</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
       </c>
       <c r="G185" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>51</v>
@@ -13575,28 +13657,28 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>480</v>
+        <v>780</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>1701009</v>
+        <v>1701008</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
       </c>
       <c r="G186" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>51</v>
@@ -13630,28 +13712,28 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>1701010</v>
+        <v>1701009</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
       </c>
       <c r="G187" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>51</v>
@@ -13685,28 +13767,28 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>1701011</v>
+        <v>1701010</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
       </c>
       <c r="G188" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>51</v>
@@ -13740,28 +13822,28 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>1701012</v>
+        <v>1701011</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
       </c>
       <c r="G189" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>51</v>
@@ -13795,22 +13877,22 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>1701013</v>
+        <v>1701012</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
@@ -13850,28 +13932,28 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>1701014</v>
+        <v>1701013</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
       </c>
       <c r="G191" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>51</v>
@@ -13905,28 +13987,28 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>1701015</v>
+        <v>1701014</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
       </c>
       <c r="G192" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>51</v>
@@ -13960,28 +14042,28 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>1702001</v>
+        <v>1701015</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
       </c>
       <c r="G193" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>51</v>
@@ -14002,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="N193" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O193" s="3">
         <v>0</v>
@@ -14015,28 +14097,28 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>1702002</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>505</v>
+        <v>1701017</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>808</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
       </c>
       <c r="G194" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>51</v>
@@ -14057,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="N194" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O194" s="3">
         <v>0</v>
@@ -14070,28 +14152,28 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>1702003</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>508</v>
+        <v>1701020</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>809</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
       </c>
       <c r="G195" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>51</v>
@@ -14112,7 +14194,7 @@
         <v>1</v>
       </c>
       <c r="N195" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O195" s="3">
         <v>0</v>
@@ -14125,22 +14207,22 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>1702004</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>511</v>
+        <v>1701022</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>810</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
@@ -14167,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="N196" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O196" s="3">
         <v>0</v>
@@ -14180,28 +14262,28 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>1702005</v>
+        <v>1702001</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
       </c>
       <c r="G197" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>51</v>
@@ -14235,28 +14317,28 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>1702006</v>
+        <v>1702002</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
       </c>
       <c r="G198" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>51</v>
@@ -14290,28 +14372,28 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>1702007</v>
+        <v>1702003</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>691</v>
+        <v>508</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
       </c>
       <c r="G199" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>51</v>
@@ -14345,28 +14427,28 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>1702008</v>
+        <v>1702004</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
       </c>
       <c r="G200" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>51</v>
@@ -14400,28 +14482,28 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>1702009</v>
+        <v>1702005</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
       </c>
       <c r="G201" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>51</v>
@@ -14455,22 +14537,22 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>1702010</v>
+        <v>1702006</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
@@ -14510,22 +14592,22 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>1702011</v>
+        <v>1702007</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>532</v>
+        <v>691</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F203" s="3">
         <v>17</v>
@@ -14565,28 +14647,28 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>1702012</v>
+        <v>1702008</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F204" s="3">
         <v>17</v>
       </c>
       <c r="G204" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>51</v>
@@ -14620,28 +14702,28 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>1702013</v>
+        <v>1702009</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F205" s="3">
         <v>17</v>
       </c>
       <c r="G205" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>51</v>
@@ -14675,28 +14757,28 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>1702014</v>
+        <v>1702010</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F206" s="3">
         <v>17</v>
       </c>
       <c r="G206" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>51</v>
@@ -14730,28 +14812,28 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>1702015</v>
+        <v>1702011</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F207" s="3">
         <v>17</v>
       </c>
       <c r="G207" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>51</v>
@@ -14785,22 +14867,22 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>1702016</v>
+        <v>1702012</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>782</v>
+        <v>535</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F208" s="3">
         <v>17</v>
@@ -14840,28 +14922,28 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3" t="s">
-        <v>785</v>
+        <v>537</v>
       </c>
     </row>
     <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>1702017</v>
+        <v>1702013</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="F209" s="3">
         <v>17</v>
       </c>
       <c r="G209" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>51</v>
@@ -14895,22 +14977,22 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>1702018</v>
+        <v>1702014</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F210" s="3">
         <v>17</v>
@@ -14950,28 +15032,28 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>1702019</v>
+        <v>1702015</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="F211" s="3">
         <v>17</v>
       </c>
       <c r="G211" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H211" s="3" t="s">
         <v>51</v>
@@ -15005,28 +15087,28 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>1702020</v>
+        <v>1702016</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>558</v>
+        <v>782</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F212" s="3">
         <v>17</v>
       </c>
       <c r="G212" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>51</v>
@@ -15060,28 +15142,28 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
-        <v>560</v>
+        <v>785</v>
       </c>
     </row>
     <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>1702021</v>
+        <v>1702017</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F213" s="3">
         <v>17</v>
       </c>
       <c r="G213" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>51</v>
@@ -15115,25 +15197,25 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>2000001</v>
+        <v>1702018</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F214" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G214" s="3">
         <v>3</v>
@@ -15142,7 +15224,7 @@
         <v>51</v>
       </c>
       <c r="I214" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J214" s="3">
         <v>0</v>
@@ -15164,35 +15246,31 @@
       </c>
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
-      <c r="R214" s="3">
-        <v>2</v>
-      </c>
+      <c r="R214" s="3"/>
       <c r="S214" s="3"/>
-      <c r="T214" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="U214" s="6"/>
-      <c r="V214" s="6"/>
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
       <c r="W214" s="3" t="s">
-        <v>64</v>
+        <v>554</v>
       </c>
     </row>
     <row r="215" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>2000002</v>
+        <v>1702019</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F215" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G215" s="3">
         <v>3</v>
@@ -15201,7 +15279,7 @@
         <v>51</v>
       </c>
       <c r="I215" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J215" s="3">
         <v>0</v>
@@ -15223,36 +15301,31 @@
       </c>
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
-      <c r="R215" s="3">
-        <v>1</v>
-      </c>
-      <c r="S215" s="3">
-        <f>1*3600</f>
-        <v>3600</v>
-      </c>
+      <c r="R215" s="3"/>
+      <c r="S215" s="3"/>
       <c r="T215" s="3"/>
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
       <c r="W215" s="3" t="s">
-        <v>64</v>
+        <v>557</v>
       </c>
     </row>
     <row r="216" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>2000003</v>
+        <v>1702020</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F216" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G216" s="3">
         <v>3</v>
@@ -15261,7 +15334,7 @@
         <v>51</v>
       </c>
       <c r="I216" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J216" s="3">
         <v>0</v>
@@ -15283,42 +15356,40 @@
       </c>
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
-      <c r="R216" s="3">
-        <v>-1</v>
-      </c>
+      <c r="R216" s="3"/>
       <c r="S216" s="3"/>
       <c r="T216" s="3"/>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
       <c r="W216" s="3" t="s">
-        <v>64</v>
+        <v>560</v>
       </c>
     </row>
     <row r="217" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>2100003</v>
+        <v>1702021</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3" t="s">
         <v>562</v>
       </c>
       <c r="F217" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G217" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H217" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I217" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J217" s="3">
         <v>0</v>
@@ -15340,33 +15411,31 @@
       </c>
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
-      <c r="R217" s="3">
-        <v>-1</v>
-      </c>
+      <c r="R217" s="3"/>
       <c r="S217" s="3"/>
       <c r="T217" s="3"/>
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
       <c r="W217" s="3" t="s">
-        <v>64</v>
+        <v>563</v>
       </c>
     </row>
     <row r="218" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>2100004</v>
+        <v>2000001</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
         <v>562</v>
       </c>
       <c r="F218" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G218" s="3">
         <v>3</v>
@@ -15398,15 +15467,248 @@
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
       <c r="R218" s="3">
-        <v>1</v>
-      </c>
-      <c r="S218" s="3">
+        <v>2</v>
+      </c>
+      <c r="S218" s="3"/>
+      <c r="T218" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="U218" s="6"/>
+      <c r="V218" s="6"/>
+      <c r="W218" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>2000002</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F219" s="3">
+        <v>20</v>
+      </c>
+      <c r="G219" s="3">
+        <v>3</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I219" s="3">
+        <v>1</v>
+      </c>
+      <c r="J219" s="3">
+        <v>0</v>
+      </c>
+      <c r="K219" s="3">
+        <v>0</v>
+      </c>
+      <c r="L219" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M219" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N219" s="3">
+        <v>3</v>
+      </c>
+      <c r="O219" s="3">
+        <v>0</v>
+      </c>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3">
+        <v>1</v>
+      </c>
+      <c r="S219" s="3">
+        <f>1*3600</f>
+        <v>3600</v>
+      </c>
+      <c r="T219" s="3"/>
+      <c r="U219" s="3"/>
+      <c r="V219" s="3"/>
+      <c r="W219" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>2000003</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F220" s="3">
+        <v>20</v>
+      </c>
+      <c r="G220" s="3">
+        <v>3</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I220" s="3">
+        <v>1</v>
+      </c>
+      <c r="J220" s="3">
+        <v>0</v>
+      </c>
+      <c r="K220" s="3">
+        <v>0</v>
+      </c>
+      <c r="L220" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M220" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N220" s="3">
+        <v>3</v>
+      </c>
+      <c r="O220" s="3">
+        <v>0</v>
+      </c>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S220" s="3"/>
+      <c r="T220" s="3"/>
+      <c r="U220" s="3"/>
+      <c r="V220" s="3"/>
+      <c r="W220" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>2100003</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F221" s="3">
+        <v>21</v>
+      </c>
+      <c r="G221" s="3">
+        <v>3</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I221" s="3">
+        <v>1</v>
+      </c>
+      <c r="J221" s="3">
+        <v>0</v>
+      </c>
+      <c r="K221" s="3">
+        <v>0</v>
+      </c>
+      <c r="L221" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M221" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N221" s="3">
+        <v>3</v>
+      </c>
+      <c r="O221" s="3">
+        <v>0</v>
+      </c>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+      <c r="U221" s="3"/>
+      <c r="V221" s="3"/>
+      <c r="W221" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>2100004</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F222" s="3">
+        <v>21</v>
+      </c>
+      <c r="G222" s="3">
+        <v>3</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I222" s="3">
+        <v>1</v>
+      </c>
+      <c r="J222" s="3">
+        <v>0</v>
+      </c>
+      <c r="K222" s="3">
+        <v>0</v>
+      </c>
+      <c r="L222" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M222" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N222" s="3">
+        <v>3</v>
+      </c>
+      <c r="O222" s="3">
+        <v>0</v>
+      </c>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3">
+        <v>1</v>
+      </c>
+      <c r="S222" s="3">
         <v>600</v>
       </c>
-      <c r="T218" s="3"/>
-      <c r="U218" s="3"/>
-      <c r="V218" s="3"/>
-      <c r="W218" s="3" t="s">
+      <c r="T222" s="3"/>
+      <c r="U222" s="3"/>
+      <c r="V222" s="3"/>
+      <c r="W222" s="3" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="830">
   <si>
     <t>sheet名</t>
   </si>
@@ -586,16 +586,10 @@
     <t>ui_dtex_Item_1603013</t>
   </si>
   <si>
-    <t>未定义1</t>
-  </si>
-  <si>
     <t>飞天珠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1603014</t>
-  </si>
-  <si>
-    <t>未定义2</t>
   </si>
   <si>
     <t>崩土珠</t>
@@ -2663,6 +2657,87 @@
     <t>ui_dtex_Equip_1501021</t>
   </si>
   <si>
+    <t>木</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>银木</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>精石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵谷</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>军令</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵玉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色基础材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练瓶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养丹</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Nationwar_003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Nationwar_001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Nationwar_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Nationwar_004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛一心</t>
+  </si>
+  <si>
+    <t>姬烟华</t>
+  </si>
+  <si>
+    <t>幻</t>
+  </si>
+  <si>
+    <t>阎巧巧碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>诸葛一心碎片</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2672,10 +2747,6 @@
   </si>
   <si>
     <t>幻碎片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗练丹</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2884,7 +2955,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -2903,9 +2974,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3335,13 +3403,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W222"/>
+  <dimension ref="A1:W228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43:W43"/>
+      <selection pane="bottomRight" activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3434,10 +3502,10 @@
         <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>35</v>
@@ -3457,7 +3525,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -3490,7 +3558,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>42</v>
@@ -3505,10 +3573,10 @@
         <v>43</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="W2" t="s">
         <v>37</v>
@@ -3576,10 +3644,10 @@
         <v>63</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>64</v>
@@ -4081,7 +4149,7 @@
         <v>1401010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>98</v>
@@ -4295,10 +4363,10 @@
         <v>1401014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -4340,7 +4408,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4469,7 +4537,7 @@
         <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -4524,7 +4592,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -4579,7 +4647,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
@@ -4634,7 +4702,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -4689,7 +4757,7 @@
         <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -4744,7 +4812,7 @@
         <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -4799,7 +4867,7 @@
         <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -4854,7 +4922,7 @@
         <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
@@ -4909,7 +4977,7 @@
         <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -4964,7 +5032,7 @@
         <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -5019,7 +5087,7 @@
         <v>154</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -5074,7 +5142,7 @@
         <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -5129,7 +5197,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -5181,20 +5249,20 @@
         <v>1603014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>163</v>
+        <v>815</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>163</v>
+        <v>815</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F33" s="3">
         <v>16</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>51</v>
@@ -5236,20 +5304,20 @@
         <v>1603015</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>166</v>
+        <v>816</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>166</v>
+        <v>816</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F34" s="3">
         <v>16</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>51</v>
@@ -5291,14 +5359,14 @@
         <v>1603016</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F35" s="3">
         <v>16</v>
@@ -5346,14 +5414,14 @@
         <v>1603017</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F36" s="3">
         <v>16</v>
@@ -5393,7 +5461,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5401,14 +5469,14 @@
         <v>1603018</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F37" s="3">
         <v>16</v>
@@ -5448,7 +5516,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5456,14 +5524,14 @@
         <v>1603019</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F38" s="3">
         <v>16</v>
@@ -5503,7 +5571,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5511,14 +5579,14 @@
         <v>1603020</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F39" s="3">
         <v>16</v>
@@ -5558,7 +5626,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5566,14 +5634,14 @@
         <v>1603021</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F40" s="3">
         <v>16</v>
@@ -5613,7 +5681,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5621,14 +5689,14 @@
         <v>1603022</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F41" s="3">
         <v>16</v>
@@ -5668,7 +5736,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5676,14 +5744,14 @@
         <v>1603023</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F42" s="3">
         <v>16</v>
@@ -5723,7 +5791,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5731,14 +5799,14 @@
         <v>1603024</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F43" s="3">
         <v>16</v>
@@ -5778,24 +5846,22 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>1604001</v>
+        <v>1603025</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>199</v>
+        <v>817</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F44" s="3">
         <v>16</v>
@@ -5832,29 +5898,27 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="3">
-        <v>2</v>
-      </c>
-      <c r="V44" s="3">
-        <v>1103</v>
-      </c>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>786</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1604002</v>
+        <v>1604001</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
       <c r="E45" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
@@ -5891,25 +5955,29 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
+      <c r="U45" s="3">
+        <v>2</v>
+      </c>
+      <c r="V45" s="3">
+        <v>1103</v>
+      </c>
       <c r="W45" s="3" t="s">
-        <v>205</v>
+        <v>784</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1606001</v>
+        <v>1604002</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F46" s="3">
         <v>16</v>
@@ -5949,22 +6017,22 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1606002</v>
+        <v>1606001</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>708</v>
+        <v>204</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F47" s="3">
         <v>16</v>
@@ -6004,28 +6072,28 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1606003</v>
+        <v>1606002</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>213</v>
+        <v>706</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F48" s="3">
         <v>16</v>
       </c>
       <c r="G48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>51</v>
@@ -6059,22 +6127,22 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1606004</v>
+        <v>1606003</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F49" s="3">
         <v>16</v>
@@ -6114,22 +6182,22 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>1606005</v>
+        <v>1606004</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F50" s="3">
         <v>16</v>
@@ -6169,22 +6237,22 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>1606006</v>
+        <v>1606005</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F51" s="3">
         <v>16</v>
@@ -6224,28 +6292,28 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1606007</v>
+        <v>1606006</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F52" s="3">
         <v>16</v>
       </c>
       <c r="G52" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>51</v>
@@ -6279,22 +6347,22 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>1606008</v>
+        <v>1606007</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F53" s="3">
         <v>16</v>
@@ -6334,22 +6402,22 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1606009</v>
+        <v>1606008</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F54" s="3">
         <v>16</v>
@@ -6389,22 +6457,22 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>1606010</v>
+        <v>1606009</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F55" s="3">
         <v>16</v>
@@ -6444,22 +6512,22 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1606011</v>
+        <v>1606010</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F56" s="3">
         <v>16</v>
@@ -6499,22 +6567,22 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1606012</v>
+        <v>1606011</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F57" s="3">
         <v>16</v>
@@ -6554,22 +6622,22 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>1606013</v>
+        <v>1606012</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
@@ -6609,22 +6677,22 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>1606014</v>
+        <v>1606013</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F59" s="3">
         <v>16</v>
@@ -6664,28 +6732,28 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>1606015</v>
+        <v>1606014</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
       </c>
       <c r="G60" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>51</v>
@@ -6719,22 +6787,22 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>1606016</v>
+        <v>1606015</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F61" s="3">
         <v>16</v>
@@ -6774,22 +6842,22 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>1606017</v>
+        <v>1606016</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
@@ -6829,22 +6897,22 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1606018</v>
+        <v>1606017</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
@@ -6884,22 +6952,22 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>1606019</v>
+        <v>1606018</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
@@ -6939,22 +7007,22 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1606020</v>
+        <v>1606019</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
@@ -6994,22 +7062,22 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1606021</v>
+        <v>1606020</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
@@ -7049,22 +7117,22 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1606022</v>
+        <v>1606021</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
@@ -7104,22 +7172,22 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1606023</v>
+        <v>1606022</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
@@ -7159,22 +7227,22 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1606024</v>
+        <v>1606023</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
@@ -7214,22 +7282,22 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1606025</v>
+        <v>1606024</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
@@ -7269,22 +7337,22 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1606026</v>
+        <v>1606025</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
@@ -7324,22 +7392,22 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>1606027</v>
+        <v>1606026</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
@@ -7379,22 +7447,22 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1606028</v>
+        <v>1606027</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
@@ -7434,22 +7502,22 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1606029</v>
+        <v>1606028</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
@@ -7489,22 +7557,22 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>1606030</v>
+        <v>1606029</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
@@ -7544,22 +7612,22 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>1606031</v>
+        <v>1606030</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
@@ -7599,22 +7667,22 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>1606032</v>
+        <v>1606031</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
@@ -7654,22 +7722,22 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>1606103</v>
+        <v>1606032</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>709</v>
+        <v>327</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
@@ -7709,22 +7777,22 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3" t="s">
-        <v>739</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>1606104</v>
+        <v>1606103</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
@@ -7764,22 +7832,22 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>1606105</v>
+        <v>1606104</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
@@ -7819,22 +7887,22 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>1606106</v>
+        <v>1606105</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
@@ -7874,22 +7942,22 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>1606107</v>
+        <v>1606106</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
@@ -7929,22 +7997,22 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>1606108</v>
+        <v>1606107</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
@@ -7984,22 +8052,22 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>1606109</v>
+        <v>1606108</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
@@ -8039,22 +8107,22 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>1606110</v>
+        <v>1606109</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
@@ -8094,22 +8162,22 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>1606111</v>
+        <v>1606110</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
@@ -8149,22 +8217,22 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>1606112</v>
+        <v>1606111</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
@@ -8204,22 +8272,22 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>1606113</v>
+        <v>1606112</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
@@ -8259,22 +8327,22 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>1606114</v>
+        <v>1606113</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
@@ -8314,22 +8382,22 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>1606115</v>
+        <v>1606114</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
@@ -8369,22 +8437,22 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>1606116</v>
+        <v>1606115</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
@@ -8424,22 +8492,22 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>1606117</v>
+        <v>1606116</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
@@ -8479,22 +8547,22 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>1606118</v>
+        <v>1606117</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
@@ -8534,22 +8602,22 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>1606119</v>
+        <v>1606118</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
@@ -8589,22 +8657,22 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>1606120</v>
+        <v>1606119</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
@@ -8644,22 +8712,22 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>1606121</v>
+        <v>1606120</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
@@ -8699,22 +8767,22 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>1606122</v>
+        <v>1606121</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
@@ -8754,22 +8822,22 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>1606123</v>
+        <v>1606122</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
@@ -8809,22 +8877,22 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>1606124</v>
+        <v>1606123</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
@@ -8864,22 +8932,22 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>1606125</v>
+        <v>1606124</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
@@ -8919,22 +8987,22 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>1606126</v>
+        <v>1606125</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F101" s="3">
         <v>16</v>
@@ -8974,22 +9042,22 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>1606127</v>
+        <v>1606126</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F102" s="3">
         <v>16</v>
@@ -9029,22 +9097,22 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>1606128</v>
+        <v>1606127</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F103" s="3">
         <v>16</v>
@@ -9084,22 +9152,22 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>1606129</v>
+        <v>1606128</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F104" s="3">
         <v>16</v>
@@ -9139,22 +9207,22 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>1606130</v>
+        <v>1606129</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F105" s="3">
         <v>16</v>
@@ -9194,22 +9262,22 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>1606131</v>
+        <v>1606130</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F106" s="3">
         <v>16</v>
@@ -9249,22 +9317,22 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>1606132</v>
+        <v>1606131</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F107" s="3">
         <v>16</v>
@@ -9304,28 +9372,28 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>1607001</v>
+        <v>1606132</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>333</v>
+        <v>736</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F108" s="3">
         <v>16</v>
       </c>
       <c r="G108" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>51</v>
@@ -9359,22 +9427,22 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>336</v>
+        <v>766</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>1607002</v>
+        <v>1607001</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F109" s="3">
         <v>16</v>
@@ -9414,22 +9482,22 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>1607003</v>
+        <v>1607002</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F110" s="3">
         <v>16</v>
@@ -9469,22 +9537,22 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>1607004</v>
+        <v>1607003</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F111" s="3">
         <v>16</v>
@@ -9524,22 +9592,22 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>1607005</v>
+        <v>1607004</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F112" s="3">
         <v>16</v>
@@ -9579,22 +9647,22 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>1607006</v>
+        <v>1607005</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F113" s="3">
         <v>16</v>
@@ -9634,22 +9702,22 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>1607007</v>
+        <v>1607006</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F114" s="3">
         <v>16</v>
@@ -9689,22 +9757,22 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>1607008</v>
+        <v>1607007</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F115" s="3">
         <v>16</v>
@@ -9744,22 +9812,22 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>1607009</v>
+        <v>1607008</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F116" s="3">
         <v>16</v>
@@ -9799,22 +9867,22 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>1608001</v>
+        <v>1607009</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F117" s="3">
         <v>16</v>
@@ -9854,22 +9922,22 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>1608002</v>
+        <v>1608001</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F118" s="3">
         <v>16</v>
@@ -9909,22 +9977,22 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>1608003</v>
+        <v>1608002</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F119" s="3">
         <v>16</v>
@@ -9964,22 +10032,22 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>1608004</v>
+        <v>1608003</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F120" s="3">
         <v>16</v>
@@ -10019,22 +10087,22 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>1608005</v>
+        <v>1608004</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F121" s="3">
         <v>16</v>
@@ -10074,22 +10142,22 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>1608006</v>
+        <v>1608005</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F122" s="3">
         <v>16</v>
@@ -10129,22 +10197,22 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>1608007</v>
+        <v>1608006</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F123" s="3">
         <v>16</v>
@@ -10184,22 +10252,22 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>1608008</v>
+        <v>1608007</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F124" s="3">
         <v>16</v>
@@ -10239,22 +10307,22 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>1608009</v>
+        <v>1608008</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F125" s="3">
         <v>16</v>
@@ -10294,22 +10362,22 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>1608010</v>
+        <v>1608009</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F126" s="3">
         <v>16</v>
@@ -10349,22 +10417,22 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>1608011</v>
+        <v>1608010</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F127" s="3">
         <v>16</v>
@@ -10404,22 +10472,22 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>1608012</v>
+        <v>1608011</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F128" s="3">
         <v>16</v>
@@ -10459,22 +10527,22 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>1608013</v>
+        <v>1608012</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F129" s="3">
         <v>16</v>
@@ -10514,22 +10582,22 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>1608014</v>
+        <v>1608013</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F130" s="3">
         <v>16</v>
@@ -10569,22 +10637,22 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>1608015</v>
+        <v>1608014</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F131" s="3">
         <v>16</v>
@@ -10624,22 +10692,22 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>1609001</v>
+        <v>1608015</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F132" s="3">
         <v>16</v>
@@ -10679,22 +10747,22 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>1609002</v>
+        <v>1609001</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F133" s="3">
         <v>16</v>
@@ -10734,22 +10802,22 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>1609003</v>
+        <v>1609002</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F134" s="3">
         <v>16</v>
@@ -10789,22 +10857,22 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>1609104</v>
+        <v>1609003</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F135" s="3">
         <v>16</v>
@@ -10844,22 +10912,22 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>1609105</v>
+        <v>1609104</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F136" s="3">
         <v>16</v>
@@ -10899,22 +10967,22 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>1609106</v>
+        <v>1609105</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F137" s="3">
         <v>16</v>
@@ -10954,22 +11022,22 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>1610001</v>
+        <v>1609106</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F138" s="3">
         <v>16</v>
@@ -10999,34 +11067,32 @@
         <v>1</v>
       </c>
       <c r="O138" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P138" s="3"/>
-      <c r="Q138" s="3">
-        <v>20</v>
-      </c>
+      <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>1610002</v>
+        <v>1610001</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F139" s="3">
         <v>16</v>
@@ -11060,7 +11126,7 @@
       </c>
       <c r="P139" s="3"/>
       <c r="Q139" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
@@ -11068,22 +11134,22 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>1610003</v>
+        <v>1610002</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F140" s="3">
         <v>16</v>
@@ -11117,7 +11183,7 @@
       </c>
       <c r="P140" s="3"/>
       <c r="Q140" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
@@ -11125,85 +11191,85 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>1605001</v>
+        <v>1610003</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="F141" s="3">
         <v>16</v>
       </c>
       <c r="G141" s="3">
+        <v>1</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I141" s="3">
+        <v>999</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <v>1</v>
+      </c>
+      <c r="L141" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M141" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N141" s="3">
+        <v>1</v>
+      </c>
+      <c r="O141" s="3">
         <v>2</v>
       </c>
-      <c r="H141" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I141" s="3">
-        <v>999</v>
-      </c>
-      <c r="J141" s="3">
-        <v>0</v>
-      </c>
-      <c r="K141" s="3">
-        <v>1</v>
-      </c>
-      <c r="L141" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M141" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N141" s="3">
-        <v>5</v>
-      </c>
-      <c r="O141" s="3">
-        <v>1</v>
-      </c>
-      <c r="P141" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3">
+        <v>100</v>
+      </c>
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>1605002</v>
+        <v>1605001</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F142" s="3">
         <v>16</v>
       </c>
       <c r="G142" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>51</v>
@@ -11230,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>450</v>
+        <v>698</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
@@ -11239,28 +11305,28 @@
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
       <c r="W142" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>1605003</v>
+        <v>1605002</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F143" s="3">
         <v>16</v>
       </c>
       <c r="G143" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>51</v>
@@ -11287,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="P143" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
@@ -11296,22 +11362,22 @@
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
       <c r="W143" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>1605004</v>
+        <v>1605003</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>704</v>
+        <v>450</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F144" s="3">
         <v>16</v>
@@ -11344,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
@@ -11353,28 +11419,28 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
       <c r="W144" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>1605005</v>
+        <v>1605004</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>454</v>
+        <v>702</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F145" s="3">
         <v>16</v>
       </c>
       <c r="G145" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>51</v>
@@ -11401,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>701</v>
+        <v>451</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
@@ -11410,22 +11476,22 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>1605006</v>
+        <v>1605005</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F146" s="3">
         <v>16</v>
@@ -11458,7 +11524,7 @@
         <v>1</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>458</v>
+        <v>699</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
@@ -11467,28 +11533,28 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>1605007</v>
+        <v>1605006</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>610</v>
+        <v>455</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>610</v>
+        <v>456</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F147" s="3">
         <v>16</v>
       </c>
       <c r="G147" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>51</v>
@@ -11515,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>702</v>
+        <v>456</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
@@ -11524,22 +11590,22 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3" t="s">
-        <v>664</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>1605008</v>
+        <v>1605007</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>663</v>
+        <v>608</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>663</v>
+        <v>608</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F148" s="3">
         <v>16</v>
@@ -11572,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>662</v>
+        <v>700</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
@@ -11581,28 +11647,28 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>1605009</v>
+        <v>1605008</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F149" s="3">
         <v>16</v>
       </c>
       <c r="G149" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>51</v>
@@ -11629,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
@@ -11638,28 +11704,28 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>1605010</v>
+        <v>1605009</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F150" s="3">
         <v>16</v>
       </c>
       <c r="G150" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>51</v>
@@ -11686,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -11695,22 +11761,22 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>1605011</v>
+        <v>1605010</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F151" s="3">
         <v>16</v>
@@ -11743,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -11752,28 +11818,28 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>1605012</v>
+        <v>1605011</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F152" s="3">
         <v>16</v>
       </c>
       <c r="G152" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>51</v>
@@ -11800,7 +11866,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
@@ -11809,22 +11875,22 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>1605013</v>
+        <v>1605012</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F153" s="3">
         <v>16</v>
@@ -11857,7 +11923,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
@@ -11866,28 +11932,28 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>1605014</v>
+        <v>1605013</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F154" s="3">
         <v>16</v>
       </c>
       <c r="G154" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>51</v>
@@ -11914,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
@@ -11923,22 +11989,22 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>1605015</v>
+        <v>1605014</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F155" s="3">
         <v>16</v>
@@ -11971,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
@@ -11980,22 +12046,22 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>1605016</v>
+        <v>1605015</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F156" s="3">
         <v>16</v>
@@ -12028,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="P156" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
@@ -12037,30 +12103,28 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>1605017</v>
+        <v>1605016</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D157" s="3">
-        <v>1</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F157" s="3">
         <v>16</v>
       </c>
       <c r="G157" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>51</v>
@@ -12087,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
@@ -12096,28 +12160,30 @@
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
       <c r="W157" s="3" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>1611001</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>602</v>
+        <v>1605017</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>703</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D158" s="3"/>
+        <v>703</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
       <c r="E158" s="3" t="s">
-        <v>787</v>
+        <v>449</v>
       </c>
       <c r="F158" s="3">
         <v>16</v>
       </c>
       <c r="G158" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>51</v>
@@ -12129,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158" s="3">
         <v>1001</v>
@@ -12138,42 +12204,43 @@
         <v>1</v>
       </c>
       <c r="N158" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O158" s="3">
-        <v>0</v>
-      </c>
-      <c r="P158" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P158" s="3" t="s">
+        <v>703</v>
+      </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
-      <c r="W158" s="3" t="str">
-        <f>B158&amp;",用于激活和解封专属武器"</f>
-        <v>关羽专属武器碎片,用于激活和解封专属武器</v>
+      <c r="W158" s="3" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>1611002</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>707</v>
+        <v>1611001</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>600</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
       </c>
       <c r="G159" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>51</v>
@@ -12207,23 +12274,23 @@
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
       <c r="W159" s="3" t="str">
-        <f t="shared" ref="W159:W178" si="0">B159&amp;",用于激活和解封专属武器"</f>
-        <v>许褚专属武器碎片,用于激活和解封专属武器</v>
+        <f>B159&amp;",用于激活和解封专属武器"</f>
+        <v>关羽专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>1611003</v>
+        <v>1611002</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>611</v>
+        <v>705</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12263,29 +12330,29 @@
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
       <c r="W160" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>典韦专属武器碎片,用于激活和解封专属武器</v>
+        <f t="shared" ref="W160:W179" si="0">B160&amp;",用于激活和解封专属武器"</f>
+        <v>许褚专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>1611004</v>
+        <v>1611003</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
       </c>
       <c r="G161" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H161" s="3" t="s">
         <v>51</v>
@@ -12320,28 +12387,28 @@
       <c r="V161" s="3"/>
       <c r="W161" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>唐流雨专属武器碎片,用于激活和解封专属武器</v>
+        <v>典韦专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>1611005</v>
+        <v>1611004</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
       </c>
       <c r="G162" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>51</v>
@@ -12376,28 +12443,28 @@
       <c r="V162" s="3"/>
       <c r="W162" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>李轩辕专属武器碎片,用于激活和解封专属武器</v>
+        <v>唐流雨专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>1611006</v>
+        <v>1611005</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F163" s="3">
         <v>16</v>
       </c>
       <c r="G163" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>51</v>
@@ -12432,28 +12499,28 @@
       <c r="V163" s="3"/>
       <c r="W163" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>项羽专属武器碎片,用于激活和解封专属武器</v>
+        <v>李轩辕专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>1611007</v>
+        <v>1611006</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F164" s="3">
         <v>16</v>
       </c>
       <c r="G164" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>51</v>
@@ -12488,28 +12555,28 @@
       <c r="V164" s="3"/>
       <c r="W164" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>天使缇娜专属武器碎片,用于激活和解封专属武器</v>
+        <v>项羽专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>1611008</v>
+        <v>1611007</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F165" s="3">
         <v>16</v>
       </c>
       <c r="G165" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>51</v>
@@ -12544,22 +12611,22 @@
       <c r="V165" s="3"/>
       <c r="W165" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>夏侯渊专属武器碎片,用于激活和解封专属武器</v>
+        <v>天使缇娜专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>1611009</v>
+        <v>1611008</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F166" s="3">
         <v>16</v>
@@ -12600,22 +12667,22 @@
       <c r="V166" s="3"/>
       <c r="W166" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>徐晃专属武器碎片,用于激活和解封专属武器</v>
+        <v>夏侯渊专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>1611010</v>
+        <v>1611009</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F167" s="3">
         <v>16</v>
@@ -12656,22 +12723,22 @@
       <c r="V167" s="3"/>
       <c r="W167" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>张郃专属武器碎片,用于激活和解封专属武器</v>
+        <v>徐晃专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>1611011</v>
+        <v>1611010</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F168" s="3">
         <v>16</v>
@@ -12712,22 +12779,22 @@
       <c r="V168" s="3"/>
       <c r="W168" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>张飞专属武器碎片,用于激活和解封专属武器</v>
+        <v>张郃专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>1611012</v>
+        <v>1611011</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F169" s="3">
         <v>16</v>
@@ -12768,22 +12835,22 @@
       <c r="V169" s="3"/>
       <c r="W169" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>夏侯惇专属武器碎片,用于激活和解封专属武器</v>
+        <v>张飞专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>1611013</v>
+        <v>1611012</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F170" s="3">
         <v>16</v>
@@ -12824,22 +12891,22 @@
       <c r="V170" s="3"/>
       <c r="W170" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>塞伯罗斯专属武器碎片,用于激活和解封专属武器</v>
+        <v>夏侯惇专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>1611014</v>
+        <v>1611013</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F171" s="3">
         <v>16</v>
@@ -12880,22 +12947,22 @@
       <c r="V171" s="3"/>
       <c r="W171" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>石灵明专属武器碎片,用于激活和解封专属武器</v>
+        <v>塞伯罗斯专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>1611015</v>
+        <v>1611014</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F172" s="3">
         <v>16</v>
@@ -12936,22 +13003,22 @@
       <c r="V172" s="3"/>
       <c r="W172" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>于禁专属武器碎片,用于激活和解封专属武器</v>
+        <v>石灵明专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>1611016</v>
+        <v>1611015</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F173" s="3">
         <v>16</v>
@@ -12992,22 +13059,22 @@
       <c r="V173" s="3"/>
       <c r="W173" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>西方龙专属武器碎片,用于激活和解封专属武器</v>
+        <v>于禁专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>1611017</v>
+        <v>1611016</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F174" s="3">
         <v>16</v>
@@ -13048,22 +13115,22 @@
       <c r="V174" s="3"/>
       <c r="W174" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>飞廉专属武器碎片,用于激活和解封专属武器</v>
+        <v>西方龙专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>1611018</v>
+        <v>1611017</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F175" s="3">
         <v>16</v>
@@ -13104,22 +13171,22 @@
       <c r="V175" s="3"/>
       <c r="W175" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>噬日专属武器碎片,用于激活和解封专属武器</v>
+        <v>飞廉专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>1611019</v>
+        <v>1611018</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F176" s="3">
         <v>16</v>
@@ -13160,22 +13227,22 @@
       <c r="V176" s="3"/>
       <c r="W176" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>食火蜥专属武器碎片,用于激活和解封专属武器</v>
+        <v>噬日专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>1611020</v>
+        <v>1611019</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F177" s="3">
         <v>16</v>
@@ -13216,22 +13283,22 @@
       <c r="V177" s="3"/>
       <c r="W177" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>高顺专属武器碎片,用于激活和解封专属武器</v>
+        <v>食火蜥专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>1611021</v>
+        <v>1611020</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F178" s="3">
         <v>16</v>
@@ -13272,49 +13339,49 @@
       <c r="V178" s="3"/>
       <c r="W178" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>烈风螳螂专属武器碎片,用于激活和解封专属武器</v>
+        <v>高顺专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>1701001</v>
+        <v>1611021</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>783</v>
+        <v>641</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>461</v>
+        <v>805</v>
       </c>
       <c r="F179" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G179" s="3">
+        <v>4</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I179" s="3">
+        <v>999</v>
+      </c>
+      <c r="J179" s="3">
+        <v>0</v>
+      </c>
+      <c r="K179" s="3">
+        <v>0</v>
+      </c>
+      <c r="L179" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M179" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N179" s="3">
         <v>3</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I179" s="3">
-        <v>999</v>
-      </c>
-      <c r="J179" s="3">
-        <v>0</v>
-      </c>
-      <c r="K179" s="3">
-        <v>0</v>
-      </c>
-      <c r="L179" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M179" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N179" s="3">
-        <v>2</v>
       </c>
       <c r="O179" s="3">
         <v>0</v>
@@ -13326,29 +13393,30 @@
       <c r="T179" s="3"/>
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
-      <c r="W179" s="3" t="s">
-        <v>784</v>
+      <c r="W179" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>烈风螳螂专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>1701002</v>
+        <v>1701001</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>462</v>
+        <v>781</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F180" s="3">
         <v>17</v>
       </c>
       <c r="G180" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>51</v>
@@ -13382,28 +13450,28 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>464</v>
+        <v>782</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>1701003</v>
+        <v>1701002</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>779</v>
+        <v>460</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F181" s="3">
         <v>17</v>
       </c>
       <c r="G181" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>51</v>
@@ -13437,28 +13505,28 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3" t="s">
-        <v>781</v>
+        <v>462</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>1701004</v>
+        <v>1701003</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>467</v>
+        <v>777</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F182" s="3">
         <v>17</v>
       </c>
       <c r="G182" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>51</v>
@@ -13492,22 +13560,22 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>469</v>
+        <v>779</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>1701005</v>
+        <v>1701004</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F183" s="3">
         <v>17</v>
@@ -13547,28 +13615,28 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>1701006</v>
+        <v>1701005</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F184" s="3">
         <v>17</v>
       </c>
       <c r="G184" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>51</v>
@@ -13602,28 +13670,28 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>1701007</v>
+        <v>1701006</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>778</v>
+        <v>471</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
       </c>
       <c r="G185" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>51</v>
@@ -13657,28 +13725,28 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>780</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>1701008</v>
+        <v>1701007</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>478</v>
+        <v>776</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
       </c>
       <c r="G186" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>51</v>
@@ -13712,28 +13780,28 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>480</v>
+        <v>778</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>1701009</v>
+        <v>1701008</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
       </c>
       <c r="G187" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>51</v>
@@ -13767,28 +13835,28 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>1701010</v>
+        <v>1701009</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
       </c>
       <c r="G188" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>51</v>
@@ -13822,28 +13890,28 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>1701011</v>
+        <v>1701010</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
       </c>
       <c r="G189" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>51</v>
@@ -13877,28 +13945,28 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>1701012</v>
+        <v>1701011</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
       </c>
       <c r="G190" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>51</v>
@@ -13932,22 +14000,22 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>1701013</v>
+        <v>1701012</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
@@ -13987,28 +14055,28 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>1701014</v>
+        <v>1701013</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
       </c>
       <c r="G192" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>51</v>
@@ -14042,28 +14110,28 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>1701015</v>
+        <v>1701014</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
       </c>
       <c r="G193" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>51</v>
@@ -14097,22 +14165,22 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>1701017</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>808</v>
+        <v>1701015</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
@@ -14152,22 +14220,22 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>1701020</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>809</v>
+        <v>1701017</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>823</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
@@ -14207,22 +14275,22 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>1701022</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>810</v>
+        <v>1701020</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>824</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
@@ -14262,28 +14330,28 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>1702001</v>
+        <v>1701022</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>502</v>
+        <v>825</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
       </c>
       <c r="G197" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>51</v>
@@ -14304,7 +14372,7 @@
         <v>1</v>
       </c>
       <c r="N197" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O197" s="3">
         <v>0</v>
@@ -14317,28 +14385,28 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>1702002</v>
+        <v>1702001</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
       </c>
       <c r="G198" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>51</v>
@@ -14372,22 +14440,22 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>1702003</v>
+        <v>1702002</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
@@ -14427,28 +14495,28 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>1702004</v>
+        <v>1702003</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
       </c>
       <c r="G200" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>51</v>
@@ -14482,28 +14550,28 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>1702005</v>
+        <v>1702004</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
       </c>
       <c r="G201" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>51</v>
@@ -14537,28 +14605,28 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>1702006</v>
+        <v>1702005</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
       </c>
       <c r="G202" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>51</v>
@@ -14592,22 +14660,22 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>1702007</v>
+        <v>1702006</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>691</v>
+        <v>515</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F203" s="3">
         <v>17</v>
@@ -14647,28 +14715,28 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>1702008</v>
+        <v>1702007</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>523</v>
+        <v>689</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F204" s="3">
         <v>17</v>
       </c>
       <c r="G204" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>51</v>
@@ -14702,28 +14770,28 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>1702009</v>
+        <v>1702008</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F205" s="3">
         <v>17</v>
       </c>
       <c r="G205" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>51</v>
@@ -14757,22 +14825,22 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>1702010</v>
+        <v>1702009</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F206" s="3">
         <v>17</v>
@@ -14812,22 +14880,22 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>1702011</v>
+        <v>1702010</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F207" s="3">
         <v>17</v>
@@ -14867,22 +14935,22 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>1702012</v>
+        <v>1702011</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F208" s="3">
         <v>17</v>
@@ -14922,28 +14990,28 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>1702013</v>
+        <v>1702012</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F209" s="3">
         <v>17</v>
       </c>
       <c r="G209" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>51</v>
@@ -14977,28 +15045,28 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>1702014</v>
+        <v>1702013</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F210" s="3">
         <v>17</v>
       </c>
       <c r="G210" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>51</v>
@@ -15032,28 +15100,28 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>1702015</v>
+        <v>1702014</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F211" s="3">
         <v>17</v>
       </c>
       <c r="G211" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H211" s="3" t="s">
         <v>51</v>
@@ -15087,28 +15155,28 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>1702016</v>
+        <v>1702015</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>782</v>
+        <v>542</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F212" s="3">
         <v>17</v>
       </c>
       <c r="G212" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>51</v>
@@ -15142,28 +15210,28 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
-        <v>785</v>
+        <v>544</v>
       </c>
     </row>
     <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>1702017</v>
+        <v>1702016</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>549</v>
+        <v>780</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F213" s="3">
         <v>17</v>
       </c>
       <c r="G213" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>51</v>
@@ -15197,22 +15265,22 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
-        <v>551</v>
+        <v>783</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>1702018</v>
+        <v>1702017</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F214" s="3">
         <v>17</v>
@@ -15252,22 +15320,22 @@
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
       <c r="W214" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="215" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>1702019</v>
+        <v>1702018</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F215" s="3">
         <v>17</v>
@@ -15307,22 +15375,22 @@
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
       <c r="W215" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="216" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>1702020</v>
+        <v>1702019</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F216" s="3">
         <v>17</v>
@@ -15362,28 +15430,28 @@
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
       <c r="W216" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="217" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>1702021</v>
+        <v>1702020</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F217" s="3">
         <v>17</v>
       </c>
       <c r="G217" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H217" s="3" t="s">
         <v>51</v>
@@ -15417,34 +15485,34 @@
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
       <c r="W217" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="218" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>2000001</v>
+        <v>1702021</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F218" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G218" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I218" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J218" s="3">
         <v>0</v>
@@ -15466,32 +15534,28 @@
       </c>
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
-      <c r="R218" s="3">
-        <v>2</v>
-      </c>
+      <c r="R218" s="3"/>
       <c r="S218" s="3"/>
-      <c r="T218" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="U218" s="6"/>
-      <c r="V218" s="6"/>
+      <c r="T218" s="3"/>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3"/>
       <c r="W218" s="3" t="s">
-        <v>64</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F219" s="3">
         <v>20</v>
@@ -15526,32 +15590,31 @@
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
       <c r="R219" s="3">
-        <v>1</v>
-      </c>
-      <c r="S219" s="3">
-        <f>1*3600</f>
-        <v>3600</v>
-      </c>
-      <c r="T219" s="3"/>
-      <c r="U219" s="3"/>
-      <c r="V219" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="S219" s="3"/>
+      <c r="T219" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="U219" s="6"/>
+      <c r="V219" s="6"/>
       <c r="W219" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F220" s="3">
         <v>20</v>
@@ -15586,9 +15649,12 @@
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
       <c r="R220" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S220" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="S220" s="3">
+        <f>1*3600</f>
+        <v>3600</v>
+      </c>
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
@@ -15598,20 +15664,20 @@
     </row>
     <row r="221" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>2100003</v>
+        <v>2000003</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F221" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G221" s="3">
         <v>3</v>
@@ -15655,17 +15721,17 @@
     </row>
     <row r="222" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>2100004</v>
+        <v>2100003</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F222" s="3">
         <v>21</v>
@@ -15700,15 +15766,337 @@
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
       <c r="R222" s="3">
-        <v>1</v>
-      </c>
-      <c r="S222" s="3">
-        <v>600</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="S222" s="3"/>
       <c r="T222" s="3"/>
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
       <c r="W222" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>2100004</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F223" s="3">
+        <v>21</v>
+      </c>
+      <c r="G223" s="3">
+        <v>3</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I223" s="3">
+        <v>1</v>
+      </c>
+      <c r="J223" s="3">
+        <v>0</v>
+      </c>
+      <c r="K223" s="3">
+        <v>0</v>
+      </c>
+      <c r="L223" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M223" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N223" s="3">
+        <v>3</v>
+      </c>
+      <c r="O223" s="3">
+        <v>0</v>
+      </c>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+      <c r="R223" s="3">
+        <v>1</v>
+      </c>
+      <c r="S223" s="3">
+        <v>600</v>
+      </c>
+      <c r="T223" s="3"/>
+      <c r="U223" s="3"/>
+      <c r="V223" s="3"/>
+      <c r="W223" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>6000001</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F224" s="3">
+        <v>60</v>
+      </c>
+      <c r="G224" s="3">
+        <v>1</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I224" s="3">
+        <v>0</v>
+      </c>
+      <c r="J224" s="3">
+        <v>0</v>
+      </c>
+      <c r="K224" s="3">
+        <v>0</v>
+      </c>
+      <c r="L224" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M224" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3">
+        <v>0</v>
+      </c>
+      <c r="P224" s="3"/>
+      <c r="Q224" s="3"/>
+      <c r="R224" s="3"/>
+      <c r="S224" s="3"/>
+      <c r="T224" s="3"/>
+      <c r="U224" s="3"/>
+      <c r="V224" s="3"/>
+      <c r="W224" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>6000002</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F225" s="3">
+        <v>60</v>
+      </c>
+      <c r="G225" s="3">
+        <v>1</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I225" s="3">
+        <v>0</v>
+      </c>
+      <c r="J225" s="3">
+        <v>0</v>
+      </c>
+      <c r="K225" s="3">
+        <v>0</v>
+      </c>
+      <c r="L225" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M225" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3">
+        <v>0</v>
+      </c>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="3"/>
+      <c r="T225" s="3"/>
+      <c r="U225" s="3"/>
+      <c r="V225" s="3"/>
+      <c r="W225" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>6000003</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F226" s="3">
+        <v>60</v>
+      </c>
+      <c r="G226" s="3">
+        <v>1</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I226" s="3">
+        <v>0</v>
+      </c>
+      <c r="J226" s="3">
+        <v>0</v>
+      </c>
+      <c r="K226" s="3">
+        <v>0</v>
+      </c>
+      <c r="L226" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M226" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3">
+        <v>0</v>
+      </c>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="3"/>
+      <c r="T226" s="3"/>
+      <c r="U226" s="3"/>
+      <c r="V226" s="3"/>
+      <c r="W226" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>6000004</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F227" s="3">
+        <v>60</v>
+      </c>
+      <c r="G227" s="3">
+        <v>1</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I227" s="3">
+        <v>0</v>
+      </c>
+      <c r="J227" s="3">
+        <v>0</v>
+      </c>
+      <c r="K227" s="3">
+        <v>0</v>
+      </c>
+      <c r="L227" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M227" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3">
+        <v>0</v>
+      </c>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
+      <c r="U227" s="3"/>
+      <c r="V227" s="3"/>
+      <c r="W227" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>6000005</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F228" s="3">
+        <v>60</v>
+      </c>
+      <c r="G228" s="3">
+        <v>1</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I228" s="3">
+        <v>0</v>
+      </c>
+      <c r="J228" s="3">
+        <v>0</v>
+      </c>
+      <c r="K228" s="3">
+        <v>0</v>
+      </c>
+      <c r="L228" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M228" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3">
+        <v>0</v>
+      </c>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -15747,22 +16135,22 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -15770,22 +16158,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -15796,25 +16184,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -16056,7 +16444,7 @@
         <v>1603014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3">
         <v>1401011</v>
@@ -16074,7 +16462,7 @@
         <v>1603015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3">
         <v>1401011</v>
@@ -16092,7 +16480,7 @@
         <v>1603016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C19" s="3">
         <v>1401011</v>
@@ -16110,7 +16498,7 @@
         <v>1603017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3">
         <v>1401011</v>
@@ -16128,7 +16516,7 @@
         <v>1603018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3">
         <v>1401011</v>
@@ -16146,7 +16534,7 @@
         <v>1603019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="3">
         <v>1401011</v>
@@ -16164,7 +16552,7 @@
         <v>1603020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" s="3">
         <v>1401011</v>
@@ -16182,7 +16570,7 @@
         <v>1603021</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24" s="3">
         <v>1401011</v>
@@ -16200,7 +16588,7 @@
         <v>1603022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" s="3">
         <v>1401011</v>
@@ -16218,7 +16606,7 @@
         <v>1603023</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C26" s="3">
         <v>1401011</v>
@@ -16236,7 +16624,7 @@
         <v>1604001</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C27" s="3">
         <v>1401011</v>
@@ -16254,7 +16642,7 @@
         <v>1604002</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C28" s="3">
         <v>1401011</v>
@@ -16272,7 +16660,7 @@
         <v>1606001</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C29" s="3">
         <v>1401011</v>
@@ -16290,7 +16678,7 @@
         <v>1606002</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C30" s="3">
         <v>1401011</v>
@@ -16308,7 +16696,7 @@
         <v>1606003</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C31" s="3">
         <v>1401011</v>
@@ -16326,7 +16714,7 @@
         <v>1606004</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C32" s="3">
         <v>1401011</v>
@@ -16344,7 +16732,7 @@
         <v>1606005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C33" s="3">
         <v>1401011</v>
@@ -16362,7 +16750,7 @@
         <v>1606006</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C34" s="3">
         <v>1401011</v>
@@ -16380,7 +16768,7 @@
         <v>1606007</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C35" s="3">
         <v>1401011</v>
@@ -16398,7 +16786,7 @@
         <v>1606008</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C36" s="3">
         <v>1401011</v>
@@ -16416,7 +16804,7 @@
         <v>1606009</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C37" s="3">
         <v>1401011</v>
@@ -16434,7 +16822,7 @@
         <v>1606010</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C38" s="3">
         <v>1401011</v>
@@ -16452,7 +16840,7 @@
         <v>1606011</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="3">
         <v>1401011</v>
@@ -16470,7 +16858,7 @@
         <v>1606012</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C40" s="3">
         <v>1401011</v>
@@ -16488,7 +16876,7 @@
         <v>1606013</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C41" s="3">
         <v>1401011</v>
@@ -16506,7 +16894,7 @@
         <v>1606014</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C42" s="3">
         <v>1401011</v>
@@ -16524,7 +16912,7 @@
         <v>1606015</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C43" s="3">
         <v>1401011</v>
@@ -16542,7 +16930,7 @@
         <v>1606016</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C44" s="3">
         <v>1401011</v>
@@ -16560,7 +16948,7 @@
         <v>1606017</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C45" s="3">
         <v>1401011</v>
@@ -16578,7 +16966,7 @@
         <v>1606018</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C46" s="3">
         <v>1401011</v>
@@ -16596,7 +16984,7 @@
         <v>1606019</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C47" s="3">
         <v>1401011</v>
@@ -16614,7 +17002,7 @@
         <v>1606020</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C48" s="3">
         <v>1401011</v>
@@ -16632,7 +17020,7 @@
         <v>1606021</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C49" s="3">
         <v>1401011</v>
@@ -16650,7 +17038,7 @@
         <v>1606022</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C50" s="3">
         <v>1401011</v>
@@ -16668,7 +17056,7 @@
         <v>1606023</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C51" s="3">
         <v>1401011</v>
@@ -16686,7 +17074,7 @@
         <v>1606024</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C52" s="3">
         <v>1401011</v>
@@ -16704,7 +17092,7 @@
         <v>1606025</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C53" s="3">
         <v>1401011</v>
@@ -16722,7 +17110,7 @@
         <v>1606026</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C54" s="3">
         <v>1401011</v>
@@ -16740,7 +17128,7 @@
         <v>1606027</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C55" s="3">
         <v>1401011</v>
@@ -16758,7 +17146,7 @@
         <v>1606028</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C56" s="3">
         <v>1401011</v>
@@ -16776,7 +17164,7 @@
         <v>1606029</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C57" s="3">
         <v>1401011</v>
@@ -16794,7 +17182,7 @@
         <v>1606030</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C58" s="3">
         <v>1401011</v>
@@ -16812,7 +17200,7 @@
         <v>1606031</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C59" s="3">
         <v>1401011</v>
@@ -16830,7 +17218,7 @@
         <v>1606032</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C60" s="3">
         <v>1401011</v>
@@ -16848,7 +17236,7 @@
         <v>1607001</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C61" s="3">
         <v>1401011</v>
@@ -16866,7 +17254,7 @@
         <v>1607002</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C62" s="3">
         <v>1401011</v>
@@ -16884,7 +17272,7 @@
         <v>1607003</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C63" s="3">
         <v>1401011</v>
@@ -16902,7 +17290,7 @@
         <v>1607004</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C64" s="3">
         <v>1401011</v>
@@ -16920,7 +17308,7 @@
         <v>1607005</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C65" s="3">
         <v>1401011</v>
@@ -16938,7 +17326,7 @@
         <v>1607006</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C66" s="3">
         <v>1401011</v>
@@ -16956,7 +17344,7 @@
         <v>1607007</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C67" s="3">
         <v>1401011</v>
@@ -16974,7 +17362,7 @@
         <v>1607008</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C68" s="3">
         <v>1401011</v>
@@ -16992,7 +17380,7 @@
         <v>1607009</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C69" s="3">
         <v>1401011</v>
@@ -17010,7 +17398,7 @@
         <v>1608001</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C70" s="3">
         <v>1401011</v>
@@ -17028,7 +17416,7 @@
         <v>1608002</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C71" s="3">
         <v>1401011</v>
@@ -17046,7 +17434,7 @@
         <v>1608003</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C72" s="3">
         <v>1401011</v>
@@ -17064,7 +17452,7 @@
         <v>1608004</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C73" s="3">
         <v>1401011</v>
@@ -17082,7 +17470,7 @@
         <v>1608005</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C74" s="3">
         <v>1401011</v>
@@ -17100,7 +17488,7 @@
         <v>1608006</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C75" s="3">
         <v>1401011</v>
@@ -17118,7 +17506,7 @@
         <v>1608007</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C76" s="3">
         <v>1401011</v>
@@ -17136,7 +17524,7 @@
         <v>1608008</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C77" s="3">
         <v>1401011</v>
@@ -17154,7 +17542,7 @@
         <v>1608009</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C78" s="3">
         <v>1401011</v>
@@ -17172,7 +17560,7 @@
         <v>1608010</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C79" s="3">
         <v>1401011</v>
@@ -17190,7 +17578,7 @@
         <v>1608011</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C80" s="3">
         <v>1401011</v>
@@ -17208,7 +17596,7 @@
         <v>1608012</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C81" s="3">
         <v>1401011</v>
@@ -17226,7 +17614,7 @@
         <v>1608013</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C82" s="3">
         <v>1401011</v>
@@ -17244,7 +17632,7 @@
         <v>1608014</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C83" s="3">
         <v>1401011</v>
@@ -17262,7 +17650,7 @@
         <v>1608015</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C84" s="3">
         <v>1401011</v>
@@ -17280,7 +17668,7 @@
         <v>1609001</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C85" s="3">
         <v>1401011</v>
@@ -17298,7 +17686,7 @@
         <v>1609002</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C86" s="3">
         <v>1401011</v>
@@ -17316,7 +17704,7 @@
         <v>1609003</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C87" s="3">
         <v>1401011</v>
@@ -17356,22 +17744,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17379,7 +17767,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -17388,7 +17776,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -17402,22 +17790,22 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -17432,7 +17820,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -18,11 +18,19 @@
     <sheet name="次数道具" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="831">
   <si>
     <t>sheet名</t>
   </si>
@@ -1510,30 +1518,18 @@
     <t>寄灵人刘羽禅的碎片，是其合成和升星的必要材料。</t>
   </si>
   <si>
-    <t>红莲·缇娜碎片</t>
-  </si>
-  <si>
     <t>head_hltn_1101006</t>
   </si>
   <si>
-    <t>寄灵人红莲·缇娜的碎片，是其合成和升星的必要材料。</t>
-  </si>
-  <si>
     <t>战斗曹焱兵碎片</t>
   </si>
   <si>
     <t>head_zdcyb_1101007</t>
   </si>
   <si>
-    <t>黑尔·坎普碎片</t>
-  </si>
-  <si>
     <t>head_hekp_1101008</t>
   </si>
   <si>
-    <t>寄灵人黑尔·坎普的碎片，是其合成和升星的必要材料。</t>
-  </si>
-  <si>
     <t>北落师门碎片</t>
   </si>
   <si>
@@ -1649,9 +1645,6 @@
   </si>
   <si>
     <t>守护灵项羽的碎片，是其合成和升星的必要材料。</t>
-  </si>
-  <si>
-    <t>天使·缇娜碎片</t>
   </si>
   <si>
     <t>head_tstn_1102007</t>
@@ -1997,9 +1990,6 @@
     <t>白龙碎片</t>
   </si>
   <si>
-    <t>流光·幻影碎片_x000D_</t>
-  </si>
-  <si>
     <t>丈八蛇矛碎片</t>
   </si>
   <si>
@@ -2191,10 +2181,6 @@
   </si>
   <si>
     <t>随机开出阿波普之刃的碎片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使·缇娜碎片</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2747,6 +2733,32 @@
   </si>
   <si>
     <t>幻碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>流光幻影碎片_x000D_</t>
+  </si>
+  <si>
+    <t>红莲缇娜碎片</t>
+  </si>
+  <si>
+    <t>寄灵人红莲缇娜的碎片，是其合成和升星的必要材料。</t>
+  </si>
+  <si>
+    <t>黑尔坎普碎片</t>
+  </si>
+  <si>
+    <t>寄灵人黑尔坎普的碎片，是其合成和升星的必要材料。</t>
+  </si>
+  <si>
+    <t>天使缇娜碎片</t>
+  </si>
+  <si>
+    <t>燕青碎片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护燕青的碎片，是其合成和升星的必要材料。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3403,13 +3415,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W228"/>
+  <dimension ref="A1:W229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B201" sqref="B201"/>
+      <selection pane="bottomRight" activeCell="W220" sqref="W220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3502,10 +3514,10 @@
         <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>35</v>
@@ -3525,7 +3537,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -3558,7 +3570,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>42</v>
@@ -3573,10 +3585,10 @@
         <v>43</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="W2" t="s">
         <v>37</v>
@@ -3644,10 +3656,10 @@
         <v>63</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>64</v>
@@ -4149,7 +4161,7 @@
         <v>1401010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>98</v>
@@ -4363,10 +4375,10 @@
         <v>1401014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -4408,7 +4420,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4537,7 +4549,7 @@
         <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -4592,7 +4604,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -4647,7 +4659,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
@@ -4702,7 +4714,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -4757,7 +4769,7 @@
         <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -4812,7 +4824,7 @@
         <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -4867,7 +4879,7 @@
         <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -4922,7 +4934,7 @@
         <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
@@ -4977,7 +4989,7 @@
         <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -5032,7 +5044,7 @@
         <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -5087,7 +5099,7 @@
         <v>154</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -5142,7 +5154,7 @@
         <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -5197,7 +5209,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -5249,10 +5261,10 @@
         <v>1603014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -5304,10 +5316,10 @@
         <v>1603015</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
@@ -5417,7 +5429,7 @@
         <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
@@ -5472,7 +5484,7 @@
         <v>174</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
@@ -5527,7 +5539,7 @@
         <v>178</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
@@ -5582,7 +5594,7 @@
         <v>182</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
@@ -5637,7 +5649,7 @@
         <v>186</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
@@ -5799,10 +5811,10 @@
         <v>1603024</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -5854,10 +5866,10 @@
         <v>1603025</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -5962,7 +5974,7 @@
         <v>1103</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6080,7 +6092,7 @@
         <v>1606002</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>208</v>
@@ -7785,7 +7797,7 @@
         <v>1606103</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>212</v>
@@ -7832,7 +7844,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7840,7 +7852,7 @@
         <v>1606104</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>216</v>
@@ -7887,7 +7899,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7895,7 +7907,7 @@
         <v>1606105</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>220</v>
@@ -7942,7 +7954,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7950,7 +7962,7 @@
         <v>1606106</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>224</v>
@@ -7997,7 +8009,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8005,7 +8017,7 @@
         <v>1606107</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>228</v>
@@ -8052,7 +8064,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8060,7 +8072,7 @@
         <v>1606108</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>232</v>
@@ -8107,7 +8119,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8115,7 +8127,7 @@
         <v>1606109</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>236</v>
@@ -8162,7 +8174,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8170,7 +8182,7 @@
         <v>1606110</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>240</v>
@@ -8217,7 +8229,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8225,7 +8237,7 @@
         <v>1606111</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>244</v>
@@ -8272,7 +8284,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8280,7 +8292,7 @@
         <v>1606112</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>248</v>
@@ -8327,7 +8339,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8335,7 +8347,7 @@
         <v>1606113</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>252</v>
@@ -8382,7 +8394,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8390,7 +8402,7 @@
         <v>1606114</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>256</v>
@@ -8437,7 +8449,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8445,7 +8457,7 @@
         <v>1606115</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>260</v>
@@ -8492,7 +8504,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8500,7 +8512,7 @@
         <v>1606116</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>264</v>
@@ -8547,7 +8559,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8555,7 +8567,7 @@
         <v>1606117</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>268</v>
@@ -8602,7 +8614,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8610,7 +8622,7 @@
         <v>1606118</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>272</v>
@@ -8657,7 +8669,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8665,7 +8677,7 @@
         <v>1606119</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>276</v>
@@ -8712,7 +8724,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8720,7 +8732,7 @@
         <v>1606120</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>280</v>
@@ -8767,7 +8779,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8775,7 +8787,7 @@
         <v>1606121</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>284</v>
@@ -8822,7 +8834,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8830,7 +8842,7 @@
         <v>1606122</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>288</v>
@@ -8877,7 +8889,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8885,7 +8897,7 @@
         <v>1606123</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>292</v>
@@ -8932,7 +8944,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8940,7 +8952,7 @@
         <v>1606124</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>296</v>
@@ -8987,7 +8999,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8995,7 +9007,7 @@
         <v>1606125</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>300</v>
@@ -9042,7 +9054,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9050,7 +9062,7 @@
         <v>1606126</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>304</v>
@@ -9097,7 +9109,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9105,7 +9117,7 @@
         <v>1606127</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>308</v>
@@ -9152,7 +9164,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9160,7 +9172,7 @@
         <v>1606128</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>312</v>
@@ -9207,7 +9219,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9215,7 +9227,7 @@
         <v>1606129</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>316</v>
@@ -9262,7 +9274,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9270,7 +9282,7 @@
         <v>1606130</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>320</v>
@@ -9317,7 +9329,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9325,7 +9337,7 @@
         <v>1606131</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>324</v>
@@ -9372,7 +9384,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9380,7 +9392,7 @@
         <v>1606132</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>328</v>
@@ -9427,7 +9439,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11296,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
@@ -11427,7 +11439,7 @@
         <v>1605004</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>451</v>
@@ -11524,7 +11536,7 @@
         <v>1</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
@@ -11598,10 +11610,10 @@
         <v>1605007</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
@@ -11638,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
@@ -11647,7 +11659,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11655,10 +11667,10 @@
         <v>1605008</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
@@ -11695,7 +11707,7 @@
         <v>1</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
@@ -11704,7 +11716,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11712,10 +11724,10 @@
         <v>1605009</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
@@ -11752,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -11761,7 +11773,7 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11769,10 +11781,10 @@
         <v>1605010</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
@@ -11809,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -11818,7 +11830,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11826,10 +11838,10 @@
         <v>1605011</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
@@ -11866,7 +11878,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
@@ -11875,7 +11887,7 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11883,10 +11895,10 @@
         <v>1605012</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
@@ -11923,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
@@ -11932,7 +11944,7 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11940,10 +11952,10 @@
         <v>1605013</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
@@ -11980,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
@@ -11989,7 +12001,7 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11997,10 +12009,10 @@
         <v>1605014</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
@@ -12037,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
@@ -12046,7 +12058,7 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12054,10 +12066,10 @@
         <v>1605015</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
@@ -12094,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="P156" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
@@ -12103,7 +12115,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12111,10 +12123,10 @@
         <v>1605016</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
@@ -12151,7 +12163,7 @@
         <v>1</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
@@ -12160,7 +12172,7 @@
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
       <c r="W157" s="3" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12168,10 +12180,10 @@
         <v>1605017</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D158" s="3">
         <v>1</v>
@@ -12210,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="P158" s="3" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
@@ -12219,7 +12231,7 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12227,14 +12239,14 @@
         <v>1611001</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12283,14 +12295,14 @@
         <v>1611002</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12339,14 +12351,14 @@
         <v>1611003</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
@@ -12395,14 +12407,14 @@
         <v>1611004</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
@@ -12451,14 +12463,14 @@
         <v>1611005</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F163" s="3">
         <v>16</v>
@@ -12507,14 +12519,14 @@
         <v>1611006</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="F164" s="3">
         <v>16</v>
@@ -12563,14 +12575,14 @@
         <v>1611007</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F165" s="3">
         <v>16</v>
@@ -12619,14 +12631,14 @@
         <v>1611008</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="F166" s="3">
         <v>16</v>
@@ -12675,14 +12687,14 @@
         <v>1611009</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F167" s="3">
         <v>16</v>
@@ -12731,14 +12743,14 @@
         <v>1611010</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>630</v>
+        <v>823</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F168" s="3">
         <v>16</v>
@@ -12787,14 +12799,14 @@
         <v>1611011</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F169" s="3">
         <v>16</v>
@@ -12843,14 +12855,14 @@
         <v>1611012</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F170" s="3">
         <v>16</v>
@@ -12899,14 +12911,14 @@
         <v>1611013</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F171" s="3">
         <v>16</v>
@@ -12955,14 +12967,14 @@
         <v>1611014</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F172" s="3">
         <v>16</v>
@@ -13011,14 +13023,14 @@
         <v>1611015</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F173" s="3">
         <v>16</v>
@@ -13067,14 +13079,14 @@
         <v>1611016</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="F174" s="3">
         <v>16</v>
@@ -13123,14 +13135,14 @@
         <v>1611017</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F175" s="3">
         <v>16</v>
@@ -13179,14 +13191,14 @@
         <v>1611018</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F176" s="3">
         <v>16</v>
@@ -13235,14 +13247,14 @@
         <v>1611019</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F177" s="3">
         <v>16</v>
@@ -13291,14 +13303,14 @@
         <v>1611020</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F178" s="3">
         <v>16</v>
@@ -13347,14 +13359,14 @@
         <v>1611021</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F179" s="3">
         <v>16</v>
@@ -13406,7 +13418,7 @@
         <v>458</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
@@ -13450,7 +13462,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13516,7 +13528,7 @@
         <v>463</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
@@ -13560,7 +13572,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13678,14 +13690,14 @@
         <v>1701006</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>471</v>
+        <v>824</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>471</v>
+        <v>824</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
@@ -13725,7 +13737,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>473</v>
+        <v>825</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13733,14 +13745,14 @@
         <v>1701007</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
@@ -13780,7 +13792,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13788,14 +13800,14 @@
         <v>1701008</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>476</v>
+        <v>826</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>476</v>
+        <v>826</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
@@ -13835,7 +13847,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>478</v>
+        <v>827</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13843,14 +13855,14 @@
         <v>1701009</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
@@ -13890,7 +13902,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13898,14 +13910,14 @@
         <v>1701010</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
@@ -13945,7 +13957,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13953,14 +13965,14 @@
         <v>1701011</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
@@ -14000,7 +14012,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14008,14 +14020,14 @@
         <v>1701012</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
@@ -14055,7 +14067,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14063,14 +14075,14 @@
         <v>1701013</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
@@ -14110,7 +14122,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14118,14 +14130,14 @@
         <v>1701014</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
@@ -14165,7 +14177,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14173,14 +14185,14 @@
         <v>1701015</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
@@ -14220,7 +14232,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14228,14 +14240,14 @@
         <v>1701017</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
@@ -14275,7 +14287,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14283,14 +14295,14 @@
         <v>1701020</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
@@ -14330,7 +14342,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14338,14 +14350,14 @@
         <v>1701022</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
@@ -14385,7 +14397,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14393,14 +14405,14 @@
         <v>1702001</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
@@ -14440,7 +14452,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14448,14 +14460,14 @@
         <v>1702002</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
@@ -14495,7 +14507,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14503,14 +14515,14 @@
         <v>1702003</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
@@ -14550,7 +14562,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14558,14 +14570,14 @@
         <v>1702004</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
@@ -14605,7 +14617,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14613,14 +14625,14 @@
         <v>1702005</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
@@ -14660,7 +14672,7 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14668,14 +14680,14 @@
         <v>1702006</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F203" s="3">
         <v>17</v>
@@ -14715,7 +14727,7 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14723,14 +14735,14 @@
         <v>1702007</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>689</v>
+        <v>828</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>518</v>
+        <v>828</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F204" s="3">
         <v>17</v>
@@ -14770,7 +14782,7 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14778,14 +14790,14 @@
         <v>1702008</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F205" s="3">
         <v>17</v>
@@ -14825,7 +14837,7 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14833,14 +14845,14 @@
         <v>1702009</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F206" s="3">
         <v>17</v>
@@ -14880,7 +14892,7 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14888,14 +14900,14 @@
         <v>1702010</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F207" s="3">
         <v>17</v>
@@ -14935,7 +14947,7 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14943,14 +14955,14 @@
         <v>1702011</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F208" s="3">
         <v>17</v>
@@ -14990,7 +15002,7 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14998,14 +15010,14 @@
         <v>1702012</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F209" s="3">
         <v>17</v>
@@ -15045,7 +15057,7 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15053,14 +15065,14 @@
         <v>1702013</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F210" s="3">
         <v>17</v>
@@ -15100,7 +15112,7 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15108,14 +15120,14 @@
         <v>1702014</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F211" s="3">
         <v>17</v>
@@ -15155,7 +15167,7 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15163,14 +15175,14 @@
         <v>1702015</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F212" s="3">
         <v>17</v>
@@ -15210,7 +15222,7 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15218,14 +15230,14 @@
         <v>1702016</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F213" s="3">
         <v>17</v>
@@ -15265,7 +15277,7 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15273,14 +15285,14 @@
         <v>1702017</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F214" s="3">
         <v>17</v>
@@ -15320,7 +15332,7 @@
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
       <c r="W214" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="215" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15328,14 +15340,14 @@
         <v>1702018</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F215" s="3">
         <v>17</v>
@@ -15375,7 +15387,7 @@
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
       <c r="W215" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="216" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15383,14 +15395,14 @@
         <v>1702019</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F216" s="3">
         <v>17</v>
@@ -15430,7 +15442,7 @@
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
       <c r="W216" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15438,14 +15450,14 @@
         <v>1702020</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F217" s="3">
         <v>17</v>
@@ -15485,7 +15497,7 @@
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
       <c r="W217" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15493,14 +15505,14 @@
         <v>1702021</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F218" s="3">
         <v>17</v>
@@ -15540,34 +15552,34 @@
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
       <c r="W218" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="219" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>2000001</v>
+        <v>1702022</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>562</v>
+        <v>829</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>562</v>
+        <v>829</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F219" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G219" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H219" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I219" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J219" s="3">
         <v>0</v>
@@ -15589,32 +15601,28 @@
       </c>
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
-      <c r="R219" s="3">
-        <v>2</v>
-      </c>
+      <c r="R219" s="3"/>
       <c r="S219" s="3"/>
-      <c r="T219" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="U219" s="6"/>
-      <c r="V219" s="6"/>
+      <c r="T219" s="3"/>
+      <c r="U219" s="3"/>
+      <c r="V219" s="3"/>
       <c r="W219" s="3" t="s">
-        <v>64</v>
+        <v>830</v>
       </c>
     </row>
     <row r="220" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F220" s="3">
         <v>20</v>
@@ -15649,32 +15657,31 @@
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
       <c r="R220" s="3">
-        <v>1</v>
-      </c>
-      <c r="S220" s="3">
-        <f>1*3600</f>
-        <v>3600</v>
-      </c>
-      <c r="T220" s="3"/>
-      <c r="U220" s="3"/>
-      <c r="V220" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="S220" s="3"/>
+      <c r="T220" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="U220" s="6"/>
+      <c r="V220" s="6"/>
       <c r="W220" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="221" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F221" s="3">
         <v>20</v>
@@ -15709,9 +15716,12 @@
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
       <c r="R221" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S221" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="S221" s="3">
+        <f>1*3600</f>
+        <v>3600</v>
+      </c>
       <c r="T221" s="3"/>
       <c r="U221" s="3"/>
       <c r="V221" s="3"/>
@@ -15721,20 +15731,20 @@
     </row>
     <row r="222" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>2100003</v>
+        <v>2000003</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F222" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G222" s="3">
         <v>3</v>
@@ -15778,17 +15788,17 @@
     </row>
     <row r="223" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <v>2100004</v>
+        <v>2100003</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F223" s="3">
         <v>21</v>
@@ -15823,11 +15833,9 @@
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
       <c r="R223" s="3">
-        <v>1</v>
-      </c>
-      <c r="S223" s="3">
-        <v>600</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="S223" s="3"/>
       <c r="T223" s="3"/>
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
@@ -15837,29 +15845,29 @@
     </row>
     <row r="224" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>6000001</v>
+        <v>2100004</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>806</v>
+        <v>563</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>807</v>
+        <v>564</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3" t="s">
-        <v>819</v>
+        <v>555</v>
       </c>
       <c r="F224" s="3">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G224" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H224" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I224" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="3">
         <v>0</v>
@@ -15871,16 +15879,22 @@
         <v>1001</v>
       </c>
       <c r="M224" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N224" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="N224" s="3">
+        <v>3</v>
+      </c>
       <c r="O224" s="3">
         <v>0</v>
       </c>
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
-      <c r="R224" s="3"/>
-      <c r="S224" s="3"/>
+      <c r="R224" s="3">
+        <v>1</v>
+      </c>
+      <c r="S224" s="3">
+        <v>600</v>
+      </c>
       <c r="T224" s="3"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
@@ -15890,17 +15904,17 @@
     </row>
     <row r="225" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
-        <v>6000002</v>
+        <v>6000001</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="F225" s="3">
         <v>60</v>
@@ -15943,17 +15957,17 @@
     </row>
     <row r="226" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <v>6000003</v>
+        <v>6000002</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F226" s="3">
         <v>60</v>
@@ -15996,17 +16010,17 @@
     </row>
     <row r="227" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <v>6000004</v>
+        <v>6000003</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F227" s="3">
         <v>60</v>
@@ -16049,17 +16063,17 @@
     </row>
     <row r="228" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>6000005</v>
+        <v>6000004</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="F228" s="3">
         <v>60</v>
@@ -16097,6 +16111,59 @@
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
       <c r="W228" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>6000005</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F229" s="3">
+        <v>60</v>
+      </c>
+      <c r="G229" s="3">
+        <v>1</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I229" s="3">
+        <v>0</v>
+      </c>
+      <c r="J229" s="3">
+        <v>0</v>
+      </c>
+      <c r="K229" s="3">
+        <v>0</v>
+      </c>
+      <c r="L229" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M229" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3">
+        <v>0</v>
+      </c>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="3"/>
+      <c r="T229" s="3"/>
+      <c r="U229" s="3"/>
+      <c r="V229" s="3"/>
+      <c r="W229" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -16135,22 +16202,22 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -16158,22 +16225,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -16184,25 +16251,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -17744,22 +17811,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17767,7 +17834,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -17776,7 +17843,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -17790,22 +17857,22 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -17820,7 +17887,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2249,10 +2249,6 @@
     <t>专属武器宝箱</t>
   </si>
   <si>
-    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>五行宝箱</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2759,6 +2755,10 @@
   </si>
   <si>
     <t>守护燕青的碎片，是其合成和升星的必要材料。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3418,10 +3418,10 @@
   <dimension ref="A1:W229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="M199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W220" sqref="W220"/>
+      <selection pane="bottomRight" activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3514,10 +3514,10 @@
         <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>35</v>
@@ -3537,7 +3537,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>694</v>
+        <v>830</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -3585,10 +3585,10 @@
         <v>43</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>765</v>
       </c>
       <c r="W2" t="s">
         <v>37</v>
@@ -3656,10 +3656,10 @@
         <v>63</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>64</v>
@@ -4161,7 +4161,7 @@
         <v>1401010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>98</v>
@@ -4375,10 +4375,10 @@
         <v>1401014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -4420,7 +4420,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -5261,10 +5261,10 @@
         <v>1603014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -5316,10 +5316,10 @@
         <v>1603015</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
@@ -5811,10 +5811,10 @@
         <v>1603024</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -5866,10 +5866,10 @@
         <v>1603025</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -5974,7 +5974,7 @@
         <v>1103</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6092,7 +6092,7 @@
         <v>1606002</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>208</v>
@@ -7797,7 +7797,7 @@
         <v>1606103</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>212</v>
@@ -7844,7 +7844,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7852,7 +7852,7 @@
         <v>1606104</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>216</v>
@@ -7899,7 +7899,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7907,7 +7907,7 @@
         <v>1606105</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>220</v>
@@ -7954,7 +7954,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7962,7 +7962,7 @@
         <v>1606106</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>224</v>
@@ -8009,7 +8009,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8017,7 +8017,7 @@
         <v>1606107</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>228</v>
@@ -8064,7 +8064,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8072,7 +8072,7 @@
         <v>1606108</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>232</v>
@@ -8119,7 +8119,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8127,7 +8127,7 @@
         <v>1606109</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>236</v>
@@ -8174,7 +8174,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8182,7 +8182,7 @@
         <v>1606110</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>240</v>
@@ -8229,7 +8229,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8237,7 +8237,7 @@
         <v>1606111</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>244</v>
@@ -8284,7 +8284,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8292,7 +8292,7 @@
         <v>1606112</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>248</v>
@@ -8339,7 +8339,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8347,7 +8347,7 @@
         <v>1606113</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>252</v>
@@ -8394,7 +8394,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8402,7 +8402,7 @@
         <v>1606114</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>256</v>
@@ -8449,7 +8449,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8457,7 +8457,7 @@
         <v>1606115</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>260</v>
@@ -8504,7 +8504,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8512,7 +8512,7 @@
         <v>1606116</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>264</v>
@@ -8559,7 +8559,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8567,7 +8567,7 @@
         <v>1606117</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>268</v>
@@ -8614,7 +8614,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8622,7 +8622,7 @@
         <v>1606118</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>272</v>
@@ -8669,7 +8669,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8677,7 +8677,7 @@
         <v>1606119</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>276</v>
@@ -8724,7 +8724,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8732,7 +8732,7 @@
         <v>1606120</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>280</v>
@@ -8779,7 +8779,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8787,7 +8787,7 @@
         <v>1606121</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>284</v>
@@ -8834,7 +8834,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8842,7 +8842,7 @@
         <v>1606122</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>288</v>
@@ -8889,7 +8889,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8897,7 +8897,7 @@
         <v>1606123</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>292</v>
@@ -8944,7 +8944,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8952,7 +8952,7 @@
         <v>1606124</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>296</v>
@@ -8999,7 +8999,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9007,7 +9007,7 @@
         <v>1606125</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>300</v>
@@ -9054,7 +9054,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9062,7 +9062,7 @@
         <v>1606126</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>304</v>
@@ -9109,7 +9109,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9117,7 +9117,7 @@
         <v>1606127</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>308</v>
@@ -9164,7 +9164,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9172,7 +9172,7 @@
         <v>1606128</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>312</v>
@@ -9219,7 +9219,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9227,7 +9227,7 @@
         <v>1606129</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>316</v>
@@ -9274,7 +9274,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9282,7 +9282,7 @@
         <v>1606130</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>320</v>
@@ -9329,7 +9329,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9337,7 +9337,7 @@
         <v>1606131</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>324</v>
@@ -9384,7 +9384,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9392,7 +9392,7 @@
         <v>1606132</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>328</v>
@@ -9439,7 +9439,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11439,7 +11439,7 @@
         <v>1605004</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>451</v>
@@ -12180,10 +12180,10 @@
         <v>1605017</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D158" s="3">
         <v>1</v>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="P158" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
@@ -12231,7 +12231,7 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12246,7 +12246,7 @@
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12295,14 +12295,14 @@
         <v>1611002</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>617</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
@@ -12470,7 +12470,7 @@
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F163" s="3">
         <v>16</v>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F164" s="3">
         <v>16</v>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F165" s="3">
         <v>16</v>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F166" s="3">
         <v>16</v>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F167" s="3">
         <v>16</v>
@@ -12746,11 +12746,11 @@
         <v>599</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F168" s="3">
         <v>16</v>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F169" s="3">
         <v>16</v>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F170" s="3">
         <v>16</v>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F171" s="3">
         <v>16</v>
@@ -12974,7 +12974,7 @@
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F172" s="3">
         <v>16</v>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F173" s="3">
         <v>16</v>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F174" s="3">
         <v>16</v>
@@ -13142,7 +13142,7 @@
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F175" s="3">
         <v>16</v>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F176" s="3">
         <v>16</v>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F177" s="3">
         <v>16</v>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F178" s="3">
         <v>16</v>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F179" s="3">
         <v>16</v>
@@ -13418,7 +13418,7 @@
         <v>458</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
@@ -13462,7 +13462,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13528,7 +13528,7 @@
         <v>463</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
@@ -13572,7 +13572,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13690,10 +13690,10 @@
         <v>1701006</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
@@ -13737,7 +13737,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13748,7 +13748,7 @@
         <v>472</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
@@ -13792,7 +13792,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13800,10 +13800,10 @@
         <v>1701008</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
@@ -13847,7 +13847,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14185,7 +14185,7 @@
         <v>1701015</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>493</v>
@@ -14240,10 +14240,10 @@
         <v>1701017</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
@@ -14295,10 +14295,10 @@
         <v>1701020</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
@@ -14350,10 +14350,10 @@
         <v>1701022</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
@@ -14735,10 +14735,10 @@
         <v>1702007</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
@@ -15233,7 +15233,7 @@
         <v>540</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
@@ -15277,7 +15277,7 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15560,10 +15560,10 @@
         <v>1702022</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3" t="s">
@@ -15607,7 +15607,7 @@
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
       <c r="W219" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="220" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15907,14 +15907,14 @@
         <v>6000001</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>800</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F225" s="3">
         <v>60</v>
@@ -15960,14 +15960,14 @@
         <v>6000002</v>
       </c>
       <c r="B226" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>802</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F226" s="3">
         <v>60</v>
@@ -16013,14 +16013,14 @@
         <v>6000003</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>804</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F227" s="3">
         <v>60</v>
@@ -16066,14 +16066,14 @@
         <v>6000004</v>
       </c>
       <c r="B228" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>806</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F228" s="3">
         <v>60</v>
@@ -16119,14 +16119,14 @@
         <v>6000005</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F229" s="3">
         <v>60</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2249,6 +2249,10 @@
     <t>专属武器宝箱</t>
   </si>
   <si>
+    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>五行宝箱</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2755,10 +2759,6 @@
   </si>
   <si>
     <t>守护燕青的碎片，是其合成和升星的必要材料。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>res:&lt;||Art\UI\DynamicTex\#png</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3418,10 +3418,10 @@
   <dimension ref="A1:W229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F208" sqref="F208"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3514,10 +3514,10 @@
         <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>35</v>
@@ -3537,7 +3537,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>830</v>
+        <v>694</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -3585,10 +3585,10 @@
         <v>43</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="W2" t="s">
         <v>37</v>
@@ -3656,10 +3656,10 @@
         <v>63</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>64</v>
@@ -4161,7 +4161,7 @@
         <v>1401010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>98</v>
@@ -4375,10 +4375,10 @@
         <v>1401014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -4420,7 +4420,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -5261,10 +5261,10 @@
         <v>1603014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -5316,10 +5316,10 @@
         <v>1603015</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
@@ -5811,10 +5811,10 @@
         <v>1603024</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -5866,10 +5866,10 @@
         <v>1603025</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -5974,7 +5974,7 @@
         <v>1103</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6092,7 +6092,7 @@
         <v>1606002</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>208</v>
@@ -7797,7 +7797,7 @@
         <v>1606103</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>212</v>
@@ -7844,7 +7844,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7852,7 +7852,7 @@
         <v>1606104</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>216</v>
@@ -7899,7 +7899,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7907,7 +7907,7 @@
         <v>1606105</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>220</v>
@@ -7954,7 +7954,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7962,7 +7962,7 @@
         <v>1606106</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>224</v>
@@ -8009,7 +8009,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8017,7 +8017,7 @@
         <v>1606107</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>228</v>
@@ -8064,7 +8064,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8072,7 +8072,7 @@
         <v>1606108</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>232</v>
@@ -8119,7 +8119,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8127,7 +8127,7 @@
         <v>1606109</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>236</v>
@@ -8174,7 +8174,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8182,7 +8182,7 @@
         <v>1606110</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>240</v>
@@ -8229,7 +8229,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8237,7 +8237,7 @@
         <v>1606111</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>244</v>
@@ -8284,7 +8284,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8292,7 +8292,7 @@
         <v>1606112</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>248</v>
@@ -8339,7 +8339,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8347,7 +8347,7 @@
         <v>1606113</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>252</v>
@@ -8394,7 +8394,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8402,7 +8402,7 @@
         <v>1606114</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>256</v>
@@ -8449,7 +8449,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8457,7 +8457,7 @@
         <v>1606115</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>260</v>
@@ -8504,7 +8504,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8512,7 +8512,7 @@
         <v>1606116</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>264</v>
@@ -8559,7 +8559,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8567,7 +8567,7 @@
         <v>1606117</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>268</v>
@@ -8614,7 +8614,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8622,7 +8622,7 @@
         <v>1606118</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>272</v>
@@ -8669,7 +8669,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8677,7 +8677,7 @@
         <v>1606119</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>276</v>
@@ -8724,7 +8724,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8732,7 +8732,7 @@
         <v>1606120</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>280</v>
@@ -8779,7 +8779,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8787,7 +8787,7 @@
         <v>1606121</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>284</v>
@@ -8834,7 +8834,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8842,7 +8842,7 @@
         <v>1606122</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>288</v>
@@ -8889,7 +8889,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8897,7 +8897,7 @@
         <v>1606123</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>292</v>
@@ -8944,7 +8944,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8952,7 +8952,7 @@
         <v>1606124</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>296</v>
@@ -8999,7 +8999,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9007,7 +9007,7 @@
         <v>1606125</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>300</v>
@@ -9054,7 +9054,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9062,7 +9062,7 @@
         <v>1606126</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>304</v>
@@ -9109,7 +9109,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9117,7 +9117,7 @@
         <v>1606127</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>308</v>
@@ -9164,7 +9164,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9172,7 +9172,7 @@
         <v>1606128</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>312</v>
@@ -9219,7 +9219,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9227,7 +9227,7 @@
         <v>1606129</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>316</v>
@@ -9274,7 +9274,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9282,7 +9282,7 @@
         <v>1606130</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>320</v>
@@ -9329,7 +9329,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9337,7 +9337,7 @@
         <v>1606131</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>324</v>
@@ -9384,7 +9384,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9392,7 +9392,7 @@
         <v>1606132</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>328</v>
@@ -9439,7 +9439,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11439,7 +11439,7 @@
         <v>1605004</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>451</v>
@@ -12180,10 +12180,10 @@
         <v>1605017</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D158" s="3">
         <v>1</v>
@@ -12222,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="P158" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
@@ -12231,7 +12231,7 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12246,7 +12246,7 @@
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12295,14 +12295,14 @@
         <v>1611002</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>617</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
@@ -12470,7 +12470,7 @@
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F163" s="3">
         <v>16</v>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F164" s="3">
         <v>16</v>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F165" s="3">
         <v>16</v>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F166" s="3">
         <v>16</v>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F167" s="3">
         <v>16</v>
@@ -12746,11 +12746,11 @@
         <v>599</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F168" s="3">
         <v>16</v>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F169" s="3">
         <v>16</v>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F170" s="3">
         <v>16</v>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F171" s="3">
         <v>16</v>
@@ -12974,7 +12974,7 @@
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F172" s="3">
         <v>16</v>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F173" s="3">
         <v>16</v>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F174" s="3">
         <v>16</v>
@@ -13142,7 +13142,7 @@
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F175" s="3">
         <v>16</v>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F176" s="3">
         <v>16</v>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F177" s="3">
         <v>16</v>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F178" s="3">
         <v>16</v>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F179" s="3">
         <v>16</v>
@@ -13418,7 +13418,7 @@
         <v>458</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
@@ -13462,7 +13462,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13528,7 +13528,7 @@
         <v>463</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
@@ -13572,7 +13572,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13690,10 +13690,10 @@
         <v>1701006</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
@@ -13737,7 +13737,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13748,7 +13748,7 @@
         <v>472</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
@@ -13792,7 +13792,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13800,10 +13800,10 @@
         <v>1701008</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
@@ -13847,7 +13847,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14185,7 +14185,7 @@
         <v>1701015</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>493</v>
@@ -14240,10 +14240,10 @@
         <v>1701017</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
@@ -14295,10 +14295,10 @@
         <v>1701020</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
@@ -14350,10 +14350,10 @@
         <v>1701022</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
@@ -14735,10 +14735,10 @@
         <v>1702007</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
@@ -15233,7 +15233,7 @@
         <v>540</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
@@ -15277,7 +15277,7 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15560,10 +15560,10 @@
         <v>1702022</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3" t="s">
@@ -15607,7 +15607,7 @@
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
       <c r="W219" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="220" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15907,14 +15907,14 @@
         <v>6000001</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F225" s="3">
         <v>60</v>
@@ -15960,14 +15960,14 @@
         <v>6000002</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F226" s="3">
         <v>60</v>
@@ -16013,14 +16013,14 @@
         <v>6000003</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F227" s="3">
         <v>60</v>
@@ -16066,14 +16066,14 @@
         <v>6000004</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F228" s="3">
         <v>60</v>
@@ -16119,14 +16119,14 @@
         <v>6000005</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F229" s="3">
         <v>60</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -717,9 +717,6 @@
     <t>参于个人镇魔的凭证。</t>
   </si>
   <si>
-    <t>神器低级材料</t>
-  </si>
-  <si>
     <t>千年寒铁</t>
   </si>
   <si>
@@ -2759,6 +2756,10 @@
   </si>
   <si>
     <t>守护燕青的碎片，是其合成和升星的必要材料。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器低级材料</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3418,10 +3419,10 @@
   <dimension ref="A1:W229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3514,10 +3515,10 @@
         <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>35</v>
@@ -3537,7 +3538,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -3570,7 +3571,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>42</v>
@@ -3585,10 +3586,10 @@
         <v>43</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>765</v>
       </c>
       <c r="W2" t="s">
         <v>37</v>
@@ -3656,10 +3657,10 @@
         <v>63</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>64</v>
@@ -4161,7 +4162,7 @@
         <v>1401010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>98</v>
@@ -4375,10 +4376,10 @@
         <v>1401014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -4420,7 +4421,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4549,7 +4550,7 @@
         <v>117</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -4604,7 +4605,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -4659,7 +4660,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
@@ -4714,7 +4715,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -4769,7 +4770,7 @@
         <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -4824,7 +4825,7 @@
         <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -4879,7 +4880,7 @@
         <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -4934,7 +4935,7 @@
         <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
@@ -4989,7 +4990,7 @@
         <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -5044,7 +5045,7 @@
         <v>151</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -5099,7 +5100,7 @@
         <v>154</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -5154,7 +5155,7 @@
         <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -5209,7 +5210,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -5261,10 +5262,10 @@
         <v>1603014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -5316,10 +5317,10 @@
         <v>1603015</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
@@ -5429,7 +5430,7 @@
         <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
@@ -5484,7 +5485,7 @@
         <v>174</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
@@ -5539,7 +5540,7 @@
         <v>178</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
@@ -5594,7 +5595,7 @@
         <v>182</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
@@ -5649,7 +5650,7 @@
         <v>186</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
@@ -5811,10 +5812,10 @@
         <v>1603024</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -5866,10 +5867,10 @@
         <v>1603025</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -5974,7 +5975,7 @@
         <v>1103</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6037,14 +6038,14 @@
         <v>1606001</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F47" s="3">
         <v>16</v>
@@ -6084,7 +6085,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6092,14 +6093,14 @@
         <v>1606002</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F48" s="3">
         <v>16</v>
@@ -6139,7 +6140,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6147,14 +6148,14 @@
         <v>1606003</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F49" s="3">
         <v>16</v>
@@ -6194,7 +6195,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6202,14 +6203,14 @@
         <v>1606004</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F50" s="3">
         <v>16</v>
@@ -6249,7 +6250,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6257,14 +6258,14 @@
         <v>1606005</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F51" s="3">
         <v>16</v>
@@ -6304,7 +6305,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6312,14 +6313,14 @@
         <v>1606006</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F52" s="3">
         <v>16</v>
@@ -6359,7 +6360,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6367,14 +6368,14 @@
         <v>1606007</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F53" s="3">
         <v>16</v>
@@ -6414,7 +6415,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6422,14 +6423,14 @@
         <v>1606008</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F54" s="3">
         <v>16</v>
@@ -6469,7 +6470,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6477,14 +6478,14 @@
         <v>1606009</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F55" s="3">
         <v>16</v>
@@ -6524,7 +6525,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6532,14 +6533,14 @@
         <v>1606010</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F56" s="3">
         <v>16</v>
@@ -6579,7 +6580,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6587,14 +6588,14 @@
         <v>1606011</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F57" s="3">
         <v>16</v>
@@ -6634,7 +6635,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6642,14 +6643,14 @@
         <v>1606012</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
@@ -6689,7 +6690,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6697,14 +6698,14 @@
         <v>1606013</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F59" s="3">
         <v>16</v>
@@ -6744,7 +6745,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6752,14 +6753,14 @@
         <v>1606014</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
@@ -6799,7 +6800,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6807,14 +6808,14 @@
         <v>1606015</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" s="3">
         <v>16</v>
@@ -6854,7 +6855,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6862,14 +6863,14 @@
         <v>1606016</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
@@ -6909,7 +6910,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6917,14 +6918,14 @@
         <v>1606017</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
@@ -6964,7 +6965,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6972,14 +6973,14 @@
         <v>1606018</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
@@ -7019,7 +7020,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7027,14 +7028,14 @@
         <v>1606019</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
@@ -7074,7 +7075,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7082,14 +7083,14 @@
         <v>1606020</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
@@ -7129,7 +7130,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7137,14 +7138,14 @@
         <v>1606021</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
@@ -7184,7 +7185,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7192,14 +7193,14 @@
         <v>1606022</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
@@ -7239,7 +7240,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7247,14 +7248,14 @@
         <v>1606023</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
@@ -7294,7 +7295,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7302,14 +7303,14 @@
         <v>1606024</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
@@ -7349,7 +7350,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7357,14 +7358,14 @@
         <v>1606025</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
@@ -7404,7 +7405,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7412,14 +7413,14 @@
         <v>1606026</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
@@ -7459,7 +7460,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7467,14 +7468,14 @@
         <v>1606027</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
@@ -7514,7 +7515,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7522,14 +7523,14 @@
         <v>1606028</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
@@ -7569,7 +7570,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7577,14 +7578,14 @@
         <v>1606029</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
@@ -7624,7 +7625,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7632,14 +7633,14 @@
         <v>1606030</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
@@ -7679,7 +7680,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7687,14 +7688,14 @@
         <v>1606031</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
@@ -7734,7 +7735,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7742,14 +7743,14 @@
         <v>1606032</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
@@ -7789,7 +7790,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7797,14 +7798,14 @@
         <v>1606103</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
@@ -7844,7 +7845,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7852,14 +7853,14 @@
         <v>1606104</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
@@ -7899,7 +7900,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7907,14 +7908,14 @@
         <v>1606105</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
@@ -7954,7 +7955,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7962,14 +7963,14 @@
         <v>1606106</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
@@ -8009,7 +8010,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8017,14 +8018,14 @@
         <v>1606107</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
@@ -8064,7 +8065,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8072,14 +8073,14 @@
         <v>1606108</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
@@ -8119,7 +8120,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8127,14 +8128,14 @@
         <v>1606109</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
@@ -8174,7 +8175,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8182,14 +8183,14 @@
         <v>1606110</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
@@ -8229,7 +8230,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8237,14 +8238,14 @@
         <v>1606111</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
@@ -8284,7 +8285,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8292,14 +8293,14 @@
         <v>1606112</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
@@ -8339,7 +8340,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8347,14 +8348,14 @@
         <v>1606113</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
@@ -8394,7 +8395,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8402,14 +8403,14 @@
         <v>1606114</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
@@ -8449,7 +8450,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8457,14 +8458,14 @@
         <v>1606115</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
@@ -8504,7 +8505,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8512,14 +8513,14 @@
         <v>1606116</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
@@ -8559,7 +8560,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8567,14 +8568,14 @@
         <v>1606117</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
@@ -8614,7 +8615,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8622,14 +8623,14 @@
         <v>1606118</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
@@ -8669,7 +8670,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8677,14 +8678,14 @@
         <v>1606119</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
@@ -8724,7 +8725,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8732,14 +8733,14 @@
         <v>1606120</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
@@ -8779,7 +8780,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8787,14 +8788,14 @@
         <v>1606121</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
@@ -8834,7 +8835,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8842,14 +8843,14 @@
         <v>1606122</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
@@ -8889,7 +8890,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8897,14 +8898,14 @@
         <v>1606123</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
@@ -8944,7 +8945,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8952,14 +8953,14 @@
         <v>1606124</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
@@ -8999,7 +9000,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9007,14 +9008,14 @@
         <v>1606125</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
         <v>16</v>
@@ -9054,7 +9055,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9062,14 +9063,14 @@
         <v>1606126</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F102" s="3">
         <v>16</v>
@@ -9109,7 +9110,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9117,14 +9118,14 @@
         <v>1606127</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F103" s="3">
         <v>16</v>
@@ -9164,7 +9165,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9172,14 +9173,14 @@
         <v>1606128</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F104" s="3">
         <v>16</v>
@@ -9219,7 +9220,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9227,14 +9228,14 @@
         <v>1606129</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F105" s="3">
         <v>16</v>
@@ -9274,7 +9275,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9282,14 +9283,14 @@
         <v>1606130</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F106" s="3">
         <v>16</v>
@@ -9329,7 +9330,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9337,14 +9338,14 @@
         <v>1606131</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F107" s="3">
         <v>16</v>
@@ -9384,7 +9385,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9392,14 +9393,14 @@
         <v>1606132</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F108" s="3">
         <v>16</v>
@@ -9439,7 +9440,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9447,14 +9448,14 @@
         <v>1607001</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F109" s="3">
         <v>16</v>
@@ -9494,7 +9495,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9502,14 +9503,14 @@
         <v>1607002</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F110" s="3">
         <v>16</v>
@@ -9549,7 +9550,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9557,14 +9558,14 @@
         <v>1607003</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F111" s="3">
         <v>16</v>
@@ -9604,7 +9605,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9612,14 +9613,14 @@
         <v>1607004</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F112" s="3">
         <v>16</v>
@@ -9659,7 +9660,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9667,14 +9668,14 @@
         <v>1607005</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F113" s="3">
         <v>16</v>
@@ -9714,7 +9715,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9722,14 +9723,14 @@
         <v>1607006</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F114" s="3">
         <v>16</v>
@@ -9769,7 +9770,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9777,14 +9778,14 @@
         <v>1607007</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F115" s="3">
         <v>16</v>
@@ -9824,7 +9825,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9832,14 +9833,14 @@
         <v>1607008</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F116" s="3">
         <v>16</v>
@@ -9879,7 +9880,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9887,14 +9888,14 @@
         <v>1607009</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F117" s="3">
         <v>16</v>
@@ -9934,7 +9935,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9942,14 +9943,14 @@
         <v>1608001</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F118" s="3">
         <v>16</v>
@@ -9989,7 +9990,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9997,14 +9998,14 @@
         <v>1608002</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F119" s="3">
         <v>16</v>
@@ -10044,7 +10045,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10052,14 +10053,14 @@
         <v>1608003</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F120" s="3">
         <v>16</v>
@@ -10099,7 +10100,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10107,14 +10108,14 @@
         <v>1608004</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F121" s="3">
         <v>16</v>
@@ -10154,7 +10155,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10162,14 +10163,14 @@
         <v>1608005</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F122" s="3">
         <v>16</v>
@@ -10209,7 +10210,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10217,14 +10218,14 @@
         <v>1608006</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F123" s="3">
         <v>16</v>
@@ -10264,7 +10265,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10272,14 +10273,14 @@
         <v>1608007</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F124" s="3">
         <v>16</v>
@@ -10319,7 +10320,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10327,14 +10328,14 @@
         <v>1608008</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F125" s="3">
         <v>16</v>
@@ -10374,7 +10375,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10382,14 +10383,14 @@
         <v>1608009</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F126" s="3">
         <v>16</v>
@@ -10429,7 +10430,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10437,14 +10438,14 @@
         <v>1608010</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F127" s="3">
         <v>16</v>
@@ -10484,7 +10485,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10492,14 +10493,14 @@
         <v>1608011</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F128" s="3">
         <v>16</v>
@@ -10539,7 +10540,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10547,14 +10548,14 @@
         <v>1608012</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F129" s="3">
         <v>16</v>
@@ -10594,7 +10595,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10602,14 +10603,14 @@
         <v>1608013</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F130" s="3">
         <v>16</v>
@@ -10649,7 +10650,7 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10657,14 +10658,14 @@
         <v>1608014</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F131" s="3">
         <v>16</v>
@@ -10704,7 +10705,7 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10712,14 +10713,14 @@
         <v>1608015</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F132" s="3">
         <v>16</v>
@@ -10759,7 +10760,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10767,14 +10768,14 @@
         <v>1609001</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F133" s="3">
         <v>16</v>
@@ -10814,7 +10815,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10822,14 +10823,14 @@
         <v>1609002</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F134" s="3">
         <v>16</v>
@@ -10869,7 +10870,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10877,14 +10878,14 @@
         <v>1609003</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F135" s="3">
         <v>16</v>
@@ -10924,7 +10925,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10932,14 +10933,14 @@
         <v>1609104</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F136" s="3">
         <v>16</v>
@@ -10979,7 +10980,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10987,14 +10988,14 @@
         <v>1609105</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F137" s="3">
         <v>16</v>
@@ -11034,7 +11035,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11042,14 +11043,14 @@
         <v>1609106</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F138" s="3">
         <v>16</v>
@@ -11089,7 +11090,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11097,14 +11098,14 @@
         <v>1610001</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F139" s="3">
         <v>16</v>
@@ -11146,7 +11147,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11154,14 +11155,14 @@
         <v>1610002</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F140" s="3">
         <v>16</v>
@@ -11203,7 +11204,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11211,14 +11212,14 @@
         <v>1610003</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F141" s="3">
         <v>16</v>
@@ -11260,7 +11261,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11268,14 +11269,14 @@
         <v>1605001</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F142" s="3">
         <v>16</v>
@@ -11308,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
@@ -11317,7 +11318,7 @@
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
       <c r="W142" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11325,14 +11326,14 @@
         <v>1605002</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F143" s="3">
         <v>16</v>
@@ -11365,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="P143" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
@@ -11374,7 +11375,7 @@
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
       <c r="W143" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11382,14 +11383,14 @@
         <v>1605003</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F144" s="3">
         <v>16</v>
@@ -11422,7 +11423,7 @@
         <v>1</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
@@ -11431,7 +11432,7 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
       <c r="W144" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11439,14 +11440,14 @@
         <v>1605004</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F145" s="3">
         <v>16</v>
@@ -11479,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
@@ -11488,7 +11489,7 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11496,14 +11497,14 @@
         <v>1605005</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F146" s="3">
         <v>16</v>
@@ -11536,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
@@ -11545,7 +11546,7 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11553,14 +11554,14 @@
         <v>1605006</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F147" s="3">
         <v>16</v>
@@ -11593,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
@@ -11602,7 +11603,7 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11610,14 +11611,14 @@
         <v>1605007</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F148" s="3">
         <v>16</v>
@@ -11650,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
@@ -11659,7 +11660,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11667,14 +11668,14 @@
         <v>1605008</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F149" s="3">
         <v>16</v>
@@ -11707,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
@@ -11716,7 +11717,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11724,14 +11725,14 @@
         <v>1605009</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F150" s="3">
         <v>16</v>
@@ -11764,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -11773,7 +11774,7 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11781,14 +11782,14 @@
         <v>1605010</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F151" s="3">
         <v>16</v>
@@ -11821,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
@@ -11830,7 +11831,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11838,14 +11839,14 @@
         <v>1605011</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F152" s="3">
         <v>16</v>
@@ -11878,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
@@ -11887,7 +11888,7 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11895,14 +11896,14 @@
         <v>1605012</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F153" s="3">
         <v>16</v>
@@ -11935,7 +11936,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
@@ -11944,7 +11945,7 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11952,14 +11953,14 @@
         <v>1605013</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F154" s="3">
         <v>16</v>
@@ -11992,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="P154" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
@@ -12001,7 +12002,7 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12009,14 +12010,14 @@
         <v>1605014</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F155" s="3">
         <v>16</v>
@@ -12049,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
@@ -12058,7 +12059,7 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12066,14 +12067,14 @@
         <v>1605015</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F156" s="3">
         <v>16</v>
@@ -12106,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="P156" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
@@ -12115,7 +12116,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12123,14 +12124,14 @@
         <v>1605016</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F157" s="3">
         <v>16</v>
@@ -12163,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
@@ -12172,7 +12173,7 @@
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
       <c r="W157" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12180,16 +12181,16 @@
         <v>1605017</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D158" s="3">
         <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F158" s="3">
         <v>16</v>
@@ -12222,7 +12223,7 @@
         <v>1</v>
       </c>
       <c r="P158" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
@@ -12231,7 +12232,7 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12239,14 +12240,14 @@
         <v>1611001</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12295,14 +12296,14 @@
         <v>1611002</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12351,14 +12352,14 @@
         <v>1611003</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
@@ -12407,14 +12408,14 @@
         <v>1611004</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
@@ -12463,14 +12464,14 @@
         <v>1611005</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F163" s="3">
         <v>16</v>
@@ -12519,14 +12520,14 @@
         <v>1611006</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F164" s="3">
         <v>16</v>
@@ -12575,14 +12576,14 @@
         <v>1611007</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F165" s="3">
         <v>16</v>
@@ -12631,14 +12632,14 @@
         <v>1611008</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F166" s="3">
         <v>16</v>
@@ -12687,14 +12688,14 @@
         <v>1611009</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F167" s="3">
         <v>16</v>
@@ -12743,14 +12744,14 @@
         <v>1611010</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F168" s="3">
         <v>16</v>
@@ -12799,14 +12800,14 @@
         <v>1611011</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F169" s="3">
         <v>16</v>
@@ -12855,14 +12856,14 @@
         <v>1611012</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F170" s="3">
         <v>16</v>
@@ -12911,14 +12912,14 @@
         <v>1611013</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F171" s="3">
         <v>16</v>
@@ -12967,14 +12968,14 @@
         <v>1611014</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F172" s="3">
         <v>16</v>
@@ -13023,14 +13024,14 @@
         <v>1611015</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F173" s="3">
         <v>16</v>
@@ -13079,14 +13080,14 @@
         <v>1611016</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F174" s="3">
         <v>16</v>
@@ -13135,14 +13136,14 @@
         <v>1611017</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F175" s="3">
         <v>16</v>
@@ -13191,14 +13192,14 @@
         <v>1611018</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F176" s="3">
         <v>16</v>
@@ -13247,14 +13248,14 @@
         <v>1611019</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F177" s="3">
         <v>16</v>
@@ -13303,14 +13304,14 @@
         <v>1611020</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F178" s="3">
         <v>16</v>
@@ -13359,14 +13360,14 @@
         <v>1611021</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F179" s="3">
         <v>16</v>
@@ -13415,14 +13416,14 @@
         <v>1701001</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F180" s="3">
         <v>17</v>
@@ -13462,7 +13463,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13470,14 +13471,14 @@
         <v>1701002</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F181" s="3">
         <v>17</v>
@@ -13517,7 +13518,7 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13525,14 +13526,14 @@
         <v>1701003</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F182" s="3">
         <v>17</v>
@@ -13572,7 +13573,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13580,14 +13581,14 @@
         <v>1701004</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F183" s="3">
         <v>17</v>
@@ -13627,7 +13628,7 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13635,14 +13636,14 @@
         <v>1701005</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F184" s="3">
         <v>17</v>
@@ -13682,7 +13683,7 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13690,14 +13691,14 @@
         <v>1701006</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
@@ -13737,7 +13738,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13745,14 +13746,14 @@
         <v>1701007</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
@@ -13792,7 +13793,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13800,14 +13801,14 @@
         <v>1701008</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
@@ -13847,7 +13848,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13855,14 +13856,14 @@
         <v>1701009</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
@@ -13902,7 +13903,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13910,14 +13911,14 @@
         <v>1701010</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
@@ -13957,7 +13958,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13965,14 +13966,14 @@
         <v>1701011</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
@@ -14012,7 +14013,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14020,14 +14021,14 @@
         <v>1701012</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
@@ -14067,7 +14068,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14075,14 +14076,14 @@
         <v>1701013</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
@@ -14122,7 +14123,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14130,14 +14131,14 @@
         <v>1701014</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
@@ -14177,7 +14178,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14185,14 +14186,14 @@
         <v>1701015</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
@@ -14232,7 +14233,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14240,14 +14241,14 @@
         <v>1701017</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
@@ -14287,7 +14288,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14295,14 +14296,14 @@
         <v>1701020</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
@@ -14342,7 +14343,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14350,14 +14351,14 @@
         <v>1701022</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
@@ -14397,7 +14398,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14405,14 +14406,14 @@
         <v>1702001</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
@@ -14452,7 +14453,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14460,14 +14461,14 @@
         <v>1702002</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
@@ -14507,7 +14508,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14515,14 +14516,14 @@
         <v>1702003</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
@@ -14562,7 +14563,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14570,14 +14571,14 @@
         <v>1702004</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
@@ -14617,7 +14618,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14625,14 +14626,14 @@
         <v>1702005</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
@@ -14672,7 +14673,7 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14680,14 +14681,14 @@
         <v>1702006</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F203" s="3">
         <v>17</v>
@@ -14727,7 +14728,7 @@
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14735,14 +14736,14 @@
         <v>1702007</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F204" s="3">
         <v>17</v>
@@ -14782,7 +14783,7 @@
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14790,14 +14791,14 @@
         <v>1702008</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F205" s="3">
         <v>17</v>
@@ -14837,7 +14838,7 @@
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14845,14 +14846,14 @@
         <v>1702009</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F206" s="3">
         <v>17</v>
@@ -14892,7 +14893,7 @@
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14900,14 +14901,14 @@
         <v>1702010</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F207" s="3">
         <v>17</v>
@@ -14947,7 +14948,7 @@
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14955,14 +14956,14 @@
         <v>1702011</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F208" s="3">
         <v>17</v>
@@ -15002,7 +15003,7 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15010,14 +15011,14 @@
         <v>1702012</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F209" s="3">
         <v>17</v>
@@ -15057,7 +15058,7 @@
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15065,14 +15066,14 @@
         <v>1702013</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F210" s="3">
         <v>17</v>
@@ -15112,7 +15113,7 @@
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15120,14 +15121,14 @@
         <v>1702014</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F211" s="3">
         <v>17</v>
@@ -15167,7 +15168,7 @@
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15175,14 +15176,14 @@
         <v>1702015</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F212" s="3">
         <v>17</v>
@@ -15222,7 +15223,7 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15230,14 +15231,14 @@
         <v>1702016</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F213" s="3">
         <v>17</v>
@@ -15277,7 +15278,7 @@
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15285,14 +15286,14 @@
         <v>1702017</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F214" s="3">
         <v>17</v>
@@ -15332,7 +15333,7 @@
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
       <c r="W214" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="215" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15340,14 +15341,14 @@
         <v>1702018</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F215" s="3">
         <v>17</v>
@@ -15387,7 +15388,7 @@
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
       <c r="W215" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="216" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15395,14 +15396,14 @@
         <v>1702019</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F216" s="3">
         <v>17</v>
@@ -15442,7 +15443,7 @@
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
       <c r="W216" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="217" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15450,14 +15451,14 @@
         <v>1702020</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F217" s="3">
         <v>17</v>
@@ -15497,7 +15498,7 @@
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
       <c r="W217" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="218" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15505,14 +15506,14 @@
         <v>1702021</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F218" s="3">
         <v>17</v>
@@ -15552,7 +15553,7 @@
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
       <c r="W218" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="219" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15560,14 +15561,14 @@
         <v>1702022</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F219" s="3">
         <v>17</v>
@@ -15607,7 +15608,7 @@
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
       <c r="W219" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="220" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -15615,14 +15616,14 @@
         <v>2000001</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F220" s="3">
         <v>20</v>
@@ -15661,7 +15662,7 @@
       </c>
       <c r="S220" s="3"/>
       <c r="T220" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U220" s="6"/>
       <c r="V220" s="6"/>
@@ -15674,14 +15675,14 @@
         <v>2000002</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F221" s="3">
         <v>20</v>
@@ -15734,14 +15735,14 @@
         <v>2000003</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F222" s="3">
         <v>20</v>
@@ -15791,14 +15792,14 @@
         <v>2100003</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>562</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F223" s="3">
         <v>21</v>
@@ -15848,14 +15849,14 @@
         <v>2100004</v>
       </c>
       <c r="B224" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F224" s="3">
         <v>21</v>
@@ -15907,14 +15908,14 @@
         <v>6000001</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>800</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F225" s="3">
         <v>60</v>
@@ -15960,14 +15961,14 @@
         <v>6000002</v>
       </c>
       <c r="B226" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>802</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F226" s="3">
         <v>60</v>
@@ -16013,14 +16014,14 @@
         <v>6000003</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>804</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F227" s="3">
         <v>60</v>
@@ -16066,14 +16067,14 @@
         <v>6000004</v>
       </c>
       <c r="B228" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>806</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F228" s="3">
         <v>60</v>
@@ -16119,14 +16120,14 @@
         <v>6000005</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F229" s="3">
         <v>60</v>
@@ -16202,22 +16203,22 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -16225,22 +16226,22 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" t="s">
         <v>571</v>
-      </c>
-      <c r="C2" t="s">
-        <v>572</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -16251,25 +16252,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -16727,7 +16728,7 @@
         <v>1606001</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="3">
         <v>1401011</v>
@@ -16745,7 +16746,7 @@
         <v>1606002</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="3">
         <v>1401011</v>
@@ -16763,7 +16764,7 @@
         <v>1606003</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="3">
         <v>1401011</v>
@@ -16781,7 +16782,7 @@
         <v>1606004</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="3">
         <v>1401011</v>
@@ -16799,7 +16800,7 @@
         <v>1606005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="3">
         <v>1401011</v>
@@ -16817,7 +16818,7 @@
         <v>1606006</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="3">
         <v>1401011</v>
@@ -16835,7 +16836,7 @@
         <v>1606007</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3">
         <v>1401011</v>
@@ -16853,7 +16854,7 @@
         <v>1606008</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C36" s="3">
         <v>1401011</v>
@@ -16871,7 +16872,7 @@
         <v>1606009</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" s="3">
         <v>1401011</v>
@@ -16889,7 +16890,7 @@
         <v>1606010</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C38" s="3">
         <v>1401011</v>
@@ -16907,7 +16908,7 @@
         <v>1606011</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" s="3">
         <v>1401011</v>
@@ -16925,7 +16926,7 @@
         <v>1606012</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C40" s="3">
         <v>1401011</v>
@@ -16943,7 +16944,7 @@
         <v>1606013</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="3">
         <v>1401011</v>
@@ -16961,7 +16962,7 @@
         <v>1606014</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="3">
         <v>1401011</v>
@@ -16979,7 +16980,7 @@
         <v>1606015</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="3">
         <v>1401011</v>
@@ -16997,7 +16998,7 @@
         <v>1606016</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C44" s="3">
         <v>1401011</v>
@@ -17015,7 +17016,7 @@
         <v>1606017</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C45" s="3">
         <v>1401011</v>
@@ -17033,7 +17034,7 @@
         <v>1606018</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C46" s="3">
         <v>1401011</v>
@@ -17051,7 +17052,7 @@
         <v>1606019</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C47" s="3">
         <v>1401011</v>
@@ -17069,7 +17070,7 @@
         <v>1606020</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" s="3">
         <v>1401011</v>
@@ -17087,7 +17088,7 @@
         <v>1606021</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C49" s="3">
         <v>1401011</v>
@@ -17105,7 +17106,7 @@
         <v>1606022</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C50" s="3">
         <v>1401011</v>
@@ -17123,7 +17124,7 @@
         <v>1606023</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C51" s="3">
         <v>1401011</v>
@@ -17141,7 +17142,7 @@
         <v>1606024</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C52" s="3">
         <v>1401011</v>
@@ -17159,7 +17160,7 @@
         <v>1606025</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C53" s="3">
         <v>1401011</v>
@@ -17177,7 +17178,7 @@
         <v>1606026</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C54" s="3">
         <v>1401011</v>
@@ -17195,7 +17196,7 @@
         <v>1606027</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C55" s="3">
         <v>1401011</v>
@@ -17213,7 +17214,7 @@
         <v>1606028</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C56" s="3">
         <v>1401011</v>
@@ -17231,7 +17232,7 @@
         <v>1606029</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C57" s="3">
         <v>1401011</v>
@@ -17249,7 +17250,7 @@
         <v>1606030</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C58" s="3">
         <v>1401011</v>
@@ -17267,7 +17268,7 @@
         <v>1606031</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C59" s="3">
         <v>1401011</v>
@@ -17285,7 +17286,7 @@
         <v>1606032</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C60" s="3">
         <v>1401011</v>
@@ -17303,7 +17304,7 @@
         <v>1607001</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C61" s="3">
         <v>1401011</v>
@@ -17321,7 +17322,7 @@
         <v>1607002</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C62" s="3">
         <v>1401011</v>
@@ -17339,7 +17340,7 @@
         <v>1607003</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C63" s="3">
         <v>1401011</v>
@@ -17357,7 +17358,7 @@
         <v>1607004</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" s="3">
         <v>1401011</v>
@@ -17375,7 +17376,7 @@
         <v>1607005</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C65" s="3">
         <v>1401011</v>
@@ -17393,7 +17394,7 @@
         <v>1607006</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C66" s="3">
         <v>1401011</v>
@@ -17411,7 +17412,7 @@
         <v>1607007</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C67" s="3">
         <v>1401011</v>
@@ -17429,7 +17430,7 @@
         <v>1607008</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C68" s="3">
         <v>1401011</v>
@@ -17447,7 +17448,7 @@
         <v>1607009</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C69" s="3">
         <v>1401011</v>
@@ -17465,7 +17466,7 @@
         <v>1608001</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C70" s="3">
         <v>1401011</v>
@@ -17483,7 +17484,7 @@
         <v>1608002</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C71" s="3">
         <v>1401011</v>
@@ -17501,7 +17502,7 @@
         <v>1608003</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C72" s="3">
         <v>1401011</v>
@@ -17519,7 +17520,7 @@
         <v>1608004</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C73" s="3">
         <v>1401011</v>
@@ -17537,7 +17538,7 @@
         <v>1608005</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C74" s="3">
         <v>1401011</v>
@@ -17555,7 +17556,7 @@
         <v>1608006</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C75" s="3">
         <v>1401011</v>
@@ -17573,7 +17574,7 @@
         <v>1608007</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C76" s="3">
         <v>1401011</v>
@@ -17591,7 +17592,7 @@
         <v>1608008</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C77" s="3">
         <v>1401011</v>
@@ -17609,7 +17610,7 @@
         <v>1608009</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C78" s="3">
         <v>1401011</v>
@@ -17627,7 +17628,7 @@
         <v>1608010</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C79" s="3">
         <v>1401011</v>
@@ -17645,7 +17646,7 @@
         <v>1608011</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C80" s="3">
         <v>1401011</v>
@@ -17663,7 +17664,7 @@
         <v>1608012</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C81" s="3">
         <v>1401011</v>
@@ -17681,7 +17682,7 @@
         <v>1608013</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C82" s="3">
         <v>1401011</v>
@@ -17699,7 +17700,7 @@
         <v>1608014</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C83" s="3">
         <v>1401011</v>
@@ -17717,7 +17718,7 @@
         <v>1608015</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C84" s="3">
         <v>1401011</v>
@@ -17735,7 +17736,7 @@
         <v>1609001</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C85" s="3">
         <v>1401011</v>
@@ -17753,7 +17754,7 @@
         <v>1609002</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C86" s="3">
         <v>1401011</v>
@@ -17771,7 +17772,7 @@
         <v>1609003</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C87" s="3">
         <v>1401011</v>
@@ -17811,22 +17812,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17834,7 +17835,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -17843,7 +17844,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -17857,22 +17858,22 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -17887,7 +17888,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="815">
   <si>
     <t>sheet名</t>
   </si>
@@ -2542,50 +2542,18 @@
     <t>神器3-6</t>
   </si>
   <si>
-    <t>神器3-7</t>
-  </si>
-  <si>
-    <t>神器3-8</t>
-  </si>
-  <si>
-    <t>绦带-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>绦带-2</t>
-  </si>
-  <si>
     <t>文饰-1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>文饰-2</t>
-  </si>
-  <si>
     <t>骨圈-1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>骨圈-2</t>
-  </si>
-  <si>
-    <t>玉结-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉结-2</t>
-  </si>
-  <si>
     <t>神器4-5</t>
   </si>
   <si>
     <t>神器4-6</t>
-  </si>
-  <si>
-    <t>神器4-7</t>
-  </si>
-  <si>
-    <t>神器4-8</t>
   </si>
   <si>
     <t>指虎-1</t>
@@ -2606,22 +2574,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>雷钻-2</t>
-  </si>
-  <si>
-    <t>臂刃-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>臂刃-2</t>
-  </si>
-  <si>
-    <t>神器5-7</t>
-  </si>
-  <si>
-    <t>神器5-8</t>
-  </si>
-  <si>
     <t>鬼王咒-1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2690,14 +2642,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>神器踏雪白狼的部件之七，是提升踏雪白狼的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器踏雪白狼的部件之八，是提升踏雪白狼的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>神器大荒紫电的部件之五，是提升大荒紫电的必要材料。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2706,22 +2650,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>神器大荒紫电的部件之七，是提升大荒紫电的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器大荒紫电的部件之八，是提升大荒紫电的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器十殿阎罗的部件之七，是提升十殿阎罗的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器十殿阎罗的部件之八，是提升十殿阎罗的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>神器大夏龙雀的部件之七，是提升大夏龙雀的必要材料。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2739,6 +2667,26 @@
   </si>
   <si>
     <t>绿色基础材料</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉结</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨圈-2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>文饰-2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绦带</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>臂刃</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3404,13 +3352,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W218"/>
+  <dimension ref="A1:W212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
+      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4539,7 +4487,7 @@
         <v>1603001</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>125</v>
@@ -6428,7 +6376,7 @@
         <v>16</v>
       </c>
       <c r="G54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>54</v>
@@ -6583,7 +6531,7 @@
         <v>732</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>778</v>
+        <v>813</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
@@ -6638,17 +6586,17 @@
         <v>733</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>54</v>
@@ -6693,7 +6641,7 @@
         <v>734</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
@@ -6748,17 +6696,17 @@
         <v>735</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
       </c>
       <c r="G60" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>54</v>
@@ -6803,7 +6751,7 @@
         <v>774</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>782</v>
+        <v>811</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
@@ -6813,7 +6761,7 @@
         <v>16</v>
       </c>
       <c r="G61" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>54</v>
@@ -6847,7 +6795,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6858,17 +6806,17 @@
         <v>775</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>783</v>
+        <v>810</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
       </c>
       <c r="G62" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>54</v>
@@ -6902,7 +6850,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6910,20 +6858,20 @@
         <v>1606017</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
       </c>
       <c r="G63" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>54</v>
@@ -6957,7 +6905,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3" t="s">
-        <v>818</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6965,20 +6913,20 @@
         <v>1606018</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>777</v>
+        <v>737</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
       </c>
       <c r="G64" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>54</v>
@@ -7012,7 +6960,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3" t="s">
-        <v>819</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7020,20 +6968,20 @@
         <v>1606019</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>54</v>
@@ -7067,7 +7015,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7075,20 +7023,20 @@
         <v>1606020</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>54</v>
@@ -7122,7 +7070,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7130,14 +7078,14 @@
         <v>1606021</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>738</v>
+        <v>778</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
@@ -7177,7 +7125,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3" t="s">
-        <v>252</v>
+        <v>803</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7185,20 +7133,20 @@
         <v>1606022</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
       </c>
       <c r="G68" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>54</v>
@@ -7232,7 +7180,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>255</v>
+        <v>804</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7240,20 +7188,20 @@
         <v>1606023</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
       </c>
       <c r="G69" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>54</v>
@@ -7287,7 +7235,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3" t="s">
-        <v>820</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7295,20 +7243,20 @@
         <v>1606024</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>787</v>
+        <v>741</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
       </c>
       <c r="G70" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>54</v>
@@ -7342,7 +7290,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3" t="s">
-        <v>821</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7350,20 +7298,20 @@
         <v>1606025</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>788</v>
+        <v>742</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>796</v>
+        <v>259</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
       </c>
       <c r="G71" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>54</v>
@@ -7397,7 +7345,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3" t="s">
-        <v>822</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7405,20 +7353,20 @@
         <v>1606026</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>789</v>
+        <v>743</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
       </c>
       <c r="G72" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>54</v>
@@ -7452,7 +7400,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3" t="s">
-        <v>823</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7460,20 +7408,20 @@
         <v>1606027</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
       </c>
       <c r="G73" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>54</v>
@@ -7507,7 +7455,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7515,20 +7463,20 @@
         <v>1606028</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>801</v>
+        <v>265</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
       </c>
       <c r="G74" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>54</v>
@@ -7562,7 +7510,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7570,14 +7518,14 @@
         <v>1606029</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>259</v>
+        <v>791</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
@@ -7617,7 +7565,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7625,14 +7573,14 @@
         <v>1606030</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
@@ -7672,7 +7620,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7680,14 +7628,14 @@
         <v>1606031</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
@@ -7727,7 +7675,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7735,14 +7683,14 @@
         <v>1606032</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>265</v>
+        <v>794</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
@@ -7782,7 +7730,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7790,14 +7738,14 @@
         <v>1606033</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>798</v>
+        <v>750</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
@@ -7837,7 +7785,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>824</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7845,20 +7793,20 @@
         <v>1606034</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>799</v>
+        <v>751</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
       </c>
       <c r="G80" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>54</v>
@@ -7892,7 +7840,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>825</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7900,20 +7848,20 @@
         <v>1606035</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>746</v>
+        <v>789</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>806</v>
+        <v>286</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
       </c>
       <c r="G81" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>54</v>
@@ -7947,7 +7895,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>276</v>
+        <v>805</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7955,20 +7903,20 @@
         <v>1606036</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>807</v>
+        <v>289</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
       </c>
       <c r="G82" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>54</v>
@@ -8002,7 +7950,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>279</v>
+        <v>806</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8010,14 +7958,14 @@
         <v>1606037</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
@@ -8057,7 +8005,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8065,20 +8013,20 @@
         <v>1606038</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
       </c>
       <c r="G84" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>54</v>
@@ -8112,7 +8060,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8120,20 +8068,20 @@
         <v>1606039</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>280</v>
+        <v>797</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
       </c>
       <c r="G85" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>54</v>
@@ -8167,7 +8115,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8175,14 +8123,14 @@
         <v>1606040</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>283</v>
+        <v>798</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
@@ -8222,7 +8170,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8230,20 +8178,20 @@
         <v>1606041</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>804</v>
+        <v>756</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
       </c>
       <c r="G87" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>54</v>
@@ -8277,7 +8225,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>826</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8285,20 +8233,20 @@
         <v>1606042</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>805</v>
+        <v>757</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
       </c>
       <c r="G88" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>54</v>
@@ -8332,7 +8280,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>827</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8340,20 +8288,20 @@
         <v>1606043</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>752</v>
+        <v>799</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>810</v>
+        <v>304</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
       </c>
       <c r="G89" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>54</v>
@@ -8387,7 +8335,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>294</v>
+        <v>807</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8395,20 +8343,20 @@
         <v>1606044</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>753</v>
+        <v>800</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>811</v>
+        <v>307</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
       </c>
       <c r="G90" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>54</v>
@@ -8442,28 +8390,28 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>297</v>
+        <v>808</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>1606045</v>
+        <v>1607001</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>754</v>
+        <v>310</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>812</v>
+        <v>311</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
       </c>
       <c r="G91" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>54</v>
@@ -8497,28 +8445,28 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>1606046</v>
+        <v>1607002</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>755</v>
+        <v>314</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>813</v>
+        <v>315</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
       </c>
       <c r="G92" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>54</v>
@@ -8552,28 +8500,28 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>1606047</v>
+        <v>1607003</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>756</v>
+        <v>318</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
       </c>
       <c r="G93" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>54</v>
@@ -8607,28 +8555,28 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>1606048</v>
+        <v>1607004</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>757</v>
+        <v>322</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
       </c>
       <c r="G94" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>54</v>
@@ -8662,28 +8610,28 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>1606049</v>
+        <v>1607005</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>814</v>
+        <v>326</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
       </c>
       <c r="G95" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>54</v>
@@ -8717,28 +8665,28 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>828</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>1606050</v>
+        <v>1607006</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>815</v>
+        <v>330</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
       </c>
       <c r="G96" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>54</v>
@@ -8772,22 +8720,22 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>829</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>1607001</v>
+        <v>1607007</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
@@ -8827,22 +8775,22 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>1607002</v>
+        <v>1607008</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
@@ -8882,22 +8830,22 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>1607003</v>
+        <v>1607009</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
@@ -8937,22 +8885,22 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>1607004</v>
+        <v>1608001</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
@@ -8992,22 +8940,22 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>1607005</v>
+        <v>1608002</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="F101" s="3">
         <v>16</v>
@@ -9047,22 +8995,22 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>1607006</v>
+        <v>1608003</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="F102" s="3">
         <v>16</v>
@@ -9102,22 +9050,22 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>1607007</v>
+        <v>1608004</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="F103" s="3">
         <v>16</v>
@@ -9157,22 +9105,22 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>1607008</v>
+        <v>1608005</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F104" s="3">
         <v>16</v>
@@ -9212,22 +9160,22 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>1607009</v>
+        <v>1608006</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="F105" s="3">
         <v>16</v>
@@ -9267,22 +9215,22 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>1608001</v>
+        <v>1608007</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="F106" s="3">
         <v>16</v>
@@ -9322,22 +9270,22 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>1608002</v>
+        <v>1608008</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="F107" s="3">
         <v>16</v>
@@ -9377,22 +9325,22 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>1608003</v>
+        <v>1608009</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="F108" s="3">
         <v>16</v>
@@ -9432,22 +9380,22 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>1608004</v>
+        <v>1608010</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F109" s="3">
         <v>16</v>
@@ -9487,22 +9435,22 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>1608005</v>
+        <v>1608011</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F110" s="3">
         <v>16</v>
@@ -9542,22 +9490,22 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>1608006</v>
+        <v>1608012</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="F111" s="3">
         <v>16</v>
@@ -9597,22 +9545,22 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>1608007</v>
+        <v>1608013</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="F112" s="3">
         <v>16</v>
@@ -9652,22 +9600,22 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>1608008</v>
+        <v>1608014</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F113" s="3">
         <v>16</v>
@@ -9707,22 +9655,22 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>1608009</v>
+        <v>1608015</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F114" s="3">
         <v>16</v>
@@ -9762,22 +9710,22 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>1608010</v>
+        <v>1609001</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="F115" s="3">
         <v>16</v>
@@ -9804,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="N115" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O115" s="3">
         <v>0</v>
@@ -9817,22 +9765,22 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>1608011</v>
+        <v>1609002</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F116" s="3">
         <v>16</v>
@@ -9859,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="N116" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O116" s="3">
         <v>0</v>
@@ -9872,22 +9820,22 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>1608012</v>
+        <v>1609003</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="F117" s="3">
         <v>16</v>
@@ -9914,7 +9862,7 @@
         <v>1</v>
       </c>
       <c r="N117" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O117" s="3">
         <v>0</v>
@@ -9927,22 +9875,22 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>1608013</v>
+        <v>1609104</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="F118" s="3">
         <v>16</v>
@@ -9982,22 +9930,22 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>1608014</v>
+        <v>1609105</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="F119" s="3">
         <v>16</v>
@@ -10037,22 +9985,22 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>1608015</v>
+        <v>1609106</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="F120" s="3">
         <v>16</v>
@@ -10092,22 +10040,22 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>1609001</v>
+        <v>1610001</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="F121" s="3">
         <v>16</v>
@@ -10134,35 +10082,37 @@
         <v>1</v>
       </c>
       <c r="N121" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O121" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P121" s="3"/>
-      <c r="Q121" s="3"/>
+      <c r="Q121" s="3">
+        <v>20</v>
+      </c>
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>1609002</v>
+        <v>1610002</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="F122" s="3">
         <v>16</v>
@@ -10189,35 +10139,37 @@
         <v>1</v>
       </c>
       <c r="N122" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O122" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
+      <c r="Q122" s="3">
+        <v>50</v>
+      </c>
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>1609003</v>
+        <v>1610003</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="F123" s="3">
         <v>16</v>
@@ -10244,41 +10196,43 @@
         <v>1</v>
       </c>
       <c r="N123" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O123" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P123" s="3"/>
-      <c r="Q123" s="3"/>
+      <c r="Q123" s="3">
+        <v>100</v>
+      </c>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>1609104</v>
+        <v>1605001</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="F124" s="3">
         <v>16</v>
       </c>
       <c r="G124" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>54</v>
@@ -10299,12 +10253,14 @@
         <v>1</v>
       </c>
       <c r="N124" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O124" s="3">
-        <v>0</v>
-      </c>
-      <c r="P124" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
@@ -10312,28 +10268,28 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>1609105</v>
+        <v>1605002</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="F125" s="3">
         <v>16</v>
       </c>
       <c r="G125" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>54</v>
@@ -10354,12 +10310,14 @@
         <v>1</v>
       </c>
       <c r="N125" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O125" s="3">
-        <v>0</v>
-      </c>
-      <c r="P125" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
@@ -10367,28 +10325,28 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>1609106</v>
+        <v>1605003</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="F126" s="3">
         <v>16</v>
       </c>
       <c r="G126" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>54</v>
@@ -10409,12 +10367,14 @@
         <v>1</v>
       </c>
       <c r="N126" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O126" s="3">
-        <v>0</v>
-      </c>
-      <c r="P126" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="P126" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
@@ -10422,28 +10382,28 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>1610001</v>
+        <v>1605004</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="F127" s="3">
         <v>16</v>
       </c>
       <c r="G127" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>54</v>
@@ -10464,37 +10424,37 @@
         <v>1</v>
       </c>
       <c r="N127" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O127" s="3">
-        <v>2</v>
-      </c>
-      <c r="P127" s="3"/>
-      <c r="Q127" s="3">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P127" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>1610002</v>
+        <v>1605005</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="F128" s="3">
         <v>16</v>
@@ -10521,37 +10481,37 @@
         <v>1</v>
       </c>
       <c r="N128" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O128" s="3">
-        <v>2</v>
-      </c>
-      <c r="P128" s="3"/>
-      <c r="Q128" s="3">
-        <v>50</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P128" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>1610003</v>
+        <v>1605006</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="F129" s="3">
         <v>16</v>
@@ -10578,43 +10538,43 @@
         <v>1</v>
       </c>
       <c r="N129" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O129" s="3">
-        <v>2</v>
-      </c>
-      <c r="P129" s="3"/>
-      <c r="Q129" s="3">
-        <v>100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P129" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>1605001</v>
+        <v>1605007</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F130" s="3">
         <v>16</v>
       </c>
       <c r="G130" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>54</v>
@@ -10641,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
@@ -10650,18 +10610,18 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>1605002</v>
+        <v>1605008</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
@@ -10671,7 +10631,7 @@
         <v>16</v>
       </c>
       <c r="G131" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>54</v>
@@ -10698,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="P131" s="3" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
@@ -10707,18 +10667,18 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>1605003</v>
+        <v>1605009</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
@@ -10728,7 +10688,7 @@
         <v>16</v>
       </c>
       <c r="G132" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>54</v>
@@ -10755,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="P132" s="3" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
@@ -10764,18 +10724,18 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>1605004</v>
+        <v>1605010</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
@@ -10785,7 +10745,7 @@
         <v>16</v>
       </c>
       <c r="G133" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>54</v>
@@ -10812,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
@@ -10821,18 +10781,18 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>1605005</v>
+        <v>1605011</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
@@ -10842,7 +10802,7 @@
         <v>16</v>
       </c>
       <c r="G134" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>54</v>
@@ -10869,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="P134" s="3" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
@@ -10878,18 +10838,18 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>1605006</v>
+        <v>1605012</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
@@ -10899,7 +10859,7 @@
         <v>16</v>
       </c>
       <c r="G135" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>54</v>
@@ -10926,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="P135" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
@@ -10935,18 +10895,18 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>1605007</v>
+        <v>1605013</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
@@ -10956,7 +10916,7 @@
         <v>16</v>
       </c>
       <c r="G136" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>54</v>
@@ -10983,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
@@ -10992,18 +10952,18 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>1605008</v>
+        <v>1605014</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
@@ -11040,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="P137" s="3" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
@@ -11049,18 +11009,18 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>1605009</v>
+        <v>1605015</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
@@ -11070,7 +11030,7 @@
         <v>16</v>
       </c>
       <c r="G138" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>54</v>
@@ -11097,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
@@ -11106,18 +11066,18 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>1605010</v>
+        <v>1605016</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
@@ -11127,7 +11087,7 @@
         <v>16</v>
       </c>
       <c r="G139" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>54</v>
@@ -11154,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
@@ -11163,20 +11123,22 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>1605011</v>
+        <v>1605017</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D140" s="3"/>
+        <v>467</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
       <c r="E140" s="3" t="s">
         <v>429</v>
       </c>
@@ -11184,7 +11146,7 @@
         <v>16</v>
       </c>
       <c r="G140" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>54</v>
@@ -11211,7 +11173,7 @@
         <v>1</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
@@ -11220,18 +11182,18 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>1605012</v>
+        <v>1605018</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
@@ -11241,7 +11203,7 @@
         <v>16</v>
       </c>
       <c r="G141" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>54</v>
@@ -11268,7 +11230,7 @@
         <v>1</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
@@ -11277,28 +11239,28 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>1605013</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>455</v>
+        <v>1611001</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="F142" s="3">
         <v>16</v>
       </c>
       <c r="G142" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>54</v>
@@ -11310,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" s="3">
         <v>1001</v>
@@ -11319,216 +11281,210 @@
         <v>1</v>
       </c>
       <c r="N142" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O142" s="3">
-        <v>1</v>
-      </c>
-      <c r="P142" s="3" t="s">
-        <v>455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
-      <c r="W142" s="3" t="s">
-        <v>457</v>
+      <c r="W142" s="3" t="str">
+        <f>B142&amp;",用于激活和解封专属武器"</f>
+        <v>关羽专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="143" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>1605014</v>
+        <v>1611002</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="F143" s="3">
         <v>16</v>
       </c>
       <c r="G143" s="3">
+        <v>3</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I143" s="3">
+        <v>999</v>
+      </c>
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0</v>
+      </c>
+      <c r="L143" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M143" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N143" s="3">
         <v>4</v>
       </c>
-      <c r="H143" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I143" s="3">
-        <v>999</v>
-      </c>
-      <c r="J143" s="3">
-        <v>0</v>
-      </c>
-      <c r="K143" s="3">
-        <v>1</v>
-      </c>
-      <c r="L143" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M143" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N143" s="3">
-        <v>5</v>
-      </c>
       <c r="O143" s="3">
-        <v>1</v>
-      </c>
-      <c r="P143" s="3" t="s">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
-      <c r="W143" s="3" t="s">
-        <v>460</v>
+      <c r="W143" s="3" t="str">
+        <f t="shared" ref="W143:W162" si="0">B143&amp;",用于激活和解封专属武器"</f>
+        <v>许褚专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="144" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>1605015</v>
+        <v>1611003</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="F144" s="3">
         <v>16</v>
       </c>
       <c r="G144" s="3">
+        <v>3</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I144" s="3">
+        <v>999</v>
+      </c>
+      <c r="J144" s="3">
+        <v>0</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0</v>
+      </c>
+      <c r="L144" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M144" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N144" s="3">
         <v>4</v>
       </c>
-      <c r="H144" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I144" s="3">
-        <v>999</v>
-      </c>
-      <c r="J144" s="3">
-        <v>0</v>
-      </c>
-      <c r="K144" s="3">
-        <v>1</v>
-      </c>
-      <c r="L144" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M144" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N144" s="3">
-        <v>5</v>
-      </c>
       <c r="O144" s="3">
-        <v>1</v>
-      </c>
-      <c r="P144" s="3" t="s">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
-      <c r="W144" s="3" t="s">
-        <v>463</v>
+      <c r="W144" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>典韦专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>1605016</v>
+        <v>1611004</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="F145" s="3">
         <v>16</v>
       </c>
       <c r="G145" s="3">
+        <v>2</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I145" s="3">
+        <v>999</v>
+      </c>
+      <c r="J145" s="3">
+        <v>0</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0</v>
+      </c>
+      <c r="L145" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M145" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N145" s="3">
         <v>4</v>
       </c>
-      <c r="H145" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I145" s="3">
-        <v>999</v>
-      </c>
-      <c r="J145" s="3">
-        <v>0</v>
-      </c>
-      <c r="K145" s="3">
-        <v>1</v>
-      </c>
-      <c r="L145" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M145" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N145" s="3">
-        <v>5</v>
-      </c>
       <c r="O145" s="3">
-        <v>1</v>
-      </c>
-      <c r="P145" s="3" t="s">
-        <v>464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
-      <c r="W145" s="3" t="s">
-        <v>466</v>
+      <c r="W145" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>唐流雨专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>1605017</v>
+        <v>1611005</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D146" s="3">
-        <v>1</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="F146" s="3">
         <v>16</v>
       </c>
       <c r="G146" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>54</v>
@@ -11540,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146" s="3">
         <v>1001</v>
@@ -11549,37 +11505,36 @@
         <v>1</v>
       </c>
       <c r="N146" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O146" s="3">
-        <v>1</v>
-      </c>
-      <c r="P146" s="3" t="s">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
-      <c r="W146" s="3" t="s">
-        <v>468</v>
+      <c r="W146" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>李轩辕专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="147" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>1605018</v>
+        <v>1611006</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="F147" s="3">
         <v>16</v>
@@ -11597,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147" s="3">
         <v>1001</v>
@@ -11606,43 +11561,42 @@
         <v>1</v>
       </c>
       <c r="N147" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O147" s="3">
-        <v>1</v>
-      </c>
-      <c r="P147" s="3" t="s">
-        <v>441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
-      <c r="W147" s="3" t="s">
-        <v>470</v>
+      <c r="W147" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>项羽专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>1611001</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>471</v>
+        <v>1611007</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="F148" s="3">
         <v>16</v>
       </c>
       <c r="G148" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>54</v>
@@ -11676,29 +11630,29 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3" t="str">
-        <f>B148&amp;",用于激活和解封专属武器"</f>
-        <v>关羽专属武器碎片,用于激活和解封专属武器</v>
+        <f t="shared" si="0"/>
+        <v>天使缇娜专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>1611002</v>
+        <v>1611008</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="F149" s="3">
         <v>16</v>
       </c>
       <c r="G149" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>54</v>
@@ -11732,29 +11686,29 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3" t="str">
-        <f t="shared" ref="W149:W168" si="0">B149&amp;",用于激活和解封专属武器"</f>
-        <v>许褚专属武器碎片,用于激活和解封专属武器</v>
+        <f t="shared" si="0"/>
+        <v>夏侯渊专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="150" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>1611003</v>
+        <v>1611009</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="F150" s="3">
         <v>16</v>
       </c>
       <c r="G150" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>54</v>
@@ -11789,28 +11743,28 @@
       <c r="V150" s="3"/>
       <c r="W150" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>典韦专属武器碎片,用于激活和解封专属武器</v>
+        <v>徐晃专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="151" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>1611004</v>
+        <v>1611010</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="F151" s="3">
         <v>16</v>
       </c>
       <c r="G151" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>54</v>
@@ -11845,28 +11799,28 @@
       <c r="V151" s="3"/>
       <c r="W151" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>唐流雨专属武器碎片,用于激活和解封专属武器</v>
+        <v>张郃专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="152" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>1611005</v>
+        <v>1611011</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="F152" s="3">
         <v>16</v>
       </c>
       <c r="G152" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>54</v>
@@ -11901,22 +11855,22 @@
       <c r="V152" s="3"/>
       <c r="W152" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>李轩辕专属武器碎片,用于激活和解封专属武器</v>
+        <v>张飞专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>1611006</v>
+        <v>1611012</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="F153" s="3">
         <v>16</v>
@@ -11957,28 +11911,28 @@
       <c r="V153" s="3"/>
       <c r="W153" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>项羽专属武器碎片,用于激活和解封专属武器</v>
+        <v>夏侯惇专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>1611007</v>
+        <v>1611013</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="F154" s="3">
         <v>16</v>
       </c>
       <c r="G154" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>54</v>
@@ -12013,22 +11967,22 @@
       <c r="V154" s="3"/>
       <c r="W154" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>天使缇娜专属武器碎片,用于激活和解封专属武器</v>
+        <v>塞伯罗斯专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>1611008</v>
+        <v>1611014</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="F155" s="3">
         <v>16</v>
@@ -12069,22 +12023,22 @@
       <c r="V155" s="3"/>
       <c r="W155" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>夏侯渊专属武器碎片,用于激活和解封专属武器</v>
+        <v>石灵明专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="156" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>1611009</v>
+        <v>1611015</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="F156" s="3">
         <v>16</v>
@@ -12125,22 +12079,22 @@
       <c r="V156" s="3"/>
       <c r="W156" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>徐晃专属武器碎片,用于激活和解封专属武器</v>
+        <v>于禁专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>1611010</v>
+        <v>1611016</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="F157" s="3">
         <v>16</v>
@@ -12181,22 +12135,22 @@
       <c r="V157" s="3"/>
       <c r="W157" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>张郃专属武器碎片,用于激活和解封专属武器</v>
+        <v>西方龙专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="158" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>1611011</v>
+        <v>1611017</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="F158" s="3">
         <v>16</v>
@@ -12237,22 +12191,22 @@
       <c r="V158" s="3"/>
       <c r="W158" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>张飞专属武器碎片,用于激活和解封专属武器</v>
+        <v>飞廉专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="159" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>1611012</v>
+        <v>1611018</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12293,22 +12247,22 @@
       <c r="V159" s="3"/>
       <c r="W159" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>夏侯惇专属武器碎片,用于激活和解封专属武器</v>
+        <v>噬日专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>1611013</v>
+        <v>1611019</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12349,22 +12303,22 @@
       <c r="V160" s="3"/>
       <c r="W160" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>塞伯罗斯专属武器碎片,用于激活和解封专属武器</v>
+        <v>食火蜥专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>1611014</v>
+        <v>1611020</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
@@ -12405,22 +12359,22 @@
       <c r="V161" s="3"/>
       <c r="W161" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>石灵明专属武器碎片,用于激活和解封专属武器</v>
+        <v>高顺专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>1611015</v>
+        <v>1611021</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
@@ -12461,28 +12415,28 @@
       <c r="V162" s="3"/>
       <c r="W162" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>于禁专属武器碎片,用于激活和解封专属武器</v>
+        <v>烈风螳螂专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>1611016</v>
+        <v>1701001</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="F163" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G163" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>54</v>
@@ -12503,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="N163" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O163" s="3">
         <v>0</v>
@@ -12515,30 +12469,29 @@
       <c r="T163" s="3"/>
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
-      <c r="W163" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>西方龙专属武器碎片,用于激活和解封专属武器</v>
+      <c r="W163" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>1611017</v>
+        <v>1701002</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="F164" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G164" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>54</v>
@@ -12559,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="N164" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O164" s="3">
         <v>0</v>
@@ -12571,30 +12524,29 @@
       <c r="T164" s="3"/>
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
-      <c r="W164" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>飞廉专属武器碎片,用于激活和解封专属武器</v>
+      <c r="W164" s="3" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>1611018</v>
+        <v>1701003</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="F165" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G165" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>54</v>
@@ -12615,7 +12567,7 @@
         <v>1</v>
       </c>
       <c r="N165" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O165" s="3">
         <v>0</v>
@@ -12627,27 +12579,26 @@
       <c r="T165" s="3"/>
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
-      <c r="W165" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>噬日专属武器碎片,用于激活和解封专属武器</v>
+      <c r="W165" s="3" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>1611019</v>
+        <v>1701004</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="F166" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G166" s="3">
         <v>4</v>
@@ -12671,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="N166" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O166" s="3">
         <v>0</v>
@@ -12683,27 +12634,26 @@
       <c r="T166" s="3"/>
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
-      <c r="W166" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>食火蜥专属武器碎片,用于激活和解封专属武器</v>
+      <c r="W166" s="3" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>1611020</v>
+        <v>1701005</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="F167" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G167" s="3">
         <v>4</v>
@@ -12727,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="N167" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O167" s="3">
         <v>0</v>
@@ -12739,30 +12689,29 @@
       <c r="T167" s="3"/>
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
-      <c r="W167" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>高顺专属武器碎片,用于激活和解封专属武器</v>
+      <c r="W167" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>1611021</v>
+        <v>1701006</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="F168" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G168" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>54</v>
@@ -12783,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="N168" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O168" s="3">
         <v>0</v>
@@ -12795,30 +12744,29 @@
       <c r="T168" s="3"/>
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
-      <c r="W168" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>烈风螳螂专属武器碎片,用于激活和解封专属武器</v>
+      <c r="W168" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>1701001</v>
+        <v>1701007</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="F169" s="3">
         <v>17</v>
       </c>
       <c r="G169" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>54</v>
@@ -12852,22 +12800,22 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
       <c r="W169" s="3" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>1701002</v>
+        <v>1701008</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="F170" s="3">
         <v>17</v>
@@ -12907,22 +12855,22 @@
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
       <c r="W170" s="3" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>1701003</v>
+        <v>1701009</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="F171" s="3">
         <v>17</v>
@@ -12962,22 +12910,22 @@
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
       <c r="W171" s="3" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>1701004</v>
+        <v>1701010</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="F172" s="3">
         <v>17</v>
@@ -13017,28 +12965,28 @@
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
       <c r="W172" s="3" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>1701005</v>
+        <v>1701011</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="F173" s="3">
         <v>17</v>
       </c>
       <c r="G173" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>54</v>
@@ -13072,28 +13020,28 @@
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
       <c r="W173" s="3" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>1701006</v>
+        <v>1701012</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="F174" s="3">
         <v>17</v>
       </c>
       <c r="G174" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>54</v>
@@ -13127,28 +13075,28 @@
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
       <c r="W174" s="3" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>1701007</v>
+        <v>1701013</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="F175" s="3">
         <v>17</v>
       </c>
       <c r="G175" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>54</v>
@@ -13182,28 +13130,28 @@
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
       <c r="W175" s="3" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>1701008</v>
+        <v>1701014</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="F176" s="3">
         <v>17</v>
       </c>
       <c r="G176" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>54</v>
@@ -13237,28 +13185,28 @@
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
       <c r="W176" s="3" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>1701009</v>
+        <v>1701015</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="F177" s="3">
         <v>17</v>
       </c>
       <c r="G177" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>54</v>
@@ -13292,28 +13240,28 @@
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
       <c r="W177" s="3" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>1701010</v>
+        <v>1701017</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="F178" s="3">
         <v>17</v>
       </c>
       <c r="G178" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>54</v>
@@ -13347,28 +13295,28 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
       <c r="W178" s="3" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
-        <v>1701011</v>
+        <v>1701020</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F179" s="3">
         <v>17</v>
       </c>
       <c r="G179" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>54</v>
@@ -13402,22 +13350,22 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>1701012</v>
+        <v>1701022</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="F180" s="3">
         <v>17</v>
@@ -13457,28 +13405,28 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
-        <v>1701013</v>
+        <v>1702001</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="F181" s="3">
         <v>17</v>
       </c>
       <c r="G181" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>54</v>
@@ -13499,7 +13447,7 @@
         <v>1</v>
       </c>
       <c r="N181" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O181" s="3">
         <v>0</v>
@@ -13512,22 +13460,22 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>1701014</v>
+        <v>1702002</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="F182" s="3">
         <v>17</v>
@@ -13554,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="N182" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O182" s="3">
         <v>0</v>
@@ -13567,28 +13515,28 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>1701015</v>
+        <v>1702003</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="F183" s="3">
         <v>17</v>
       </c>
       <c r="G183" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>54</v>
@@ -13609,7 +13557,7 @@
         <v>1</v>
       </c>
       <c r="N183" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O183" s="3">
         <v>0</v>
@@ -13622,22 +13570,22 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>1701017</v>
+        <v>1702004</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="F184" s="3">
         <v>17</v>
@@ -13664,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="N184" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O184" s="3">
         <v>0</v>
@@ -13677,28 +13625,28 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>1701020</v>
+        <v>1702005</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
       </c>
       <c r="G185" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>54</v>
@@ -13719,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="N185" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O185" s="3">
         <v>0</v>
@@ -13732,28 +13680,28 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>1701022</v>
+        <v>1702006</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
       </c>
       <c r="G186" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>54</v>
@@ -13774,7 +13722,7 @@
         <v>1</v>
       </c>
       <c r="N186" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O186" s="3">
         <v>0</v>
@@ -13787,22 +13735,22 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>1702001</v>
+        <v>1702007</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
@@ -13842,22 +13790,22 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>1702002</v>
+        <v>1702008</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
@@ -13897,28 +13845,28 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>1702003</v>
+        <v>1702009</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
       </c>
       <c r="G189" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>54</v>
@@ -13952,28 +13900,28 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>1702004</v>
+        <v>1702010</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
       </c>
       <c r="G190" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>54</v>
@@ -14007,28 +13955,28 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>1702005</v>
+        <v>1702011</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
       </c>
       <c r="G191" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>54</v>
@@ -14062,22 +14010,22 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>1702006</v>
+        <v>1702012</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
@@ -14117,28 +14065,28 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>1702007</v>
+        <v>1702013</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
       </c>
       <c r="G193" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>54</v>
@@ -14172,22 +14120,22 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>1702008</v>
+        <v>1702014</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
@@ -14227,28 +14175,28 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>1702009</v>
+        <v>1702015</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
       </c>
       <c r="G195" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>54</v>
@@ -14282,22 +14230,22 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>1702010</v>
+        <v>1702016</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
@@ -14337,28 +14285,28 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>1702011</v>
+        <v>1702017</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
       </c>
       <c r="G197" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>54</v>
@@ -14392,28 +14340,28 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>1702012</v>
+        <v>1702018</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
       </c>
       <c r="G198" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>54</v>
@@ -14447,28 +14395,28 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>1702013</v>
+        <v>1702019</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
       </c>
       <c r="G199" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>54</v>
@@ -14502,22 +14450,22 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>1702014</v>
+        <v>1702020</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
@@ -14557,22 +14505,22 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>1702015</v>
+        <v>1702021</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
@@ -14612,28 +14560,28 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>1702016</v>
+        <v>1702022</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
       </c>
       <c r="G202" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>54</v>
@@ -14667,25 +14615,25 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>1702017</v>
+        <v>2000001</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="F203" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G203" s="3">
         <v>3</v>
@@ -14694,7 +14642,7 @@
         <v>54</v>
       </c>
       <c r="I203" s="3">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="J203" s="3">
         <v>0</v>
@@ -14716,31 +14664,35 @@
       </c>
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
-      <c r="R203" s="3"/>
+      <c r="R203" s="3">
+        <v>2</v>
+      </c>
       <c r="S203" s="3"/>
-      <c r="T203" s="3"/>
+      <c r="T203" s="7" t="s">
+        <v>655</v>
+      </c>
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3" t="s">
-        <v>639</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>1702018</v>
+        <v>2000002</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="F204" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G204" s="3">
         <v>3</v>
@@ -14749,7 +14701,7 @@
         <v>54</v>
       </c>
       <c r="I204" s="3">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="J204" s="3">
         <v>0</v>
@@ -14771,31 +14723,36 @@
       </c>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
-      <c r="R204" s="3"/>
-      <c r="S204" s="3"/>
+      <c r="R204" s="3">
+        <v>1</v>
+      </c>
+      <c r="S204" s="3">
+        <f>1*3600</f>
+        <v>3600</v>
+      </c>
       <c r="T204" s="3"/>
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3" t="s">
-        <v>642</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>1702019</v>
+        <v>2000003</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F205" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G205" s="3">
         <v>3</v>
@@ -14804,7 +14761,7 @@
         <v>54</v>
       </c>
       <c r="I205" s="3">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="J205" s="3">
         <v>0</v>
@@ -14826,31 +14783,33 @@
       </c>
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
-      <c r="R205" s="3"/>
+      <c r="R205" s="3">
+        <v>-1</v>
+      </c>
       <c r="S205" s="3"/>
       <c r="T205" s="3"/>
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3" t="s">
-        <v>645</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>1702020</v>
+        <v>2100003</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="F206" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G206" s="3">
         <v>3</v>
@@ -14859,7 +14818,7 @@
         <v>54</v>
       </c>
       <c r="I206" s="3">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="J206" s="3">
         <v>0</v>
@@ -14881,40 +14840,42 @@
       </c>
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
-      <c r="R206" s="3"/>
+      <c r="R206" s="3">
+        <v>-1</v>
+      </c>
       <c r="S206" s="3"/>
       <c r="T206" s="3"/>
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3" t="s">
-        <v>648</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>1702021</v>
+        <v>2100004</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
         <v>650</v>
       </c>
       <c r="F207" s="3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G207" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I207" s="3">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="J207" s="3">
         <v>0</v>
@@ -14936,40 +14897,44 @@
       </c>
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
-      <c r="R207" s="3"/>
-      <c r="S207" s="3"/>
+      <c r="R207" s="3">
+        <v>1</v>
+      </c>
+      <c r="S207" s="3">
+        <v>600</v>
+      </c>
       <c r="T207" s="3"/>
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3" t="s">
-        <v>651</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>1702022</v>
+        <v>6000001</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="F208" s="3">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G208" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I208" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="J208" s="3">
         <v>0</v>
@@ -14981,11 +14946,9 @@
         <v>1001</v>
       </c>
       <c r="M208" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N208" s="3">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N208" s="3"/>
       <c r="O208" s="3">
         <v>0</v>
       </c>
@@ -14997,34 +14960,34 @@
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3" t="s">
-        <v>653</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>2000001</v>
+        <v>6000002</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="F209" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G209" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I209" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="3">
         <v>0</v>
@@ -15036,23 +14999,17 @@
         <v>1001</v>
       </c>
       <c r="M209" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N209" s="3">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N209" s="3"/>
       <c r="O209" s="3">
         <v>0</v>
       </c>
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
-      <c r="R209" s="3">
-        <v>2</v>
-      </c>
+      <c r="R209" s="3"/>
       <c r="S209" s="3"/>
-      <c r="T209" s="7" t="s">
-        <v>655</v>
-      </c>
+      <c r="T209" s="3"/>
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3" t="s">
@@ -15061,29 +15018,29 @@
     </row>
     <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>2000002</v>
+        <v>6000003</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="F210" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G210" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I210" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="3">
         <v>0</v>
@@ -15095,23 +15052,16 @@
         <v>1001</v>
       </c>
       <c r="M210" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N210" s="3">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N210" s="3"/>
       <c r="O210" s="3">
         <v>0</v>
       </c>
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
-      <c r="R210" s="3">
-        <v>1</v>
-      </c>
-      <c r="S210" s="3">
-        <f>1*3600</f>
-        <v>3600</v>
-      </c>
+      <c r="R210" s="3"/>
+      <c r="S210" s="3"/>
       <c r="T210" s="3"/>
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
@@ -15121,29 +15071,29 @@
     </row>
     <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>2000003</v>
+        <v>6000004</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="F211" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G211" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H211" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I211" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="3">
         <v>0</v>
@@ -15155,19 +15105,15 @@
         <v>1001</v>
       </c>
       <c r="M211" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N211" s="3">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N211" s="3"/>
       <c r="O211" s="3">
         <v>0</v>
       </c>
       <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
-      <c r="R211" s="3">
-        <v>-1</v>
-      </c>
+      <c r="R211" s="3"/>
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
       <c r="U211" s="3"/>
@@ -15178,29 +15124,29 @@
     </row>
     <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>2100003</v>
+        <v>6000005</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="F212" s="3">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G212" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I212" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="3">
         <v>0</v>
@@ -15212,348 +15158,20 @@
         <v>1001</v>
       </c>
       <c r="M212" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N212" s="3">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N212" s="3"/>
       <c r="O212" s="3">
         <v>0</v>
       </c>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
-      <c r="R212" s="3">
-        <v>-1</v>
-      </c>
+      <c r="R212" s="3"/>
       <c r="S212" s="3"/>
       <c r="T212" s="3"/>
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="3">
-        <v>2100004</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="F213" s="3">
-        <v>21</v>
-      </c>
-      <c r="G213" s="3">
-        <v>3</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I213" s="3">
-        <v>1</v>
-      </c>
-      <c r="J213" s="3">
-        <v>0</v>
-      </c>
-      <c r="K213" s="3">
-        <v>0</v>
-      </c>
-      <c r="L213" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M213" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N213" s="3">
-        <v>3</v>
-      </c>
-      <c r="O213" s="3">
-        <v>0</v>
-      </c>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
-      <c r="R213" s="3">
-        <v>1</v>
-      </c>
-      <c r="S213" s="3">
-        <v>600</v>
-      </c>
-      <c r="T213" s="3"/>
-      <c r="U213" s="3"/>
-      <c r="V213" s="3"/>
-      <c r="W213" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="3">
-        <v>6000001</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="F214" s="3">
-        <v>60</v>
-      </c>
-      <c r="G214" s="3">
-        <v>1</v>
-      </c>
-      <c r="H214" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I214" s="3">
-        <v>0</v>
-      </c>
-      <c r="J214" s="3">
-        <v>0</v>
-      </c>
-      <c r="K214" s="3">
-        <v>0</v>
-      </c>
-      <c r="L214" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M214" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3">
-        <v>0</v>
-      </c>
-      <c r="P214" s="3"/>
-      <c r="Q214" s="3"/>
-      <c r="R214" s="3"/>
-      <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
-      <c r="U214" s="3"/>
-      <c r="V214" s="3"/>
-      <c r="W214" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="3">
-        <v>6000002</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="F215" s="3">
-        <v>60</v>
-      </c>
-      <c r="G215" s="3">
-        <v>1</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I215" s="3">
-        <v>0</v>
-      </c>
-      <c r="J215" s="3">
-        <v>0</v>
-      </c>
-      <c r="K215" s="3">
-        <v>0</v>
-      </c>
-      <c r="L215" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M215" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3">
-        <v>0</v>
-      </c>
-      <c r="P215" s="3"/>
-      <c r="Q215" s="3"/>
-      <c r="R215" s="3"/>
-      <c r="S215" s="3"/>
-      <c r="T215" s="3"/>
-      <c r="U215" s="3"/>
-      <c r="V215" s="3"/>
-      <c r="W215" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="216" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="3">
-        <v>6000003</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="F216" s="3">
-        <v>60</v>
-      </c>
-      <c r="G216" s="3">
-        <v>1</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I216" s="3">
-        <v>0</v>
-      </c>
-      <c r="J216" s="3">
-        <v>0</v>
-      </c>
-      <c r="K216" s="3">
-        <v>0</v>
-      </c>
-      <c r="L216" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M216" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3">
-        <v>0</v>
-      </c>
-      <c r="P216" s="3"/>
-      <c r="Q216" s="3"/>
-      <c r="R216" s="3"/>
-      <c r="S216" s="3"/>
-      <c r="T216" s="3"/>
-      <c r="U216" s="3"/>
-      <c r="V216" s="3"/>
-      <c r="W216" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="217" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="3">
-        <v>6000004</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F217" s="3">
-        <v>60</v>
-      </c>
-      <c r="G217" s="3">
-        <v>1</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I217" s="3">
-        <v>0</v>
-      </c>
-      <c r="J217" s="3">
-        <v>0</v>
-      </c>
-      <c r="K217" s="3">
-        <v>0</v>
-      </c>
-      <c r="L217" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M217" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3">
-        <v>0</v>
-      </c>
-      <c r="P217" s="3"/>
-      <c r="Q217" s="3"/>
-      <c r="R217" s="3"/>
-      <c r="S217" s="3"/>
-      <c r="T217" s="3"/>
-      <c r="U217" s="3"/>
-      <c r="V217" s="3"/>
-      <c r="W217" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="3">
-        <v>6000005</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F218" s="3">
-        <v>60</v>
-      </c>
-      <c r="G218" s="3">
-        <v>1</v>
-      </c>
-      <c r="H218" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I218" s="3">
-        <v>0</v>
-      </c>
-      <c r="J218" s="3">
-        <v>0</v>
-      </c>
-      <c r="K218" s="3">
-        <v>0</v>
-      </c>
-      <c r="L218" s="3">
-        <v>1001</v>
-      </c>
-      <c r="M218" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3">
-        <v>0</v>
-      </c>
-      <c r="P218" s="3"/>
-      <c r="Q218" s="3"/>
-      <c r="R218" s="3"/>
-      <c r="S218" s="3"/>
-      <c r="T218" s="3"/>
-      <c r="U218" s="3"/>
-      <c r="V218" s="3"/>
-      <c r="W218" s="3" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="799">
   <si>
     <t>sheet名</t>
   </si>
@@ -779,9 +779,6 @@
     <t>培养丹</t>
   </si>
   <si>
-    <t>洗练瓶</t>
-  </si>
-  <si>
     <t>2小时扫荡券</t>
   </si>
   <si>
@@ -1499,73 +1496,28 @@
     <t>随机开出高级神器碎片</t>
   </si>
   <si>
-    <t>高级神器56宝箱</t>
-  </si>
-  <si>
     <t>高级神器宝龛</t>
   </si>
   <si>
     <t>随机开出高级神器5、6位置的碎片</t>
   </si>
   <si>
-    <t>初级神器1宝箱</t>
-  </si>
-  <si>
-    <t>两仪剑宝箱</t>
-  </si>
-  <si>
     <t>随机开出两仪剑的碎片</t>
   </si>
   <si>
-    <t>初级神器2宝箱</t>
-  </si>
-  <si>
-    <t>无界之爪宝箱</t>
-  </si>
-  <si>
     <t>随机开出无界之爪的碎片</t>
   </si>
   <si>
-    <t>中级神器1宝箱</t>
-  </si>
-  <si>
-    <t>踏雪白狼宝箱</t>
-  </si>
-  <si>
     <t>随机开出踏雪白狼的碎片</t>
   </si>
   <si>
-    <t>中级神器2宝箱</t>
-  </si>
-  <si>
-    <t>大荒紫电宝箱</t>
-  </si>
-  <si>
     <t>随机开出大荒紫电的碎片</t>
   </si>
   <si>
-    <t>高级神器1宝箱</t>
-  </si>
-  <si>
-    <t>十殿阎罗宝箱</t>
-  </si>
-  <si>
     <t>随机开出十殿阎罗的碎片</t>
   </si>
   <si>
-    <t>高级神器2宝箱</t>
-  </si>
-  <si>
-    <t>大夏龙雀宝箱</t>
-  </si>
-  <si>
     <t>随机开出大夏龙雀的碎片</t>
-  </si>
-  <si>
-    <t>高级神器3宝箱</t>
-  </si>
-  <si>
-    <t>阿波普之刃宝箱</t>
   </si>
   <si>
     <t>随机开出阿波普之刃的碎片</t>
@@ -2483,17 +2435,6 @@
     <t>神器1-3</t>
   </si>
   <si>
-    <t>剑结</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪剑鞘-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪剑鞘-2</t>
-  </si>
-  <si>
     <t>神器两仪剑的组成部件之三，是提升两仪剑的必要材料。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2507,23 +2448,6 @@
     <t>神器2-5</t>
   </si>
   <si>
-    <t>护木-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>护木-2</t>
-  </si>
-  <si>
-    <t>爪刃-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>爪刃-2</t>
-  </si>
-  <si>
-    <t>爪刃-3</t>
-  </si>
-  <si>
     <t>神器无界之爪的部件之三，是提升无界之爪的必要材料。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2542,90 +2466,16 @@
     <t>神器3-6</t>
   </si>
   <si>
-    <t>文饰-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨圈-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>神器4-5</t>
   </si>
   <si>
     <t>神器4-6</t>
   </si>
   <si>
-    <t>指虎-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>指虎-2</t>
-  </si>
-  <si>
-    <t>手镖-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>手镖-2</t>
-  </si>
-  <si>
-    <t>雷钻-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼王咒-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼王咒-2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎王炮-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎王炮-2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>神器6-7</t>
   </si>
   <si>
     <t>神器6-8</t>
-  </si>
-  <si>
-    <t>龙雀刀鞘-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙雀刀鞘-2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>雀环-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>雀环-2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>毁灭毒素-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>毁灭毒素-2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿波普之鞘-1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿波普之鞘-2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>神器7-7</t>
@@ -2670,24 +2520,109 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>玉结</t>
+    <t>洗炼瓶</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>骨圈-2</t>
+    <t>高级神器宝箱</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>文饰-2</t>
+    <t>高品神器碎片宝箱</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>绦带</t>
+    <t>67神器宝箱</t>
+  </si>
+  <si>
+    <t>67神器宝箱</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>臂刃</t>
+    <t>初级神器宝箱</t>
+  </si>
+  <si>
+    <t>初级神器宝箱</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留宝箱2</t>
+  </si>
+  <si>
+    <t>预留宝箱3</t>
+  </si>
+  <si>
+    <t>预留宝箱4</t>
+  </si>
+  <si>
+    <t>预留宝箱5</t>
+  </si>
+  <si>
+    <t>高级神器碎片宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器宝箱</t>
+  </si>
+  <si>
+    <t>中级神器宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留宝箱1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍经验</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪剑结</t>
+  </si>
+  <si>
+    <t>两仪石</t>
+  </si>
+  <si>
+    <t>破界石</t>
+  </si>
+  <si>
+    <t>护指</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>纹饰</t>
+  </si>
+  <si>
+    <t>玉节</t>
+  </si>
+  <si>
+    <t>寒冰竹</t>
+  </si>
+  <si>
+    <t>雪狼精华</t>
+  </si>
+  <si>
+    <t>雷文秘银</t>
+  </si>
+  <si>
+    <t>雷暴皮</t>
+  </si>
+  <si>
+    <t>磨骨</t>
+  </si>
+  <si>
+    <t>刀刃碎片</t>
+  </si>
+  <si>
+    <t>百炼钢</t>
+  </si>
+  <si>
+    <t>骨制饰品</t>
+  </si>
+  <si>
+    <t>胡狼面具</t>
   </si>
 </sst>
 </file>
@@ -3355,17 +3290,16 @@
   <dimension ref="A1:W212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="2" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="35.375" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
@@ -3474,7 +3408,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -3551,7 +3485,7 @@
         <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>54</v>
@@ -3612,9 +3546,7 @@
       <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="3">
-        <v>100</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
@@ -3667,9 +3599,7 @@
       <c r="C5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="3">
-        <v>1000</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>76</v>
       </c>
@@ -3726,9 +3656,7 @@
       <c r="C6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="3">
-        <v>2000</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>79</v>
       </c>
@@ -3781,9 +3709,7 @@
       <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="3">
-        <v>2000</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>82</v>
       </c>
@@ -3836,9 +3762,7 @@
       <c r="C8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>86</v>
       </c>
@@ -4107,9 +4031,7 @@
       <c r="C13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>105</v>
       </c>
@@ -4319,7 +4241,7 @@
         <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>782</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -4374,9 +4296,7 @@
       <c r="C18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>119</v>
       </c>
@@ -4433,9 +4353,7 @@
       <c r="C19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>123</v>
       </c>
@@ -4487,7 +4405,7 @@
         <v>1603001</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>809</v>
+        <v>766</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>125</v>
@@ -5807,10 +5725,10 @@
         <v>1603025</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>203</v>
+        <v>767</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>203</v>
+        <v>767</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -5862,16 +5780,16 @@
         <v>1604001</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
@@ -5915,7 +5833,7 @@
         <v>1103</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5923,14 +5841,14 @@
         <v>1604002</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F46" s="3">
         <v>16</v>
@@ -5970,7 +5888,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5978,14 +5896,14 @@
         <v>1606001</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" s="3">
         <v>16</v>
@@ -6025,7 +5943,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6033,14 +5951,14 @@
         <v>1606002</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F48" s="3">
         <v>16</v>
@@ -6080,7 +5998,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6088,14 +6006,14 @@
         <v>1606003</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>760</v>
+        <v>219</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F49" s="3">
         <v>16</v>
@@ -6135,7 +6053,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6143,14 +6061,14 @@
         <v>1606004</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F50" s="3">
         <v>16</v>
@@ -6190,7 +6108,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6198,14 +6116,14 @@
         <v>1606005</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>759</v>
+        <v>784</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F51" s="3">
         <v>16</v>
@@ -6245,7 +6163,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6253,14 +6171,14 @@
         <v>1606006</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>766</v>
+        <v>225</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F52" s="3">
         <v>16</v>
@@ -6300,7 +6218,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6308,14 +6226,14 @@
         <v>1606007</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>767</v>
+        <v>228</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F53" s="3">
         <v>16</v>
@@ -6355,7 +6273,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6363,14 +6281,14 @@
         <v>1606008</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F54" s="3">
         <v>16</v>
@@ -6410,7 +6328,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6418,14 +6336,14 @@
         <v>1606009</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F55" s="3">
         <v>16</v>
@@ -6465,7 +6383,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6473,14 +6391,14 @@
         <v>1606010</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F56" s="3">
         <v>16</v>
@@ -6520,7 +6438,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6528,14 +6446,14 @@
         <v>1606011</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>813</v>
+        <v>231</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F57" s="3">
         <v>16</v>
@@ -6575,7 +6493,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6583,14 +6501,14 @@
         <v>1606012</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
@@ -6630,7 +6548,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6638,14 +6556,14 @@
         <v>1606013</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>812</v>
+        <v>237</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F59" s="3">
         <v>16</v>
@@ -6685,7 +6603,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6693,14 +6611,14 @@
         <v>1606014</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
@@ -6740,7 +6658,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6748,14 +6666,14 @@
         <v>1606015</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F61" s="3">
         <v>16</v>
@@ -6795,7 +6713,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
-        <v>801</v>
+        <v>758</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6803,14 +6721,14 @@
         <v>1606016</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
@@ -6850,7 +6768,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3" t="s">
-        <v>802</v>
+        <v>759</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6858,14 +6776,14 @@
         <v>1606017</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>780</v>
+        <v>243</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
@@ -6905,7 +6823,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6913,14 +6831,14 @@
         <v>1606018</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>781</v>
+        <v>246</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
@@ -6960,7 +6878,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6968,14 +6886,14 @@
         <v>1606019</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>782</v>
+        <v>249</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
@@ -7015,7 +6933,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7023,14 +6941,14 @@
         <v>1606020</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>783</v>
+        <v>252</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
@@ -7070,7 +6988,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7078,14 +6996,14 @@
         <v>1606021</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
@@ -7125,7 +7043,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3" t="s">
-        <v>803</v>
+        <v>760</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7133,14 +7051,14 @@
         <v>1606022</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
@@ -7180,7 +7098,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>804</v>
+        <v>761</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7188,14 +7106,14 @@
         <v>1606023</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>785</v>
+        <v>255</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
@@ -7235,7 +7153,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7243,14 +7161,14 @@
         <v>1606024</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>786</v>
+        <v>258</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
@@ -7290,7 +7208,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7298,14 +7216,14 @@
         <v>1606025</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
@@ -7345,7 +7263,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7353,14 +7271,14 @@
         <v>1606026</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>787</v>
+        <v>264</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
@@ -7400,7 +7318,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7408,14 +7326,14 @@
         <v>1606027</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
@@ -7455,7 +7373,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7463,14 +7381,14 @@
         <v>1606028</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
@@ -7510,7 +7428,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7518,14 +7436,14 @@
         <v>1606029</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>791</v>
+        <v>273</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
@@ -7565,7 +7483,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7573,14 +7491,14 @@
         <v>1606030</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>792</v>
+        <v>276</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
@@ -7620,7 +7538,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7628,14 +7546,14 @@
         <v>1606031</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>793</v>
+        <v>279</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
@@ -7675,7 +7593,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7683,14 +7601,14 @@
         <v>1606032</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>794</v>
+        <v>282</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
@@ -7730,7 +7648,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7738,14 +7656,14 @@
         <v>1606033</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
@@ -7785,7 +7703,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7793,14 +7711,14 @@
         <v>1606034</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
@@ -7840,7 +7758,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7848,14 +7766,14 @@
         <v>1606035</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>286</v>
+        <v>795</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
@@ -7895,7 +7813,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>805</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7903,14 +7821,14 @@
         <v>1606036</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>790</v>
+        <v>755</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>289</v>
+        <v>796</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
@@ -7950,7 +7868,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>806</v>
+        <v>763</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7958,14 +7876,14 @@
         <v>1606037</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>795</v>
+        <v>291</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
@@ -8005,7 +7923,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8013,14 +7931,14 @@
         <v>1606038</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>796</v>
+        <v>294</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
@@ -8060,7 +7978,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8068,14 +7986,14 @@
         <v>1606039</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>797</v>
+        <v>297</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
@@ -8115,7 +8033,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8123,14 +8041,14 @@
         <v>1606040</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>798</v>
+        <v>300</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
@@ -8170,7 +8088,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8178,14 +8096,14 @@
         <v>1606041</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
@@ -8225,7 +8143,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8233,14 +8151,14 @@
         <v>1606042</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
@@ -8280,7 +8198,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8288,14 +8206,14 @@
         <v>1606043</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>799</v>
+        <v>756</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>304</v>
+        <v>797</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
@@ -8335,7 +8253,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8343,14 +8261,14 @@
         <v>1606044</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>800</v>
+        <v>757</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>307</v>
+        <v>798</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
@@ -8390,7 +8308,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>808</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8398,14 +8316,14 @@
         <v>1607001</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
@@ -8445,7 +8363,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8453,14 +8371,14 @@
         <v>1607002</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
@@ -8500,7 +8418,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8508,14 +8426,14 @@
         <v>1607003</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
@@ -8555,7 +8473,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8563,14 +8481,14 @@
         <v>1607004</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
@@ -8610,7 +8528,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8618,14 +8536,14 @@
         <v>1607005</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
@@ -8665,7 +8583,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8673,14 +8591,14 @@
         <v>1607006</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
@@ -8720,7 +8638,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8728,14 +8646,14 @@
         <v>1607007</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
@@ -8775,7 +8693,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8783,14 +8701,14 @@
         <v>1607008</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
@@ -8830,7 +8748,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8838,14 +8756,14 @@
         <v>1607009</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
@@ -8885,7 +8803,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8893,14 +8811,14 @@
         <v>1608001</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
@@ -8940,7 +8858,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8948,14 +8866,14 @@
         <v>1608002</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F101" s="3">
         <v>16</v>
@@ -8995,7 +8913,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9003,14 +8921,14 @@
         <v>1608003</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F102" s="3">
         <v>16</v>
@@ -9050,7 +8968,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9058,14 +8976,14 @@
         <v>1608004</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F103" s="3">
         <v>16</v>
@@ -9105,7 +9023,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9113,14 +9031,14 @@
         <v>1608005</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F104" s="3">
         <v>16</v>
@@ -9160,7 +9078,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9168,14 +9086,14 @@
         <v>1608006</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F105" s="3">
         <v>16</v>
@@ -9215,7 +9133,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9223,14 +9141,14 @@
         <v>1608007</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F106" s="3">
         <v>16</v>
@@ -9270,7 +9188,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9278,14 +9196,14 @@
         <v>1608008</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F107" s="3">
         <v>16</v>
@@ -9325,7 +9243,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9333,14 +9251,14 @@
         <v>1608009</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F108" s="3">
         <v>16</v>
@@ -9380,7 +9298,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9388,14 +9306,14 @@
         <v>1608010</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F109" s="3">
         <v>16</v>
@@ -9435,7 +9353,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9443,14 +9361,14 @@
         <v>1608011</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F110" s="3">
         <v>16</v>
@@ -9490,7 +9408,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9498,14 +9416,14 @@
         <v>1608012</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F111" s="3">
         <v>16</v>
@@ -9545,7 +9463,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9553,14 +9471,14 @@
         <v>1608013</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F112" s="3">
         <v>16</v>
@@ -9600,7 +9518,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9608,14 +9526,14 @@
         <v>1608014</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F113" s="3">
         <v>16</v>
@@ -9655,7 +9573,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9663,14 +9581,14 @@
         <v>1608015</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F114" s="3">
         <v>16</v>
@@ -9710,7 +9628,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9718,14 +9636,14 @@
         <v>1609001</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F115" s="3">
         <v>16</v>
@@ -9765,7 +9683,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9773,14 +9691,14 @@
         <v>1609002</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F116" s="3">
         <v>16</v>
@@ -9820,7 +9738,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9828,14 +9746,14 @@
         <v>1609003</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F117" s="3">
         <v>16</v>
@@ -9875,7 +9793,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9883,14 +9801,14 @@
         <v>1609104</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F118" s="3">
         <v>16</v>
@@ -9930,7 +9848,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9938,14 +9856,14 @@
         <v>1609105</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F119" s="3">
         <v>16</v>
@@ -9985,7 +9903,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9993,14 +9911,14 @@
         <v>1609106</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F120" s="3">
         <v>16</v>
@@ -10040,7 +9958,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10048,14 +9966,14 @@
         <v>1610001</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F121" s="3">
         <v>16</v>
@@ -10097,7 +10015,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10105,14 +10023,14 @@
         <v>1610002</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F122" s="3">
         <v>16</v>
@@ -10154,7 +10072,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10162,14 +10080,14 @@
         <v>1610003</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F123" s="3">
         <v>16</v>
@@ -10211,7 +10129,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10219,14 +10137,14 @@
         <v>1605001</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F124" s="3">
         <v>16</v>
@@ -10259,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
@@ -10268,7 +10186,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10276,14 +10194,14 @@
         <v>1605002</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F125" s="3">
         <v>16</v>
@@ -10316,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
@@ -10325,7 +10243,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10333,14 +10251,14 @@
         <v>1605003</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F126" s="3">
         <v>16</v>
@@ -10373,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
@@ -10382,7 +10300,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10390,14 +10308,14 @@
         <v>1605004</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F127" s="3">
         <v>16</v>
@@ -10430,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
@@ -10439,22 +10357,22 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>1605005</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F128" s="3">
         <v>16</v>
@@ -10487,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
@@ -10496,22 +10414,22 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>1605006</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F129" s="3">
         <v>16</v>
@@ -10544,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
@@ -10553,7 +10471,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10561,14 +10479,14 @@
         <v>1605007</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F130" s="3">
         <v>16</v>
@@ -10601,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
@@ -10610,7 +10528,7 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10618,14 +10536,14 @@
         <v>1605008</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>441</v>
+        <v>771</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F131" s="3">
         <v>16</v>
@@ -10658,7 +10576,7 @@
         <v>1</v>
       </c>
       <c r="P131" s="3" t="s">
-        <v>441</v>
+        <v>770</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
@@ -10667,7 +10585,7 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10675,14 +10593,14 @@
         <v>1605009</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>443</v>
+        <v>769</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F132" s="3">
         <v>16</v>
@@ -10715,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="P132" s="3" t="s">
-        <v>443</v>
+        <v>778</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
@@ -10724,7 +10642,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10732,14 +10650,14 @@
         <v>1605010</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>446</v>
+        <v>773</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>447</v>
+        <v>772</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F133" s="3">
         <v>16</v>
@@ -10772,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>446</v>
+        <v>772</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
@@ -10781,7 +10699,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10789,14 +10707,14 @@
         <v>1605011</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>449</v>
+        <v>780</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>450</v>
+        <v>779</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F134" s="3">
         <v>16</v>
@@ -10829,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="P134" s="3" t="s">
-        <v>449</v>
+        <v>779</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
@@ -10838,7 +10756,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10846,14 +10764,14 @@
         <v>1605012</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>452</v>
+        <v>768</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F135" s="3">
         <v>16</v>
@@ -10886,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="P135" s="3" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
@@ -10895,7 +10813,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10903,14 +10821,14 @@
         <v>1605013</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>455</v>
+        <v>774</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>456</v>
+        <v>774</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F136" s="3">
         <v>16</v>
@@ -10943,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>455</v>
+        <v>781</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
@@ -10952,7 +10870,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10960,14 +10878,14 @@
         <v>1605014</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>458</v>
+        <v>775</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>459</v>
+        <v>775</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F137" s="3">
         <v>16</v>
@@ -11000,7 +10918,7 @@
         <v>1</v>
       </c>
       <c r="P137" s="3" t="s">
-        <v>458</v>
+        <v>774</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
@@ -11009,7 +10927,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11017,14 +10935,14 @@
         <v>1605015</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>461</v>
+        <v>776</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>462</v>
+        <v>776</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F138" s="3">
         <v>16</v>
@@ -11057,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>461</v>
+        <v>775</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
@@ -11066,7 +10984,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11074,14 +10992,14 @@
         <v>1605016</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>464</v>
+        <v>777</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>465</v>
+        <v>777</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F139" s="3">
         <v>16</v>
@@ -11114,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>464</v>
+        <v>776</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
@@ -11123,7 +11041,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11131,16 +11049,16 @@
         <v>1605017</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F140" s="3">
         <v>16</v>
@@ -11173,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
@@ -11182,7 +11100,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11190,14 +11108,14 @@
         <v>1605018</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F141" s="3">
         <v>16</v>
@@ -11230,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
@@ -11239,7 +11157,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11247,14 +11165,14 @@
         <v>1611001</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="F142" s="3">
         <v>16</v>
@@ -11303,14 +11221,14 @@
         <v>1611002</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="F143" s="3">
         <v>16</v>
@@ -11359,14 +11277,14 @@
         <v>1611003</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F144" s="3">
         <v>16</v>
@@ -11410,19 +11328,19 @@
         <v>典韦专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>1611004</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="F145" s="3">
         <v>16</v>
@@ -11466,19 +11384,19 @@
         <v>唐流雨专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>1611005</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F146" s="3">
         <v>16</v>
@@ -11527,14 +11445,14 @@
         <v>1611006</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="F147" s="3">
         <v>16</v>
@@ -11578,19 +11496,19 @@
         <v>项羽专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>1611007</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="F148" s="3">
         <v>16</v>
@@ -11634,19 +11552,19 @@
         <v>天使缇娜专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>1611008</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="F149" s="3">
         <v>16</v>
@@ -11695,14 +11613,14 @@
         <v>1611009</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F150" s="3">
         <v>16</v>
@@ -11751,14 +11669,14 @@
         <v>1611010</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F151" s="3">
         <v>16</v>
@@ -11807,14 +11725,14 @@
         <v>1611011</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F152" s="3">
         <v>16</v>
@@ -11858,19 +11776,19 @@
         <v>张飞专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>1611012</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="F153" s="3">
         <v>16</v>
@@ -11914,19 +11832,19 @@
         <v>夏侯惇专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>1611013</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="F154" s="3">
         <v>16</v>
@@ -11970,19 +11888,19 @@
         <v>塞伯罗斯专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>1611014</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="F155" s="3">
         <v>16</v>
@@ -12031,14 +11949,14 @@
         <v>1611015</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="F156" s="3">
         <v>16</v>
@@ -12082,19 +12000,19 @@
         <v>于禁专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>1611016</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="F157" s="3">
         <v>16</v>
@@ -12143,14 +12061,14 @@
         <v>1611017</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="F158" s="3">
         <v>16</v>
@@ -12199,14 +12117,14 @@
         <v>1611018</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12250,19 +12168,19 @@
         <v>噬日专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>1611019</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12311,14 +12229,14 @@
         <v>1611020</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
@@ -12362,19 +12280,19 @@
         <v>高顺专属武器碎片,用于激活和解封专属武器</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" ht="33" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>1611021</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
@@ -12423,14 +12341,14 @@
         <v>1701001</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="F163" s="3">
         <v>17</v>
@@ -12470,7 +12388,7 @@
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
       <c r="W163" s="3" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12478,14 +12396,14 @@
         <v>1701002</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="F164" s="3">
         <v>17</v>
@@ -12525,7 +12443,7 @@
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
       <c r="W164" s="3" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12533,14 +12451,14 @@
         <v>1701003</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="F165" s="3">
         <v>17</v>
@@ -12580,7 +12498,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
       <c r="W165" s="3" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12588,14 +12506,14 @@
         <v>1701004</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="F166" s="3">
         <v>17</v>
@@ -12635,7 +12553,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
       <c r="W166" s="3" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12643,14 +12561,14 @@
         <v>1701005</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="F167" s="3">
         <v>17</v>
@@ -12690,7 +12608,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
       <c r="W167" s="3" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12698,14 +12616,14 @@
         <v>1701006</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="F168" s="3">
         <v>17</v>
@@ -12745,7 +12663,7 @@
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
       <c r="W168" s="3" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12753,14 +12671,14 @@
         <v>1701007</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="F169" s="3">
         <v>17</v>
@@ -12800,7 +12718,7 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
       <c r="W169" s="3" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12808,14 +12726,14 @@
         <v>1701008</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F170" s="3">
         <v>17</v>
@@ -12855,7 +12773,7 @@
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
       <c r="W170" s="3" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12863,14 +12781,14 @@
         <v>1701009</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="F171" s="3">
         <v>17</v>
@@ -12910,7 +12828,7 @@
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
       <c r="W171" s="3" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12918,14 +12836,14 @@
         <v>1701010</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="F172" s="3">
         <v>17</v>
@@ -12965,7 +12883,7 @@
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
       <c r="W172" s="3" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12973,14 +12891,14 @@
         <v>1701011</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="F173" s="3">
         <v>17</v>
@@ -13020,7 +12938,7 @@
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
       <c r="W173" s="3" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13028,14 +12946,14 @@
         <v>1701012</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="F174" s="3">
         <v>17</v>
@@ -13075,7 +12993,7 @@
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
       <c r="W174" s="3" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13083,14 +13001,14 @@
         <v>1701013</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="F175" s="3">
         <v>17</v>
@@ -13130,7 +13048,7 @@
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
       <c r="W175" s="3" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13138,14 +13056,14 @@
         <v>1701014</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="F176" s="3">
         <v>17</v>
@@ -13185,7 +13103,7 @@
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
       <c r="W176" s="3" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13193,14 +13111,14 @@
         <v>1701015</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="F177" s="3">
         <v>17</v>
@@ -13240,7 +13158,7 @@
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
       <c r="W177" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13248,14 +13166,14 @@
         <v>1701017</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="F178" s="3">
         <v>17</v>
@@ -13295,7 +13213,7 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
       <c r="W178" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13303,14 +13221,14 @@
         <v>1701020</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="F179" s="3">
         <v>17</v>
@@ -13350,7 +13268,7 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13358,14 +13276,14 @@
         <v>1701022</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="F180" s="3">
         <v>17</v>
@@ -13405,7 +13323,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13413,14 +13331,14 @@
         <v>1702001</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="F181" s="3">
         <v>17</v>
@@ -13460,7 +13378,7 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13468,14 +13386,14 @@
         <v>1702002</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="F182" s="3">
         <v>17</v>
@@ -13515,7 +13433,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13523,14 +13441,14 @@
         <v>1702003</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F183" s="3">
         <v>17</v>
@@ -13570,7 +13488,7 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13578,14 +13496,14 @@
         <v>1702004</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="F184" s="3">
         <v>17</v>
@@ -13625,7 +13543,7 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13633,14 +13551,14 @@
         <v>1702005</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
@@ -13680,7 +13598,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13688,14 +13606,14 @@
         <v>1702006</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
@@ -13735,7 +13653,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13743,14 +13661,14 @@
         <v>1702007</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
@@ -13790,7 +13708,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13798,14 +13716,14 @@
         <v>1702008</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
@@ -13845,7 +13763,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13853,14 +13771,14 @@
         <v>1702009</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
@@ -13900,7 +13818,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13908,14 +13826,14 @@
         <v>1702010</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
@@ -13955,7 +13873,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13963,14 +13881,14 @@
         <v>1702011</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
@@ -14010,7 +13928,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14018,14 +13936,14 @@
         <v>1702012</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
@@ -14065,7 +13983,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14073,14 +13991,14 @@
         <v>1702013</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
@@ -14120,7 +14038,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14128,14 +14046,14 @@
         <v>1702014</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
@@ -14175,7 +14093,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14183,14 +14101,14 @@
         <v>1702015</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
@@ -14230,7 +14148,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14238,14 +14156,14 @@
         <v>1702016</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
@@ -14285,7 +14203,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14293,14 +14211,14 @@
         <v>1702017</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
@@ -14340,7 +14258,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14348,14 +14266,14 @@
         <v>1702018</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
@@ -14395,7 +14313,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14403,14 +14321,14 @@
         <v>1702019</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
@@ -14450,7 +14368,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14458,14 +14376,14 @@
         <v>1702020</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
@@ -14505,7 +14423,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14513,14 +14431,14 @@
         <v>1702021</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
@@ -14560,7 +14478,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14568,14 +14486,14 @@
         <v>1702022</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
@@ -14615,7 +14533,7 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14623,14 +14541,14 @@
         <v>2000001</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="F203" s="3">
         <v>20</v>
@@ -14669,7 +14587,7 @@
       </c>
       <c r="S203" s="3"/>
       <c r="T203" s="7" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
@@ -14682,14 +14600,14 @@
         <v>2000002</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="F204" s="3">
         <v>20</v>
@@ -14742,14 +14660,14 @@
         <v>2000003</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="F205" s="3">
         <v>20</v>
@@ -14799,14 +14717,14 @@
         <v>2100003</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="F206" s="3">
         <v>21</v>
@@ -14856,14 +14774,14 @@
         <v>2100004</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="F207" s="3">
         <v>21</v>
@@ -14915,14 +14833,14 @@
         <v>6000001</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="F208" s="3">
         <v>60</v>
@@ -14968,14 +14886,14 @@
         <v>6000002</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="F209" s="3">
         <v>60</v>
@@ -15021,14 +14939,14 @@
         <v>6000003</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="F210" s="3">
         <v>60</v>
@@ -15074,14 +14992,14 @@
         <v>6000004</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="F211" s="3">
         <v>60</v>
@@ -15127,14 +15045,14 @@
         <v>6000005</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="F212" s="3">
         <v>60</v>
@@ -15210,22 +15128,22 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -15233,22 +15151,22 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C2" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
@@ -15259,25 +15177,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -15285,7 +15203,7 @@
         <v>1603001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="C4" s="3">
         <v>1401011</v>
@@ -15303,7 +15221,7 @@
         <v>1603002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="C5" s="3">
         <v>1401011</v>
@@ -15321,7 +15239,7 @@
         <v>1603003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="C6" s="3">
         <v>1401011</v>
@@ -15339,7 +15257,7 @@
         <v>1603004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="C7" s="3">
         <v>1401011</v>
@@ -15357,7 +15275,7 @@
         <v>1603005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="C8" s="3">
         <v>1401011</v>
@@ -15375,7 +15293,7 @@
         <v>1603006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="C9" s="3">
         <v>1401011</v>
@@ -15393,7 +15311,7 @@
         <v>1603007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="C10" s="3">
         <v>1401011</v>
@@ -15411,7 +15329,7 @@
         <v>1603008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="C11" s="3">
         <v>1401011</v>
@@ -15429,7 +15347,7 @@
         <v>1603009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="C12" s="3">
         <v>1401011</v>
@@ -15447,7 +15365,7 @@
         <v>1603010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="C13" s="3">
         <v>1401011</v>
@@ -15465,7 +15383,7 @@
         <v>1603011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="C14" s="3">
         <v>1401011</v>
@@ -15483,7 +15401,7 @@
         <v>1603012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="C15" s="3">
         <v>1401011</v>
@@ -15501,7 +15419,7 @@
         <v>1603013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="C16" s="3">
         <v>1401011</v>
@@ -15519,7 +15437,7 @@
         <v>1603014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="C17" s="3">
         <v>1401011</v>
@@ -15537,7 +15455,7 @@
         <v>1603015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="C18" s="3">
         <v>1401011</v>
@@ -15555,7 +15473,7 @@
         <v>1603016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="C19" s="3">
         <v>1401011</v>
@@ -15573,7 +15491,7 @@
         <v>1603017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="C20" s="3">
         <v>1401011</v>
@@ -15591,7 +15509,7 @@
         <v>1603018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="C21" s="3">
         <v>1401011</v>
@@ -15609,7 +15527,7 @@
         <v>1603019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="C22" s="3">
         <v>1401011</v>
@@ -15627,7 +15545,7 @@
         <v>1603020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C23" s="3">
         <v>1401011</v>
@@ -15645,7 +15563,7 @@
         <v>1603021</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="C24" s="3">
         <v>1401011</v>
@@ -15699,7 +15617,7 @@
         <v>1604001</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="3">
         <v>1401011</v>
@@ -15717,7 +15635,7 @@
         <v>1604002</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="3">
         <v>1401011</v>
@@ -15735,7 +15653,7 @@
         <v>1606001</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C29" s="3">
         <v>1401011</v>
@@ -15753,7 +15671,7 @@
         <v>1606002</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3">
         <v>1401011</v>
@@ -15771,7 +15689,7 @@
         <v>1606003</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="3">
         <v>1401011</v>
@@ -15789,7 +15707,7 @@
         <v>1606004</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32" s="3">
         <v>1401011</v>
@@ -15807,7 +15725,7 @@
         <v>1606005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="3">
         <v>1401011</v>
@@ -15825,7 +15743,7 @@
         <v>1606006</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" s="3">
         <v>1401011</v>
@@ -15843,7 +15761,7 @@
         <v>1606007</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="3">
         <v>1401011</v>
@@ -15861,7 +15779,7 @@
         <v>1606008</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C36" s="3">
         <v>1401011</v>
@@ -15879,7 +15797,7 @@
         <v>1606009</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" s="3">
         <v>1401011</v>
@@ -15897,7 +15815,7 @@
         <v>1606010</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C38" s="3">
         <v>1401011</v>
@@ -15915,7 +15833,7 @@
         <v>1606011</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" s="3">
         <v>1401011</v>
@@ -15933,7 +15851,7 @@
         <v>1606012</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" s="3">
         <v>1401011</v>
@@ -15951,7 +15869,7 @@
         <v>1606013</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C41" s="3">
         <v>1401011</v>
@@ -15969,7 +15887,7 @@
         <v>1606014</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C42" s="3">
         <v>1401011</v>
@@ -15987,7 +15905,7 @@
         <v>1606015</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C43" s="3">
         <v>1401011</v>
@@ -16005,7 +15923,7 @@
         <v>1606016</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C44" s="3">
         <v>1401011</v>
@@ -16023,7 +15941,7 @@
         <v>1606017</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C45" s="3">
         <v>1401011</v>
@@ -16041,7 +15959,7 @@
         <v>1606018</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C46" s="3">
         <v>1401011</v>
@@ -16059,7 +15977,7 @@
         <v>1606019</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C47" s="3">
         <v>1401011</v>
@@ -16077,7 +15995,7 @@
         <v>1606020</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C48" s="3">
         <v>1401011</v>
@@ -16095,7 +16013,7 @@
         <v>1606021</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C49" s="3">
         <v>1401011</v>
@@ -16113,7 +16031,7 @@
         <v>1606022</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="3">
         <v>1401011</v>
@@ -16131,7 +16049,7 @@
         <v>1606023</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C51" s="3">
         <v>1401011</v>
@@ -16149,7 +16067,7 @@
         <v>1606024</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C52" s="3">
         <v>1401011</v>
@@ -16167,7 +16085,7 @@
         <v>1606025</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C53" s="3">
         <v>1401011</v>
@@ -16185,7 +16103,7 @@
         <v>1606026</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" s="3">
         <v>1401011</v>
@@ -16203,7 +16121,7 @@
         <v>1606027</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C55" s="3">
         <v>1401011</v>
@@ -16221,7 +16139,7 @@
         <v>1606028</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C56" s="3">
         <v>1401011</v>
@@ -16239,7 +16157,7 @@
         <v>1606029</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C57" s="3">
         <v>1401011</v>
@@ -16257,7 +16175,7 @@
         <v>1606030</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C58" s="3">
         <v>1401011</v>
@@ -16275,7 +16193,7 @@
         <v>1606031</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C59" s="3">
         <v>1401011</v>
@@ -16293,7 +16211,7 @@
         <v>1606032</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C60" s="3">
         <v>1401011</v>
@@ -16311,7 +16229,7 @@
         <v>1607001</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C61" s="3">
         <v>1401011</v>
@@ -16329,7 +16247,7 @@
         <v>1607002</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C62" s="3">
         <v>1401011</v>
@@ -16347,7 +16265,7 @@
         <v>1607003</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C63" s="3">
         <v>1401011</v>
@@ -16365,7 +16283,7 @@
         <v>1607004</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C64" s="3">
         <v>1401011</v>
@@ -16383,7 +16301,7 @@
         <v>1607005</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C65" s="3">
         <v>1401011</v>
@@ -16401,7 +16319,7 @@
         <v>1607006</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C66" s="3">
         <v>1401011</v>
@@ -16419,7 +16337,7 @@
         <v>1607007</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C67" s="3">
         <v>1401011</v>
@@ -16437,7 +16355,7 @@
         <v>1607008</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C68" s="3">
         <v>1401011</v>
@@ -16455,7 +16373,7 @@
         <v>1607009</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C69" s="3">
         <v>1401011</v>
@@ -16473,7 +16391,7 @@
         <v>1608001</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C70" s="3">
         <v>1401011</v>
@@ -16491,7 +16409,7 @@
         <v>1608002</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C71" s="3">
         <v>1401011</v>
@@ -16509,7 +16427,7 @@
         <v>1608003</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C72" s="3">
         <v>1401011</v>
@@ -16527,7 +16445,7 @@
         <v>1608004</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C73" s="3">
         <v>1401011</v>
@@ -16545,7 +16463,7 @@
         <v>1608005</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C74" s="3">
         <v>1401011</v>
@@ -16563,7 +16481,7 @@
         <v>1608006</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C75" s="3">
         <v>1401011</v>
@@ -16581,7 +16499,7 @@
         <v>1608007</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C76" s="3">
         <v>1401011</v>
@@ -16599,7 +16517,7 @@
         <v>1608008</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C77" s="3">
         <v>1401011</v>
@@ -16617,7 +16535,7 @@
         <v>1608009</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C78" s="3">
         <v>1401011</v>
@@ -16635,7 +16553,7 @@
         <v>1608010</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C79" s="3">
         <v>1401011</v>
@@ -16653,7 +16571,7 @@
         <v>1608011</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C80" s="3">
         <v>1401011</v>
@@ -16671,7 +16589,7 @@
         <v>1608012</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C81" s="3">
         <v>1401011</v>
@@ -16689,7 +16607,7 @@
         <v>1608013</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C82" s="3">
         <v>1401011</v>
@@ -16707,7 +16625,7 @@
         <v>1608014</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C83" s="3">
         <v>1401011</v>
@@ -16725,7 +16643,7 @@
         <v>1608015</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C84" s="3">
         <v>1401011</v>
@@ -16743,7 +16661,7 @@
         <v>1609001</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C85" s="3">
         <v>1401011</v>
@@ -16761,7 +16679,7 @@
         <v>1609002</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C86" s="3">
         <v>1401011</v>
@@ -16779,7 +16697,7 @@
         <v>1609003</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C87" s="3">
         <v>1401011</v>
@@ -16819,22 +16737,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -16842,7 +16760,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -16851,7 +16769,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -16865,22 +16783,22 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -16895,7 +16813,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>

--- a/Excel/镇魂街/item.道具.xlsx
+++ b/Excel/镇魂街/item.道具.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="807">
   <si>
     <t>sheet名</t>
   </si>
@@ -833,268 +833,178 @@
     <t>ui_dtex_Item_1606003</t>
   </si>
   <si>
-    <t>神器两仪剑的组成部件之一，是提升两仪剑的必要材料。</t>
-  </si>
-  <si>
     <t>剑结</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606004</t>
   </si>
   <si>
-    <t>神器两仪剑的组成部件之二，是提升两仪剑的必要材料。</t>
-  </si>
-  <si>
     <t>护木</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606005</t>
   </si>
   <si>
-    <t>神器无界之爪的部件之一，是提升无界之爪的必要材料。</t>
-  </si>
-  <si>
     <t>爪刃</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606006</t>
   </si>
   <si>
-    <t>神器无界之爪的部件之二，是提升无界之爪的必要材料。</t>
-  </si>
-  <si>
     <t>绦带</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606007</t>
   </si>
   <si>
-    <t>神器踏雪白狼的部件之一，是提升踏雪白狼的必要材料。</t>
-  </si>
-  <si>
     <t>文饰</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606008</t>
   </si>
   <si>
-    <t>神器踏雪白狼的部件之二，是提升踏雪白狼的必要材料。</t>
-  </si>
-  <si>
     <t>骨圈</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606009</t>
   </si>
   <si>
-    <t>神器踏雪白狼的部件之三，是提升踏雪白狼的必要材料。</t>
-  </si>
-  <si>
     <t>玉结</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606010</t>
   </si>
   <si>
-    <t>神器踏雪白狼的部件之四，是提升踏雪白狼的必要材料。</t>
-  </si>
-  <si>
     <t>指虎</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606011</t>
   </si>
   <si>
-    <t>神器大荒紫电的部件之一，是提升大荒紫电的必要材料。</t>
-  </si>
-  <si>
     <t>手镖</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606012</t>
   </si>
   <si>
-    <t>神器大荒紫电的部件之二，是提升大荒紫电的必要材料。</t>
-  </si>
-  <si>
     <t>雷钻</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606013</t>
   </si>
   <si>
-    <t>神器大荒紫电的部件之三，是提升大荒紫电的必要材料。</t>
-  </si>
-  <si>
     <t>臂刃</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606014</t>
   </si>
   <si>
-    <t>神器大荒紫电的部件之四，是提升大荒紫电的必要材料。</t>
-  </si>
-  <si>
     <t>鬼王咒</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606015</t>
   </si>
   <si>
-    <t>神器十殿阎罗的部件之一，是提升十殿阎罗的必要材料。</t>
-  </si>
-  <si>
     <t>虎獠</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606016</t>
   </si>
   <si>
-    <t>神器十殿阎罗的部件之二，是提升十殿阎罗的必要材料。</t>
-  </si>
-  <si>
     <t>阎王炮</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606017</t>
   </si>
   <si>
-    <t>神器十殿阎罗的部件之三，是提升十殿阎罗的必要材料。</t>
-  </si>
-  <si>
     <t>狱火锤</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606018</t>
   </si>
   <si>
-    <t>神器十殿阎罗的部件之四，是提升十殿阎罗的必要材料。</t>
-  </si>
-  <si>
     <t>魔骨</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606019</t>
   </si>
   <si>
-    <t>神器十殿阎罗的部件之五，是提升十殿阎罗的必要材料。</t>
-  </si>
-  <si>
     <t>封魔匣</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606020</t>
   </si>
   <si>
-    <t>神器十殿阎罗的部件之六，是提升十殿阎罗的必要材料。</t>
-  </si>
-  <si>
     <t>龙雀刀鞘</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606021</t>
   </si>
   <si>
-    <t>神器大夏龙雀的部件之一，是提升大夏龙雀的必要材料。</t>
-  </si>
-  <si>
     <t>雀环</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606022</t>
   </si>
   <si>
-    <t>神器大夏龙雀的部件之二，是提升大夏龙雀的必要材料。</t>
-  </si>
-  <si>
     <t>龙印</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606023</t>
   </si>
   <si>
-    <t>神器大夏龙雀的部件之三，是提升大夏龙雀的必要材料。</t>
-  </si>
-  <si>
     <t>上古篆文</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606024</t>
   </si>
   <si>
-    <t>神器大夏龙雀的部件之四，是提升大夏龙雀的必要材料。</t>
-  </si>
-  <si>
     <t>吸魂石</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606025</t>
   </si>
   <si>
-    <t>神器大夏龙雀的部件之五，是提升大夏龙雀的必要材料。</t>
-  </si>
-  <si>
     <t>卷云链</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606026</t>
   </si>
   <si>
-    <t>神器大夏龙雀的部件之六，是提升大夏龙雀的必要材料。</t>
-  </si>
-  <si>
     <t>毁灭毒素</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606027</t>
   </si>
   <si>
-    <t>神器阿波普之刃的部件之一，是提升阿波普之刃的必要材料。</t>
-  </si>
-  <si>
     <t>阿波普之鞘</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606028</t>
   </si>
   <si>
-    <t>神器阿波普之刃的部件之二，是提升阿波普之刃的必要材料。</t>
-  </si>
-  <si>
     <t>翼骨</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606029</t>
   </si>
   <si>
-    <t>神器阿波普之刃的部件之三，是提升阿波普之刃的必要材料。</t>
-  </si>
-  <si>
     <t>冥神刻印</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606030</t>
   </si>
   <si>
-    <t>神器阿波普之刃的部件之四，是提升阿波普之刃的必要材料。</t>
-  </si>
-  <si>
     <t>灼热磨沙</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606031</t>
   </si>
   <si>
-    <t>神器阿波普之刃的部件之五，是提升阿波普之刃的必要材料。</t>
-  </si>
-  <si>
     <t>禁纹</t>
   </si>
   <si>
     <t>ui_dtex_Item_1606032</t>
-  </si>
-  <si>
-    <t>神器阿波普之刃的部件之六，是提升阿波普之刃的必要材料。</t>
   </si>
   <si>
     <t>SSR材料低级</t>
@@ -2435,10 +2345,6 @@
     <t>神器1-3</t>
   </si>
   <si>
-    <t>神器两仪剑的组成部件之三，是提升两仪剑的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>神器2-3</t>
   </si>
   <si>
@@ -2448,18 +2354,6 @@
     <t>神器2-5</t>
   </si>
   <si>
-    <t>神器无界之爪的部件之三，是提升无界之爪的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器无界之爪的部件之四，是提升无界之爪的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器无界之爪的部件之五，是提升无界之爪的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>神器3-5</t>
   </si>
   <si>
@@ -2482,38 +2376,6 @@
   </si>
   <si>
     <t>神器7-8</t>
-  </si>
-  <si>
-    <t>神器踏雪白狼的部件之五，是提升踏雪白狼的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器踏雪白狼的部件之六，是提升踏雪白狼的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器大荒紫电的部件之五，是提升大荒紫电的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器大荒紫电的部件之六，是提升大荒紫电的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器大夏龙雀的部件之七，是提升大夏龙雀的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器大夏龙雀的部件之八，是提升大夏龙雀的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器阿波普之刃的部件之七，是提升阿波普之刃的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器阿波普之刃的部件之八，是提升阿波普之刃的必要材料。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>绿色基础材料</t>
@@ -2623,6 +2485,169 @@
   </si>
   <si>
     <t>胡狼面具</t>
+  </si>
+  <si>
+    <t>神器两仪剑的组成部件——1，是提升两仪剑的必要材料。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器两仪剑的组成部件——2，是提升两仪剑的必要材料。</t>
+  </si>
+  <si>
+    <t>神器两仪剑的组成部件——3，是提升两仪剑的必要材料。</t>
+  </si>
+  <si>
+    <t>神器无界之爪的部件之——1，是提升无界之爪的必要材料。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器无界之爪的部件之——2，是提升无界之爪的必要材料。</t>
+  </si>
+  <si>
+    <t>神器无界之爪的部件之——3，是提升无界之爪的必要材料。</t>
+  </si>
+  <si>
+    <t>神器无界之爪的部件之——4，是提升无界之爪的必要材料。</t>
+  </si>
+  <si>
+    <t>神器无界之爪的部件之——5，是提升无界之爪的必要材料。</t>
+  </si>
+  <si>
+    <t>神器踏雪白狼的部件——1，是提升踏雪白狼的必要材料。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器踏雪白狼的部件——2，是提升踏雪白狼的必要材料。</t>
+  </si>
+  <si>
+    <t>神器踏雪白狼的部件——3，是提升踏雪白狼的必要材料。</t>
+  </si>
+  <si>
+    <t>神器踏雪白狼的部件——4，是提升踏雪白狼的必要材料。</t>
+  </si>
+  <si>
+    <t>神器踏雪白狼的部件——5，是提升踏雪白狼的必要材料。</t>
+  </si>
+  <si>
+    <t>神器踏雪白狼的部件——6，是提升踏雪白狼的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大荒紫电的部件——1，是提升大荒紫电的必要材料。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器大荒紫电的部件——2，是提升大荒紫电的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大荒紫电的部件——3，是提升大荒紫电的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大荒紫电的部件——4，是提升大荒紫电的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大荒紫电的部件——5，是提升大荒紫电的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大荒紫电的部件——6，是提升大荒紫电的必要材料。</t>
+  </si>
+  <si>
+    <t>神器十殿阎罗的部件——1，是提升十殿阎罗的必要材料。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器十殿阎罗的部件——2，是提升十殿阎罗的必要材料。</t>
+  </si>
+  <si>
+    <t>神器十殿阎罗的部件——3，是提升十殿阎罗的必要材料。</t>
+  </si>
+  <si>
+    <t>神器十殿阎罗的部件——4，是提升十殿阎罗的必要材料。</t>
+  </si>
+  <si>
+    <t>神器十殿阎罗的部件——5，是提升十殿阎罗的必要材料。</t>
+  </si>
+  <si>
+    <t>神器十殿阎罗的部件——6，是提升十殿阎罗的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大夏龙雀的部件——1，是提升大夏龙雀的必要材料。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器大夏龙雀的部件——2，是提升大夏龙雀的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大夏龙雀的部件——3，是提升大夏龙雀的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大夏龙雀的部件——4，是提升大夏龙雀的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大夏龙雀的部件——5，是提升大夏龙雀的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大夏龙雀的部件——6，是提升大夏龙雀的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大夏龙雀的部件——7，是提升大夏龙雀的必要材料。</t>
+  </si>
+  <si>
+    <t>神器大夏龙雀的部件——8，是提升大夏龙雀的必要材料。</t>
+  </si>
+  <si>
+    <t>神器阿波普之刃的部件——1，是提升阿波普之刃的必要材料。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器阿波普之刃的部件——2，是提升阿波普之刃的必要材料。</t>
+  </si>
+  <si>
+    <t>神器阿波普之刃的部件——3，是提升阿波普之刃的必要材料。</t>
+  </si>
+  <si>
+    <t>神器阿波普之刃的部件——4，是提升阿波普之刃的必要材料。</t>
+  </si>
+  <si>
+    <t>神器阿波普之刃的部件——5，是提升阿波普之刃的必要材料。</t>
+  </si>
+  <si>
+    <t>神器阿波普之刃的部件——6，是提升阿波普之刃的必要材料。</t>
+  </si>
+  <si>
+    <t>神器阿波普之刃的部件——7，是提升阿波普之刃的必要材料。</t>
+  </si>
+  <si>
+    <t>神器阿波普之刃的部件——8，是提升阿波普之刃的必要材料。</t>
+  </si>
+  <si>
+    <t>用于寄灵人天赋洗炼。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于寄灵人资质培养。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬精碎片</t>
+  </si>
+  <si>
+    <t>柠檬精碎片</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏铃碎片</t>
+  </si>
+  <si>
+    <t>常服夏铃碎片</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏玲的碎片，是其合成和升星的必要材料。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬精的碎片，是其合成和升星的必要材料。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3287,13 +3312,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W212"/>
+  <dimension ref="A1:W214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49:C90"/>
+      <selection pane="bottomRight" activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3408,7 +3433,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -3485,7 +3510,7 @@
         <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>54</v>
@@ -4241,7 +4266,7 @@
         <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -4405,7 +4430,7 @@
         <v>1603001</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>766</v>
+        <v>724</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>125</v>
@@ -5717,7 +5742,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>201</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -5725,10 +5750,10 @@
         <v>1603025</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -5772,7 +5797,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>201</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6006,7 +6031,7 @@
         <v>1606003</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>219</v>
@@ -6053,7 +6078,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>221</v>
+        <v>757</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6061,10 +6086,10 @@
         <v>1606004</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>783</v>
+        <v>741</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
@@ -6108,7 +6133,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>224</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6116,14 +6141,14 @@
         <v>1606005</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>784</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F51" s="3">
         <v>16</v>
@@ -6163,7 +6188,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6171,14 +6196,14 @@
         <v>1606006</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F52" s="3">
         <v>16</v>
@@ -6218,7 +6243,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>227</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6226,14 +6251,14 @@
         <v>1606007</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F53" s="3">
         <v>16</v>
@@ -6273,7 +6298,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>230</v>
+        <v>761</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6281,14 +6306,14 @@
         <v>1606008</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>785</v>
+        <v>743</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F54" s="3">
         <v>16</v>
@@ -6328,7 +6353,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6336,14 +6361,14 @@
         <v>1606009</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F55" s="3">
         <v>16</v>
@@ -6383,7 +6408,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6391,14 +6416,14 @@
         <v>1606010</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>787</v>
+        <v>745</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F56" s="3">
         <v>16</v>
@@ -6438,7 +6463,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6446,14 +6471,14 @@
         <v>1606011</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F57" s="3">
         <v>16</v>
@@ -6493,7 +6518,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3" t="s">
-        <v>233</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6501,14 +6526,14 @@
         <v>1606012</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>788</v>
+        <v>746</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
@@ -6548,7 +6573,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3" t="s">
-        <v>236</v>
+        <v>766</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6556,14 +6581,14 @@
         <v>1606013</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F59" s="3">
         <v>16</v>
@@ -6603,7 +6628,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3" t="s">
-        <v>239</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6611,14 +6636,14 @@
         <v>1606014</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
@@ -6658,7 +6683,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3" t="s">
-        <v>242</v>
+        <v>768</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6666,14 +6691,14 @@
         <v>1606015</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>790</v>
+        <v>748</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F61" s="3">
         <v>16</v>
@@ -6713,7 +6738,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6721,14 +6746,14 @@
         <v>1606016</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
@@ -6768,7 +6793,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6776,14 +6801,14 @@
         <v>1606017</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
@@ -6823,7 +6848,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3" t="s">
-        <v>245</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6831,14 +6856,14 @@
         <v>1606018</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
@@ -6878,7 +6903,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3" t="s">
-        <v>248</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6886,14 +6911,14 @@
         <v>1606019</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
@@ -6933,7 +6958,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3" t="s">
-        <v>251</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6941,14 +6966,14 @@
         <v>1606020</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
@@ -6988,7 +7013,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3" t="s">
-        <v>254</v>
+        <v>774</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -6996,14 +7021,14 @@
         <v>1606021</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>792</v>
+        <v>750</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
@@ -7043,7 +7068,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7051,14 +7076,14 @@
         <v>1606022</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>753</v>
+        <v>719</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>793</v>
+        <v>751</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
@@ -7098,7 +7123,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7106,14 +7131,14 @@
         <v>1606023</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
@@ -7153,7 +7178,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3" t="s">
-        <v>257</v>
+        <v>777</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7161,14 +7186,14 @@
         <v>1606024</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
@@ -7208,7 +7233,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3" t="s">
-        <v>260</v>
+        <v>778</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7216,14 +7241,14 @@
         <v>1606025</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>726</v>
+        <v>696</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
@@ -7263,7 +7288,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3" t="s">
-        <v>263</v>
+        <v>779</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7271,14 +7296,14 @@
         <v>1606026</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
@@ -7318,7 +7343,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3" t="s">
-        <v>266</v>
+        <v>780</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7326,14 +7351,14 @@
         <v>1606027</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>794</v>
+        <v>752</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
@@ -7373,7 +7398,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3" t="s">
-        <v>269</v>
+        <v>781</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7381,14 +7406,14 @@
         <v>1606028</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>729</v>
+        <v>699</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
@@ -7428,7 +7453,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3" t="s">
-        <v>272</v>
+        <v>782</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7436,14 +7461,14 @@
         <v>1606029</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
@@ -7483,7 +7508,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3" t="s">
-        <v>275</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7491,14 +7516,14 @@
         <v>1606030</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
@@ -7538,7 +7563,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3" t="s">
-        <v>278</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7546,14 +7571,14 @@
         <v>1606031</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
@@ -7593,7 +7618,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3" t="s">
-        <v>281</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7601,14 +7626,14 @@
         <v>1606032</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
@@ -7648,7 +7673,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3" t="s">
-        <v>284</v>
+        <v>786</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7656,14 +7681,14 @@
         <v>1606033</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
@@ -7703,7 +7728,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3" t="s">
-        <v>287</v>
+        <v>787</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7711,14 +7736,14 @@
         <v>1606034</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
@@ -7758,7 +7783,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
-        <v>290</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7766,14 +7791,14 @@
         <v>1606035</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>754</v>
+        <v>720</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>795</v>
+        <v>753</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
@@ -7813,7 +7838,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7821,14 +7846,14 @@
         <v>1606036</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>796</v>
+        <v>754</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
@@ -7868,7 +7893,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7876,14 +7901,14 @@
         <v>1606037</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
@@ -7923,7 +7948,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3" t="s">
-        <v>293</v>
+        <v>791</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7931,14 +7956,14 @@
         <v>1606038</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
@@ -7978,7 +8003,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>296</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -7986,14 +8011,14 @@
         <v>1606039</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
@@ -8033,7 +8058,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3" t="s">
-        <v>299</v>
+        <v>793</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8041,14 +8066,14 @@
         <v>1606040</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
@@ -8088,7 +8113,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
-        <v>302</v>
+        <v>794</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8096,14 +8121,14 @@
         <v>1606041</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
@@ -8143,7 +8168,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3" t="s">
-        <v>305</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8151,14 +8176,14 @@
         <v>1606042</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
@@ -8198,7 +8223,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3" t="s">
-        <v>308</v>
+        <v>796</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8206,14 +8231,14 @@
         <v>1606043</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>797</v>
+        <v>755</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
@@ -8253,7 +8278,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3" t="s">
-        <v>764</v>
+        <v>797</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8261,14 +8286,14 @@
         <v>1606044</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>757</v>
+        <v>723</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>798</v>
+        <v>756</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
@@ -8308,7 +8333,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3" t="s">
-        <v>765</v>
+        <v>798</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8316,14 +8341,14 @@
         <v>1607001</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
@@ -8363,7 +8388,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8371,14 +8396,14 @@
         <v>1607002</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
@@ -8418,7 +8443,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8426,14 +8451,14 @@
         <v>1607003</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
@@ -8473,7 +8498,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8481,14 +8506,14 @@
         <v>1607004</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
@@ -8528,7 +8553,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8536,14 +8561,14 @@
         <v>1607005</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
@@ -8583,7 +8608,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8591,14 +8616,14 @@
         <v>1607006</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
@@ -8638,7 +8663,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8646,14 +8671,14 @@
         <v>1607007</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
@@ -8693,7 +8718,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8701,14 +8726,14 @@
         <v>1607008</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
@@ -8748,7 +8773,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8756,14 +8781,14 @@
         <v>1607009</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
@@ -8803,7 +8828,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8811,14 +8836,14 @@
         <v>1608001</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
@@ -8858,7 +8883,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8866,14 +8891,14 @@
         <v>1608002</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="F101" s="3">
         <v>16</v>
@@ -8913,7 +8938,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8921,14 +8946,14 @@
         <v>1608003</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="F102" s="3">
         <v>16</v>
@@ -8968,7 +8993,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -8976,14 +9001,14 @@
         <v>1608004</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="F103" s="3">
         <v>16</v>
@@ -9023,7 +9048,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9031,14 +9056,14 @@
         <v>1608005</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="F104" s="3">
         <v>16</v>
@@ -9078,7 +9103,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9086,14 +9111,14 @@
         <v>1608006</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="F105" s="3">
         <v>16</v>
@@ -9133,7 +9158,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9141,14 +9166,14 @@
         <v>1608007</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="F106" s="3">
         <v>16</v>
@@ -9188,7 +9213,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9196,14 +9221,14 @@
         <v>1608008</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="F107" s="3">
         <v>16</v>
@@ -9243,7 +9268,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9251,14 +9276,14 @@
         <v>1608009</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="F108" s="3">
         <v>16</v>
@@ -9298,7 +9323,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9306,14 +9331,14 @@
         <v>1608010</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="F109" s="3">
         <v>16</v>
@@ -9353,7 +9378,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9361,14 +9386,14 @@
         <v>1608011</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="F110" s="3">
         <v>16</v>
@@ -9408,7 +9433,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9416,14 +9441,14 @@
         <v>1608012</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="F111" s="3">
         <v>16</v>
@@ -9463,7 +9488,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9471,14 +9496,14 @@
         <v>1608013</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="F112" s="3">
         <v>16</v>
@@ -9518,7 +9543,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9526,14 +9551,14 @@
         <v>1608014</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="F113" s="3">
         <v>16</v>
@@ -9573,7 +9598,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9581,14 +9606,14 @@
         <v>1608015</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="F114" s="3">
         <v>16</v>
@@ -9628,7 +9653,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9636,14 +9661,14 @@
         <v>1609001</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="F115" s="3">
         <v>16</v>
@@ -9683,7 +9708,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9691,14 +9716,14 @@
         <v>1609002</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="F116" s="3">
         <v>16</v>
@@ -9738,7 +9763,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9746,14 +9771,14 @@
         <v>1609003</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="F117" s="3">
         <v>16</v>
@@ -9793,7 +9818,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9801,14 +9826,14 @@
         <v>1609104</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="F118" s="3">
         <v>16</v>
@@ -9848,7 +9873,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9856,14 +9881,14 @@
         <v>1609105</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="F119" s="3">
         <v>16</v>
@@ -9903,7 +9928,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9911,14 +9936,14 @@
         <v>1609106</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="F120" s="3">
         <v>16</v>
@@ -9958,7 +9983,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -9966,14 +9991,14 @@
         <v>1610001</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="F121" s="3">
         <v>16</v>
@@ -10015,7 +10040,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10023,14 +10048,14 @@
         <v>1610002</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="F122" s="3">
         <v>16</v>
@@ -10072,7 +10097,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10080,14 +10105,14 @@
         <v>1610003</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="F123" s="3">
         <v>16</v>
@@ -10129,7 +10154,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10137,14 +10162,14 @@
         <v>1605001</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="F124" s="3">
         <v>16</v>
@@ -10177,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
@@ -10186,7 +10211,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10194,14 +10219,14 @@
         <v>1605002</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F125" s="3">
         <v>16</v>
@@ -10234,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="P125" s="3" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
@@ -10243,7 +10268,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10251,14 +10276,14 @@
         <v>1605003</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F126" s="3">
         <v>16</v>
@@ -10291,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
@@ -10300,7 +10325,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10308,14 +10333,14 @@
         <v>1605004</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F127" s="3">
         <v>16</v>
@@ -10348,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="P127" s="3" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
@@ -10357,7 +10382,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:23" ht="33" x14ac:dyDescent="0.2">
@@ -10365,14 +10390,14 @@
         <v>1605005</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F128" s="3">
         <v>16</v>
@@ -10405,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="P128" s="3" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
@@ -10414,7 +10439,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="1:23" ht="33" x14ac:dyDescent="0.2">
@@ -10422,14 +10447,14 @@
         <v>1605006</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F129" s="3">
         <v>16</v>
@@ -10462,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
@@ -10471,7 +10496,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10479,14 +10504,14 @@
         <v>1605007</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F130" s="3">
         <v>16</v>
@@ -10519,7 +10544,7 @@
         <v>1</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
@@ -10528,7 +10553,7 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10536,14 +10561,14 @@
         <v>1605008</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F131" s="3">
         <v>16</v>
@@ -10576,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="P131" s="3" t="s">
-        <v>770</v>
+        <v>728</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
@@ -10585,7 +10610,7 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10593,14 +10618,14 @@
         <v>1605009</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F132" s="3">
         <v>16</v>
@@ -10633,7 +10658,7 @@
         <v>1</v>
       </c>
       <c r="P132" s="3" t="s">
-        <v>778</v>
+        <v>736</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
@@ -10642,7 +10667,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10650,14 +10675,14 @@
         <v>1605010</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F133" s="3">
         <v>16</v>
@@ -10690,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="P133" s="3" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
@@ -10699,7 +10724,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10707,14 +10732,14 @@
         <v>1605011</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>779</v>
+        <v>737</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F134" s="3">
         <v>16</v>
@@ -10747,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="P134" s="3" t="s">
-        <v>779</v>
+        <v>737</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
@@ -10756,7 +10781,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10764,14 +10789,14 @@
         <v>1605012</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>768</v>
+        <v>726</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F135" s="3">
         <v>16</v>
@@ -10804,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="P135" s="3" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
@@ -10813,7 +10838,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10821,14 +10846,14 @@
         <v>1605013</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>774</v>
+        <v>732</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>774</v>
+        <v>732</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F136" s="3">
         <v>16</v>
@@ -10861,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
@@ -10870,7 +10895,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10878,14 +10903,14 @@
         <v>1605014</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>775</v>
+        <v>733</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>775</v>
+        <v>733</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F137" s="3">
         <v>16</v>
@@ -10918,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="P137" s="3" t="s">
-        <v>774</v>
+        <v>732</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
@@ -10927,7 +10952,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10935,14 +10960,14 @@
         <v>1605015</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>776</v>
+        <v>734</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>776</v>
+        <v>734</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F138" s="3">
         <v>16</v>
@@ -10975,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>775</v>
+        <v>733</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
@@ -10984,7 +11009,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -10992,14 +11017,14 @@
         <v>1605016</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>777</v>
+        <v>735</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>777</v>
+        <v>735</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F139" s="3">
         <v>16</v>
@@ -11032,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>776</v>
+        <v>734</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
@@ -11041,7 +11066,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11049,16 +11074,16 @@
         <v>1605017</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F140" s="3">
         <v>16</v>
@@ -11091,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
@@ -11100,7 +11125,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11108,14 +11133,14 @@
         <v>1605018</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="F141" s="3">
         <v>16</v>
@@ -11148,7 +11173,7 @@
         <v>1</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
@@ -11157,7 +11182,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -11165,14 +11190,14 @@
         <v>1611001</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="F142" s="3">
         <v>16</v>
@@ -11221,14 +11246,14 @@
         <v>1611002</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="F143" s="3">
         <v>16</v>
@@ -11277,14 +11302,14 @@
         <v>1611003</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="F144" s="3">
         <v>16</v>
@@ -11333,14 +11358,14 @@
         <v>1611004</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="F145" s="3">
         <v>16</v>
@@ -11389,14 +11414,14 @@
         <v>1611005</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="F146" s="3">
         <v>16</v>
@@ -11445,14 +11470,14 @@
         <v>1611006</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="F147" s="3">
         <v>16</v>
@@ -11501,14 +11526,14 @@
         <v>1611007</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="F148" s="3">
         <v>16</v>
@@ -11557,14 +11582,14 @@
         <v>1611008</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="F149" s="3">
         <v>16</v>
@@ -11613,14 +11638,14 @@
         <v>1611009</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="F150" s="3">
         <v>16</v>
@@ -11669,14 +11694,14 @@
         <v>1611010</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="F151" s="3">
         <v>16</v>
@@ -11725,14 +11750,14 @@
         <v>1611011</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="F152" s="3">
         <v>16</v>
@@ -11781,14 +11806,14 @@
         <v>1611012</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="F153" s="3">
         <v>16</v>
@@ -11837,14 +11862,14 @@
         <v>1611013</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="F154" s="3">
         <v>16</v>
@@ -11893,14 +11918,14 @@
         <v>1611014</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="F155" s="3">
         <v>16</v>
@@ -11949,14 +11974,14 @@
         <v>1611015</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="F156" s="3">
         <v>16</v>
@@ -12005,14 +12030,14 @@
         <v>1611016</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="F157" s="3">
         <v>16</v>
@@ -12061,14 +12086,14 @@
         <v>1611017</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="F158" s="3">
         <v>16</v>
@@ -12117,14 +12142,14 @@
         <v>1611018</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="F159" s="3">
         <v>16</v>
@@ -12173,14 +12198,14 @@
         <v>1611019</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="F160" s="3">
         <v>16</v>
@@ -12229,14 +12254,14 @@
         <v>1611020</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="F161" s="3">
         <v>16</v>
@@ -12285,14 +12310,14 @@
         <v>1611021</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="F162" s="3">
         <v>16</v>
@@ -12341,14 +12366,14 @@
         <v>1701001</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="F163" s="3">
         <v>17</v>
@@ -12388,7 +12413,7 @@
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
       <c r="W163" s="3" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12396,14 +12421,14 @@
         <v>1701002</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="F164" s="3">
         <v>17</v>
@@ -12443,7 +12468,7 @@
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
       <c r="W164" s="3" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12451,14 +12476,14 @@
         <v>1701003</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="F165" s="3">
         <v>17</v>
@@ -12498,7 +12523,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
       <c r="W165" s="3" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12506,14 +12531,14 @@
         <v>1701004</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="F166" s="3">
         <v>17</v>
@@ -12553,7 +12578,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
       <c r="W166" s="3" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12561,14 +12586,14 @@
         <v>1701005</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="F167" s="3">
         <v>17</v>
@@ -12608,7 +12633,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
       <c r="W167" s="3" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12616,14 +12641,14 @@
         <v>1701006</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="F168" s="3">
         <v>17</v>
@@ -12663,7 +12688,7 @@
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
       <c r="W168" s="3" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12671,14 +12696,14 @@
         <v>1701007</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="F169" s="3">
         <v>17</v>
@@ -12718,7 +12743,7 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
       <c r="W169" s="3" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12726,14 +12751,14 @@
         <v>1701008</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="F170" s="3">
         <v>17</v>
@@ -12773,7 +12798,7 @@
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
       <c r="W170" s="3" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12781,14 +12806,14 @@
         <v>1701009</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="F171" s="3">
         <v>17</v>
@@ -12828,7 +12853,7 @@
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
       <c r="W171" s="3" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12836,14 +12861,14 @@
         <v>1701010</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="F172" s="3">
         <v>17</v>
@@ -12883,7 +12908,7 @@
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
       <c r="W172" s="3" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12891,14 +12916,14 @@
         <v>1701011</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="F173" s="3">
         <v>17</v>
@@ -12938,7 +12963,7 @@
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
       <c r="W173" s="3" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -12946,14 +12971,14 @@
         <v>1701012</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="F174" s="3">
         <v>17</v>
@@ -12993,7 +13018,7 @@
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
       <c r="W174" s="3" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13001,14 +13026,14 @@
         <v>1701013</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="F175" s="3">
         <v>17</v>
@@ -13048,7 +13073,7 @@
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
       <c r="W175" s="3" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13056,14 +13081,14 @@
         <v>1701014</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="F176" s="3">
         <v>17</v>
@@ -13103,7 +13128,7 @@
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
       <c r="W176" s="3" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13111,14 +13136,14 @@
         <v>1701015</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="F177" s="3">
         <v>17</v>
@@ -13158,7 +13183,7 @@
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
       <c r="W177" s="3" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13166,14 +13191,14 @@
         <v>1701017</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="F178" s="3">
         <v>17</v>
@@ -13213,7 +13238,7 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
       <c r="W178" s="3" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13221,14 +13246,14 @@
         <v>1701020</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="F179" s="3">
         <v>17</v>
@@ -13268,7 +13293,7 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13276,14 +13301,14 @@
         <v>1701022</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="F180" s="3">
         <v>17</v>
@@ -13323,7 +13348,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13331,14 +13356,14 @@
         <v>1702001</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="F181" s="3">
         <v>17</v>
@@ -13378,7 +13403,7 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13386,14 +13411,14 @@
         <v>1702002</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="F182" s="3">
         <v>17</v>
@@ -13433,7 +13458,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13441,14 +13466,14 @@
         <v>1702003</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="F183" s="3">
         <v>17</v>
@@ -13488,7 +13513,7 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13496,14 +13521,14 @@
         <v>1702004</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="F184" s="3">
         <v>17</v>
@@ -13543,7 +13568,7 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13551,14 +13576,14 @@
         <v>1702005</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="F185" s="3">
         <v>17</v>
@@ -13598,7 +13623,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13606,14 +13631,14 @@
         <v>1702006</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="F186" s="3">
         <v>17</v>
@@ -13653,7 +13678,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13661,14 +13686,14 @@
         <v>1702007</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="F187" s="3">
         <v>17</v>
@@ -13708,7 +13733,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13716,14 +13741,14 @@
         <v>1702008</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="F188" s="3">
         <v>17</v>
@@ -13763,7 +13788,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13771,14 +13796,14 @@
         <v>1702009</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="F189" s="3">
         <v>17</v>
@@ -13818,7 +13843,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13826,14 +13851,14 @@
         <v>1702010</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="F190" s="3">
         <v>17</v>
@@ -13873,7 +13898,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13881,14 +13906,14 @@
         <v>1702011</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="F191" s="3">
         <v>17</v>
@@ -13928,7 +13953,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13936,14 +13961,14 @@
         <v>1702012</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="F192" s="3">
         <v>17</v>
@@ -13983,7 +14008,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -13991,14 +14016,14 @@
         <v>1702013</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="F193" s="3">
         <v>17</v>
@@ -14038,7 +14063,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14046,14 +14071,14 @@
         <v>1702014</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="F194" s="3">
         <v>17</v>
@@ -14093,7 +14118,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14101,14 +14126,14 @@
         <v>1702015</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="F195" s="3">
         <v>17</v>
@@ -14148,7 +14173,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14156,14 +14181,14 @@
         <v>1702016</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="F196" s="3">
         <v>17</v>
@@ -14203,7 +14228,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14211,14 +14236,14 @@
         <v>1702017</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="F197" s="3">
         <v>17</v>
@@ -14258,7 +14283,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14266,14 +14291,14 @@
         <v>1702018</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="F198" s="3">
         <v>17</v>
@@ -14313,7 +14338,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14321,14 +14346,14 @@
         <v>1702019</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="F199" s="3">
         <v>17</v>
@@ -14368,7 +14393,7 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14376,14 +14401,14 @@
         <v>1702020</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="F200" s="3">
         <v>17</v>
@@ -14423,7 +14448,7 @@
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14431,14 +14456,14 @@
         <v>1702021</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="F201" s="3">
         <v>17</v>
@@ -14478,7 +14503,7 @@
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
@@ -14486,14 +14511,14 @@
         <v>1702022</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="F202" s="3">
         <v>17</v>
@@ -14533,34 +14558,34 @@
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>2000001</v>
+        <v>1702050</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>638</v>
+        <v>804</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>638</v>
+        <v>803</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>634</v>
+        <v>497</v>
       </c>
       <c r="F203" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G203" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I203" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J203" s="3">
         <v>0</v>
@@ -14582,44 +14607,40 @@
       </c>
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
-      <c r="R203" s="3">
-        <v>2</v>
-      </c>
+      <c r="R203" s="3"/>
       <c r="S203" s="3"/>
-      <c r="T203" s="7" t="s">
-        <v>639</v>
-      </c>
+      <c r="T203" s="3"/>
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3" t="s">
-        <v>69</v>
+        <v>805</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>2000002</v>
+        <v>1701049</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>640</v>
+        <v>802</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>640</v>
+        <v>801</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>634</v>
+        <v>579</v>
       </c>
       <c r="F204" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G204" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I204" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="J204" s="3">
         <v>0</v>
@@ -14641,33 +14662,28 @@
       </c>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
-      <c r="R204" s="3">
-        <v>1</v>
-      </c>
-      <c r="S204" s="3">
-        <f>1*3600</f>
-        <v>3600</v>
-      </c>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
       <c r="T204" s="3"/>
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3" t="s">
-        <v>69</v>
+        <v>806</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="F205" s="3">
         <v>20</v>
@@ -14702,10 +14718,12 @@
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
       <c r="R205" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S205" s="3"/>
-      <c r="T205" s="3"/>
+      <c r="T205" s="7" t="s">
+        <v>609</v>
+      </c>
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3" t="s">
@@ -14714,20 +14732,20 @@
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>2100003</v>
+        <v>2000002</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="F206" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G206" s="3">
         <v>3</v>
@@ -14759,9 +14777,12 @@
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
       <c r="R206" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S206" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="S206" s="3">
+        <f>1*3600</f>
+        <v>3600</v>
+      </c>
       <c r="T206" s="3"/>
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
@@ -14771,20 +14792,20 @@
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>2100004</v>
+        <v>2000003</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="F207" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G207" s="3">
         <v>3</v>
@@ -14816,11 +14837,9 @@
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
       <c r="R207" s="3">
-        <v>1</v>
-      </c>
-      <c r="S207" s="3">
-        <v>600</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="S207" s="3"/>
       <c r="T207" s="3"/>
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
@@ -14830,29 +14849,29 @@
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>6000001</v>
+        <v>2100003</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>646</v>
+        <v>612</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="F208" s="3">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G208" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I208" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" s="3">
         <v>0</v>
@@ -14864,15 +14883,19 @@
         <v>1001</v>
       </c>
       <c r="M208" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N208" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="N208" s="3">
+        <v>3</v>
+      </c>
       <c r="O208" s="3">
         <v>0</v>
       </c>
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
-      <c r="R208" s="3"/>
+      <c r="R208" s="3">
+        <v>-1</v>
+      </c>
       <c r="S208" s="3"/>
       <c r="T208" s="3"/>
       <c r="U208" s="3"/>
@@ -14883,29 +14906,29 @@
     </row>
     <row r="209" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>6000002</v>
+        <v>2100004</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="F209" s="3">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G209" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I209" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="3">
         <v>0</v>
@@ -14917,16 +14940,22 @@
         <v>1001</v>
       </c>
       <c r="M209" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N209" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="N209" s="3">
+        <v>3</v>
+      </c>
       <c r="O209" s="3">
         <v>0</v>
       </c>
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
-      <c r="R209" s="3"/>
-      <c r="S209" s="3"/>
+      <c r="R209" s="3">
+        <v>1</v>
+      </c>
+      <c r="S209" s="3">
+        <v>600</v>
+      </c>
       <c r="T209" s="3"/>
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
@@ -14936,17 +14965,17 @@
     </row>
     <row r="210" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>6000003</v>
+        <v>6000001</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="F210" s="3">
         <v>60</v>
@@ -14989,17 +15018,17 @@
     </row>
     <row r="211" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>6000004</v>
+        <v>6000002</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="F211" s="3">
         <v>60</v>
@@ -15042,17 +15071,17 @@
     </row>
     <row r="212" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>6000005</v>
+        <v>6000003</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>658</v>
+        <v>623</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="F212" s="3">
         <v>60</v>
@@ -15090,6 +15119,112 @@
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>6000004</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F213" s="3">
+        <v>60</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0</v>
+      </c>
+      <c r="J213" s="3">
+        <v>0</v>
+      </c>
+      <c r="K213" s="3">
+        <v>0</v>
+      </c>
+      <c r="L213" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M213" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3">
+        <v>0</v>
+      </c>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="3"/>
+      <c r="S213" s="3"/>
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+      <c r="W213" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>6000005</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F214" s="3">
+        <v>60</v>
+      </c>
+      <c r="G214" s="3">
+        <v>1</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I214" s="3">
+        <v>0</v>
+      </c>
+      <c r="J214" s="3">
+        <v>0</v>
+      </c>
+      <c r="K214" s="3">
+        <v>0</v>
+      </c>
+      <c r="L214" s="3">
+        <v>1001</v>
+      </c>
+      <c r="M214" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3">
+        <v>0</v>
+      </c>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="3"/>
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
+      <c r="W214" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -15128,22 +15263,22 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -15151,22 +15286,22 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="C2" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
@@ -15177,25 +15312,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -15203,7 +15338,7 @@
         <v>1603001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="C4" s="3">
         <v>1401011</v>
@@ -15221,7 +15356,7 @@
         <v>1603002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="C5" s="3">
         <v>1401011</v>
@@ -15239,7 +15374,7 @@
         <v>1603003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="C6" s="3">
         <v>1401011</v>
@@ -15257,7 +15392,7 @@
         <v>1603004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="C7" s="3">
         <v>1401011</v>
@@ -15275,7 +15410,7 @@
         <v>1603005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="C8" s="3">
         <v>1401011</v>
@@ -15293,7 +15428,7 @@
         <v>1603006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="C9" s="3">
         <v>1401011</v>
@@ -15311,7 +15446,7 @@
         <v>1603007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="C10" s="3">
         <v>1401011</v>
@@ -15329,7 +15464,7 @@
         <v>1603008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="C11" s="3">
         <v>1401011</v>
@@ -15347,7 +15482,7 @@
         <v>1603009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="C12" s="3">
         <v>1401011</v>
@@ -15365,7 +15500,7 @@
         <v>1603010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="C13" s="3">
         <v>1401011</v>
@@ -15383,7 +15518,7 @@
         <v>1603011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="C14" s="3">
         <v>1401011</v>
@@ -15401,7 +15536,7 @@
         <v>1603012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="C15" s="3">
         <v>1401011</v>
@@ -15419,7 +15554,7 @@
         <v>1603013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="C16" s="3">
         <v>1401011</v>
@@ -15437,7 +15572,7 @@
         <v>1603014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="C17" s="3">
         <v>1401011</v>
@@ -15455,7 +15590,7 @@
         <v>1603015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="C18" s="3">
         <v>1401011</v>
@@ -15473,7 +15608,7 @@
         <v>1603016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="C19" s="3">
         <v>1401011</v>
@@ -15491,7 +15626,7 @@
         <v>1603017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="C20" s="3">
         <v>1401011</v>
@@ -15509,7 +15644,7 @@
         <v>1603018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="C21" s="3">
         <v>1401011</v>
@@ -15527,7 +15662,7 @@
         <v>1603019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="C22" s="3">
         <v>1401011</v>
@@ -15545,7 +15680,7 @@
         <v>1603020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="C23" s="3">
         <v>1401011</v>
@@ -15563,7 +15698,7 @@
         <v>1603021</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="C24" s="3">
         <v>1401011</v>
@@ -15707,7 +15842,7 @@
         <v>1606004</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="3">
         <v>1401011</v>
@@ -15725,7 +15860,7 @@
         <v>1606005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C33" s="3">
         <v>1401011</v>
@@ -15743,7 +15878,7 @@
         <v>1606006</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C34" s="3">
         <v>1401011</v>
@@ -15761,7 +15896,7 @@
         <v>1606007</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3">
         <v>1401011</v>
@@ -15779,7 +15914,7 @@
         <v>1606008</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C36" s="3">
         <v>1401011</v>
@@ -15797,7 +15932,7 @@
         <v>1606009</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C37" s="3">
         <v>1401011</v>
@@ -15815,7 +15950,7 @@
         <v>1606010</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C38" s="3">
         <v>1401011</v>
@@ -15833,7 +15968,7 @@
         <v>1606011</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C39" s="3">
         <v>1401011</v>
@@ -15851,7 +15986,7 @@
         <v>1606012</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C40" s="3">
         <v>1401011</v>
@@ -15869,7 +16004,7 @@
         <v>1606013</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C41" s="3">
         <v>1401011</v>
@@ -15887,7 +16022,7 @@
         <v>1606014</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C42" s="3">
         <v>1401011</v>
@@ -15905,7 +16040,7 @@
         <v>1606015</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C43" s="3">
         <v>1401011</v>
@@ -15923,7 +16058,7 @@
         <v>1606016</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C44" s="3">
         <v>1401011</v>
@@ -15941,7 +16076,7 @@
         <v>1606017</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C45" s="3">
         <v>1401011</v>
@@ -15959,7 +16094,7 @@
         <v>1606018</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C46" s="3">
         <v>1401011</v>
@@ -15977,7 +16112,7 @@
         <v>1606019</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C47" s="3">
         <v>1401011</v>
@@ -15995,7 +16130,7 @@
         <v>1606020</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C48" s="3">
         <v>1401011</v>
@@ -16013,7 +16148,7 @@
         <v>1606021</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C49" s="3">
         <v>1401011</v>
@@ -16031,7 +16166,7 @@
         <v>1606022</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C50" s="3">
         <v>1401011</v>
@@ -16049,7 +16184,7 @@
         <v>1606023</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C51" s="3">
         <v>1401011</v>
@@ -16067,7 +16202,7 @@
         <v>1606024</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C52" s="3">
         <v>1401011</v>
@@ -16085,7 +16220,7 @@
         <v>1606025</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C53" s="3">
         <v>1401011</v>
@@ -16103,7 +16238,7 @@
         <v>1606026</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C54" s="3">
         <v>1401011</v>
@@ -16121,7 +16256,7 @@
         <v>1606027</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C55" s="3">
         <v>1401011</v>
@@ -16139,7 +16274,7 @@
         <v>1606028</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C56" s="3">
         <v>1401011</v>
@@ -16157,7 +16292,7 @@
         <v>1606029</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="C57" s="3">
         <v>1401011</v>
@@ -16175,7 +16310,7 @@
         <v>1606030</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C58" s="3">
         <v>1401011</v>
@@ -16193,7 +16328,7 @@
         <v>1606031</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C59" s="3">
         <v>1401011</v>
@@ -16211,7 +16346,7 @@
         <v>1606032</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C60" s="3">
         <v>1401011</v>
@@ -16229,7 +16364,7 @@
         <v>1607001</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C61" s="3">
         <v>1401011</v>
@@ -16247,7 +16382,7 @@
         <v>1607002</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="C62" s="3">
         <v>1401011</v>
@@ -16265,7 +16400,7 @@
         <v>1607003</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C63" s="3">
         <v>1401011</v>
@@ -16283,7 +16418,7 @@
         <v>1607004</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C64" s="3">
         <v>1401011</v>
@@ -16301,7 +16436,7 @@
         <v>1607005</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="C65" s="3">
         <v>1401011</v>
@@ -16319,7 +16454,7 @@
         <v>1607006</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C66" s="3">
         <v>1401011</v>
@@ -16337,7 +16472,7 @@
         <v>1607007</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C67" s="3">
         <v>1401011</v>
@@ -16355,7 +16490,7 @@
         <v>1607008</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="C68" s="3">
         <v>1401011</v>
@@ -16373,7 +16508,7 @@
         <v>1607009</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="C69" s="3">
         <v>1401011</v>
@@ -16391,7 +16526,7 @@
         <v>1608001</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="C70" s="3">
         <v>1401011</v>
@@ -16409,7 +16544,7 @@
         <v>1608002</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="C71" s="3">
         <v>1401011</v>
@@ -16427,7 +16562,7 @@
         <v>1608003</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="C72" s="3">
         <v>1401011</v>
@@ -16445,7 +16580,7 @@
         <v>1608004</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C73" s="3">
         <v>1401011</v>
@@ -16463,7 +16598,7 @@
         <v>1608005</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="C74" s="3">
         <v>1401011</v>
@@ -16481,7 +16616,7 @@
         <v>1608006</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C75" s="3">
         <v>1401011</v>
@@ -16499,7 +16634,7 @@
         <v>1608007</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="C76" s="3">
         <v>1401011</v>
@@ -16517,7 +16652,7 @@
         <v>1608008</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="C77" s="3">
         <v>1401011</v>
@@ -16535,7 +16670,7 @@
         <v>1608009</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="C78" s="3">
         <v>1401011</v>
@@ -16553,7 +16688,7 @@
         <v>1608010</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="C79" s="3">
         <v>1401011</v>
@@ -16571,7 +16706,7 @@
         <v>1608011</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="C80" s="3">
         <v>1401011</v>
@@ -16589,7 +16724,7 @@
         <v>1608012</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="C81" s="3">
         <v>1401011</v>
@@ -16607,7 +16742,7 @@
         <v>1608013</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="C82" s="3">
         <v>1401011</v>
@@ -16625,7 +16760,7 @@
         <v>1608014</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="C83" s="3">
         <v>1401011</v>
@@ -16643,7 +16778,7 @@
         <v>1608015</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="C84" s="3">
         <v>1401011</v>
@@ -16661,7 +16796,7 @@
         <v>1609001</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="C85" s="3">
         <v>1401011</v>
@@ -16679,7 +16814,7 @@
         <v>1609002</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C86" s="3">
         <v>1401011</v>
@@ -16697,7 +16832,7 @@
         <v>1609003</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="C87" s="3">
         <v>1401011</v>
@@ -16737,22 +16872,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -16760,7 +16895,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -16769,7 +16904,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -16783,22 +16918,22 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -16813,7 +16948,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
